--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67A8DB4-E089-4EA9-88C4-AB02F74173DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C8A2C32-387D-4A4E-9B08-19A6AA98EEA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
     <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="465">
   <si>
     <t>Equity</t>
   </si>
@@ -1451,12 +1450,18 @@
   </si>
   <si>
     <t>ESİN</t>
+  </si>
+  <si>
+    <t>Dengi USD</t>
+  </si>
+  <si>
+    <t>NAKIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1593,7 +1598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1639,6 +1644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,7 +1710,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1899,12 +1910,20 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
-    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2408,40 +2427,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926F4787-0CD8-48BA-824A-0B2CD62EE859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:X39"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2495,7 +2514,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2525,7 +2544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
@@ -2574,7 +2593,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
@@ -2617,7 +2636,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2658,7 +2677,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
@@ -2698,7 +2717,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -2728,7 +2747,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
@@ -2760,7 +2779,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2782,7 +2801,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2834,7 +2853,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2896,7 +2915,7 @@
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>13</v>
@@ -2957,7 +2976,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="13"/>
       <c r="F22" s="12"/>
@@ -3000,7 +3019,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3022,7 +3041,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D25" s="23">
         <v>9675887</v>
       </c>
@@ -3056,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3078,7 +3097,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3108,7 +3127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" s="11" t="s">
         <v>0</v>
@@ -3156,7 +3175,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="11" t="s">
         <v>1</v>
@@ -3198,7 +3217,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="30" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
       <c r="E30" s="11" t="s">
         <v>2</v>
@@ -3239,7 +3258,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
       <c r="E31" s="11" t="s">
         <v>3</v>
@@ -3287,7 +3306,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="6"/>
     </row>
-    <row r="32" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="E32" s="11" t="s">
         <v>4</v>
@@ -3317,7 +3336,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="11" t="s">
         <v>5</v>
@@ -3349,7 +3368,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="6"/>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3371,7 +3390,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="6"/>
     </row>
-    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13" t="s">
@@ -3421,7 +3440,7 @@
       </c>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" s="13" t="s">
         <v>16</v>
@@ -3482,7 +3501,7 @@
       </c>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="13" t="s">
         <v>16</v>
@@ -3539,7 +3558,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="13" t="s">
         <v>16</v>
@@ -3595,7 +3614,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3624,37 +3643,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAAB90-A191-4B4F-9A7F-947B1B7CEFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -3665,7 +3684,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -3704,7 +3723,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -3721,7 +3740,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -3739,7 +3758,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -3756,10 +3775,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -3776,7 +3795,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -3792,7 +3811,7 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F11" s="98" t="s">
         <v>439</v>
       </c>
@@ -3812,7 +3831,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F12" s="98"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
@@ -3830,7 +3849,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
       <c r="F13" s="98"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
@@ -3857,7 +3876,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F14" s="98"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
@@ -3894,7 +3913,7 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F15" s="98"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
@@ -3925,7 +3944,7 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
@@ -3942,7 +3961,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -3962,7 +3981,7 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>446</v>
       </c>
@@ -3983,7 +4002,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4008,7 +4027,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4031,7 +4050,7 @@
         <v>1992.85</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4052,7 +4071,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F22" s="98" t="s">
         <v>445</v>
       </c>
@@ -4087,7 +4106,7 @@
         <v>-200.36504643962871</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F23" s="98"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
@@ -4113,7 +4132,7 @@
         <v>64.702274549250944</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F24" s="98"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
@@ -4139,7 +4158,7 @@
         <v>64.702274549250944</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F25" s="98"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
@@ -4165,7 +4184,7 @@
         <v>401.83182838638976</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F26" s="98"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
@@ -4189,7 +4208,7 @@
         <v>490.91134796585743</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F27" s="98"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
@@ -4222,28 +4241,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B82FAE-4EF4-4047-8CD2-C2C2EAB6C6F8}">
-  <dimension ref="A4:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A6" sqref="A6:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -4255,15 +4274,12 @@
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
       <c r="I4" s="66">
-        <f ca="1">K5</f>
-        <v>45367</v>
+        <f ca="1">K7</f>
+        <v>45368</v>
       </c>
       <c r="J4" s="56"/>
-      <c r="K4" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -4279,16 +4295,12 @@
         <v>44</v>
       </c>
       <c r="I5" s="36">
-        <v>32.03</v>
+        <v>32.202500000000001</v>
       </c>
       <c r="J5" s="56"/>
-      <c r="K5" s="65">
-        <f ca="1">TODAY()</f>
-        <v>45367</v>
-      </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="99" t="s">
         <v>39</v>
       </c>
@@ -4301,10 +4313,12 @@
       <c r="H6" s="55"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
-      <c r="K6" s="35"/>
+      <c r="K6" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -4315,10 +4329,13 @@
       <c r="H7" s="36"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="65">
+        <f ca="1">TODAY()</f>
+        <v>45368</v>
+      </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4334,7 +4351,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -4368,7 +4385,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -4390,27 +4407,28 @@
         <v>0.5410245403030417</v>
       </c>
       <c r="G10" s="36">
-        <v>0.17799599999999999</v>
+        <f>'Rabia Çakmak'!H10</f>
+        <v>0.17999000000000001</v>
       </c>
       <c r="H10" s="39">
-        <f t="shared" ref="H10:H15" ca="1" si="2">$K$5</f>
-        <v>45367</v>
-      </c>
-      <c r="I10" s="37">
-        <f t="shared" ref="I10:I15" si="3">B10*G10</f>
-        <v>199767.75873599999</v>
-      </c>
-      <c r="J10" s="37">
-        <f t="shared" ref="J10:J15" si="4">I10-E10</f>
-        <v>5007.7739920000022</v>
-      </c>
-      <c r="K10" s="46">
-        <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
-        <v>2.5712540481980461E-2</v>
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I10" s="105">
+        <f t="shared" ref="I10:I15" si="2">B10*G10</f>
+        <v>202005.65684000001</v>
+      </c>
+      <c r="J10" s="105">
+        <f t="shared" ref="J10:J15" si="3">I10-E10</f>
+        <v>7245.6720960000239</v>
+      </c>
+      <c r="K10" s="108">
+        <f t="shared" ref="K10:K15" si="4">I10/E10-1</f>
+        <v>3.7203084121843588E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -4432,27 +4450,28 @@
         <v>0.26669735883456852</v>
       </c>
       <c r="G11" s="36">
-        <v>0.202096</v>
+        <f>'Rabia Çakmak'!H11</f>
+        <v>0.20319799999999999</v>
       </c>
       <c r="H11" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
-      </c>
-      <c r="I11" s="37">
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I11" s="105">
+        <f t="shared" si="2"/>
+        <v>97595.999400000001</v>
+      </c>
+      <c r="J11" s="105">
         <f t="shared" si="3"/>
-        <v>97066.708799999993</v>
-      </c>
-      <c r="J11" s="37">
+        <v>1589.3126999999949</v>
+      </c>
+      <c r="K11" s="108">
         <f t="shared" si="4"/>
-        <v>1060.0220999999874</v>
-      </c>
-      <c r="K11" s="46">
-        <f t="shared" si="5"/>
-        <v>1.1041127825943242E-2</v>
+        <v>1.655418757410354E-2</v>
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -4474,27 +4493,28 @@
         <v>0.17590045982923255</v>
       </c>
       <c r="G12" s="36">
-        <v>3.115729</v>
+        <f>'Rabia Çakmak'!H12</f>
+        <v>3.068219</v>
       </c>
       <c r="H12" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
-      </c>
-      <c r="I12" s="37">
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I12" s="105">
+        <f t="shared" si="2"/>
+        <v>63079.514421</v>
+      </c>
+      <c r="J12" s="105">
         <f t="shared" si="3"/>
-        <v>64056.272511000003</v>
-      </c>
-      <c r="J12" s="37">
+        <v>-241.77383999999438</v>
+      </c>
+      <c r="K12" s="108">
         <f t="shared" si="4"/>
-        <v>734.98425000000861</v>
-      </c>
-      <c r="K12" s="46">
-        <f t="shared" si="5"/>
-        <v>1.1607221997292916E-2</v>
+        <v>-3.8182078514170659E-3</v>
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -4516,27 +4536,28 @@
         <v>9.796798739838462E-3</v>
       </c>
       <c r="G13" s="36">
-        <v>3.3077999999999999</v>
+        <f>'Rabia Çakmak'!H13</f>
+        <v>3.2882060000000002</v>
       </c>
       <c r="H13" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
-      </c>
-      <c r="I13" s="37">
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I13" s="105">
+        <f t="shared" si="2"/>
+        <v>3580.8563340000001</v>
+      </c>
+      <c r="J13" s="105">
         <f t="shared" si="3"/>
-        <v>3602.1941999999999</v>
-      </c>
-      <c r="J13" s="37">
+        <v>54.169038</v>
+      </c>
+      <c r="K13" s="108">
         <f t="shared" si="4"/>
-        <v>75.506903999999849</v>
-      </c>
-      <c r="K13" s="46">
-        <f t="shared" si="5"/>
-        <v>2.141014999703561E-2</v>
+        <v>1.5359750795438831E-2</v>
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -4558,27 +4579,28 @@
         <v>6.3871094628491186E-3</v>
       </c>
       <c r="G14" s="36">
-        <v>7.4480079999999997</v>
+        <f>'Rabia Çakmak'!H14</f>
+        <v>7.4803600000000001</v>
       </c>
       <c r="H14" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
-      </c>
-      <c r="I14" s="37">
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I14" s="105">
+        <f t="shared" si="2"/>
+        <v>2356.3134</v>
+      </c>
+      <c r="J14" s="105">
         <f t="shared" si="3"/>
-        <v>2346.1225199999999</v>
-      </c>
-      <c r="J14" s="37">
+        <v>57.058469999999943</v>
+      </c>
+      <c r="K14" s="108">
         <f t="shared" si="4"/>
-        <v>46.867589999999836</v>
-      </c>
-      <c r="K14" s="46">
-        <f t="shared" si="5"/>
-        <v>2.0383816247813824E-2</v>
+        <v>2.4816069438633237E-2</v>
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -4600,27 +4622,27 @@
         <v>1.9373283046967237E-4</v>
       </c>
       <c r="G15" s="36">
-        <v>2.4513099999999999</v>
+        <v>2.4213770000000001</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
-      </c>
-      <c r="I15" s="37">
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I15" s="105">
+        <f t="shared" si="2"/>
+        <v>70.219932999999997</v>
+      </c>
+      <c r="J15" s="105">
         <f t="shared" si="3"/>
-        <v>71.087989999999991</v>
-      </c>
-      <c r="J15" s="37">
+        <v>0.47928299999999524</v>
+      </c>
+      <c r="K15" s="108">
         <f t="shared" si="4"/>
-        <v>1.3473399999999884</v>
-      </c>
-      <c r="K15" s="46">
-        <f t="shared" si="5"/>
-        <v>1.9319292263550558E-2</v>
+        <v>6.8723621015862602E-3</v>
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -4634,12 +4656,12 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="47">
+      <c r="E17" s="106">
         <f>SUM(E10:E15)</f>
         <v>359983.64258099999</v>
       </c>
@@ -4649,140 +4671,138 @@
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="47">
+      <c r="I17" s="106">
         <f>SUM(I10:I15)</f>
-        <v>366910.14475699991</v>
-      </c>
-      <c r="J17" s="47">
+        <v>368688.56032800005</v>
+      </c>
+      <c r="J17" s="106">
         <f>SUM(J10:J15)</f>
-        <v>6926.5021759999981</v>
-      </c>
-      <c r="K17" s="50">
+        <v>8704.917747000025</v>
+      </c>
+      <c r="K17" s="107">
         <f>I17/E17-1</f>
-        <v>1.924115808801341E-2</v>
+        <v>2.4181425813094792E-2</v>
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>48</v>
-      </c>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="H19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B20" s="35">
         <v>5</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C20" s="51">
         <f>1503.75/5</f>
         <v>300.75</v>
       </c>
-      <c r="D19" s="39">
-        <v>45355</v>
-      </c>
-      <c r="E19" s="51">
-        <f>B19*C19</f>
-        <v>1503.75</v>
-      </c>
-      <c r="F19" s="35">
-        <v>100</v>
-      </c>
-      <c r="G19" s="51">
-        <v>303.36500000000001</v>
-      </c>
-      <c r="H19" s="39">
-        <f ca="1">$K$5</f>
-        <v>45367</v>
-      </c>
-      <c r="I19" s="51">
-        <f>B19*G19</f>
-        <v>1516.825</v>
-      </c>
-      <c r="J19" s="51">
-        <f>I19-E19</f>
-        <v>13.075000000000045</v>
-      </c>
-      <c r="K19" s="46">
-        <f>I19/E19-1</f>
-        <v>8.6949293433085106E-3</v>
-      </c>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="35">
-        <v>5</v>
-      </c>
-      <c r="C20" s="37">
-        <f>C19*E5</f>
-        <v>9440.5424999999996</v>
-      </c>
       <c r="D20" s="39">
         <v>45355</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="51">
         <f>B20*C20</f>
-        <v>47202.712499999994</v>
-      </c>
-      <c r="F20" s="58">
+        <v>1503.75</v>
+      </c>
+      <c r="F20" s="35">
         <v>100</v>
       </c>
-      <c r="G20" s="47">
-        <f>G19*I5</f>
-        <v>9716.7809500000003</v>
+      <c r="G20" s="51">
+        <v>303.36500000000001</v>
       </c>
       <c r="H20" s="39">
-        <f ca="1">$K$5</f>
-        <v>45367</v>
-      </c>
-      <c r="I20" s="37">
-        <f>I19*$I$5</f>
-        <v>48583.904750000002</v>
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I20" s="51">
+        <f>B20*G20</f>
+        <v>1516.825</v>
       </c>
       <c r="J20" s="51">
-        <f>J19*$I$5</f>
-        <v>418.79225000000145</v>
+        <f>I20-E20</f>
+        <v>13.075000000000045</v>
       </c>
       <c r="K20" s="46">
         <f>I20/E20-1</f>
-        <v>2.9260866099591443E-2</v>
+        <v>8.6949293433085106E-3</v>
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>52</v>
-      </c>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="35">
+        <v>5</v>
+      </c>
+      <c r="C21" s="37">
+        <f>C20*E5</f>
+        <v>9440.5424999999996</v>
+      </c>
+      <c r="D21" s="39">
+        <v>45355</v>
+      </c>
+      <c r="E21" s="47">
+        <f>B21*C21</f>
+        <v>47202.712499999994</v>
+      </c>
+      <c r="F21" s="58">
+        <v>100</v>
+      </c>
+      <c r="G21" s="47">
+        <f>G20*I5</f>
+        <v>9769.1114125000004</v>
+      </c>
+      <c r="H21" s="39">
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I21" s="37">
+        <f>I20*$I$5</f>
+        <v>48845.557062500004</v>
+      </c>
+      <c r="J21" s="51">
+        <f>J20*$I$5</f>
+        <v>421.04768750000147</v>
+      </c>
+      <c r="K21" s="46">
+        <f>I21/E21-1</f>
+        <v>3.4804028740933246E-2</v>
+      </c>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
@@ -4790,73 +4810,90 @@
       <c r="F22" s="57"/>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
-      <c r="I22" s="53">
-        <f>1550.05-I19</f>
-        <v>33.224999999999909</v>
-      </c>
+      <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>52</v>
+      </c>
       <c r="B23" s="57"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="103">
+        <v>1550</v>
+      </c>
       <c r="F23" s="57"/>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
       <c r="I23" s="53">
-        <f>I22*I5</f>
-        <v>1064.1967499999971</v>
+        <f>1550.05-I20</f>
+        <v>33.224999999999909</v>
       </c>
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="52">
-        <f ca="1">$K$5</f>
-        <v>45367</v>
-      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="53">
-        <f>I17+I20+I23</f>
-        <v>416558.2462569999</v>
-      </c>
-      <c r="J24" s="53">
-        <f>J20+J17</f>
-        <v>7345.2944259999995</v>
-      </c>
-      <c r="K24" s="54">
-        <f>J24/I24</f>
-        <v>1.7633294964153091E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <f>I23*I5</f>
+        <v>1069.9280624999972</v>
+      </c>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="61"/>
       <c r="B25" s="57"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="52">
+        <f ca="1">$K$7</f>
+        <v>45368</v>
+      </c>
+      <c r="I25" s="53">
+        <f>I17+I21+I24</f>
+        <v>418604.04545300006</v>
+      </c>
+      <c r="J25" s="53">
+        <f>J21+J17</f>
+        <v>9125.9654345000272</v>
+      </c>
+      <c r="K25" s="54">
+        <f>J25/I25</f>
+        <v>2.1800948972254187E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="61"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="53">
-        <f>J24*0.07</f>
-        <v>514.17060981999998</v>
-      </c>
-      <c r="K25" s="57"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="53">
+        <f>J25*0.07</f>
+        <v>638.817580415002</v>
+      </c>
+      <c r="K26" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4870,7 +4907,7 @@
           <xm:f>'Can Aksoy'!1:1048576</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{16543E2C-3DFA-490E-A56A-1DAE64007A71}">
-          <xm:f>'Can Aksoy'!XFD1048550:XFD1048575</xm:f>
+          <xm:f>'Can Aksoy'!XFD1048551:XFD1048576</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
@@ -4879,68 +4916,82 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE346179-A37E-4AE5-9782-E801DD7A62D4}">
-  <dimension ref="B3:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="65">
+        <v>45358</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>464</v>
+      </c>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
       <c r="J4" s="66">
         <f ca="1">L5</f>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="35"/>
+      <c r="E5" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="36">
+        <v>31.7973</v>
+      </c>
+      <c r="G5" s="70">
+        <v>3993.81</v>
+      </c>
       <c r="H5" s="36"/>
       <c r="I5" s="60" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="36">
-        <v>31.93</v>
-      </c>
-      <c r="K5" s="56"/>
+        <v>32.202500000000001</v>
+      </c>
+      <c r="K5" s="56">
+        <f>J5</f>
+        <v>32.202500000000001</v>
+      </c>
       <c r="L5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="99" t="s">
         <v>21</v>
       </c>
@@ -4956,7 +5007,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -4970,7 +5021,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4986,7 +5037,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -5020,7 +5071,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -5038,30 +5089,30 @@
         <v>366415.49439000001</v>
       </c>
       <c r="G10" s="71">
-        <f t="shared" ref="G10:G15" si="1">F10/$F$16</f>
-        <v>0.50224745315890928</v>
+        <f t="shared" ref="G10:G16" si="1">F10/$F$17</f>
+        <v>0.49951295228196646</v>
       </c>
       <c r="H10" s="69">
-        <v>0.17698900000000001</v>
+        <v>0.17999000000000001</v>
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
-        <v>366413.42412899999</v>
+        <v>372626.27739</v>
       </c>
       <c r="K10" s="70">
         <f t="shared" ref="K10:K15" si="4">J10-F10</f>
-        <v>-2.0702610000153072</v>
+        <v>6210.7829999999958</v>
       </c>
       <c r="L10" s="72">
-        <f t="shared" ref="L10:L16" si="5">J10/F10-1</f>
-        <v>-5.6500367252576567E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L10:L18" si="5">J10/F10-1</f>
+        <v>1.6950110175716127E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -5080,29 +5131,29 @@
       </c>
       <c r="G11" s="71">
         <f t="shared" si="1"/>
-        <v>0.28990319696738798</v>
+        <v>0.28832481057368931</v>
       </c>
       <c r="H11" s="69">
-        <v>0.20144999999999999</v>
+        <v>0.20319799999999999</v>
       </c>
       <c r="I11" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
-        <v>213154.245</v>
+        <v>215003.80379999999</v>
       </c>
       <c r="K11" s="70">
         <f t="shared" si="4"/>
-        <v>1654.8683999999776</v>
+        <v>3504.4271999999764</v>
       </c>
       <c r="L11" s="72">
         <f t="shared" si="5"/>
-        <v>7.8244599421668504E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.6569444583412363E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -5121,29 +5172,29 @@
       </c>
       <c r="G12" s="71">
         <f t="shared" si="1"/>
-        <v>0.19023155585714419</v>
+        <v>0.18919583461447426</v>
       </c>
       <c r="H12" s="69">
-        <v>3.1040049999999999</v>
+        <v>3.068219</v>
       </c>
       <c r="I12" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
-        <v>144159.30421499998</v>
+        <v>142497.295017</v>
       </c>
       <c r="K12" s="70">
         <f t="shared" si="4"/>
-        <v>5375.5450349999883</v>
+        <v>3713.5358370000031</v>
       </c>
       <c r="L12" s="72">
         <f t="shared" si="5"/>
-        <v>3.873324275665424E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.6757711845689425E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
         <v>31</v>
       </c>
@@ -5162,29 +5213,29 @@
       </c>
       <c r="G13" s="71">
         <f t="shared" si="1"/>
-        <v>1.0595615588951474E-2</v>
+        <v>1.053792745148556E-2</v>
       </c>
       <c r="H13" s="69">
-        <v>3.2821699999999998</v>
+        <v>3.2882060000000002</v>
       </c>
       <c r="I13" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="J13" s="70">
         <f t="shared" si="3"/>
-        <v>7811.5645999999997</v>
+        <v>7825.9302800000005</v>
       </c>
       <c r="K13" s="70">
         <f t="shared" si="4"/>
-        <v>81.514999999999418</v>
+        <v>95.880680000000211</v>
       </c>
       <c r="L13" s="72">
         <f t="shared" si="5"/>
-        <v>1.0545210473164257E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.2403630631296458E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="67" t="s">
         <v>26</v>
       </c>
@@ -5203,29 +5254,29 @@
       </c>
       <c r="G14" s="71">
         <f t="shared" si="1"/>
-        <v>6.915152410628473E-3</v>
+        <v>6.8775026620590688E-3</v>
       </c>
       <c r="H14" s="69">
-        <v>7.4112429999999998</v>
+        <v>7.4803600000000001</v>
       </c>
       <c r="I14" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="3"/>
-        <v>5299.0387449999998</v>
+        <v>5348.4574000000002</v>
       </c>
       <c r="K14" s="70">
         <f t="shared" si="4"/>
-        <v>254.07739500000025</v>
+        <v>303.49605000000065</v>
       </c>
       <c r="L14" s="72">
         <f t="shared" si="5"/>
-        <v>5.0362604859202742E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6.0158250766381149E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="67" t="s">
         <v>50</v>
       </c>
@@ -5244,142 +5295,186 @@
       </c>
       <c r="G15" s="71">
         <f t="shared" si="1"/>
-        <v>1.0702601697861728E-4</v>
+        <v>1.0644331071411956E-4</v>
       </c>
       <c r="H15" s="69">
-        <v>1.920588</v>
+        <v>1.9371480000000001</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="J15" s="70">
         <f t="shared" si="3"/>
-        <v>78.744107999999997</v>
+        <v>79.423068000000001</v>
       </c>
       <c r="K15" s="70">
         <f t="shared" si="4"/>
-        <v>0.66309300000000349</v>
+        <v>1.342053000000007</v>
       </c>
       <c r="L15" s="72">
         <f t="shared" si="5"/>
-        <v>8.492371673191057E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="47">
-        <f>SUM(F10:F15)</f>
-        <v>729551.72213500005</v>
-      </c>
-      <c r="G16" s="48">
-        <f>SUM(G10:G15)</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47">
-        <f>SUM(J10:J15)</f>
-        <v>736916.32079700008</v>
-      </c>
-      <c r="K16" s="47">
-        <f>SUM(K10:K15)</f>
-        <v>7364.5986619999503</v>
-      </c>
-      <c r="L16" s="50">
-        <f t="shared" si="5"/>
-        <v>1.0094690257803629E-2</v>
-      </c>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1.7187955356369411E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="70">
+        <f>G5</f>
+        <v>3993.81</v>
+      </c>
+      <c r="G16" s="71">
+        <f t="shared" si="1"/>
+        <v>5.4445291056111128E-3</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="70">
+        <v>3993.81</v>
+      </c>
+      <c r="K16" s="70">
+        <f t="shared" ref="K16" si="6">J16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="72">
+        <f t="shared" ref="L16" si="7">J16/F16-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="101">
+        <f>SUM(F10:F16)</f>
+        <v>733545.5321350001</v>
+      </c>
+      <c r="G17" s="48">
+        <f>SUM(G10:G16)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="50"/>
+      <c r="J17" s="101">
+        <f>SUM(J10:J16)</f>
+        <v>747374.9969550001</v>
+      </c>
+      <c r="K17" s="101">
+        <f>SUM(K10:K15)</f>
+        <v>13829.464819999976</v>
+      </c>
+      <c r="L17" s="102">
+        <f t="shared" si="5"/>
+        <v>1.8852905803609765E-2</v>
+      </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="52">
-        <f ca="1">$L$5</f>
-        <v>45367</v>
-      </c>
-      <c r="J18" s="53">
-        <f>J16</f>
-        <v>736916.32079700008</v>
-      </c>
-      <c r="K18" s="53">
-        <f>K16</f>
-        <v>7364.5986619999503</v>
-      </c>
-      <c r="L18" s="54">
-        <f>K18/J18</f>
-        <v>9.9938058829188176E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="F18" s="104">
+        <f>F17/F5</f>
+        <v>23069.428289037121</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="104">
+        <f>J17/J5</f>
+        <v>23208.601722071271</v>
+      </c>
+      <c r="K18" s="104">
+        <f>K17/K5</f>
+        <v>429.45314245788296</v>
+      </c>
+      <c r="L18" s="102">
+        <f t="shared" si="5"/>
+        <v>6.0328080648746063E-3</v>
+      </c>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="56"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="52">
+        <f ca="1">$L$5</f>
+        <v>45368</v>
+      </c>
+      <c r="J19" s="53">
+        <f>J17</f>
+        <v>747374.9969550001</v>
+      </c>
+      <c r="K19" s="53">
+        <f>K17</f>
+        <v>13829.464819999976</v>
+      </c>
+      <c r="L19" s="54">
+        <f>K19/J19</f>
+        <v>1.8504050679170173E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="61"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="53">
-        <f>K18*0.07</f>
-        <v>515.52190633999658</v>
-      </c>
-      <c r="L19" s="57"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="74"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="53">
+        <f>K19*0.07</f>
+        <v>968.0625373999984</v>
+      </c>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AFD733-4B12-4994-A28E-C3F2CC57E1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -5387,7 +5482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -5395,7 +5490,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -5403,7 +5498,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -5411,17 +5506,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -5429,12 +5524,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -5442,7 +5537,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -5450,7 +5545,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -5458,7 +5553,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -5466,7 +5561,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -5474,7 +5569,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -5482,7 +5577,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -5490,7 +5585,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -5498,7 +5593,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -5506,7 +5601,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -5514,7 +5609,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -5522,7 +5617,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -5530,7 +5625,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -5538,7 +5633,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -5546,7 +5641,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -5554,7 +5649,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -5562,7 +5657,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -5570,7 +5665,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -5578,7 +5673,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -5586,7 +5681,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -5594,7 +5689,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -5602,7 +5697,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -5610,7 +5705,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -5618,12 +5713,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5631,7 +5726,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -5639,7 +5734,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -5647,7 +5742,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -5655,7 +5750,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -5663,7 +5758,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -5671,7 +5766,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -5679,7 +5774,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -5687,7 +5782,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -5695,7 +5790,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -5703,7 +5798,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -5711,7 +5806,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -5719,7 +5814,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -5727,7 +5822,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -5735,7 +5830,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -5743,7 +5838,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -5751,7 +5846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -5759,7 +5854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -5767,7 +5862,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -5775,7 +5870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -5783,7 +5878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -5791,7 +5886,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -5799,7 +5894,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -5807,7 +5902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -5815,7 +5910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -5823,7 +5918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -5831,7 +5926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -5839,7 +5934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -5847,7 +5942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -5855,7 +5950,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -5863,7 +5958,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -5871,7 +5966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -5879,7 +5974,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -5887,7 +5982,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -5895,7 +5990,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -5903,7 +5998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -5911,7 +6006,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -5919,7 +6014,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -5927,7 +6022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -5935,7 +6030,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -5943,7 +6038,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -5951,7 +6046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -5959,7 +6054,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -5967,7 +6062,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -5975,7 +6070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -5983,7 +6078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -5991,7 +6086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -5999,7 +6094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6007,7 +6102,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6015,7 +6110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6023,7 +6118,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6031,7 +6126,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6039,7 +6134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6047,7 +6142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6055,7 +6150,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6063,7 +6158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6071,7 +6166,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6079,7 +6174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6087,7 +6182,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6095,7 +6190,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6103,7 +6198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6111,7 +6206,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6119,7 +6214,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6127,7 +6222,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6135,7 +6230,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6143,7 +6238,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6151,7 +6246,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6159,7 +6254,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6167,7 +6262,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6175,7 +6270,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6183,7 +6278,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6191,7 +6286,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -6199,7 +6294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -6207,7 +6302,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -6215,7 +6310,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -6223,7 +6318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -6231,7 +6326,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -6239,7 +6334,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -6247,7 +6342,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -6255,7 +6350,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -6263,7 +6358,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -6271,7 +6366,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -6279,7 +6374,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -6287,7 +6382,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -6295,7 +6390,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -6303,7 +6398,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -6311,7 +6406,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -6319,7 +6414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -6327,7 +6422,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -6335,7 +6430,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -6343,7 +6438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -6351,7 +6446,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -6359,7 +6454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -6367,7 +6462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -6375,7 +6470,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -6383,7 +6478,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -6391,7 +6486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -6399,7 +6494,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -6407,7 +6502,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -6415,7 +6510,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -6423,7 +6518,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -6431,7 +6526,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -6439,7 +6534,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -6447,7 +6542,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -6455,7 +6550,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -6463,7 +6558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -6471,7 +6566,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -6479,7 +6574,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -6487,7 +6582,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -6495,7 +6590,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -6503,7 +6598,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -6511,7 +6606,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -6519,7 +6614,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -6527,7 +6622,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -6535,7 +6630,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -6543,7 +6638,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -6551,7 +6646,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -6559,7 +6654,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -6567,7 +6662,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -6575,7 +6670,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -6583,7 +6678,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -6591,7 +6686,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -6599,7 +6694,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -6607,7 +6702,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -6615,7 +6710,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -6623,7 +6718,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -6631,7 +6726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -6639,7 +6734,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -6647,7 +6742,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -6655,7 +6750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -6663,7 +6758,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -6671,7 +6766,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -6679,7 +6774,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -6687,7 +6782,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -6695,7 +6790,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -6703,7 +6798,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -6711,7 +6806,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -6719,7 +6814,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -6727,7 +6822,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -6735,7 +6830,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -6743,7 +6838,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -6751,7 +6846,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -6759,7 +6854,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -6767,7 +6862,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -6775,7 +6870,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -6783,7 +6878,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -6791,7 +6886,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -6799,7 +6894,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -6807,7 +6902,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -6815,7 +6910,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -6823,7 +6918,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -6831,7 +6926,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -6839,7 +6934,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -6847,7 +6942,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -6855,7 +6950,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -6863,7 +6958,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -6871,7 +6966,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -6879,7 +6974,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -6887,7 +6982,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -6895,7 +6990,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -6903,7 +6998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -6911,7 +7006,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -6919,7 +7014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -6927,7 +7022,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -6935,7 +7030,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -6943,7 +7038,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -6951,7 +7046,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -6959,7 +7054,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -6967,7 +7062,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -6975,7 +7070,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -6983,7 +7078,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -6991,7 +7086,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -6999,7 +7094,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7007,7 +7102,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7015,7 +7110,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7023,7 +7118,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7031,7 +7126,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7039,7 +7134,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7047,7 +7142,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7055,7 +7150,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7063,7 +7158,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7071,7 +7166,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7079,7 +7174,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7087,7 +7182,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7095,7 +7190,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7103,7 +7198,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7111,7 +7206,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7119,7 +7214,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7127,7 +7222,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7135,7 +7230,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7143,7 +7238,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7151,7 +7246,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7159,7 +7254,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7167,7 +7262,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7175,7 +7270,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7183,7 +7278,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7191,7 +7286,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -7199,7 +7294,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -7207,7 +7302,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -7215,7 +7310,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -7223,7 +7318,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -7231,7 +7326,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -7239,7 +7334,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -7247,7 +7342,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -7255,7 +7350,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -7263,7 +7358,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -7271,7 +7366,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -7279,7 +7374,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -7287,7 +7382,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -7295,7 +7390,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -7303,7 +7398,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -7311,7 +7406,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -7319,7 +7414,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -7327,7 +7422,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -7335,7 +7430,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -7343,7 +7438,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -7351,7 +7446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -7359,7 +7454,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -7367,7 +7462,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -7375,7 +7470,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -7383,7 +7478,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -7391,7 +7486,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -7399,7 +7494,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -7407,7 +7502,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -7415,7 +7510,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -7423,7 +7518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -7431,7 +7526,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -7439,7 +7534,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -7447,7 +7542,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -7455,7 +7550,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -7463,7 +7558,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -7471,7 +7566,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -7479,7 +7574,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -7487,7 +7582,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -7495,7 +7590,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -7503,7 +7598,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -7511,7 +7606,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -7519,7 +7614,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -7527,7 +7622,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -7535,7 +7630,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -7543,7 +7638,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -7551,7 +7646,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -7559,7 +7654,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -7567,7 +7662,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -7575,7 +7670,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -7583,7 +7678,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -7591,7 +7686,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -7599,7 +7694,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -7607,7 +7702,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -7615,7 +7710,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -7623,7 +7718,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -7631,7 +7726,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -7639,7 +7734,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -7647,7 +7742,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -7655,7 +7750,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -7663,7 +7758,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -7671,7 +7766,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -7679,7 +7774,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -7687,7 +7782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -7695,7 +7790,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -7703,7 +7798,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -7711,7 +7806,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -7719,7 +7814,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -7727,7 +7822,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -7735,7 +7830,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -7743,7 +7838,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -7751,7 +7846,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -7759,7 +7854,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -7767,7 +7862,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -7775,7 +7870,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -7783,7 +7878,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -7791,7 +7886,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -7799,7 +7894,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -7807,7 +7902,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -7815,7 +7910,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -7823,7 +7918,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -7831,7 +7926,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -7839,7 +7934,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -7847,7 +7942,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -7855,7 +7950,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -7863,7 +7958,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -7871,7 +7966,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -7879,7 +7974,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -7887,7 +7982,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -7895,7 +7990,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -7903,7 +7998,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -7911,7 +8006,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -7919,7 +8014,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -7927,7 +8022,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -7935,7 +8030,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -7943,7 +8038,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -7951,7 +8046,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -7959,7 +8054,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -7967,7 +8062,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -7975,7 +8070,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -7983,7 +8078,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -7991,7 +8086,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -7999,7 +8094,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8007,7 +8102,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8015,7 +8110,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8023,7 +8118,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8031,7 +8126,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8039,7 +8134,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8047,7 +8142,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8055,7 +8150,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8063,7 +8158,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8071,7 +8166,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8079,7 +8174,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8087,7 +8182,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8095,7 +8190,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8103,7 +8198,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8111,7 +8206,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8119,7 +8214,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8127,7 +8222,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8135,7 +8230,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8143,7 +8238,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8151,7 +8246,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8159,7 +8254,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8167,7 +8262,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8175,7 +8270,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8183,7 +8278,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8191,7 +8286,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -8199,7 +8294,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -8207,7 +8302,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -8215,7 +8310,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -8223,7 +8318,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -8231,7 +8326,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -8239,7 +8334,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -8247,7 +8342,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -8255,7 +8350,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -8263,7 +8358,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -8271,7 +8366,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -8279,7 +8374,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -8287,7 +8382,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -8295,7 +8390,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -8303,7 +8398,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -8311,7 +8406,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -8319,7 +8414,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -8327,7 +8422,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -8335,7 +8430,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -8343,7 +8438,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -8351,157 +8446,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D81172-162A-45CB-8473-96E05C533F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="420" windowWidth="15450" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
     <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,14 +40,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="467">
   <si>
     <t>Equity</t>
   </si>
@@ -1456,12 +1457,18 @@
   </si>
   <si>
     <t>NAKIT</t>
+  </si>
+  <si>
+    <t>TEST MULTIPLIER</t>
+  </si>
+  <si>
+    <t>MARGIN/0.01LOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1476,7 +1483,7 @@
     <numFmt numFmtId="172" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="173" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1597,6 +1604,13 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1710,7 +1724,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1901,6 +1915,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1910,20 +1932,13 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
+    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2427,40 +2442,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:X39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="5"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2514,7 +2530,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2544,14 +2560,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>61.190387926846711</v>
+        <v>2156.8149188000011</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2560,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <v>18043</v>
+        <v>17722</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -2574,7 +2590,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-8323.5166389999995</v>
+        <v>-8020.9901889999983</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2584,7 +2600,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>18043</v>
+        <v>17722</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2593,23 +2609,26 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>-3.2796120731532881</v>
+        <v>1871.6249188000011</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="18">
-        <v>0.19739274248467581</v>
+      <c r="K13" s="109">
+        <f>K16</f>
+        <v>0.20000599999999999</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="6"/>
@@ -2619,7 +2638,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-8407.2166390000002</v>
+        <v>-8104.6901889999981</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2636,19 +2655,22 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="19">
-        <v>64.47</v>
+        <f>-F28*100*H14</f>
+        <v>285.19</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/2</f>
-        <v>32.234999999999999</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>285.19</v>
+      </c>
+      <c r="H14" s="2">
+        <f>G14/8</f>
+        <v>35.64875</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="9" t="s">
         <v>14</v>
@@ -2677,14 +2699,14 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <f>K22</f>
-        <v>-49.109612073153286</v>
+        <f>K28</f>
+        <v>163.9649188000013</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2702,8 +2724,8 @@
         <v>3</v>
       </c>
       <c r="Q15" s="19">
-        <f>V20+V21+V22</f>
-        <v>-8652.5266389999997</v>
+        <f>V20+V21+V28</f>
+        <v>-8350.0001889999985</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2717,19 +2739,24 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="19">
-        <v>110.3</v>
+        <v>1992.85</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K16" s="109">
+        <f>0.200006</f>
+        <v>0.20000599999999999</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="6"/>
       <c r="O16" s="2"/>
@@ -2747,14 +2774,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>0.94912964055912385</v>
+        <v>7.5627298250289323</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2769,7 +2796,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-99.44464323775388</v>
+        <v>-95.830229259259227</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2779,7 +2806,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2801,7 +2828,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2853,38 +2880,39 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
       </c>
       <c r="F20" s="12">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="G20" s="12">
-        <v>17940.21</v>
+        <v>17834.310000000001</v>
       </c>
       <c r="H20" s="14">
-        <v>18000</v>
+        <f>$K$12</f>
+        <v>17722</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>-59.790000000000873</v>
+        <v>112.31000000000131</v>
       </c>
       <c r="J20" s="17">
-        <f>$K$13</f>
-        <v>0.19739274248467581</v>
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
       </c>
       <c r="K20" s="14">
         <f>I20*J20</f>
-        <v>-11.80211207315894</v>
+        <v>22.462673860000262</v>
       </c>
       <c r="L20" s="14">
-        <v>-20.29</v>
+        <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>-3.332736907762035E-3</v>
+        <v>6.2974121230370279E-4</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2898,11 +2926,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>18043</v>
+        <v>17722</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-9121.41</v>
+        <v>-8800.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2910,42 +2938,44 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2865.4909514999999</v>
+        <v>-2764.6488015</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="F21" s="12">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="G21" s="14">
-        <v>9152.2800000000007</v>
+        <v>17835</v>
       </c>
       <c r="H21" s="14">
-        <v>9270</v>
+        <f>$K$12</f>
+        <v>17722</v>
       </c>
       <c r="I21" s="12">
-        <f>G21-H21</f>
-        <v>-117.71999999999935</v>
+        <f t="shared" ref="I21:I27" si="0">G21-H21</f>
+        <v>113</v>
       </c>
       <c r="J21" s="17">
-        <v>0.3124999999999537</v>
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
       </c>
       <c r="K21" s="14">
         <f>I21*J21</f>
-        <v>-36.787499999994346</v>
+        <v>22.600677999999998</v>
       </c>
       <c r="L21" s="14">
-        <v>2.15</v>
+        <v>-2.19</v>
       </c>
       <c r="M21" s="7">
-        <f>(H21/G21-1)*F21*10</f>
-        <v>-1.2862368721236585E-2</v>
+        <f t="shared" ref="M21:M27" si="1">(H21/G21-1)*F21*10</f>
+        <v>6.3358564620128453E-4</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -2959,361 +2989,387 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>18043</v>
+        <v>17722</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-9205.6200000000008</v>
+        <v>-8884.6200000000008</v>
       </c>
       <c r="U21" s="25">
-        <f t="shared" ref="U21:U22" si="0">$V$13</f>
+        <f t="shared" ref="U21:U28" si="2">$V$13</f>
         <v>0.31414999999999998</v>
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2891.9455230000003</v>
+        <v>-2791.1033729999999</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="17"/>
+      <c r="E22" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="G22" s="14">
+        <v>17829.900000000001</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" ref="H22:H27" si="3">$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
+        <v>107.90000000000146</v>
+      </c>
+      <c r="J22" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
       <c r="K22" s="14">
-        <f>SUM(K20:K21)-0.52</f>
-        <v>-49.109612073153286</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+        <f t="shared" ref="K22:K27" si="4">I22*J22</f>
+        <v>21.580647400000291</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="7">
+        <f t="shared" si="1"/>
+        <v>6.0516323703442283E-4</v>
+      </c>
       <c r="O22" s="2"/>
-      <c r="P22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R22" s="12">
-        <v>8827.3700000000008</v>
-      </c>
-      <c r="S22" s="14">
-        <f>$K$12</f>
-        <v>18043</v>
-      </c>
-      <c r="T22" s="14">
-        <f>R22-S22</f>
-        <v>-9215.6299999999992</v>
-      </c>
-      <c r="U22" s="25">
-        <f t="shared" si="0"/>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="V22" s="14">
-        <f>T22*U22</f>
-        <v>-2895.0901644999994</v>
-      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="14"/>
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="6"/>
+      <c r="E23" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="G23" s="14">
+        <v>17825.22</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="3"/>
+        <v>17722</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="0"/>
+        <v>103.22000000000116</v>
+      </c>
+      <c r="J23" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="4"/>
+        <v>20.644619320000231</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7906718682855247E-4</v>
+      </c>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="21"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="14"/>
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="D25" s="23">
-        <v>9675887</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="28">
-        <v>3</v>
-      </c>
-      <c r="O25" s="23">
-        <v>9675888</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="G24" s="14">
+        <v>17820.22</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="3"/>
+        <v>17722</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="0"/>
+        <v>98.220000000001164</v>
+      </c>
+      <c r="J24" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="4"/>
+        <v>19.644589320000232</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="7">
+        <f t="shared" si="1"/>
+        <v>5.511716465902317E-4</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="G25" s="14">
+        <v>17816.150000000001</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="3"/>
+        <v>17722</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="0"/>
+        <v>94.150000000001455</v>
+      </c>
+      <c r="J25" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="4"/>
+        <v>18.83056490000029</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="7">
+        <f t="shared" si="1"/>
+        <v>5.284531169753359E-4</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="14"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="6"/>
+      <c r="E26" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="G26" s="14">
+        <v>17820</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="3"/>
+        <v>17722</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="J26" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="4"/>
+        <v>19.600587999999998</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="7">
+        <f t="shared" si="1"/>
+        <v>5.4994388327721526E-4</v>
+      </c>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="14"/>
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>15</v>
+      <c r="E27" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F27" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="G27" s="14">
+        <v>17815</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="3"/>
+        <v>17722</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="J27" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="4"/>
+        <v>18.600557999999999</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="7">
+        <f t="shared" si="1"/>
+        <v>5.2203199550939774E-4</v>
       </c>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X27" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
-      <c r="E28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="27">
-        <f>F31+F32</f>
-        <v>-6185.0795372100574</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="22">
-        <v>9034.8700000000008</v>
-      </c>
-      <c r="L28" s="16">
-        <v>8741.99</v>
-      </c>
-      <c r="M28" s="7">
-        <v>-0.01</v>
-      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14">
+        <f>SUM(F20:F27)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="14">
+        <f>SUM(K20:K27)</f>
+        <v>163.9649188000013</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="27">
-        <f>Q31+Q32</f>
-        <v>-8328.0267480000002</v>
-      </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V28" s="22">
-        <v>9034.8700000000008</v>
-      </c>
-      <c r="W28" s="16">
-        <v>8741.99</v>
-      </c>
-      <c r="X28" s="7">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R28" s="12">
+        <v>8827.3700000000008</v>
+      </c>
+      <c r="S28" s="14">
+        <f>$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="T28" s="14">
+        <f>R28-S28</f>
+        <v>-8894.6299999999992</v>
+      </c>
+      <c r="U28" s="25">
+        <f t="shared" si="2"/>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="V28" s="14">
+        <f>T28*U28</f>
+        <v>-2794.2480144999995</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
-      <c r="E29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="19">
-        <f>F28-F30</f>
-        <v>-6269.019537210057</v>
-      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="18">
-        <f>V13</f>
-        <v>0.31414999999999998</v>
-      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="3"/>
       <c r="M29" s="6"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="19">
-        <f>Q28-Q30</f>
-        <v>-8408.1967480000003</v>
-      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V29" s="18">
-        <f>K29</f>
-        <v>0.31414999999999998</v>
-      </c>
+      <c r="U29" s="2"/>
+      <c r="V29" s="21"/>
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="30" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D30" s="2"/>
-      <c r="E30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="19">
-        <v>83.94</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="2">
-        <v>100</v>
-      </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="6"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>80.17</v>
-      </c>
-      <c r="R30" s="2">
-        <f>Q30/2</f>
-        <v>40.085000000000001</v>
-      </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V30" s="2">
-        <v>100</v>
-      </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="6"/>
-    </row>
-    <row r="31" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="2"/>
-      <c r="E31" s="11" t="s">
+    <row r="31" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D31" s="23">
+        <v>9675887</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="28">
         <v>3</v>
       </c>
-      <c r="F31" s="19">
-        <f>SUM(K36:K38)-G31</f>
-        <v>-6499.5395372100575</v>
-      </c>
-      <c r="G31" s="19">
-        <v>3</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="6"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="19">
-        <f>SUM(V36:V38)-R31</f>
-        <v>-8649.9067479999994</v>
-      </c>
-      <c r="R31" s="19">
-        <v>2.76</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="O31" s="23">
+        <v>9675888</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="6"/>
-    </row>
-    <row r="32" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X31" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="19">
-        <v>314.45999999999998</v>
-      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3322,12 +3378,8 @@
       <c r="L32" s="3"/>
       <c r="M32" s="6"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="19">
-        <v>321.88</v>
-      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -3336,288 +3388,254 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
-      <c r="E33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="26">
-        <f>F29/F30+1</f>
-        <v>-73.684531060400971</v>
-      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6"/>
+      <c r="L33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="26">
-        <f>Q29/Q30+1</f>
-        <v>-103.87959022078084</v>
-      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="6"/>
-    </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="W33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <f>F37+F38</f>
+        <v>-6003.5404234999996</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
+      <c r="J34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="22">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="L34" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="M34" s="7">
+        <v>-0.01</v>
+      </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="P34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="27">
+        <f>Q37+Q38</f>
+        <v>-8025.420047999999</v>
+      </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="6"/>
-    </row>
-    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="U34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="22">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="W34" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="X34" s="7">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="E35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19">
+        <f>F34-F36</f>
+        <v>-6087.4804234999992</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="18">
+        <f>V13</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="L35" s="3"/>
       <c r="M35" s="6"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="W35" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="P35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="19">
+        <f>Q34-Q36</f>
+        <v>-8105.5900479999991</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V35" s="18">
+        <f>K35</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="W35" s="3"/>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
-      <c r="E36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G36" s="12">
-        <v>8920.14</v>
-      </c>
-      <c r="H36" s="14">
-        <f>$K$12</f>
-        <v>18043</v>
-      </c>
-      <c r="I36" s="12">
-        <f>G36-H36</f>
-        <v>-9122.86</v>
-      </c>
-      <c r="J36" s="17">
-        <f>$K$13</f>
-        <v>0.19739274248467581</v>
-      </c>
-      <c r="K36" s="14">
-        <f>I36*J36</f>
-        <v>-1800.7863547037496</v>
-      </c>
-      <c r="L36" s="14">
-        <v>40.61</v>
-      </c>
+      <c r="E36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="19">
+        <v>83.94</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2">
+        <v>100</v>
+      </c>
+      <c r="L36" s="3"/>
       <c r="M36" s="6"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R36" s="14">
-        <v>8921.43</v>
-      </c>
-      <c r="S36" s="14">
-        <f>$K$12</f>
-        <v>18043</v>
-      </c>
-      <c r="T36" s="12">
-        <f>R36-S36</f>
-        <v>-9121.57</v>
-      </c>
-      <c r="U36" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="V36" s="14">
-        <f>T36*U36</f>
-        <v>-2866.4533724999997</v>
-      </c>
-      <c r="W36" s="14">
-        <v>40.61</v>
-      </c>
+      <c r="P36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>80.17</v>
+      </c>
+      <c r="R36" s="2">
+        <f>Q36/2</f>
+        <v>40.085000000000001</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V36" s="2">
+        <v>100</v>
+      </c>
+      <c r="W36" s="3"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
-      <c r="E37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G37" s="14">
-        <v>8897.86</v>
-      </c>
-      <c r="H37" s="14">
-        <f>$K$12</f>
-        <v>18043</v>
-      </c>
-      <c r="I37" s="12">
-        <f>G37-H37</f>
-        <v>-9145.14</v>
-      </c>
-      <c r="J37" s="17">
-        <f>$K$13</f>
-        <v>0.19739274248467581</v>
-      </c>
-      <c r="K37" s="14">
-        <f>I37*J37</f>
-        <v>-1805.1842650063081</v>
+      <c r="E37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="19">
+        <f>SUM(K42:K44)-G37</f>
+        <v>-6318.0004234999997</v>
+      </c>
+      <c r="G37" s="19">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="6"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R37" s="14">
-        <v>8849.77</v>
-      </c>
-      <c r="S37" s="14">
-        <f>$K$12</f>
-        <v>18043</v>
-      </c>
-      <c r="T37" s="12">
-        <f>R37-S37</f>
-        <v>-9193.23</v>
-      </c>
-      <c r="U37" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="V37" s="14">
-        <f>T37*U37</f>
-        <v>-2888.9725274999996</v>
+      <c r="P37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="19">
+        <f>SUM(V42:V44)-R37</f>
+        <v>-8347.3000479999992</v>
+      </c>
+      <c r="R37" s="19">
+        <v>2.76</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
-      <c r="E38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G38" s="12">
-        <v>8844.69</v>
-      </c>
-      <c r="H38" s="14">
-        <f>$K$12</f>
-        <v>18043</v>
-      </c>
-      <c r="I38" s="12">
-        <f>G38-H38</f>
-        <v>-9198.31</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="K38" s="14">
-        <f>I38*J38</f>
-        <v>-2890.5689174999998</v>
-      </c>
+      <c r="E38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="19">
+        <v>314.45999999999998</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="3"/>
       <c r="M38" s="6"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R38" s="12">
-        <v>8839.56</v>
-      </c>
-      <c r="S38" s="14">
-        <f>$K$12</f>
-        <v>18043</v>
-      </c>
-      <c r="T38" s="12">
-        <f>R38-S38</f>
-        <v>-9203.44</v>
-      </c>
-      <c r="U38" s="17">
-        <v>0.31419999999999998</v>
-      </c>
-      <c r="V38" s="14">
-        <f>T38*U38</f>
-        <v>-2891.7208479999999</v>
-      </c>
+      <c r="P38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>321.88</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="26">
+        <f>F35/F36+1</f>
+        <v>-71.521806331903733</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3626,8 +3644,13 @@
       <c r="L39" s="3"/>
       <c r="M39" s="6"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="P39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="26">
+        <f>Q35/Q36+1</f>
+        <v>-100.10502741673942</v>
+      </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -3636,44 +3659,313 @@
       <c r="W39" s="3"/>
       <c r="X39" s="6"/>
     </row>
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="6"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X41" s="6"/>
+    </row>
+    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+      <c r="E42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G42" s="12">
+        <v>8920.14</v>
+      </c>
+      <c r="H42" s="14">
+        <f>$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="I42" s="12">
+        <f>G42-H42</f>
+        <v>-8801.86</v>
+      </c>
+      <c r="J42" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K42" s="14">
+        <f>I42*J42</f>
+        <v>-1760.42481116</v>
+      </c>
+      <c r="L42" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R42" s="14">
+        <v>8921.43</v>
+      </c>
+      <c r="S42" s="14">
+        <f>$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="T42" s="12">
+        <f>R42-S42</f>
+        <v>-8800.57</v>
+      </c>
+      <c r="U42" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="V42" s="14">
+        <f>T42*U42</f>
+        <v>-2765.5791224999998</v>
+      </c>
+      <c r="W42" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G43" s="14">
+        <v>8897.86</v>
+      </c>
+      <c r="H43" s="14">
+        <f>$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="I43" s="12">
+        <f>G43-H43</f>
+        <v>-8824.14</v>
+      </c>
+      <c r="J43" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K43" s="14">
+        <f>I43*J43</f>
+        <v>-1764.8809448399998</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="6"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R43" s="14">
+        <v>8849.77</v>
+      </c>
+      <c r="S43" s="14">
+        <f>$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="T43" s="12">
+        <f>R43-S43</f>
+        <v>-8872.23</v>
+      </c>
+      <c r="U43" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="V43" s="14">
+        <f>T43*U43</f>
+        <v>-2788.0982774999998</v>
+      </c>
+      <c r="W43" s="3"/>
+      <c r="X43" s="6"/>
+    </row>
+    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+      <c r="E44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G44" s="12">
+        <v>8844.69</v>
+      </c>
+      <c r="H44" s="14">
+        <f>$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="I44" s="12">
+        <f>G44-H44</f>
+        <v>-8877.31</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="K44" s="14">
+        <f>I44*J44</f>
+        <v>-2789.6946674999995</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="6"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R44" s="12">
+        <v>8839.56</v>
+      </c>
+      <c r="S44" s="14">
+        <f>$K$12</f>
+        <v>17722</v>
+      </c>
+      <c r="T44" s="12">
+        <f>R44-S44</f>
+        <v>-8882.44</v>
+      </c>
+      <c r="U44" s="17">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="V44" s="14">
+        <f>T44*U44</f>
+        <v>-2790.8626479999998</v>
+      </c>
+      <c r="W44" s="3"/>
+      <c r="X44" s="6"/>
+    </row>
+    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="6"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:S27"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
         <v>45368</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -3684,7 +3976,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -3700,7 +3992,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -3723,7 +4015,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -3740,7 +4032,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -3758,7 +4050,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -3775,10 +4067,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -3795,7 +4087,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -3811,8 +4103,8 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F11" s="98" t="s">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="106" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="57" t="s">
@@ -3831,8 +4123,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F12" s="98"/>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="106"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
       </c>
@@ -3849,8 +4141,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="F13" s="98"/>
+    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F13" s="106"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
       </c>
@@ -3876,8 +4168,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F14" s="98"/>
+    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F14" s="106"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
       </c>
@@ -3913,8 +4205,8 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F15" s="98"/>
+    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F15" s="106"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
       </c>
@@ -3944,7 +4236,7 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
@@ -3961,7 +4253,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -3981,7 +4273,7 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>446</v>
       </c>
@@ -4002,7 +4294,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4027,7 +4319,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4050,7 +4342,7 @@
         <v>1992.85</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4071,8 +4363,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F22" s="98" t="s">
+    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F22" s="106" t="s">
         <v>445</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -4106,8 +4398,8 @@
         <v>-200.36504643962871</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F23" s="98"/>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="106"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
       </c>
@@ -4132,8 +4424,8 @@
         <v>64.702274549250944</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F24" s="98"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="106"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
       </c>
@@ -4158,8 +4450,8 @@
         <v>64.702274549250944</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F25" s="98"/>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="106"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
       </c>
@@ -4184,8 +4476,8 @@
         <v>401.83182838638976</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F26" s="98"/>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" s="106"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
       </c>
@@ -4208,8 +4500,8 @@
         <v>490.91134796585743</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="98"/>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F27" s="106"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
       </c>
@@ -4241,28 +4533,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:K17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -4279,7 +4571,7 @@
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -4300,11 +4592,11 @@
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -4318,7 +4610,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -4335,7 +4627,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4351,7 +4643,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -4385,7 +4677,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -4411,24 +4703,24 @@
         <v>0.17999000000000001</v>
       </c>
       <c r="H10" s="39">
-        <f ca="1">$K$7</f>
+        <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
         <v>45368</v>
       </c>
-      <c r="I10" s="105">
-        <f t="shared" ref="I10:I15" si="2">B10*G10</f>
+      <c r="I10" s="102">
+        <f t="shared" ref="I10:I15" si="3">B10*G10</f>
         <v>202005.65684000001</v>
       </c>
-      <c r="J10" s="105">
-        <f t="shared" ref="J10:J15" si="3">I10-E10</f>
+      <c r="J10" s="102">
+        <f t="shared" ref="J10:J15" si="4">I10-E10</f>
         <v>7245.6720960000239</v>
       </c>
-      <c r="K10" s="108">
-        <f t="shared" ref="K10:K15" si="4">I10/E10-1</f>
+      <c r="K10" s="105">
+        <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
         <v>3.7203084121843588E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -4454,24 +4746,24 @@
         <v>0.20319799999999999</v>
       </c>
       <c r="H11" s="39">
-        <f ca="1">$K$7</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45368</v>
       </c>
-      <c r="I11" s="105">
-        <f t="shared" si="2"/>
+      <c r="I11" s="102">
+        <f t="shared" si="3"/>
         <v>97595.999400000001</v>
       </c>
-      <c r="J11" s="105">
-        <f t="shared" si="3"/>
+      <c r="J11" s="102">
+        <f t="shared" si="4"/>
         <v>1589.3126999999949</v>
       </c>
-      <c r="K11" s="108">
-        <f t="shared" si="4"/>
+      <c r="K11" s="105">
+        <f t="shared" si="5"/>
         <v>1.655418757410354E-2</v>
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -4497,24 +4789,24 @@
         <v>3.068219</v>
       </c>
       <c r="H12" s="39">
-        <f ca="1">$K$7</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45368</v>
       </c>
-      <c r="I12" s="105">
-        <f t="shared" si="2"/>
+      <c r="I12" s="102">
+        <f t="shared" si="3"/>
         <v>63079.514421</v>
       </c>
-      <c r="J12" s="105">
-        <f t="shared" si="3"/>
+      <c r="J12" s="102">
+        <f t="shared" si="4"/>
         <v>-241.77383999999438</v>
       </c>
-      <c r="K12" s="108">
-        <f t="shared" si="4"/>
+      <c r="K12" s="105">
+        <f t="shared" si="5"/>
         <v>-3.8182078514170659E-3</v>
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -4540,24 +4832,24 @@
         <v>3.2882060000000002</v>
       </c>
       <c r="H13" s="39">
-        <f ca="1">$K$7</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45368</v>
       </c>
-      <c r="I13" s="105">
-        <f t="shared" si="2"/>
+      <c r="I13" s="102">
+        <f t="shared" si="3"/>
         <v>3580.8563340000001</v>
       </c>
-      <c r="J13" s="105">
-        <f t="shared" si="3"/>
+      <c r="J13" s="102">
+        <f t="shared" si="4"/>
         <v>54.169038</v>
       </c>
-      <c r="K13" s="108">
-        <f t="shared" si="4"/>
+      <c r="K13" s="105">
+        <f t="shared" si="5"/>
         <v>1.5359750795438831E-2</v>
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -4583,24 +4875,24 @@
         <v>7.4803600000000001</v>
       </c>
       <c r="H14" s="39">
-        <f ca="1">$K$7</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45368</v>
       </c>
-      <c r="I14" s="105">
-        <f t="shared" si="2"/>
+      <c r="I14" s="102">
+        <f t="shared" si="3"/>
         <v>2356.3134</v>
       </c>
-      <c r="J14" s="105">
-        <f t="shared" si="3"/>
+      <c r="J14" s="102">
+        <f t="shared" si="4"/>
         <v>57.058469999999943</v>
       </c>
-      <c r="K14" s="108">
-        <f t="shared" si="4"/>
+      <c r="K14" s="105">
+        <f t="shared" si="5"/>
         <v>2.4816069438633237E-2</v>
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -4625,24 +4917,24 @@
         <v>2.4213770000000001</v>
       </c>
       <c r="H15" s="39">
-        <f ca="1">$K$7</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45368</v>
       </c>
-      <c r="I15" s="105">
-        <f t="shared" si="2"/>
+      <c r="I15" s="102">
+        <f t="shared" si="3"/>
         <v>70.219932999999997</v>
       </c>
-      <c r="J15" s="105">
-        <f t="shared" si="3"/>
+      <c r="J15" s="102">
+        <f t="shared" si="4"/>
         <v>0.47928299999999524</v>
       </c>
-      <c r="K15" s="108">
-        <f t="shared" si="4"/>
+      <c r="K15" s="105">
+        <f t="shared" si="5"/>
         <v>6.8723621015862602E-3</v>
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -4656,12 +4948,12 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="106">
+      <c r="E17" s="103">
         <f>SUM(E10:E15)</f>
         <v>359983.64258099999</v>
       </c>
@@ -4671,21 +4963,21 @@
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="106">
+      <c r="I17" s="103">
         <f>SUM(I10:I15)</f>
         <v>368688.56032800005</v>
       </c>
-      <c r="J17" s="106">
+      <c r="J17" s="103">
         <f>SUM(J10:J15)</f>
         <v>8704.917747000025</v>
       </c>
-      <c r="K17" s="107">
+      <c r="K17" s="104">
         <f>I17/E17-1</f>
         <v>2.4181425813094792E-2</v>
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -4699,7 +4991,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>48</v>
       </c>
@@ -4716,7 +5008,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
@@ -4758,7 +5050,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -4801,7 +5093,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
@@ -4814,14 +5106,14 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
-      <c r="E23" s="103">
+      <c r="E23" s="100">
         <v>1550</v>
       </c>
       <c r="F23" s="57"/>
@@ -4834,7 +5126,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
@@ -4850,7 +5142,7 @@
       <c r="J24" s="56"/>
       <c r="K24" s="57"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="57"/>
       <c r="C25" s="55"/>
@@ -4877,7 +5169,7 @@
         <v>2.1800948972254187E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="57"/>
       <c r="C26" s="55"/>
@@ -4916,30 +5208,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
@@ -4961,7 +5253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -4991,11 +5283,11 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="99" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -5007,7 +5299,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -5021,7 +5313,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -5037,7 +5329,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -5071,7 +5363,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -5112,7 +5404,7 @@
         <v>1.6950110175716127E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -5153,7 +5445,7 @@
         <v>1.6569444583412363E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -5194,7 +5486,7 @@
         <v>2.6757711845689425E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="67" t="s">
         <v>31</v>
       </c>
@@ -5235,7 +5527,7 @@
         <v>1.2403630631296458E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="67" t="s">
         <v>26</v>
       </c>
@@ -5276,7 +5568,7 @@
         <v>6.0158250766381149E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67" t="s">
         <v>50</v>
       </c>
@@ -5317,7 +5609,7 @@
         <v>1.7187955356369411E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
         <v>52</v>
       </c>
@@ -5346,12 +5638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="101">
+      <c r="F17" s="98">
         <f>SUM(F10:F16)</f>
         <v>733545.5321350001</v>
       </c>
@@ -5361,49 +5653,49 @@
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="101">
+      <c r="J17" s="98">
         <f>SUM(J10:J16)</f>
         <v>747374.9969550001</v>
       </c>
-      <c r="K17" s="101">
+      <c r="K17" s="98">
         <f>SUM(K10:K15)</f>
         <v>13829.464819999976</v>
       </c>
-      <c r="L17" s="102">
+      <c r="L17" s="99">
         <f t="shared" si="5"/>
         <v>1.8852905803609765E-2</v>
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="101">
         <f>F17/F5</f>
         <v>23069.428289037121</v>
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
-      <c r="J18" s="104">
+      <c r="J18" s="101">
         <f>J17/J5</f>
         <v>23208.601722071271</v>
       </c>
-      <c r="K18" s="104">
+      <c r="K18" s="101">
         <f>K17/K5</f>
         <v>429.45314245788296</v>
       </c>
-      <c r="L18" s="102">
+      <c r="L18" s="99">
         <f t="shared" si="5"/>
         <v>6.0328080648746063E-3</v>
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
@@ -5430,7 +5722,7 @@
         <v>1.8504050679170173E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="61"/>
       <c r="C20" s="57"/>
       <c r="D20" s="55"/>
@@ -5448,7 +5740,7 @@
       </c>
       <c r="L20" s="57"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G24" s="74"/>
     </row>
   </sheetData>
@@ -5461,20 +5753,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -5482,7 +5774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -5490,7 +5782,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -5498,7 +5790,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -5506,17 +5798,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -5524,12 +5816,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -5537,7 +5829,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -5545,7 +5837,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -5553,7 +5845,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -5561,7 +5853,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -5569,7 +5861,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -5577,7 +5869,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -5585,7 +5877,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -5593,7 +5885,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -5601,7 +5893,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -5609,7 +5901,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -5617,7 +5909,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -5625,7 +5917,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -5633,7 +5925,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -5641,7 +5933,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -5649,7 +5941,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -5657,7 +5949,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -5665,7 +5957,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -5673,7 +5965,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -5681,7 +5973,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -5689,7 +5981,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -5697,7 +5989,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -5705,7 +5997,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -5713,12 +6005,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -5726,7 +6018,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -5734,7 +6026,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -5742,7 +6034,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -5750,7 +6042,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -5758,7 +6050,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -5766,7 +6058,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -5774,7 +6066,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -5782,7 +6074,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -5790,7 +6082,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -5798,7 +6090,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -5806,7 +6098,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -5814,7 +6106,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -5822,7 +6114,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -5830,7 +6122,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -5838,7 +6130,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -5846,7 +6138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -5854,7 +6146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -5862,7 +6154,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -5870,7 +6162,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -5878,7 +6170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -5886,7 +6178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -5894,7 +6186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -5902,7 +6194,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -5910,7 +6202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -5918,7 +6210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -5926,7 +6218,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -5934,7 +6226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -5942,7 +6234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -5950,7 +6242,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -5958,7 +6250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -5966,7 +6258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -5974,7 +6266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -5982,7 +6274,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -5990,7 +6282,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -5998,7 +6290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6006,7 +6298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6014,7 +6306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6022,7 +6314,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6030,7 +6322,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6038,7 +6330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6046,7 +6338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6054,7 +6346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6062,7 +6354,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6070,7 +6362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6078,7 +6370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6086,7 +6378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6094,7 +6386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6102,7 +6394,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6110,7 +6402,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6118,7 +6410,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6126,7 +6418,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6134,7 +6426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6142,7 +6434,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6150,7 +6442,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6158,7 +6450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6166,7 +6458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6174,7 +6466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6182,7 +6474,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6190,7 +6482,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6198,7 +6490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6206,7 +6498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6214,7 +6506,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6222,7 +6514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6230,7 +6522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6238,7 +6530,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6246,7 +6538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6254,7 +6546,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6262,7 +6554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6270,7 +6562,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6278,7 +6570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6286,7 +6578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -6294,7 +6586,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -6302,7 +6594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -6310,7 +6602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -6318,7 +6610,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -6326,7 +6618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -6334,7 +6626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -6342,7 +6634,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -6350,7 +6642,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -6358,7 +6650,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -6366,7 +6658,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -6374,7 +6666,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -6382,7 +6674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -6390,7 +6682,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -6398,7 +6690,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -6406,7 +6698,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -6414,7 +6706,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -6422,7 +6714,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -6430,7 +6722,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -6438,7 +6730,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -6446,7 +6738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -6454,7 +6746,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -6462,7 +6754,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -6470,7 +6762,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -6478,7 +6770,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -6486,7 +6778,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -6494,7 +6786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -6502,7 +6794,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -6510,7 +6802,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -6518,7 +6810,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -6526,7 +6818,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -6534,7 +6826,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -6542,7 +6834,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -6550,7 +6842,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -6558,7 +6850,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -6566,7 +6858,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -6574,7 +6866,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -6582,7 +6874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -6590,7 +6882,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -6598,7 +6890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -6606,7 +6898,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -6614,7 +6906,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -6622,7 +6914,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -6630,7 +6922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -6638,7 +6930,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -6646,7 +6938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -6654,7 +6946,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -6662,7 +6954,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -6670,7 +6962,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -6678,7 +6970,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -6686,7 +6978,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -6694,7 +6986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -6702,7 +6994,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -6710,7 +7002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -6718,7 +7010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -6726,7 +7018,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -6734,7 +7026,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -6742,7 +7034,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -6750,7 +7042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -6758,7 +7050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -6766,7 +7058,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -6774,7 +7066,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -6782,7 +7074,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -6790,7 +7082,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -6798,7 +7090,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -6806,7 +7098,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -6814,7 +7106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -6822,7 +7114,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -6830,7 +7122,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -6838,7 +7130,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -6846,7 +7138,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -6854,7 +7146,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -6862,7 +7154,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -6870,7 +7162,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -6878,7 +7170,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -6886,7 +7178,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -6894,7 +7186,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -6902,7 +7194,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -6910,7 +7202,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -6918,7 +7210,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -6926,7 +7218,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -6934,7 +7226,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -6942,7 +7234,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -6950,7 +7242,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -6958,7 +7250,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -6966,7 +7258,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -6974,7 +7266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -6982,7 +7274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -6990,7 +7282,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -6998,7 +7290,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7006,7 +7298,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7014,7 +7306,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7022,7 +7314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7030,7 +7322,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7038,7 +7330,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7046,7 +7338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7054,7 +7346,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7062,7 +7354,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7070,7 +7362,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7078,7 +7370,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7086,7 +7378,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7094,7 +7386,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7102,7 +7394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7110,7 +7402,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7118,7 +7410,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7126,7 +7418,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7134,7 +7426,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7142,7 +7434,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7150,7 +7442,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7158,7 +7450,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7166,7 +7458,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7174,7 +7466,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7182,7 +7474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7190,7 +7482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7198,7 +7490,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7206,7 +7498,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7214,7 +7506,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7222,7 +7514,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7230,7 +7522,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7238,7 +7530,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7246,7 +7538,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7254,7 +7546,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7262,7 +7554,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7270,7 +7562,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7278,7 +7570,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7286,7 +7578,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -7294,7 +7586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -7302,7 +7594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -7310,7 +7602,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -7318,7 +7610,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -7326,7 +7618,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -7334,7 +7626,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -7342,7 +7634,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -7350,7 +7642,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -7358,7 +7650,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -7366,7 +7658,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -7374,7 +7666,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -7382,7 +7674,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -7390,7 +7682,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -7398,7 +7690,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -7406,7 +7698,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -7414,7 +7706,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -7422,7 +7714,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -7430,7 +7722,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -7438,7 +7730,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -7446,7 +7738,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -7454,7 +7746,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -7462,7 +7754,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -7470,7 +7762,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -7478,7 +7770,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -7486,7 +7778,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -7494,7 +7786,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -7502,7 +7794,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -7510,7 +7802,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -7518,7 +7810,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -7526,7 +7818,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -7534,7 +7826,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -7542,7 +7834,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -7550,7 +7842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -7558,7 +7850,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -7566,7 +7858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -7574,7 +7866,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -7582,7 +7874,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -7590,7 +7882,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -7598,7 +7890,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -7606,7 +7898,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -7614,7 +7906,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -7622,7 +7914,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -7630,7 +7922,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -7638,7 +7930,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -7646,7 +7938,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -7654,7 +7946,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -7662,7 +7954,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -7670,7 +7962,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -7678,7 +7970,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -7686,7 +7978,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -7694,7 +7986,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -7702,7 +7994,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -7710,7 +8002,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -7718,7 +8010,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -7726,7 +8018,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -7734,7 +8026,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -7742,7 +8034,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -7750,7 +8042,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -7758,7 +8050,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -7766,7 +8058,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -7774,7 +8066,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -7782,7 +8074,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -7790,7 +8082,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -7798,7 +8090,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -7806,7 +8098,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -7814,7 +8106,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -7822,7 +8114,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -7830,7 +8122,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -7838,7 +8130,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -7846,7 +8138,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -7854,7 +8146,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -7862,7 +8154,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -7870,7 +8162,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -7878,7 +8170,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -7886,7 +8178,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -7894,7 +8186,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -7902,7 +8194,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -7910,7 +8202,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -7918,7 +8210,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -7926,7 +8218,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -7934,7 +8226,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -7942,7 +8234,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -7950,7 +8242,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -7958,7 +8250,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -7966,7 +8258,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -7974,7 +8266,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -7982,7 +8274,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -7990,7 +8282,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -7998,7 +8290,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8006,7 +8298,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8014,7 +8306,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8022,7 +8314,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8030,7 +8322,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8038,7 +8330,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8046,7 +8338,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8054,7 +8346,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8062,7 +8354,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8070,7 +8362,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8078,7 +8370,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8086,7 +8378,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8094,7 +8386,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8102,7 +8394,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8110,7 +8402,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8118,7 +8410,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8126,7 +8418,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8134,7 +8426,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8142,7 +8434,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8150,7 +8442,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8158,7 +8450,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8166,7 +8458,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8174,7 +8466,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8182,7 +8474,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8190,7 +8482,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8198,7 +8490,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8206,7 +8498,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8214,7 +8506,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8222,7 +8514,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8230,7 +8522,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8238,7 +8530,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8246,7 +8538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8254,7 +8546,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8262,7 +8554,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8270,7 +8562,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8278,7 +8570,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8286,7 +8578,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -8294,7 +8586,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -8302,7 +8594,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -8310,7 +8602,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -8318,7 +8610,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -8326,7 +8618,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -8334,7 +8626,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -8342,7 +8634,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -8350,7 +8642,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -8358,7 +8650,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -8366,7 +8658,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -8374,7 +8666,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -8382,7 +8674,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -8390,7 +8682,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -8398,7 +8690,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -8406,7 +8698,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -8414,7 +8706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -8422,7 +8714,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -8430,7 +8722,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -8438,7 +8730,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -8446,157 +8738,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D81172-162A-45CB-8473-96E05C533F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA009A6-A77D-456F-A614-A9B5E923AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="420" windowWidth="15450" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="540" windowWidth="15450" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -1923,6 +1923,7 @@
     <xf numFmtId="44" fontId="10" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1932,7 +1933,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2516,7 +2516,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="21">
+        <f>K11-K12</f>
+        <v>1178</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
       <c r="O10" s="2"/>
@@ -2538,7 +2541,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>18432</v>
+      </c>
       <c r="L11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2567,7 +2572,7 @@
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>2156.8149188000011</v>
+        <v>2905.637382800001</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2576,7 +2581,8 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <v>17722</v>
+        <f>17843-589</f>
+        <v>17254</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -2590,7 +2596,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-8020.9901889999983</v>
+        <v>-7579.9235889999991</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2600,7 +2606,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>1871.6249188000011</v>
+        <v>2620.4473828000009</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2626,7 +2632,7 @@
       <c r="J13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="106">
         <f>K16</f>
         <v>0.20000599999999999</v>
       </c>
@@ -2638,7 +2644,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-8104.6901889999981</v>
+        <v>-7663.6235889999989</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2706,7 +2712,7 @@
       </c>
       <c r="F15" s="19">
         <f>K28</f>
-        <v>163.9649188000013</v>
+        <v>912.78738280000118</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2725,7 +2731,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-8350.0001889999985</v>
+        <v>-7908.9335889999993</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2753,7 +2759,7 @@
       <c r="J16" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="K16" s="109">
+      <c r="K16" s="106">
         <f>0.200006</f>
         <v>0.20000599999999999</v>
       </c>
@@ -2781,7 +2787,7 @@
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>7.5627298250289323</v>
+        <v>10.188426602615804</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2796,7 +2802,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-95.830229259259227</v>
+        <v>-90.560616356033435</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2893,26 +2899,26 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>112.31000000000131</v>
+        <v>580.31000000000131</v>
       </c>
       <c r="J20" s="17">
-        <f>$K$16</f>
+        <f t="shared" ref="J20:J27" si="0">$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K20" s="14">
         <f>I20*J20</f>
-        <v>22.462673860000262</v>
+        <v>116.06548186000026</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>6.2974121230370279E-4</v>
+        <v>3.2538965623004289E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2926,11 +2932,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-8800.41</v>
+        <v>-8332.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2938,7 +2944,7 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2764.6488015</v>
+        <v>-2617.6266014999997</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
@@ -2956,26 +2962,26 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" ref="I21:I27" si="0">G21-H21</f>
-        <v>113</v>
+        <f t="shared" ref="I21:I27" si="1">G21-H21</f>
+        <v>581</v>
       </c>
       <c r="J21" s="17">
-        <f>$K$16</f>
+        <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K21" s="14">
         <f>I21*J21</f>
-        <v>22.600677999999998</v>
+        <v>116.203486</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" ref="M21:M27" si="1">(H21/G21-1)*F21*10</f>
-        <v>6.3358564620128453E-4</v>
+        <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
+        <v>3.2576394729464499E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -2989,19 +2995,19 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-8884.6200000000008</v>
+        <v>-8416.6200000000008</v>
       </c>
       <c r="U21" s="25">
-        <f t="shared" ref="U21:U28" si="2">$V$13</f>
+        <f t="shared" ref="U21:U28" si="3">$V$13</f>
         <v>0.31414999999999998</v>
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2791.1033729999999</v>
+        <v>-2644.081173</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
@@ -3018,25 +3024,25 @@
         <v>17829.900000000001</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" ref="H22:H27" si="3">$K$12</f>
-        <v>17722</v>
+        <f t="shared" ref="H22:H27" si="4">$K$12</f>
+        <v>17254</v>
       </c>
       <c r="I22" s="12">
+        <f t="shared" si="1"/>
+        <v>575.90000000000146</v>
+      </c>
+      <c r="J22" s="17">
         <f t="shared" si="0"/>
-        <v>107.90000000000146</v>
-      </c>
-      <c r="J22" s="17">
-        <f>$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K22" s="14">
-        <f t="shared" ref="K22:K27" si="4">I22*J22</f>
-        <v>21.580647400000291</v>
+        <f t="shared" ref="K22:K27" si="5">I22*J22</f>
+        <v>115.18345540000028</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
-        <f t="shared" si="1"/>
-        <v>6.0516323703442283E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.2299676386295054E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3061,25 +3067,25 @@
         <v>17825.22</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="3"/>
-        <v>17722</v>
+        <f t="shared" si="4"/>
+        <v>17254</v>
       </c>
       <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>571.22000000000116</v>
+      </c>
+      <c r="J23" s="17">
         <f t="shared" si="0"/>
-        <v>103.22000000000116</v>
-      </c>
-      <c r="J23" s="17">
-        <f>$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K23" s="14">
-        <f t="shared" si="4"/>
-        <v>20.644619320000231</v>
+        <f t="shared" si="5"/>
+        <v>114.24742732000023</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
-        <f t="shared" si="1"/>
-        <v>5.7906718682855247E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.2045607291242505E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3104,25 +3110,25 @@
         <v>17820.22</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" si="3"/>
-        <v>17722</v>
+        <f t="shared" si="4"/>
+        <v>17254</v>
       </c>
       <c r="I24" s="12">
+        <f t="shared" si="1"/>
+        <v>566.22000000000116</v>
+      </c>
+      <c r="J24" s="17">
         <f t="shared" si="0"/>
-        <v>98.220000000001164</v>
-      </c>
-      <c r="J24" s="17">
-        <f>$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" si="4"/>
-        <v>19.644589320000232</v>
+        <f t="shared" si="5"/>
+        <v>113.24739732000023</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
-        <f t="shared" si="1"/>
-        <v>5.511716465902317E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.1774018502577438E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3147,25 +3153,25 @@
         <v>17816.150000000001</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" si="3"/>
-        <v>17722</v>
+        <f t="shared" si="4"/>
+        <v>17254</v>
       </c>
       <c r="I25" s="12">
+        <f t="shared" si="1"/>
+        <v>562.15000000000146</v>
+      </c>
+      <c r="J25" s="17">
         <f t="shared" si="0"/>
-        <v>94.150000000001455</v>
-      </c>
-      <c r="J25" s="17">
-        <f>$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K25" s="14">
-        <f t="shared" si="4"/>
-        <v>18.83056490000029</v>
+        <f t="shared" si="5"/>
+        <v>112.43337290000028</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
-        <f t="shared" si="1"/>
-        <v>5.284531169753359E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.1552832682706479E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3190,25 +3196,25 @@
         <v>17820</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="3"/>
-        <v>17722</v>
+        <f t="shared" si="4"/>
+        <v>17254</v>
       </c>
       <c r="I26" s="12">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="J26" s="17">
         <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="J26" s="17">
-        <f>$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="4"/>
-        <v>19.600587999999998</v>
+        <f t="shared" si="5"/>
+        <v>113.203396</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
-        <f t="shared" si="1"/>
-        <v>5.4994388327721526E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.1762065095398474E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3233,25 +3239,25 @@
         <v>17815</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="3"/>
-        <v>17722</v>
+        <f t="shared" si="4"/>
+        <v>17254</v>
       </c>
       <c r="I27" s="12">
+        <f t="shared" si="1"/>
+        <v>561</v>
+      </c>
+      <c r="J27" s="17">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="J27" s="17">
-        <f>$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="4"/>
-        <v>18.600557999999999</v>
+        <f t="shared" si="5"/>
+        <v>112.20336599999999</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
-        <f t="shared" si="1"/>
-        <v>5.2203199550939774E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.1490317148470393E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3277,7 +3283,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="14">
         <f>SUM(K20:K27)</f>
-        <v>163.9649188000013</v>
+        <v>912.78738280000118</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3293,19 +3299,19 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-8894.6299999999992</v>
+        <v>-8426.6299999999992</v>
       </c>
       <c r="U28" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31414999999999998</v>
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-2794.2480144999995</v>
+        <v>-2647.2258144999996</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
@@ -3425,7 +3431,7 @@
       </c>
       <c r="F34" s="27">
         <f>F37+F38</f>
-        <v>-6003.5404234999996</v>
+        <v>-5669.265807499999</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3448,7 +3454,7 @@
       </c>
       <c r="Q34" s="27">
         <f>Q37+Q38</f>
-        <v>-8025.420047999999</v>
+        <v>-7584.2364479999997</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3473,7 +3479,7 @@
       </c>
       <c r="F35" s="19">
         <f>F34-F36</f>
-        <v>-6087.4804234999992</v>
+        <v>-5753.2058074999986</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3493,7 +3499,7 @@
       </c>
       <c r="Q35" s="19">
         <f>Q34-Q36</f>
-        <v>-8105.5900479999991</v>
+        <v>-7664.4064479999997</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3556,7 +3562,7 @@
       </c>
       <c r="F37" s="19">
         <f>SUM(K42:K44)-G37</f>
-        <v>-6318.0004234999997</v>
+        <v>-5983.7258074999991</v>
       </c>
       <c r="G37" s="19">
         <v>3</v>
@@ -3579,7 +3585,7 @@
       </c>
       <c r="Q37" s="19">
         <f>SUM(V42:V44)-R37</f>
-        <v>-8347.3000479999992</v>
+        <v>-7906.1164479999998</v>
       </c>
       <c r="R37" s="19">
         <v>2.76</v>
@@ -3634,7 +3640,7 @@
       </c>
       <c r="F39" s="26">
         <f>F35/F36+1</f>
-        <v>-71.521806331903733</v>
+        <v>-67.539502114605654</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3649,7 +3655,7 @@
       </c>
       <c r="Q39" s="26">
         <f>Q35/Q36+1</f>
-        <v>-100.10502741673942</v>
+        <v>-94.601926506174379</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -3744,11 +3750,11 @@
       </c>
       <c r="H42" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="I42" s="12">
         <f>G42-H42</f>
-        <v>-8801.86</v>
+        <v>-8333.86</v>
       </c>
       <c r="J42" s="17">
         <f>$K$16</f>
@@ -3756,7 +3762,7 @@
       </c>
       <c r="K42" s="14">
         <f>I42*J42</f>
-        <v>-1760.42481116</v>
+        <v>-1666.8220031600001</v>
       </c>
       <c r="L42" s="14">
         <v>40.61</v>
@@ -3774,18 +3780,18 @@
       </c>
       <c r="S42" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="T42" s="12">
         <f>R42-S42</f>
-        <v>-8800.57</v>
+        <v>-8332.57</v>
       </c>
       <c r="U42" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V42" s="14">
         <f>T42*U42</f>
-        <v>-2765.5791224999998</v>
+        <v>-2618.5101224999999</v>
       </c>
       <c r="W42" s="14">
         <v>40.61</v>
@@ -3805,11 +3811,11 @@
       </c>
       <c r="H43" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="I43" s="12">
         <f>G43-H43</f>
-        <v>-8824.14</v>
+        <v>-8356.14</v>
       </c>
       <c r="J43" s="17">
         <f>$K$16</f>
@@ -3817,7 +3823,7 @@
       </c>
       <c r="K43" s="14">
         <f>I43*J43</f>
-        <v>-1764.8809448399998</v>
+        <v>-1671.2781368399999</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
@@ -3833,18 +3839,18 @@
       </c>
       <c r="S43" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="T43" s="12">
         <f>R43-S43</f>
-        <v>-8872.23</v>
+        <v>-8404.23</v>
       </c>
       <c r="U43" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V43" s="14">
         <f>T43*U43</f>
-        <v>-2788.0982774999998</v>
+        <v>-2641.0292774999998</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
@@ -3862,18 +3868,18 @@
       </c>
       <c r="H44" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="I44" s="12">
         <f>G44-H44</f>
-        <v>-8877.31</v>
+        <v>-8409.31</v>
       </c>
       <c r="J44" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K44" s="14">
         <f>I44*J44</f>
-        <v>-2789.6946674999995</v>
+        <v>-2642.6256674999995</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
@@ -3889,18 +3895,18 @@
       </c>
       <c r="S44" s="14">
         <f>$K$12</f>
-        <v>17722</v>
+        <v>17254</v>
       </c>
       <c r="T44" s="12">
         <f>R44-S44</f>
-        <v>-8882.44</v>
+        <v>-8414.44</v>
       </c>
       <c r="U44" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V44" s="14">
         <f>T44*U44</f>
-        <v>-2790.8626479999998</v>
+        <v>-2643.8170479999999</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
@@ -4104,7 +4110,7 @@
       <c r="L10" s="89"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="107" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="57" t="s">
@@ -4124,7 +4130,7 @@
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F12" s="106"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
       </c>
@@ -4142,7 +4148,7 @@
       </c>
     </row>
     <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F13" s="106"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
       </c>
@@ -4169,7 +4175,7 @@
       </c>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F14" s="106"/>
+      <c r="F14" s="107"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
       </c>
@@ -4206,7 +4212,7 @@
       <c r="S14" s="91"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F15" s="106"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
       </c>
@@ -4364,7 +4370,7 @@
       </c>
     </row>
     <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="107" t="s">
         <v>445</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -4399,7 +4405,7 @@
       </c>
     </row>
     <row r="23" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="106"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
       </c>
@@ -4425,7 +4431,7 @@
       </c>
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="106"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
       </c>
@@ -4451,7 +4457,7 @@
       </c>
     </row>
     <row r="25" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F25" s="106"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
       </c>
@@ -4477,7 +4483,7 @@
       </c>
     </row>
     <row r="26" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F26" s="106"/>
+      <c r="F26" s="107"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
       </c>
@@ -4501,7 +4507,7 @@
       </c>
     </row>
     <row r="27" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F27" s="106"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
       </c>
@@ -4593,10 +4599,10 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="108"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -5284,10 +5290,10 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA009A6-A77D-456F-A614-A9B5E923AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E411EA-3D6D-4131-AC82-834760804D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="540" windowWidth="15450" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2455,7 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -2466,7 +2466,7 @@
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
@@ -2518,7 +2518,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="21">
         <f>K11-K12</f>
-        <v>1178</v>
+        <v>245</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>2905.637382800001</v>
+        <v>1412.7925988000011</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2581,8 +2581,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <f>17843-589</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -2596,7 +2595,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-7579.9235889999991</v>
+        <v>-8459.2294390000006</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2606,7 +2605,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2622,7 +2621,7 @@
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>2620.4473828000009</v>
+        <v>1127.602598800001</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2644,7 +2643,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-7663.6235889999989</v>
+        <v>-8542.9294390000014</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2712,7 +2711,7 @@
       </c>
       <c r="F15" s="19">
         <f>K28</f>
-        <v>912.78738280000118</v>
+        <v>-580.05740119999871</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2731,7 +2730,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-7908.9335889999993</v>
+        <v>-8788.2394390000009</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2787,7 +2786,7 @@
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>10.188426602615804</v>
+        <v>4.9538644370419753</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2802,7 +2801,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-90.560616356033435</v>
+        <v>-101.0660625925926</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2899,26 +2898,26 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>580.31000000000131</v>
+        <v>-352.68999999999869</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ref="J20:J27" si="0">$K$16</f>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="19">
         <f>I20*J20</f>
-        <v>116.06548186000026</v>
+        <v>-70.540116139999739</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>3.2538965623004289E-3</v>
+        <v>-1.9775926290391821E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2932,11 +2931,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-8332.41</v>
+        <v>-9265.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2944,7 +2943,7 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2617.6266014999997</v>
+        <v>-2910.7285514999999</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
@@ -2962,26 +2961,26 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" ref="I21:I27" si="1">G21-H21</f>
-        <v>581</v>
+        <v>-352</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="19">
         <f>I21*J21</f>
-        <v>116.203486</v>
+        <v>-70.402112000000002</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
-        <v>3.2576394729464499E-3</v>
+        <v>-1.9736473226801277E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -2995,11 +2994,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-8416.6200000000008</v>
+        <v>-9349.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U28" si="3">$V$13</f>
@@ -3007,7 +3006,7 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2644.081173</v>
+        <v>-2937.1831230000003</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
@@ -3025,24 +3024,24 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>575.90000000000146</v>
+        <v>-357.09999999999854</v>
       </c>
       <c r="J22" s="17">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>115.18345540000028</v>
+        <v>-71.422142599999702</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>3.2299676386295054E-3</v>
+        <v>-2.0028154953196432E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3068,24 +3067,24 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I23" s="12">
         <f t="shared" si="1"/>
-        <v>571.22000000000116</v>
+        <v>-361.77999999999884</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>114.24742732000023</v>
+        <v>-72.358170679999759</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
         <f t="shared" si="2"/>
-        <v>3.2045607291242505E-3</v>
+        <v>-2.0295962686575518E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3111,24 +3110,24 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I24" s="12">
         <f t="shared" si="1"/>
-        <v>566.22000000000116</v>
+        <v>-366.77999999999884</v>
       </c>
       <c r="J24" s="17">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>113.24739732000023</v>
+        <v>-73.358200679999769</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
         <f t="shared" si="2"/>
-        <v>3.1774018502577438E-3</v>
+        <v>-2.0582237480794244E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3154,24 +3153,24 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="1"/>
-        <v>562.15000000000146</v>
+        <v>-370.84999999999854</v>
       </c>
       <c r="J25" s="17">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>112.43337290000028</v>
+        <v>-74.172225099999707</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
         <f t="shared" si="2"/>
-        <v>3.1552832682706479E-3</v>
+        <v>-2.0815383795039777E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3197,24 +3196,24 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="1"/>
-        <v>566</v>
+        <v>-367</v>
       </c>
       <c r="J26" s="17">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>113.203396</v>
+        <v>-73.402202000000003</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>3.1762065095398474E-3</v>
+        <v>-2.0594837261503907E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3240,24 +3239,24 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="1"/>
-        <v>561</v>
+        <v>-372</v>
       </c>
       <c r="J27" s="17">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>112.20336599999999</v>
+        <v>-74.402231999999998</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
         <f t="shared" si="2"/>
-        <v>3.1490317148470393E-3</v>
+        <v>-2.0881279820376131E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3281,9 +3280,9 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="14">
+      <c r="K28" s="19">
         <f>SUM(K20:K27)</f>
-        <v>912.78738280000118</v>
+        <v>-580.05740119999871</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3299,11 +3298,11 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-8426.6299999999992</v>
+        <v>-9359.6299999999992</v>
       </c>
       <c r="U28" s="25">
         <f t="shared" si="3"/>
@@ -3311,7 +3310,7 @@
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-2647.2258144999996</v>
+        <v>-2940.3277644999998</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
@@ -3431,7 +3430,7 @@
       </c>
       <c r="F34" s="27">
         <f>F37+F38</f>
-        <v>-5669.265807499999</v>
+        <v>-6335.6722534999999</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3454,7 +3453,7 @@
       </c>
       <c r="Q34" s="27">
         <f>Q37+Q38</f>
-        <v>-7584.2364479999997</v>
+        <v>-8463.7755479999996</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3479,7 +3478,7 @@
       </c>
       <c r="F35" s="19">
         <f>F34-F36</f>
-        <v>-5753.2058074999986</v>
+        <v>-6419.6122534999995</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3499,7 +3498,7 @@
       </c>
       <c r="Q35" s="19">
         <f>Q34-Q36</f>
-        <v>-7664.4064479999997</v>
+        <v>-8543.9455479999997</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3562,7 +3561,7 @@
       </c>
       <c r="F37" s="19">
         <f>SUM(K42:K44)-G37</f>
-        <v>-5983.7258074999991</v>
+        <v>-6650.1322534999999</v>
       </c>
       <c r="G37" s="19">
         <v>3</v>
@@ -3585,7 +3584,7 @@
       </c>
       <c r="Q37" s="19">
         <f>SUM(V42:V44)-R37</f>
-        <v>-7906.1164479999998</v>
+        <v>-8785.6555479999988</v>
       </c>
       <c r="R37" s="19">
         <v>2.76</v>
@@ -3640,7 +3639,7 @@
       </c>
       <c r="F39" s="26">
         <f>F35/F36+1</f>
-        <v>-67.539502114605654</v>
+        <v>-75.478582958065275</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3655,7 +3654,7 @@
       </c>
       <c r="Q39" s="26">
         <f>Q35/Q36+1</f>
-        <v>-94.601926506174379</v>
+        <v>-105.57285203941623</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -3750,11 +3749,11 @@
       </c>
       <c r="H42" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I42" s="12">
         <f>G42-H42</f>
-        <v>-8333.86</v>
+        <v>-9266.86</v>
       </c>
       <c r="J42" s="17">
         <f>$K$16</f>
@@ -3762,7 +3761,7 @@
       </c>
       <c r="K42" s="14">
         <f>I42*J42</f>
-        <v>-1666.8220031600001</v>
+        <v>-1853.42760116</v>
       </c>
       <c r="L42" s="14">
         <v>40.61</v>
@@ -3780,18 +3779,18 @@
       </c>
       <c r="S42" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="T42" s="12">
         <f>R42-S42</f>
-        <v>-8332.57</v>
+        <v>-9265.57</v>
       </c>
       <c r="U42" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V42" s="14">
         <f>T42*U42</f>
-        <v>-2618.5101224999999</v>
+        <v>-2911.7053724999996</v>
       </c>
       <c r="W42" s="14">
         <v>40.61</v>
@@ -3811,11 +3810,11 @@
       </c>
       <c r="H43" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I43" s="12">
         <f>G43-H43</f>
-        <v>-8356.14</v>
+        <v>-9289.14</v>
       </c>
       <c r="J43" s="17">
         <f>$K$16</f>
@@ -3823,7 +3822,7 @@
       </c>
       <c r="K43" s="14">
         <f>I43*J43</f>
-        <v>-1671.2781368399999</v>
+        <v>-1857.8837348399998</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
@@ -3839,18 +3838,18 @@
       </c>
       <c r="S43" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="T43" s="12">
         <f>R43-S43</f>
-        <v>-8404.23</v>
+        <v>-9337.23</v>
       </c>
       <c r="U43" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V43" s="14">
         <f>T43*U43</f>
-        <v>-2641.0292774999998</v>
+        <v>-2934.2245274999996</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
@@ -3868,18 +3867,18 @@
       </c>
       <c r="H44" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="I44" s="12">
         <f>G44-H44</f>
-        <v>-8409.31</v>
+        <v>-9342.31</v>
       </c>
       <c r="J44" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K44" s="14">
         <f>I44*J44</f>
-        <v>-2642.6256674999995</v>
+        <v>-2935.8209174999997</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
@@ -3895,18 +3894,18 @@
       </c>
       <c r="S44" s="14">
         <f>$K$12</f>
-        <v>17254</v>
+        <v>18187</v>
       </c>
       <c r="T44" s="12">
         <f>R44-S44</f>
-        <v>-8414.44</v>
+        <v>-9347.44</v>
       </c>
       <c r="U44" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V44" s="14">
         <f>T44*U44</f>
-        <v>-2643.8170479999999</v>
+        <v>-2936.9656479999999</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
@@ -3968,7 +3967,7 @@
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
@@ -4573,7 +4572,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K7</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J4" s="56"/>
     </row>
@@ -4629,7 +4628,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="65">
         <f ca="1">TODAY()</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="L7" s="32"/>
     </row>
@@ -4710,7 +4709,7 @@
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I10" s="102">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
@@ -4753,7 +4752,7 @@
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I11" s="102">
         <f t="shared" si="3"/>
@@ -4796,7 +4795,7 @@
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I12" s="102">
         <f t="shared" si="3"/>
@@ -4839,7 +4838,7 @@
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I13" s="102">
         <f t="shared" si="3"/>
@@ -4882,7 +4881,7 @@
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I14" s="102">
         <f t="shared" si="3"/>
@@ -4924,7 +4923,7 @@
       </c>
       <c r="H15" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="3"/>
@@ -5040,7 +5039,7 @@
       </c>
       <c r="H20" s="39">
         <f ca="1">$K$7</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I20" s="51">
         <f>B20*G20</f>
@@ -5083,7 +5082,7 @@
       </c>
       <c r="H21" s="39">
         <f ca="1">$K$7</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I21" s="37">
         <f>I20*$I$5</f>
@@ -5160,7 +5159,7 @@
       </c>
       <c r="H25" s="52">
         <f ca="1">$K$7</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="I25" s="53">
         <f>I17+I21+I24</f>
@@ -5252,7 +5251,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="66">
         <f ca="1">L5</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="38" t="s">
@@ -5285,7 +5284,7 @@
       </c>
       <c r="L5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="M5" s="32"/>
     </row>
@@ -5395,7 +5394,7 @@
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
@@ -5436,7 +5435,7 @@
       </c>
       <c r="I11" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
@@ -5477,7 +5476,7 @@
       </c>
       <c r="I12" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
@@ -5518,7 +5517,7 @@
       </c>
       <c r="I13" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J13" s="70">
         <f t="shared" si="3"/>
@@ -5559,7 +5558,7 @@
       </c>
       <c r="I14" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="3"/>
@@ -5600,7 +5599,7 @@
       </c>
       <c r="I15" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J15" s="70">
         <f t="shared" si="3"/>
@@ -5713,7 +5712,7 @@
       </c>
       <c r="I19" s="52">
         <f ca="1">$L$5</f>
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="J19" s="53">
         <f>J17</f>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E411EA-3D6D-4131-AC82-834760804D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28035BCA-D42F-47A8-9E13-F2CB8350D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1724,7 +1724,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1924,6 +1924,7 @@
     <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2445,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I27"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2519,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="21">
         <f>K11-K12</f>
-        <v>245</v>
+        <v>372</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
@@ -2572,7 +2573,7 @@
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>1412.7925988000011</v>
+        <v>1615.9986948000012</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2581,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -2595,7 +2596,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-8459.2294390000006</v>
+        <v>-8339.5382890000001</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2605,7 +2606,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2621,7 +2622,7 @@
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>1127.602598800001</v>
+        <v>1330.8086948000011</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2643,7 +2644,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-8542.9294390000014</v>
+        <v>-8423.2382890000008</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2711,9 +2712,12 @@
       </c>
       <c r="F15" s="19">
         <f>K28</f>
-        <v>-580.05740119999871</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>-376.85130519999865</v>
+      </c>
+      <c r="G15" s="107">
+        <f>F12/F16-1</f>
+        <v>-0.18910169114584574</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="9" t="s">
@@ -2730,7 +2734,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-8788.2394390000009</v>
+        <v>-8668.5482890000003</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2786,7 +2790,7 @@
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>4.9538644370419753</v>
+        <v>5.6663932634384135</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2801,7 +2805,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-101.0660625925926</v>
+        <v>-99.636060800477907</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2898,11 +2902,11 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>-352.68999999999869</v>
+        <v>-225.68999999999869</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ref="J20:J27" si="0">$K$16</f>
@@ -2910,14 +2914,14 @@
       </c>
       <c r="K20" s="19">
         <f>I20*J20</f>
-        <v>-70.540116139999739</v>
+        <v>-45.139354139999739</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>-1.9775926290391821E-3</v>
+        <v>-1.2654820960272596E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2931,11 +2935,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-9265.41</v>
+        <v>-9138.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2943,7 +2947,7 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2910.7285514999999</v>
+        <v>-2870.8315014999998</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
@@ -2961,11 +2965,11 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" ref="I21:I27" si="1">G21-H21</f>
-        <v>-352</v>
+        <v>-225</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="0"/>
@@ -2973,14 +2977,14 @@
       </c>
       <c r="K21" s="19">
         <f>I21*J21</f>
-        <v>-70.402112000000002</v>
+        <v>-45.001349999999995</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
-        <v>-1.9736473226801277E-3</v>
+        <v>-1.2615643397813293E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -2994,11 +2998,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-9349.6200000000008</v>
+        <v>-9222.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U28" si="3">$V$13</f>
@@ -3006,7 +3010,7 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2937.1831230000003</v>
+        <v>-2897.2860730000002</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
@@ -3024,11 +3028,11 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>-357.09999999999854</v>
+        <v>-230.09999999999854</v>
       </c>
       <c r="J22" s="17">
         <f t="shared" si="0"/>
@@ -3036,12 +3040,12 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>-71.422142599999702</v>
+        <v>-46.021380599999709</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>-2.0028154953196432E-3</v>
+        <v>-1.2905288307842433E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3067,11 +3071,11 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I23" s="12">
         <f t="shared" si="1"/>
-        <v>-361.77999999999884</v>
+        <v>-234.77999999999884</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="0"/>
@@ -3079,12 +3083,12 @@
       </c>
       <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>-72.358170679999759</v>
+        <v>-46.957408679999766</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
         <f t="shared" si="2"/>
-        <v>-2.0295962686575518E-3</v>
+        <v>-1.3171225937183228E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3110,11 +3114,11 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I24" s="12">
         <f t="shared" si="1"/>
-        <v>-366.77999999999884</v>
+        <v>-239.77999999999884</v>
       </c>
       <c r="J24" s="17">
         <f t="shared" si="0"/>
@@ -3122,12 +3126,12 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>-73.358200679999769</v>
+        <v>-47.957438679999761</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
         <f t="shared" si="2"/>
-        <v>-2.0582237480794244E-3</v>
+        <v>-1.3455501671696402E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3153,11 +3157,11 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="1"/>
-        <v>-370.84999999999854</v>
+        <v>-243.84999999999854</v>
       </c>
       <c r="J25" s="17">
         <f t="shared" si="0"/>
@@ -3165,12 +3169,12 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>-74.172225099999707</v>
+        <v>-48.771463099999707</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
         <f t="shared" si="2"/>
-        <v>-2.0815383795039777E-3</v>
+        <v>-1.3687019922935086E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3196,11 +3200,11 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="1"/>
-        <v>-367</v>
+        <v>-240</v>
       </c>
       <c r="J26" s="17">
         <f t="shared" si="0"/>
@@ -3208,12 +3212,12 @@
       </c>
       <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>-73.402202000000003</v>
+        <v>-48.001439999999995</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>-2.0594837261503907E-3</v>
+        <v>-1.3468013468013408E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3239,11 +3243,11 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="1"/>
-        <v>-372</v>
+        <v>-245</v>
       </c>
       <c r="J27" s="17">
         <f t="shared" si="0"/>
@@ -3251,12 +3255,12 @@
       </c>
       <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>-74.402231999999998</v>
+        <v>-49.001469999999998</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
         <f t="shared" si="2"/>
-        <v>-2.0881279820376131E-3</v>
+        <v>-1.3752455795677855E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3282,7 +3286,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="19">
         <f>SUM(K20:K27)</f>
-        <v>-580.05740119999871</v>
+        <v>-376.85130519999865</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3298,11 +3302,11 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-9359.6299999999992</v>
+        <v>-9232.6299999999992</v>
       </c>
       <c r="U28" s="25">
         <f t="shared" si="3"/>
@@ -3310,7 +3314,7 @@
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-2940.3277644999998</v>
+        <v>-2900.4307144999998</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
@@ -3430,7 +3434,7 @@
       </c>
       <c r="F34" s="27">
         <f>F37+F38</f>
-        <v>-6335.6722534999999</v>
+        <v>-6244.9609794999988</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3453,7 +3457,7 @@
       </c>
       <c r="Q34" s="27">
         <f>Q37+Q38</f>
-        <v>-8463.7755479999996</v>
+        <v>-8344.0526480000008</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3478,7 +3482,7 @@
       </c>
       <c r="F35" s="19">
         <f>F34-F36</f>
-        <v>-6419.6122534999995</v>
+        <v>-6328.9009794999984</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3498,7 +3502,7 @@
       </c>
       <c r="Q35" s="19">
         <f>Q34-Q36</f>
-        <v>-8543.9455479999997</v>
+        <v>-8424.2226480000008</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3561,7 +3565,7 @@
       </c>
       <c r="F37" s="19">
         <f>SUM(K42:K44)-G37</f>
-        <v>-6650.1322534999999</v>
+        <v>-6559.4209794999988</v>
       </c>
       <c r="G37" s="19">
         <v>3</v>
@@ -3584,7 +3588,7 @@
       </c>
       <c r="Q37" s="19">
         <f>SUM(V42:V44)-R37</f>
-        <v>-8785.6555479999988</v>
+        <v>-8665.932648</v>
       </c>
       <c r="R37" s="19">
         <v>2.76</v>
@@ -3639,7 +3643,7 @@
       </c>
       <c r="F39" s="26">
         <f>F35/F36+1</f>
-        <v>-75.478582958065275</v>
+        <v>-74.397914933285662</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3654,7 +3658,7 @@
       </c>
       <c r="Q39" s="26">
         <f>Q35/Q36+1</f>
-        <v>-105.57285203941623</v>
+        <v>-104.07948918548087</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -3749,11 +3753,11 @@
       </c>
       <c r="H42" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I42" s="12">
         <f>G42-H42</f>
-        <v>-9266.86</v>
+        <v>-9139.86</v>
       </c>
       <c r="J42" s="17">
         <f>$K$16</f>
@@ -3761,7 +3765,7 @@
       </c>
       <c r="K42" s="14">
         <f>I42*J42</f>
-        <v>-1853.42760116</v>
+        <v>-1828.02683916</v>
       </c>
       <c r="L42" s="14">
         <v>40.61</v>
@@ -3779,18 +3783,18 @@
       </c>
       <c r="S42" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="T42" s="12">
         <f>R42-S42</f>
-        <v>-9265.57</v>
+        <v>-9138.57</v>
       </c>
       <c r="U42" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V42" s="14">
         <f>T42*U42</f>
-        <v>-2911.7053724999996</v>
+        <v>-2871.7956224999998</v>
       </c>
       <c r="W42" s="14">
         <v>40.61</v>
@@ -3810,11 +3814,11 @@
       </c>
       <c r="H43" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I43" s="12">
         <f>G43-H43</f>
-        <v>-9289.14</v>
+        <v>-9162.14</v>
       </c>
       <c r="J43" s="17">
         <f>$K$16</f>
@@ -3822,7 +3826,7 @@
       </c>
       <c r="K43" s="14">
         <f>I43*J43</f>
-        <v>-1857.8837348399998</v>
+        <v>-1832.4829728399998</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
@@ -3838,18 +3842,18 @@
       </c>
       <c r="S43" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="T43" s="12">
         <f>R43-S43</f>
-        <v>-9337.23</v>
+        <v>-9210.23</v>
       </c>
       <c r="U43" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V43" s="14">
         <f>T43*U43</f>
-        <v>-2934.2245274999996</v>
+        <v>-2894.3147774999998</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
@@ -3867,18 +3871,18 @@
       </c>
       <c r="H44" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="I44" s="12">
         <f>G44-H44</f>
-        <v>-9342.31</v>
+        <v>-9215.31</v>
       </c>
       <c r="J44" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K44" s="14">
         <f>I44*J44</f>
-        <v>-2935.8209174999997</v>
+        <v>-2895.9111674999995</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
@@ -3894,18 +3898,18 @@
       </c>
       <c r="S44" s="14">
         <f>$K$12</f>
-        <v>18187</v>
+        <v>18060</v>
       </c>
       <c r="T44" s="12">
         <f>R44-S44</f>
-        <v>-9347.44</v>
+        <v>-9220.44</v>
       </c>
       <c r="U44" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V44" s="14">
         <f>T44*U44</f>
-        <v>-2936.9656479999999</v>
+        <v>-2897.0622480000002</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
@@ -4109,7 +4113,7 @@
       <c r="L10" s="89"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="108" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="57" t="s">
@@ -4129,7 +4133,7 @@
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F12" s="107"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
       </c>
@@ -4147,7 +4151,7 @@
       </c>
     </row>
     <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F13" s="107"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
       </c>
@@ -4174,7 +4178,7 @@
       </c>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F14" s="107"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
       </c>
@@ -4211,7 +4215,7 @@
       <c r="S14" s="91"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F15" s="107"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
       </c>
@@ -4369,7 +4373,7 @@
       </c>
     </row>
     <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="108" t="s">
         <v>445</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -4404,7 +4408,7 @@
       </c>
     </row>
     <row r="23" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="107"/>
+      <c r="F23" s="108"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
       </c>
@@ -4430,7 +4434,7 @@
       </c>
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="107"/>
+      <c r="F24" s="108"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
       </c>
@@ -4456,7 +4460,7 @@
       </c>
     </row>
     <row r="25" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F25" s="107"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
       </c>
@@ -4482,7 +4486,7 @@
       </c>
     </row>
     <row r="26" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F26" s="107"/>
+      <c r="F26" s="108"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
       </c>
@@ -4506,7 +4510,7 @@
       </c>
     </row>
     <row r="27" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F27" s="107"/>
+      <c r="F27" s="108"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
       </c>
@@ -4598,10 +4602,10 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -5289,10 +5293,10 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="109"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28035BCA-D42F-47A8-9E13-F2CB8350D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
     <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1468,7 +1467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1936,10 +1935,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
-    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2443,41 +2442,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A26" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2519,7 +2518,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="21">
         <f>K11-K12</f>
-        <v>372</v>
+        <v>992</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
@@ -2534,7 +2533,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2566,14 +2565,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>1615.9986948000012</v>
+        <v>3533.9484548000014</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2582,7 +2581,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -2596,7 +2595,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-8339.5382890000001</v>
+        <v>-7755.2192889999988</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2606,7 +2605,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2615,14 +2614,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>1330.8086948000011</v>
+        <v>3248.7584548000013</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2644,7 +2643,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-8423.2382890000008</v>
+        <v>-7838.9192889999986</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2661,7 +2660,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2705,18 +2704,18 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
         <f>K28</f>
-        <v>-376.85130519999865</v>
+        <v>615.1784548000013</v>
       </c>
       <c r="G15" s="107">
         <f>F12/F16-1</f>
-        <v>-0.18910169114584574</v>
+        <v>0.21076633472318873</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2734,7 +2733,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-8668.5482890000003</v>
+        <v>-8084.229288999999</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2748,13 +2747,13 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="19">
-        <v>1992.85</v>
+        <v>2918.77</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2783,14 +2782,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>5.6663932634384135</v>
+        <v>12.391558100915184</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2805,7 +2804,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-99.636060800477907</v>
+        <v>-92.654949689366759</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2815,7 +2814,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2837,7 +2836,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2889,7 +2888,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2902,11 +2901,11 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>-225.68999999999869</v>
+        <v>394.31000000000131</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ref="J20:J27" si="0">$K$16</f>
@@ -2914,14 +2913,14 @@
       </c>
       <c r="K20" s="19">
         <f>I20*J20</f>
-        <v>-45.139354139999739</v>
+        <v>78.864365860000262</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>-1.2654820960272596E-3</v>
+        <v>2.2109630257632685E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2935,11 +2934,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-9138.41</v>
+        <v>-8518.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2947,12 +2946,12 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2870.8315014999998</v>
+        <v>-2676.0585014999997</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>426</v>
@@ -2965,11 +2964,11 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" ref="I21:I27" si="1">G21-H21</f>
-        <v>-225</v>
+        <v>395</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="0"/>
@@ -2977,14 +2976,14 @@
       </c>
       <c r="K21" s="19">
         <f>I21*J21</f>
-        <v>-45.001349999999995</v>
+        <v>79.002369999999999</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
-        <v>-1.2615643397813293E-3</v>
+        <v>2.214746285393887E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -2998,11 +2997,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-9222.6200000000008</v>
+        <v>-8602.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U28" si="3">$V$13</f>
@@ -3010,12 +3009,12 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2897.2860730000002</v>
+        <v>-2702.5130730000001</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
         <v>426</v>
@@ -3028,11 +3027,11 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>-230.09999999999854</v>
+        <v>389.90000000000146</v>
       </c>
       <c r="J22" s="17">
         <f t="shared" si="0"/>
@@ -3040,12 +3039,12 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>-46.021380599999709</v>
+        <v>77.982339400000285</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>-1.2905288307842433E-3</v>
+        <v>2.1867761456878742E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3058,7 +3057,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
         <v>426</v>
@@ -3071,11 +3070,11 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I23" s="12">
         <f t="shared" si="1"/>
-        <v>-234.77999999999884</v>
+        <v>385.22000000000116</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="0"/>
@@ -3083,12 +3082,12 @@
       </c>
       <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>-46.957408679999766</v>
+        <v>77.046311320000228</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
         <f t="shared" si="2"/>
-        <v>-1.3171225937183228E-3</v>
+        <v>2.1610953469298087E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3101,7 +3100,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
         <v>426</v>
@@ -3114,11 +3113,11 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I24" s="12">
         <f t="shared" si="1"/>
-        <v>-239.77999999999884</v>
+        <v>380.22000000000116</v>
       </c>
       <c r="J24" s="17">
         <f t="shared" si="0"/>
@@ -3126,12 +3125,12 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>-47.957438679999761</v>
+        <v>76.046281320000233</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
         <f t="shared" si="2"/>
-        <v>-1.3455501671696402E-3</v>
+        <v>2.133643692389886E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3144,7 +3143,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
         <v>426</v>
@@ -3157,11 +3156,11 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="1"/>
-        <v>-243.84999999999854</v>
+        <v>376.15000000000146</v>
       </c>
       <c r="J25" s="17">
         <f t="shared" si="0"/>
@@ -3169,12 +3168,12 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>-48.771463099999707</v>
+        <v>75.23225690000028</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
         <f t="shared" si="2"/>
-        <v>-1.3687019922935086E-3</v>
+        <v>2.1112866696789247E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3187,7 +3186,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
         <v>426</v>
@@ -3200,11 +3199,11 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="1"/>
-        <v>-240</v>
+        <v>380</v>
       </c>
       <c r="J26" s="17">
         <f t="shared" si="0"/>
@@ -3212,12 +3211,12 @@
       </c>
       <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>-48.001439999999995</v>
+        <v>76.002279999999999</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>-1.3468013468013408E-3</v>
+        <v>2.1324354657688005E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3230,7 +3229,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
         <v>426</v>
@@ -3243,11 +3242,11 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="1"/>
-        <v>-245</v>
+        <v>375</v>
       </c>
       <c r="J27" s="17">
         <f t="shared" si="0"/>
@@ -3255,12 +3254,12 @@
       </c>
       <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>-49.001469999999998</v>
+        <v>75.002249999999989</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
         <f t="shared" si="2"/>
-        <v>-1.3752455795677855E-3</v>
+        <v>2.1049677238282327E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3273,7 +3272,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14">
@@ -3286,7 +3285,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="19">
         <f>SUM(K20:K27)</f>
-        <v>-376.85130519999865</v>
+        <v>615.1784548000013</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3302,11 +3301,11 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-9232.6299999999992</v>
+        <v>-8612.6299999999992</v>
       </c>
       <c r="U28" s="25">
         <f t="shared" si="3"/>
@@ -3314,12 +3313,12 @@
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-2900.4307144999998</v>
+        <v>-2705.6577144999997</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3341,7 +3340,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D31" s="23">
         <v>9675887</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3397,7 +3396,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3427,14 +3426,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="27">
         <f>F37+F38</f>
-        <v>-6244.9609794999988</v>
+        <v>-5802.1185394999993</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3457,7 +3456,7 @@
       </c>
       <c r="Q34" s="27">
         <f>Q37+Q38</f>
-        <v>-8344.0526480000008</v>
+        <v>-7759.5786479999997</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3475,14 +3474,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="19">
         <f>F34-F36</f>
-        <v>-6328.9009794999984</v>
+        <v>-5886.0585394999989</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3502,7 +3501,7 @@
       </c>
       <c r="Q35" s="19">
         <f>Q34-Q36</f>
-        <v>-8424.2226480000008</v>
+        <v>-7839.7486479999998</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3517,7 +3516,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" s="11" t="s">
         <v>2</v>
@@ -3558,14 +3557,14 @@
       <c r="W36" s="3"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="19">
         <f>SUM(K42:K44)-G37</f>
-        <v>-6559.4209794999988</v>
+        <v>-6116.5785394999994</v>
       </c>
       <c r="G37" s="19">
         <v>3</v>
@@ -3588,7 +3587,7 @@
       </c>
       <c r="Q37" s="19">
         <f>SUM(V42:V44)-R37</f>
-        <v>-8665.932648</v>
+        <v>-8081.4586479999998</v>
       </c>
       <c r="R37" s="19">
         <v>2.76</v>
@@ -3606,7 +3605,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="11" t="s">
         <v>4</v>
@@ -3636,14 +3635,14 @@
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="26">
         <f>F35/F36+1</f>
-        <v>-74.397914933285662</v>
+        <v>-69.122212765070273</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3658,7 +3657,7 @@
       </c>
       <c r="Q39" s="26">
         <f>Q35/Q36+1</f>
-        <v>-104.07948918548087</v>
+        <v>-96.789056355245094</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -3668,7 +3667,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3690,7 +3689,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
@@ -3740,7 +3739,7 @@
       </c>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D42" s="2"/>
       <c r="E42" s="13" t="s">
         <v>16</v>
@@ -3753,11 +3752,11 @@
       </c>
       <c r="H42" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I42" s="12">
         <f>G42-H42</f>
-        <v>-9139.86</v>
+        <v>-8519.86</v>
       </c>
       <c r="J42" s="17">
         <f>$K$16</f>
@@ -3765,7 +3764,7 @@
       </c>
       <c r="K42" s="14">
         <f>I42*J42</f>
-        <v>-1828.02683916</v>
+        <v>-1704.0231191600001</v>
       </c>
       <c r="L42" s="14">
         <v>40.61</v>
@@ -3783,25 +3782,25 @@
       </c>
       <c r="S42" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="T42" s="12">
         <f>R42-S42</f>
-        <v>-9138.57</v>
+        <v>-8518.57</v>
       </c>
       <c r="U42" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V42" s="14">
         <f>T42*U42</f>
-        <v>-2871.7956224999998</v>
+        <v>-2676.9606224999998</v>
       </c>
       <c r="W42" s="14">
         <v>40.61</v>
       </c>
       <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="13" t="s">
         <v>16</v>
@@ -3814,11 +3813,11 @@
       </c>
       <c r="H43" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I43" s="12">
         <f>G43-H43</f>
-        <v>-9162.14</v>
+        <v>-8542.14</v>
       </c>
       <c r="J43" s="17">
         <f>$K$16</f>
@@ -3826,7 +3825,7 @@
       </c>
       <c r="K43" s="14">
         <f>I43*J43</f>
-        <v>-1832.4829728399998</v>
+        <v>-1708.4792528399998</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
@@ -3842,23 +3841,23 @@
       </c>
       <c r="S43" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="T43" s="12">
         <f>R43-S43</f>
-        <v>-9210.23</v>
+        <v>-8590.23</v>
       </c>
       <c r="U43" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V43" s="14">
         <f>T43*U43</f>
-        <v>-2894.3147774999998</v>
+        <v>-2699.4797774999997</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
       <c r="E44" s="13" t="s">
         <v>16</v>
@@ -3871,18 +3870,18 @@
       </c>
       <c r="H44" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="I44" s="12">
         <f>G44-H44</f>
-        <v>-9215.31</v>
+        <v>-8595.31</v>
       </c>
       <c r="J44" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K44" s="14">
         <f>I44*J44</f>
-        <v>-2895.9111674999995</v>
+        <v>-2701.0761674999994</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
@@ -3898,23 +3897,23 @@
       </c>
       <c r="S44" s="14">
         <f>$K$12</f>
-        <v>18060</v>
+        <v>17440</v>
       </c>
       <c r="T44" s="12">
         <f>R44-S44</f>
-        <v>-9220.44</v>
+        <v>-8600.44</v>
       </c>
       <c r="U44" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V44" s="14">
         <f>T44*U44</f>
-        <v>-2897.0622480000002</v>
+        <v>-2702.2582480000001</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3944,37 +3943,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
         <v>45369</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -4041,7 +4040,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -4059,7 +4058,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -4076,10 +4075,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -4096,7 +4095,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -4112,7 +4111,7 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F11" s="108" t="s">
         <v>439</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F12" s="108"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
@@ -4150,7 +4149,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
       <c r="F13" s="108"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
@@ -4177,7 +4176,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F14" s="108"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
@@ -4206,7 +4205,7 @@
       </c>
       <c r="P14" s="95">
         <f>O14/$O$19</f>
-        <v>0.28708995090205441</v>
+        <v>0.20186647720589357</v>
       </c>
       <c r="Q14" s="91"/>
       <c r="R14" s="91">
@@ -4214,7 +4213,7 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F15" s="108"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
@@ -4233,11 +4232,12 @@
         <v>455</v>
       </c>
       <c r="O15" s="91">
-        <v>315.45</v>
+        <f>315.45+10000/32.4</f>
+        <v>624.09197530864196</v>
       </c>
       <c r="P15" s="95">
         <f t="shared" ref="P15:P19" si="5">O15/$O$19</f>
-        <v>0.14382994522679754</v>
+        <v>0.20008456842376413</v>
       </c>
       <c r="Q15" s="91"/>
       <c r="R15" s="91">
@@ -4245,16 +4245,17 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
       <c r="O16" s="91">
-        <v>314.45999999999998</v>
+        <f>314.46+10000/32.4</f>
+        <v>623.10197530864195</v>
       </c>
       <c r="P16" s="95">
         <f t="shared" si="5"/>
-        <v>0.14337855310197734</v>
+        <v>0.19976717334326885</v>
       </c>
       <c r="Q16" s="91"/>
       <c r="R16" s="91">
@@ -4262,7 +4263,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -4270,11 +4271,12 @@
         <v>456</v>
       </c>
       <c r="O17" s="91">
-        <v>314.45999999999998</v>
+        <f>314.46+10000/32.4</f>
+        <v>623.10197530864195</v>
       </c>
       <c r="P17" s="95">
         <f t="shared" si="5"/>
-        <v>0.14337855310197734</v>
+        <v>0.19976717334326885</v>
       </c>
       <c r="Q17" s="91"/>
       <c r="R17" s="91">
@@ -4282,7 +4284,7 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>446</v>
       </c>
@@ -4295,7 +4297,7 @@
       </c>
       <c r="P18" s="95">
         <f t="shared" si="5"/>
-        <v>0.28232299766719332</v>
+        <v>0.19851460768380447</v>
       </c>
       <c r="Q18" s="91"/>
       <c r="R18" s="91">
@@ -4303,7 +4305,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4312,7 +4314,7 @@
       </c>
       <c r="O19" s="93">
         <f>SUM(O14:O18)</f>
-        <v>2193.2150464396286</v>
+        <v>3119.1409723655547</v>
       </c>
       <c r="P19" s="96">
         <f t="shared" si="5"/>
@@ -4328,7 +4330,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4348,10 +4350,10 @@
         <v>451</v>
       </c>
       <c r="O20" s="93">
-        <v>1992.85</v>
-      </c>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+        <v>2918.77</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4372,7 +4374,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F22" s="108" t="s">
         <v>445</v>
       </c>
@@ -4389,7 +4391,7 @@
       </c>
       <c r="J22" s="84">
         <f>$J$27*I22</f>
-        <v>231.9579314931826</v>
+        <v>339.730462254739</v>
       </c>
       <c r="K22" s="88">
         <f>J11</f>
@@ -4397,17 +4399,17 @@
       </c>
       <c r="L22" s="88">
         <f>J22-K22</f>
-        <v>64.702274549250944</v>
+        <v>172.47480531080734</v>
       </c>
       <c r="N22" s="92" t="s">
         <v>458</v>
       </c>
       <c r="O22" s="93">
         <f>O20-O19</f>
-        <v>-200.36504643962871</v>
-      </c>
-    </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+        <v>-200.37097236555474</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F23" s="108"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
@@ -4422,7 +4424,7 @@
       </c>
       <c r="J23" s="84">
         <f t="shared" ref="J23:J26" si="7">$J$27*I23</f>
-        <v>231.9579314931826</v>
+        <v>339.730462254739</v>
       </c>
       <c r="K23" s="88">
         <f>J12</f>
@@ -4430,10 +4432,10 @@
       </c>
       <c r="L23" s="88">
         <f t="shared" ref="L23:L26" si="8">J23-K23</f>
-        <v>64.702274549250944</v>
-      </c>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+        <v>172.47480531080734</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F24" s="108"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
@@ -4448,7 +4450,7 @@
       </c>
       <c r="J24" s="84">
         <f t="shared" si="7"/>
-        <v>231.9579314931826</v>
+        <v>339.730462254739</v>
       </c>
       <c r="K24" s="88">
         <f>J13</f>
@@ -4456,10 +4458,10 @@
       </c>
       <c r="L24" s="88">
         <f t="shared" si="8"/>
-        <v>64.702274549250944</v>
-      </c>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+        <v>172.47480531080734</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F25" s="108"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
@@ -4474,7 +4476,7 @@
       </c>
       <c r="J25" s="84">
         <f t="shared" si="7"/>
-        <v>806.06485755459482</v>
+        <v>1180.5795339762776</v>
       </c>
       <c r="K25" s="88">
         <f>J14</f>
@@ -4482,10 +4484,10 @@
       </c>
       <c r="L25" s="88">
         <f t="shared" si="8"/>
-        <v>401.83182838638976</v>
-      </c>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+        <v>776.3465048080725</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F26" s="108"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
@@ -4499,17 +4501,17 @@
       </c>
       <c r="J26" s="84">
         <f t="shared" si="7"/>
-        <v>490.91134796585743</v>
+        <v>718.99907925950561</v>
       </c>
       <c r="K26" s="88">
         <v>0</v>
       </c>
       <c r="L26" s="88">
         <f t="shared" si="8"/>
-        <v>490.91134796585743</v>
-      </c>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+        <v>718.99907925950561</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F27" s="108"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
@@ -4524,12 +4526,12 @@
       </c>
       <c r="J27" s="86">
         <f>O20</f>
-        <v>1992.85</v>
+        <v>2918.77</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="88">
         <f>SUM(L22:L26)</f>
-        <v>1086.8499999999999</v>
+        <v>2012.7700000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4542,28 +4544,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -4580,7 +4582,7 @@
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -4601,7 +4603,7 @@
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="109" t="s">
         <v>39</v>
       </c>
@@ -4619,7 +4621,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -4636,7 +4638,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4652,7 +4654,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -4686,7 +4688,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -4729,7 +4731,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -4772,7 +4774,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -4815,7 +4817,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -4858,7 +4860,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -4901,7 +4903,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -4943,7 +4945,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -4957,7 +4959,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -4986,7 +4988,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -5000,7 +5002,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>48</v>
       </c>
@@ -5017,7 +5019,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
@@ -5059,7 +5061,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -5102,7 +5104,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
@@ -5115,7 +5117,7 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>52</v>
       </c>
@@ -5135,7 +5137,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
@@ -5151,7 +5153,7 @@
       <c r="J24" s="56"/>
       <c r="K24" s="57"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="61"/>
       <c r="B25" s="57"/>
       <c r="C25" s="55"/>
@@ -5178,7 +5180,7 @@
         <v>2.1800948972254187E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="61"/>
       <c r="B26" s="57"/>
       <c r="C26" s="55"/>
@@ -5217,30 +5219,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
@@ -5262,7 +5264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -5292,7 +5294,7 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="109" t="s">
         <v>21</v>
       </c>
@@ -5308,7 +5310,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -5322,7 +5324,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -5338,7 +5340,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -5372,7 +5374,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>1.6950110175716127E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>1.6569444583412363E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>2.6757711845689425E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
         <v>31</v>
       </c>
@@ -5536,7 +5538,7 @@
         <v>1.2403630631296458E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="67" t="s">
         <v>26</v>
       </c>
@@ -5577,7 +5579,7 @@
         <v>6.0158250766381149E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="67" t="s">
         <v>50</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>1.7187955356369411E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="67" t="s">
         <v>52</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -5676,7 +5678,7 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
@@ -5704,7 +5706,7 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
@@ -5731,7 +5733,7 @@
         <v>1.8504050679170173E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="61"/>
       <c r="C20" s="57"/>
       <c r="D20" s="55"/>
@@ -5749,7 +5751,7 @@
       </c>
       <c r="L20" s="57"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G24" s="74"/>
     </row>
   </sheetData>
@@ -5762,20 +5764,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -5807,17 +5809,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -5825,12 +5827,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -5854,7 +5856,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -5926,7 +5928,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -6014,12 +6016,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -6027,7 +6029,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -6083,7 +6085,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -6123,7 +6125,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -6131,7 +6133,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -6219,7 +6221,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -6235,7 +6237,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -6259,7 +6261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6307,7 +6309,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6331,7 +6333,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6411,7 +6413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6427,7 +6429,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6443,7 +6445,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6451,7 +6453,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6491,7 +6493,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6579,7 +6581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6587,7 +6589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -6635,7 +6637,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -6683,7 +6685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -6691,7 +6693,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -6699,7 +6701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -6707,7 +6709,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -6739,7 +6741,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -6747,7 +6749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -6755,7 +6757,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -6779,7 +6781,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -6787,7 +6789,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -6803,7 +6805,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -6811,7 +6813,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -6851,7 +6853,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -6859,7 +6861,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -6867,7 +6869,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -6875,7 +6877,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -6883,7 +6885,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -6899,7 +6901,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -6915,7 +6917,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -6923,7 +6925,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -6931,7 +6933,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -6939,7 +6941,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -6955,7 +6957,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -6971,7 +6973,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -6979,7 +6981,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -7003,7 +7005,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -7011,7 +7013,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -7019,7 +7021,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -7051,7 +7053,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7069,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -7075,7 +7077,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -7107,7 +7109,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -7123,7 +7125,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -7147,7 +7149,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -7195,7 +7197,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -7203,7 +7205,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -7243,7 +7245,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -7251,7 +7253,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7323,7 +7325,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7331,7 +7333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7379,7 +7381,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7411,7 +7413,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7459,7 +7461,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7507,7 +7509,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7515,7 +7517,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7523,7 +7525,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7531,7 +7533,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7555,7 +7557,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7571,7 +7573,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7587,7 +7589,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -7595,7 +7597,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -7603,7 +7605,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -7619,7 +7621,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -7635,7 +7637,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -7651,7 +7653,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -7659,7 +7661,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -7667,7 +7669,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -7699,7 +7701,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -7707,7 +7709,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -7715,7 +7717,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -7739,7 +7741,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -7747,7 +7749,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -7803,7 +7805,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -7819,7 +7821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -7875,7 +7877,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -7891,7 +7893,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -7907,7 +7909,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -7923,7 +7925,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -7931,7 +7933,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -7963,7 +7965,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -7971,7 +7973,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -7979,7 +7981,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -7987,7 +7989,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -8027,7 +8029,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -8035,7 +8037,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -8043,7 +8045,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -8067,7 +8069,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -8075,7 +8077,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -8083,7 +8085,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -8091,7 +8093,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -8099,7 +8101,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -8107,7 +8109,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -8123,7 +8125,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -8131,7 +8133,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -8163,7 +8165,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -8195,7 +8197,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -8203,7 +8205,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -8219,7 +8221,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -8235,7 +8237,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -8251,7 +8253,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -8267,7 +8269,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -8275,7 +8277,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -8299,7 +8301,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8307,7 +8309,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8323,7 +8325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8331,7 +8333,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8339,7 +8341,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8363,7 +8365,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8371,7 +8373,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8387,7 +8389,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8403,7 +8405,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8427,7 +8429,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8435,7 +8437,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8443,7 +8445,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8451,7 +8453,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8467,7 +8469,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8475,7 +8477,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8483,7 +8485,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8491,7 +8493,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8507,7 +8509,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8515,7 +8517,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8523,7 +8525,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8531,7 +8533,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8539,7 +8541,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8555,7 +8557,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8571,7 +8573,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8579,7 +8581,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8587,7 +8589,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -8595,7 +8597,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -8611,7 +8613,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -8619,7 +8621,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -8627,7 +8629,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -8635,7 +8637,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -8651,7 +8653,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -8659,7 +8661,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -8667,7 +8669,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -8675,7 +8677,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -8683,7 +8685,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -8699,7 +8701,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -8715,7 +8717,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -8723,7 +8725,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -8731,7 +8733,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -8739,7 +8741,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -8747,157 +8749,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,7 +2518,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="21">
         <f>K11-K12</f>
-        <v>992</v>
+        <v>37</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>3533.9484548000014</v>
+        <v>2005.9026148000012</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2581,7 +2581,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="22">
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-7755.2192889999988</v>
+        <v>-8655.2590389999987</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>3248.7584548000013</v>
+        <v>1720.7126148000011</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-7838.9192889999986</v>
+        <v>-8738.9590389999994</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2711,11 +2711,11 @@
       </c>
       <c r="F15" s="19">
         <f>K28</f>
-        <v>615.1784548000013</v>
+        <v>-912.86738519999869</v>
       </c>
       <c r="G15" s="107">
         <f>F12/F16-1</f>
-        <v>0.21076633472318873</v>
+        <v>-0.31275756061628657</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="6"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-8084.229288999999</v>
+        <v>-8984.2690389999989</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F17" s="26">
         <f>F13/F14+1</f>
-        <v>12.391558100915184</v>
+        <v>7.0335657449419724</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-92.654949689366759</v>
+        <v>-103.40811277180406</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I20" s="12">
         <f>G20-H20</f>
-        <v>394.31000000000131</v>
+        <v>-560.68999999999869</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ref="J20:J27" si="0">$K$16</f>
@@ -2913,14 +2913,14 @@
       </c>
       <c r="K20" s="19">
         <f>I20*J20</f>
-        <v>78.864365860000262</v>
+        <v>-112.14136413999974</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>2.2109630257632685E-3</v>
+        <v>-3.1438838957043914E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-8518.41</v>
+        <v>-9473.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2676.0585014999997</v>
+        <v>-2976.0717514999997</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
@@ -2964,11 +2964,11 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" ref="I21:I27" si="1">G21-H21</f>
-        <v>395</v>
+        <v>-560</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="0"/>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="K21" s="19">
         <f>I21*J21</f>
-        <v>79.002369999999999</v>
+        <v>-112.00336</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
-        <v>2.214746285393887E-3</v>
+        <v>-3.1398934679002012E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -2997,11 +2997,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-8602.6200000000008</v>
+        <v>-9557.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U28" si="3">$V$13</f>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2702.5130730000001</v>
+        <v>-3002.526323</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
@@ -3027,11 +3027,11 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>389.90000000000146</v>
+        <v>-565.09999999999854</v>
       </c>
       <c r="J22" s="17">
         <f t="shared" si="0"/>
@@ -3039,12 +3039,12 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>77.982339400000285</v>
+        <v>-113.0233905999997</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>2.1867761456878742E-3</v>
+        <v>-3.1693952293619042E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3070,11 +3070,11 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I23" s="12">
         <f t="shared" si="1"/>
-        <v>385.22000000000116</v>
+        <v>-569.77999999999884</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="0"/>
@@ -3082,12 +3082,12 @@
       </c>
       <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>77.046311320000228</v>
+        <v>-113.95941867999976</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
         <f t="shared" si="2"/>
-        <v>2.1610953469298087E-3</v>
+        <v>-3.1964822874556375E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3113,11 +3113,11 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I24" s="12">
         <f t="shared" si="1"/>
-        <v>380.22000000000116</v>
+        <v>-574.77999999999884</v>
       </c>
       <c r="J24" s="17">
         <f t="shared" si="0"/>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>76.046281320000233</v>
+        <v>-114.95944867999977</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
         <f t="shared" si="2"/>
-        <v>2.133643692389886E-3</v>
+        <v>-3.2254371719316445E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3156,11 +3156,11 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="1"/>
-        <v>376.15000000000146</v>
+        <v>-578.84999999999854</v>
       </c>
       <c r="J25" s="17">
         <f t="shared" si="0"/>
@@ -3168,12 +3168,12 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>75.23225690000028</v>
+        <v>-115.77347309999971</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
         <f t="shared" si="2"/>
-        <v>2.1112866696789247E-3</v>
+        <v>-3.2490184467463433E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3199,11 +3199,11 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>-575</v>
       </c>
       <c r="J26" s="17">
         <f t="shared" si="0"/>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>76.002279999999999</v>
+        <v>-115.00345</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>2.1324354657688005E-3</v>
+        <v>-3.2267115600449038E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3242,11 +3242,11 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>-580</v>
       </c>
       <c r="J27" s="17">
         <f t="shared" si="0"/>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>75.002249999999989</v>
+        <v>-116.00348</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
         <f t="shared" si="2"/>
-        <v>2.1049677238282327E-3</v>
+        <v>-3.2556834128543376E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3285,7 +3285,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="19">
         <f>SUM(K20:K27)</f>
-        <v>615.1784548000013</v>
+        <v>-912.86738519999869</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3301,11 +3301,11 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-8612.6299999999992</v>
+        <v>-9567.6299999999992</v>
       </c>
       <c r="U28" s="25">
         <f t="shared" si="3"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-2705.6577144999997</v>
+        <v>-3005.6709644999996</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="F34" s="27">
         <f>F37+F38</f>
-        <v>-5802.1185394999993</v>
+        <v>-6484.2387494999994</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="Q34" s="27">
         <f>Q37+Q38</f>
-        <v>-7759.5786479999997</v>
+        <v>-8659.8571479999991</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="F35" s="19">
         <f>F34-F36</f>
-        <v>-5886.0585394999989</v>
+        <v>-6568.178749499999</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="Q35" s="19">
         <f>Q34-Q36</f>
-        <v>-7839.7486479999998</v>
+        <v>-8740.0271479999992</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F37" s="19">
         <f>SUM(K42:K44)-G37</f>
-        <v>-6116.5785394999994</v>
+        <v>-6798.6987494999994</v>
       </c>
       <c r="G37" s="19">
         <v>3</v>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="Q37" s="19">
         <f>SUM(V42:V44)-R37</f>
-        <v>-8081.4586479999998</v>
+        <v>-8981.7371479999983</v>
       </c>
       <c r="R37" s="19">
         <v>2.76</v>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F39" s="26">
         <f>F35/F36+1</f>
-        <v>-69.122212765070273</v>
+        <v>-77.248495943531083</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="Q39" s="26">
         <f>Q35/Q36+1</f>
-        <v>-96.789056355245094</v>
+        <v>-108.01867466633402</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -3752,11 +3752,11 @@
       </c>
       <c r="H42" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I42" s="12">
         <f>G42-H42</f>
-        <v>-8519.86</v>
+        <v>-9474.86</v>
       </c>
       <c r="J42" s="17">
         <f>$K$16</f>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="K42" s="14">
         <f>I42*J42</f>
-        <v>-1704.0231191600001</v>
+        <v>-1895.0288491599999</v>
       </c>
       <c r="L42" s="14">
         <v>40.61</v>
@@ -3782,18 +3782,18 @@
       </c>
       <c r="S42" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="T42" s="12">
         <f>R42-S42</f>
-        <v>-8518.57</v>
+        <v>-9473.57</v>
       </c>
       <c r="U42" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V42" s="14">
         <f>T42*U42</f>
-        <v>-2676.9606224999998</v>
+        <v>-2977.0693724999996</v>
       </c>
       <c r="W42" s="14">
         <v>40.61</v>
@@ -3813,11 +3813,11 @@
       </c>
       <c r="H43" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I43" s="12">
         <f>G43-H43</f>
-        <v>-8542.14</v>
+        <v>-9497.14</v>
       </c>
       <c r="J43" s="17">
         <f>$K$16</f>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="K43" s="14">
         <f>I43*J43</f>
-        <v>-1708.4792528399998</v>
+        <v>-1899.4849828399997</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
@@ -3841,18 +3841,18 @@
       </c>
       <c r="S43" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="T43" s="12">
         <f>R43-S43</f>
-        <v>-8590.23</v>
+        <v>-9545.23</v>
       </c>
       <c r="U43" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V43" s="14">
         <f>T43*U43</f>
-        <v>-2699.4797774999997</v>
+        <v>-2999.5885274999996</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
@@ -3870,18 +3870,18 @@
       </c>
       <c r="H44" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="I44" s="12">
         <f>G44-H44</f>
-        <v>-8595.31</v>
+        <v>-9550.31</v>
       </c>
       <c r="J44" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K44" s="14">
         <f>I44*J44</f>
-        <v>-2701.0761674999994</v>
+        <v>-3001.1849174999998</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
@@ -3897,18 +3897,18 @@
       </c>
       <c r="S44" s="14">
         <f>$K$12</f>
-        <v>17440</v>
+        <v>18395</v>
       </c>
       <c r="T44" s="12">
         <f>R44-S44</f>
-        <v>-8600.44</v>
+        <v>-9555.44</v>
       </c>
       <c r="U44" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V44" s="14">
         <f>T44*U44</f>
-        <v>-2702.2582480000001</v>
+        <v>-3002.3192479999998</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
@@ -3946,7 +3946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763A40B1-C47E-4377-A740-409F068F67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
     <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,14 +40,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="468">
   <si>
     <t>Equity</t>
   </si>
@@ -1462,12 +1463,15 @@
   </si>
   <si>
     <t>MARGIN/0.01LOT</t>
+  </si>
+  <si>
+    <t>PRICE NOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1923,7 +1927,6 @@
     <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1933,12 +1936,13 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
+    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2442,41 +2446,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="5"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2518,7 +2522,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="21">
         <f>K11-K12</f>
-        <v>37</v>
+        <v>971</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
@@ -2533,7 +2537,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2565,23 +2569,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>2005.9026148000012</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>3500.3474468000013</v>
+      </c>
+      <c r="G12" s="110">
+        <f>F12/F16-1</f>
+        <v>0.19925429095132574</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="9" t="s">
-        <v>17</v>
+        <v>467</v>
       </c>
       <c r="K12" s="22">
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="L12" s="16">
         <v>8741.99</v>
@@ -2595,7 +2602,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-8655.2590389999987</v>
+        <v>-7775.0107389999994</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2605,7 +2612,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2614,14 +2621,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>1720.7126148000011</v>
+        <v>3215.1574468000013</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2643,7 +2650,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-8738.9590389999994</v>
+        <v>-7858.7107389999992</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2660,7 +2667,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2704,19 +2711,16 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="27">
         <f>K28</f>
-        <v>-912.86738519999869</v>
-      </c>
-      <c r="G15" s="107">
-        <f>F12/F16-1</f>
-        <v>-0.31275756061628657</v>
-      </c>
+        <v>581.57744680000133</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="9" t="s">
@@ -2733,7 +2737,7 @@
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-8984.2690389999989</v>
+        <v>-8104.0207389999996</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2747,7 +2751,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -2782,14 +2786,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="110">
         <f>F13/F14+1</f>
-        <v>7.0335657449419724</v>
+        <v>12.273738373715773</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2804,7 +2808,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-103.40811277180406</v>
+        <v>-92.891406678614089</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2814,7 +2818,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2836,7 +2840,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2888,7 +2892,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2901,26 +2905,26 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>18395</v>
-      </c>
-      <c r="I20" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I20" s="14">
         <f>G20-H20</f>
-        <v>-560.68999999999869</v>
-      </c>
-      <c r="J20" s="17">
+        <v>373.31000000000131</v>
+      </c>
+      <c r="J20" s="25">
         <f t="shared" ref="J20:J27" si="0">$K$16</f>
         <v>0.20000599999999999</v>
       </c>
       <c r="K20" s="19">
         <f>I20*J20</f>
-        <v>-112.14136413999974</v>
+        <v>74.664239860000265</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>-3.1438838957043914E-3</v>
+        <v>2.0932124651864893E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2934,11 +2938,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-9473.41</v>
+        <v>-8539.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2946,12 +2950,12 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2976.0717514999997</v>
+        <v>-2682.6556514999997</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>426</v>
@@ -2964,26 +2968,26 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>18395</v>
-      </c>
-      <c r="I21" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I21" s="14">
         <f t="shared" ref="I21:I27" si="1">G21-H21</f>
-        <v>-560</v>
-      </c>
-      <c r="J21" s="17">
+        <v>374</v>
+      </c>
+      <c r="J21" s="25">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K21" s="19">
         <f>I21*J21</f>
-        <v>-112.00336</v>
+        <v>74.802244000000002</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
-        <v>-3.1398934679002012E-3</v>
+        <v>2.0970002803476274E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -2997,11 +3001,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-9557.6200000000008</v>
+        <v>-8623.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U28" si="3">$V$13</f>
@@ -3009,12 +3013,12 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-3002.526323</v>
+        <v>-2709.1102230000001</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
         <v>426</v>
@@ -3027,24 +3031,24 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>18395</v>
-      </c>
-      <c r="I22" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I22" s="14">
         <f t="shared" si="1"/>
-        <v>-565.09999999999854</v>
-      </c>
-      <c r="J22" s="17">
+        <v>368.90000000000146</v>
+      </c>
+      <c r="J22" s="25">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>-113.0233905999997</v>
+        <v>73.782213400000288</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>-3.1693952293619042E-3</v>
+        <v>2.0689964610009159E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3057,7 +3061,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
         <v>426</v>
@@ -3070,24 +3074,24 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>18395</v>
-      </c>
-      <c r="I23" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I23" s="14">
         <f t="shared" si="1"/>
-        <v>-569.77999999999884</v>
-      </c>
-      <c r="J23" s="17">
+        <v>364.22000000000116</v>
+      </c>
+      <c r="J23" s="25">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>-113.95941867999976</v>
+        <v>72.846185320000231</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
         <f t="shared" si="2"/>
-        <v>-3.1964822874556375E-3</v>
+        <v>2.0432847392626964E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3100,7 +3104,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
         <v>426</v>
@@ -3113,24 +3117,24 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>18395</v>
-      </c>
-      <c r="I24" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I24" s="14">
         <f t="shared" si="1"/>
-        <v>-574.77999999999884</v>
-      </c>
-      <c r="J24" s="17">
+        <v>359.22000000000116</v>
+      </c>
+      <c r="J24" s="25">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>-114.95944867999977</v>
+        <v>71.846155320000236</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
         <f t="shared" si="2"/>
-        <v>-3.2254371719316445E-3</v>
+        <v>2.0158000294048018E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3143,7 +3147,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
         <v>426</v>
@@ -3156,24 +3160,24 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>18395</v>
-      </c>
-      <c r="I25" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I25" s="14">
         <f t="shared" si="1"/>
-        <v>-578.84999999999854</v>
-      </c>
-      <c r="J25" s="17">
+        <v>355.15000000000146</v>
+      </c>
+      <c r="J25" s="25">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>-115.77347309999971</v>
+        <v>71.032130900000283</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
         <f t="shared" si="2"/>
-        <v>-3.2490184467463433E-3</v>
+        <v>1.9934160859669593E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3186,7 +3190,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
         <v>426</v>
@@ -3199,24 +3203,24 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>18395</v>
-      </c>
-      <c r="I26" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I26" s="14">
         <f t="shared" si="1"/>
-        <v>-575</v>
-      </c>
-      <c r="J26" s="17">
+        <v>359</v>
+      </c>
+      <c r="J26" s="25">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>-115.00345</v>
+        <v>71.802154000000002</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>-3.2267115600449038E-3</v>
+        <v>2.0145903479236839E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3229,7 +3233,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
         <v>426</v>
@@ -3242,24 +3246,24 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>18395</v>
-      </c>
-      <c r="I27" s="12">
+        <v>17461</v>
+      </c>
+      <c r="I27" s="14">
         <f t="shared" si="1"/>
-        <v>-580</v>
-      </c>
-      <c r="J27" s="17">
+        <v>354</v>
+      </c>
+      <c r="J27" s="25">
         <f t="shared" si="0"/>
         <v>0.20000599999999999</v>
       </c>
       <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>-116.00348</v>
+        <v>70.802123999999992</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
         <f t="shared" si="2"/>
-        <v>-3.2556834128543376E-3</v>
+        <v>1.987089531293851E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3272,7 +3276,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14">
@@ -3285,7 +3289,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="19">
         <f>SUM(K20:K27)</f>
-        <v>-912.86738519999869</v>
+        <v>581.57744680000133</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3301,11 +3305,11 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-9567.6299999999992</v>
+        <v>-8633.6299999999992</v>
       </c>
       <c r="U28" s="25">
         <f t="shared" si="3"/>
@@ -3313,12 +3317,12 @@
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-3005.6709644999996</v>
+        <v>-2712.2548644999997</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3340,7 +3344,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D31" s="23">
         <v>9675887</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3396,7 +3400,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3426,14 +3430,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="27">
         <f>F37+F38</f>
-        <v>-6484.2387494999994</v>
+        <v>-5817.118041499999</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3456,7 +3460,7 @@
       </c>
       <c r="Q34" s="27">
         <f>Q37+Q38</f>
-        <v>-8659.8571479999991</v>
+        <v>-7779.3753479999987</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3474,14 +3478,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="19">
         <f>F34-F36</f>
-        <v>-6568.178749499999</v>
+        <v>-5901.0580414999986</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3501,7 +3505,7 @@
       </c>
       <c r="Q35" s="19">
         <f>Q34-Q36</f>
-        <v>-8740.0271479999992</v>
+        <v>-7859.5453479999987</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3516,7 +3520,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
       <c r="E36" s="11" t="s">
         <v>2</v>
@@ -3557,14 +3561,14 @@
       <c r="W36" s="3"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
       <c r="E37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="19">
         <f>SUM(K42:K44)-G37</f>
-        <v>-6798.6987494999994</v>
+        <v>-6131.578041499999</v>
       </c>
       <c r="G37" s="19">
         <v>3</v>
@@ -3587,7 +3591,7 @@
       </c>
       <c r="Q37" s="19">
         <f>SUM(V42:V44)-R37</f>
-        <v>-8981.7371479999983</v>
+        <v>-8101.2553479999988</v>
       </c>
       <c r="R37" s="19">
         <v>2.76</v>
@@ -3605,7 +3609,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="11" t="s">
         <v>4</v>
@@ -3635,14 +3639,14 @@
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="26">
         <f>F35/F36+1</f>
-        <v>-77.248495943531083</v>
+        <v>-69.300905903025949</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3657,7 +3661,7 @@
       </c>
       <c r="Q39" s="26">
         <f>Q35/Q36+1</f>
-        <v>-108.01867466633402</v>
+        <v>-97.035990370462756</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -3667,7 +3671,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3689,7 +3693,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
@@ -3739,7 +3743,7 @@
       </c>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="13" t="s">
         <v>16</v>
@@ -3752,11 +3756,11 @@
       </c>
       <c r="H42" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="I42" s="12">
         <f>G42-H42</f>
-        <v>-9474.86</v>
+        <v>-8540.86</v>
       </c>
       <c r="J42" s="17">
         <f>$K$16</f>
@@ -3764,7 +3768,7 @@
       </c>
       <c r="K42" s="14">
         <f>I42*J42</f>
-        <v>-1895.0288491599999</v>
+        <v>-1708.22324516</v>
       </c>
       <c r="L42" s="14">
         <v>40.61</v>
@@ -3782,25 +3786,25 @@
       </c>
       <c r="S42" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="T42" s="12">
         <f>R42-S42</f>
-        <v>-9473.57</v>
+        <v>-8539.57</v>
       </c>
       <c r="U42" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V42" s="14">
         <f>T42*U42</f>
-        <v>-2977.0693724999996</v>
+        <v>-2683.5598724999995</v>
       </c>
       <c r="W42" s="14">
         <v>40.61</v>
       </c>
       <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
       <c r="E43" s="13" t="s">
         <v>16</v>
@@ -3813,11 +3817,11 @@
       </c>
       <c r="H43" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="I43" s="12">
         <f>G43-H43</f>
-        <v>-9497.14</v>
+        <v>-8563.14</v>
       </c>
       <c r="J43" s="17">
         <f>$K$16</f>
@@ -3825,7 +3829,7 @@
       </c>
       <c r="K43" s="14">
         <f>I43*J43</f>
-        <v>-1899.4849828399997</v>
+        <v>-1712.6793788399998</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
@@ -3841,23 +3845,23 @@
       </c>
       <c r="S43" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="T43" s="12">
         <f>R43-S43</f>
-        <v>-9545.23</v>
+        <v>-8611.23</v>
       </c>
       <c r="U43" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V43" s="14">
         <f>T43*U43</f>
-        <v>-2999.5885274999996</v>
+        <v>-2706.0790274999995</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
       <c r="E44" s="13" t="s">
         <v>16</v>
@@ -3870,18 +3874,18 @@
       </c>
       <c r="H44" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="I44" s="12">
         <f>G44-H44</f>
-        <v>-9550.31</v>
+        <v>-8616.31</v>
       </c>
       <c r="J44" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K44" s="14">
         <f>I44*J44</f>
-        <v>-3001.1849174999998</v>
+        <v>-2707.6754174999996</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
@@ -3897,23 +3901,23 @@
       </c>
       <c r="S44" s="14">
         <f>$K$12</f>
-        <v>18395</v>
+        <v>17461</v>
       </c>
       <c r="T44" s="12">
         <f>R44-S44</f>
-        <v>-9555.44</v>
+        <v>-8621.44</v>
       </c>
       <c r="U44" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V44" s="14">
         <f>T44*U44</f>
-        <v>-3002.3192479999998</v>
+        <v>-2708.856448</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3943,37 +3947,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:S27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -4040,7 +4044,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -4058,7 +4062,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -4075,10 +4079,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -4095,7 +4099,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -4111,8 +4115,8 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F11" s="108" t="s">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="107" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="57" t="s">
@@ -4131,8 +4135,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F12" s="108"/>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="107"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
       </c>
@@ -4149,8 +4153,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="F13" s="108"/>
+    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F13" s="107"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
       </c>
@@ -4176,8 +4180,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F14" s="108"/>
+    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F14" s="107"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
       </c>
@@ -4213,8 +4217,8 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F15" s="108"/>
+    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F15" s="107"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
       </c>
@@ -4245,7 +4249,7 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
@@ -4263,7 +4267,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -4284,7 +4288,7 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>446</v>
       </c>
@@ -4305,7 +4309,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4353,7 +4357,7 @@
         <v>2918.77</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4374,8 +4378,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F22" s="108" t="s">
+    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F22" s="107" t="s">
         <v>445</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -4409,8 +4413,8 @@
         <v>-200.37097236555474</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F23" s="108"/>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="107"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
       </c>
@@ -4435,8 +4439,8 @@
         <v>172.47480531080734</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F24" s="108"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="107"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
       </c>
@@ -4461,8 +4465,8 @@
         <v>172.47480531080734</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F25" s="108"/>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="107"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
       </c>
@@ -4487,8 +4491,8 @@
         <v>776.3465048080725</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F26" s="108"/>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" s="107"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
       </c>
@@ -4511,8 +4515,8 @@
         <v>718.99907925950561</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="108"/>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F27" s="107"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
       </c>
@@ -4544,28 +4548,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -4578,11 +4582,11 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K7</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -4603,11 +4607,11 @@
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="110"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -4621,7 +4625,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -4634,11 +4638,11 @@
       <c r="J7" s="38"/>
       <c r="K7" s="65">
         <f ca="1">TODAY()</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4654,7 +4658,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -4688,7 +4692,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -4715,7 +4719,7 @@
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I10" s="102">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
@@ -4731,7 +4735,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -4758,7 +4762,7 @@
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I11" s="102">
         <f t="shared" si="3"/>
@@ -4774,7 +4778,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -4801,7 +4805,7 @@
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I12" s="102">
         <f t="shared" si="3"/>
@@ -4817,7 +4821,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -4844,7 +4848,7 @@
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I13" s="102">
         <f t="shared" si="3"/>
@@ -4860,7 +4864,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -4887,7 +4891,7 @@
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I14" s="102">
         <f t="shared" si="3"/>
@@ -4903,7 +4907,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -4929,7 +4933,7 @@
       </c>
       <c r="H15" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="3"/>
@@ -4945,7 +4949,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -4959,7 +4963,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -4988,7 +4992,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -5002,7 +5006,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>48</v>
       </c>
@@ -5019,7 +5023,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
@@ -5045,7 +5049,7 @@
       </c>
       <c r="H20" s="39">
         <f ca="1">$K$7</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I20" s="51">
         <f>B20*G20</f>
@@ -5061,7 +5065,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -5088,7 +5092,7 @@
       </c>
       <c r="H21" s="39">
         <f ca="1">$K$7</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I21" s="37">
         <f>I20*$I$5</f>
@@ -5104,7 +5108,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
@@ -5117,7 +5121,7 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>52</v>
       </c>
@@ -5137,7 +5141,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
@@ -5153,7 +5157,7 @@
       <c r="J24" s="56"/>
       <c r="K24" s="57"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="57"/>
       <c r="C25" s="55"/>
@@ -5165,7 +5169,7 @@
       </c>
       <c r="H25" s="52">
         <f ca="1">$K$7</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="I25" s="53">
         <f>I17+I21+I24</f>
@@ -5180,7 +5184,7 @@
         <v>2.1800948972254187E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="57"/>
       <c r="C26" s="55"/>
@@ -5219,30 +5223,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:M24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
@@ -5257,14 +5261,14 @@
       <c r="I4" s="55"/>
       <c r="J4" s="66">
         <f ca="1">L5</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -5290,15 +5294,15 @@
       </c>
       <c r="L5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="109" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -5310,7 +5314,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -5324,7 +5328,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -5340,7 +5344,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -5374,7 +5378,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -5400,7 +5404,7 @@
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
@@ -5415,7 +5419,7 @@
         <v>1.6950110175716127E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -5441,7 +5445,7 @@
       </c>
       <c r="I11" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
@@ -5456,7 +5460,7 @@
         <v>1.6569444583412363E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -5482,7 +5486,7 @@
       </c>
       <c r="I12" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
@@ -5497,7 +5501,7 @@
         <v>2.6757711845689425E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="67" t="s">
         <v>31</v>
       </c>
@@ -5523,7 +5527,7 @@
       </c>
       <c r="I13" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J13" s="70">
         <f t="shared" si="3"/>
@@ -5538,7 +5542,7 @@
         <v>1.2403630631296458E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="67" t="s">
         <v>26</v>
       </c>
@@ -5564,7 +5568,7 @@
       </c>
       <c r="I14" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="3"/>
@@ -5579,7 +5583,7 @@
         <v>6.0158250766381149E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67" t="s">
         <v>50</v>
       </c>
@@ -5605,7 +5609,7 @@
       </c>
       <c r="I15" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J15" s="70">
         <f t="shared" si="3"/>
@@ -5620,7 +5624,7 @@
         <v>1.7187955356369411E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
         <v>52</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -5678,7 +5682,7 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
@@ -5706,7 +5710,7 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
@@ -5718,7 +5722,7 @@
       </c>
       <c r="I19" s="52">
         <f ca="1">$L$5</f>
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="J19" s="53">
         <f>J17</f>
@@ -5733,7 +5737,7 @@
         <v>1.8504050679170173E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="61"/>
       <c r="C20" s="57"/>
       <c r="D20" s="55"/>
@@ -5751,7 +5755,7 @@
       </c>
       <c r="L20" s="57"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G24" s="74"/>
     </row>
   </sheetData>
@@ -5764,20 +5768,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -5801,7 +5805,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -5809,17 +5813,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -5827,12 +5831,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -5864,7 +5868,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -5976,7 +5980,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -6016,12 +6020,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -6069,7 +6073,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -6141,7 +6145,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -6221,7 +6225,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -6269,7 +6273,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6317,7 +6321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6381,7 +6385,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6397,7 +6401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6445,7 +6449,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6469,7 +6473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6477,7 +6481,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6517,7 +6521,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -6637,7 +6641,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -6645,7 +6649,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -6669,7 +6673,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -6693,7 +6697,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -6701,7 +6705,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -6789,7 +6793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -6837,7 +6841,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -6853,7 +6857,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -6901,7 +6905,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -7005,7 +7009,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -7045,7 +7049,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -7077,7 +7081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -7125,7 +7129,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -7149,7 +7153,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -7165,7 +7169,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -7181,7 +7185,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -7189,7 +7193,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -7205,7 +7209,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -7237,7 +7241,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -7285,7 +7289,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -7301,7 +7305,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7309,7 +7313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7317,7 +7321,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7341,7 +7345,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7357,7 +7361,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7373,7 +7377,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7381,7 +7385,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7397,7 +7401,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7421,7 +7425,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7429,7 +7433,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7437,7 +7441,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7453,7 +7457,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7461,7 +7465,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7477,7 +7481,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7549,7 +7553,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7573,7 +7577,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7589,7 +7593,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -7653,7 +7657,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -7725,7 +7729,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -7749,7 +7753,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -7789,7 +7793,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -7797,7 +7801,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -7805,7 +7809,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -7837,7 +7841,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -7877,7 +7881,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -7925,7 +7929,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -7933,7 +7937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -7941,7 +7945,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -7989,7 +7993,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -7997,7 +8001,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -8013,7 +8017,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -8029,7 +8033,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -8037,7 +8041,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -8053,7 +8057,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -8069,7 +8073,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -8077,7 +8081,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -8101,7 +8105,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -8109,7 +8113,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -8133,7 +8137,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -8141,7 +8145,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -8149,7 +8153,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -8165,7 +8169,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -8173,7 +8177,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -8181,7 +8185,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -8205,7 +8209,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -8221,7 +8225,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -8245,7 +8249,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -8253,7 +8257,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -8261,7 +8265,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -8293,7 +8297,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -8301,7 +8305,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8309,7 +8313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8317,7 +8321,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8341,7 +8345,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8349,7 +8353,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8357,7 +8361,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8381,7 +8385,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8421,7 +8425,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8445,7 +8449,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8453,7 +8457,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8477,7 +8481,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8493,7 +8497,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8501,7 +8505,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8517,7 +8521,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8533,7 +8537,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8541,7 +8545,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8557,7 +8561,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -8605,7 +8609,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -8613,7 +8617,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -8621,7 +8625,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -8637,7 +8641,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -8645,7 +8649,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -8677,7 +8681,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -8685,7 +8689,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -8693,7 +8697,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -8709,7 +8713,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -8717,7 +8721,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -8733,7 +8737,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -8741,7 +8745,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -8749,157 +8753,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763A40B1-C47E-4377-A740-409F068F67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
     <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="471">
   <si>
     <t>Equity</t>
   </si>
@@ -1466,12 +1465,21 @@
   </si>
   <si>
     <t>PRICE NOW</t>
+  </si>
+  <si>
+    <t>bu endeksin %1 lik hareketinde %10 kazanırız</t>
+  </si>
+  <si>
+    <t>OP START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOW </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1727,7 +1735,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1927,6 +1935,7 @@
     <xf numFmtId="10" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1936,13 +1945,18 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
-    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2446,41 +2460,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2512,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2520,10 +2534,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="21">
-        <f>K11-K12</f>
-        <v>971</v>
-      </c>
+      <c r="K10" s="21"/>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
       <c r="O10" s="2"/>
@@ -2537,7 +2548,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2545,11 +2556,11 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>18432</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>18</v>
+      <c r="K11" s="112" t="s">
+        <v>470</v>
+      </c>
+      <c r="L11" s="112" t="s">
+        <v>469</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>15</v>
@@ -2569,18 +2580,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>3500.3474468000013</v>
-      </c>
-      <c r="G12" s="110">
+        <v>4050.7639588000011</v>
+      </c>
+      <c r="G12" s="107">
         <f>F12/F16-1</f>
-        <v>0.19925429095132574</v>
+        <v>0.38783253178564991</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2588,13 +2599,15 @@
         <v>467</v>
       </c>
       <c r="K12" s="22">
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="L12" s="16">
-        <v>8741.99</v>
+        <f>AVERAGE(G20:G27)</f>
+        <v>17824.474999999999</v>
       </c>
       <c r="M12" s="7">
-        <v>-0.01</v>
+        <f>-(K12/L12-1)</f>
+        <v>3.969121110158913E-2</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="11" t="s">
@@ -2602,7 +2615,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-7775.0107389999994</v>
+        <v>-7450.8079389999994</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2612,7 +2625,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2621,14 +2634,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>3215.1574468000013</v>
+        <v>3765.573958800001</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2650,7 +2663,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-7858.7107389999992</v>
+        <v>-7534.5079389999992</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2667,7 +2680,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2690,8 +2703,10 @@
       <c r="K14" s="2">
         <v>100</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
+      <c r="L14" s="111" t="s">
+        <v>468</v>
+      </c>
+      <c r="M14" s="111"/>
       <c r="O14" s="2"/>
       <c r="P14" s="11" t="s">
         <v>2</v>
@@ -2711,14 +2726,14 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="27">
         <f>K28</f>
-        <v>581.57744680000133</v>
+        <v>1131.9939588000013</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2729,15 +2744,15 @@
       <c r="K15" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
       <c r="O15" s="2"/>
       <c r="P15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-8104.0207389999996</v>
+        <v>-7779.8179389999996</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2751,7 +2766,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -2769,8 +2784,8 @@
         <f>0.200006</f>
         <v>0.20000599999999999</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="6"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
       <c r="O16" s="2"/>
       <c r="P16" s="11" t="s">
         <v>4</v>
@@ -2786,14 +2801,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="107">
         <f>F13/F14+1</f>
-        <v>12.273738373715773</v>
+        <v>14.203737714506122</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2808,7 +2823,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-92.891406678614089</v>
+        <v>-89.018015997610505</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2818,7 +2833,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2840,7 +2855,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2892,7 +2907,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2905,11 +2920,11 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I20" s="14">
         <f>G20-H20</f>
-        <v>373.31000000000131</v>
+        <v>717.31000000000131</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" ref="J20:J27" si="0">$K$16</f>
@@ -2917,14 +2932,14 @@
       </c>
       <c r="K20" s="19">
         <f>I20*J20</f>
-        <v>74.664239860000265</v>
+        <v>143.46630386000027</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
         <f>(H20/G20-1)*F20*10</f>
-        <v>2.0932124651864893E-3</v>
+        <v>4.0220787908251121E-3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2938,11 +2953,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-8539.41</v>
+        <v>-8195.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2950,12 +2965,12 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2682.6556514999997</v>
+        <v>-2574.5880514999999</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>426</v>
@@ -2968,11 +2983,11 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" ref="I21:I27" si="1">G21-H21</f>
-        <v>374</v>
+        <v>718</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" si="0"/>
@@ -2980,14 +2995,14 @@
       </c>
       <c r="K21" s="19">
         <f>I21*J21</f>
-        <v>74.802244000000002</v>
+        <v>143.604308</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
-        <v>2.0970002803476274E-3</v>
+        <v>4.0257919820577475E-3</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -3001,11 +3016,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-8623.6200000000008</v>
+        <v>-8279.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U28" si="3">$V$13</f>
@@ -3013,12 +3028,12 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2709.1102230000001</v>
+        <v>-2601.0426230000003</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
         <v>426</v>
@@ -3031,11 +3046,11 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="1"/>
-        <v>368.90000000000146</v>
+        <v>712.90000000000146</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="0"/>
@@ -3043,12 +3058,12 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>73.782213400000288</v>
+        <v>142.58427740000027</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>2.0689964610009159E-3</v>
+        <v>3.9983398673015588E-3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3061,7 +3076,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
         <v>426</v>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
-        <v>364.22000000000116</v>
+        <v>708.22000000000116</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="0"/>
@@ -3086,12 +3101,12 @@
       </c>
       <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>72.846185320000231</v>
+        <v>141.64824932000022</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
         <f t="shared" si="2"/>
-        <v>2.0432847392626964E-3</v>
+        <v>3.9731346934287594E-3</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3104,7 +3119,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
         <v>426</v>
@@ -3117,11 +3132,11 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="1"/>
-        <v>359.22000000000116</v>
+        <v>703.22000000000116</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" si="0"/>
@@ -3129,12 +3144,12 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>71.846155320000236</v>
+        <v>140.64821932000024</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
         <f t="shared" si="2"/>
-        <v>2.0158000294048018E-3</v>
+        <v>3.9461914611604197E-3</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3147,7 +3162,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
         <v>426</v>
@@ -3160,11 +3175,11 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
-        <v>355.15000000000146</v>
+        <v>699.15000000000146</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" si="0"/>
@@ -3172,12 +3187,12 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>71.032130900000283</v>
+        <v>139.83419490000028</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
         <f t="shared" si="2"/>
-        <v>1.9934160859669593E-3</v>
+        <v>3.9242485048677778E-3</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3190,7 +3205,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
         <v>426</v>
@@ -3203,11 +3218,11 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="1"/>
-        <v>359</v>
+        <v>703</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" si="0"/>
@@ -3215,12 +3230,12 @@
       </c>
       <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>71.802154000000002</v>
+        <v>140.604218</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>2.0145903479236839E-3</v>
+        <v>3.9450056116722811E-3</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3233,7 +3248,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
         <v>426</v>
@@ -3246,11 +3261,11 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>698</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" si="0"/>
@@ -3258,12 +3273,12 @@
       </c>
       <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>70.802123999999992</v>
+        <v>139.60418799999999</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
         <f t="shared" si="2"/>
-        <v>1.987089531293851E-3</v>
+        <v>3.9180465899522846E-3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3276,7 +3291,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14">
@@ -3289,7 +3304,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="19">
         <f>SUM(K20:K27)</f>
-        <v>581.57744680000133</v>
+        <v>1131.9939588000013</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3305,11 +3320,11 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-8633.6299999999992</v>
+        <v>-8289.6299999999992</v>
       </c>
       <c r="U28" s="25">
         <f t="shared" si="3"/>
@@ -3317,12 +3332,12 @@
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-2712.2548644999997</v>
+        <v>-2604.1872644999994</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3344,7 +3359,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D31" s="23">
         <v>9675887</v>
       </c>
@@ -3378,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3400,7 +3415,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3430,14 +3445,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="27">
         <f>F37+F38</f>
-        <v>-5817.118041499999</v>
+        <v>-5571.4119134999992</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3460,7 +3475,7 @@
       </c>
       <c r="Q34" s="27">
         <f>Q37+Q38</f>
-        <v>-7779.3753479999987</v>
+        <v>-7455.0865479999993</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3478,14 +3493,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="19">
         <f>F34-F36</f>
-        <v>-5901.0580414999986</v>
+        <v>-5655.3519134999988</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3505,7 +3520,7 @@
       </c>
       <c r="Q35" s="19">
         <f>Q34-Q36</f>
-        <v>-7859.5453479999987</v>
+        <v>-7535.2565479999994</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3520,7 +3535,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" s="11" t="s">
         <v>2</v>
@@ -3561,14 +3576,14 @@
       <c r="W36" s="3"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="19">
         <f>SUM(K42:K44)-G37</f>
-        <v>-6131.578041499999</v>
+        <v>-5885.8719134999992</v>
       </c>
       <c r="G37" s="19">
         <v>3</v>
@@ -3591,7 +3606,7 @@
       </c>
       <c r="Q37" s="19">
         <f>SUM(V42:V44)-R37</f>
-        <v>-8101.2553479999988</v>
+        <v>-7776.9665479999994</v>
       </c>
       <c r="R37" s="19">
         <v>2.76</v>
@@ -3609,7 +3624,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="11" t="s">
         <v>4</v>
@@ -3639,14 +3654,14 @@
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="26">
         <f>F35/F36+1</f>
-        <v>-69.300905903025949</v>
+        <v>-66.373742119370974</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3661,7 +3676,7 @@
       </c>
       <c r="Q39" s="26">
         <f>Q35/Q36+1</f>
-        <v>-97.035990370462756</v>
+        <v>-92.99097602594486</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -3671,7 +3686,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3693,7 +3708,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
@@ -3743,7 +3758,7 @@
       </c>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D42" s="2"/>
       <c r="E42" s="13" t="s">
         <v>16</v>
@@ -3756,11 +3771,11 @@
       </c>
       <c r="H42" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I42" s="12">
         <f>G42-H42</f>
-        <v>-8540.86</v>
+        <v>-8196.86</v>
       </c>
       <c r="J42" s="17">
         <f>$K$16</f>
@@ -3768,7 +3783,7 @@
       </c>
       <c r="K42" s="14">
         <f>I42*J42</f>
-        <v>-1708.22324516</v>
+        <v>-1639.4211811600001</v>
       </c>
       <c r="L42" s="14">
         <v>40.61</v>
@@ -3786,25 +3801,25 @@
       </c>
       <c r="S42" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="T42" s="12">
         <f>R42-S42</f>
-        <v>-8539.57</v>
+        <v>-8195.57</v>
       </c>
       <c r="U42" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V42" s="14">
         <f>T42*U42</f>
-        <v>-2683.5598724999995</v>
+        <v>-2575.4578724999997</v>
       </c>
       <c r="W42" s="14">
         <v>40.61</v>
       </c>
       <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="13" t="s">
         <v>16</v>
@@ -3817,11 +3832,11 @@
       </c>
       <c r="H43" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I43" s="12">
         <f>G43-H43</f>
-        <v>-8563.14</v>
+        <v>-8219.14</v>
       </c>
       <c r="J43" s="17">
         <f>$K$16</f>
@@ -3829,7 +3844,7 @@
       </c>
       <c r="K43" s="14">
         <f>I43*J43</f>
-        <v>-1712.6793788399998</v>
+        <v>-1643.8773148399998</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
@@ -3845,23 +3860,23 @@
       </c>
       <c r="S43" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="T43" s="12">
         <f>R43-S43</f>
-        <v>-8611.23</v>
+        <v>-8267.23</v>
       </c>
       <c r="U43" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="V43" s="14">
         <f>T43*U43</f>
-        <v>-2706.0790274999995</v>
+        <v>-2597.9770274999996</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
       <c r="E44" s="13" t="s">
         <v>16</v>
@@ -3874,18 +3889,18 @@
       </c>
       <c r="H44" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="I44" s="12">
         <f>G44-H44</f>
-        <v>-8616.31</v>
+        <v>-8272.31</v>
       </c>
       <c r="J44" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="K44" s="14">
         <f>I44*J44</f>
-        <v>-2707.6754174999996</v>
+        <v>-2599.5734174999998</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
@@ -3901,23 +3916,23 @@
       </c>
       <c r="S44" s="14">
         <f>$K$12</f>
-        <v>17461</v>
+        <v>17117</v>
       </c>
       <c r="T44" s="12">
         <f>R44-S44</f>
-        <v>-8621.44</v>
+        <v>-8277.44</v>
       </c>
       <c r="U44" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="V44" s="14">
         <f>T44*U44</f>
-        <v>-2708.856448</v>
+        <v>-2600.7716479999999</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3940,6 +3955,9 @@
       <c r="X45" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L14:M16"/>
+  </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3947,37 +3965,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
         <v>45370</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -4004,7 +4022,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -4027,7 +4045,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -4044,7 +4062,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -4062,7 +4080,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -4079,10 +4097,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -4099,7 +4117,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -4115,8 +4133,8 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="107" t="s">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="F11" s="108" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="57" t="s">
@@ -4135,8 +4153,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F12" s="107"/>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="F12" s="108"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
       </c>
@@ -4153,8 +4171,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F13" s="107"/>
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="F13" s="108"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
       </c>
@@ -4180,8 +4198,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F14" s="107"/>
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F14" s="108"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
       </c>
@@ -4217,8 +4235,8 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F15" s="107"/>
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F15" s="108"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
       </c>
@@ -4249,7 +4267,7 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
@@ -4267,7 +4285,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -4288,7 +4306,7 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>446</v>
       </c>
@@ -4309,7 +4327,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4334,7 +4352,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4357,7 +4375,7 @@
         <v>2918.77</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4378,8 +4396,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F22" s="107" t="s">
+    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F22" s="108" t="s">
         <v>445</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -4413,8 +4431,8 @@
         <v>-200.37097236555474</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="107"/>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F23" s="108"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
       </c>
@@ -4439,8 +4457,8 @@
         <v>172.47480531080734</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="107"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F24" s="108"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
       </c>
@@ -4465,8 +4483,8 @@
         <v>172.47480531080734</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F25" s="107"/>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F25" s="108"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
       </c>
@@ -4491,8 +4509,8 @@
         <v>776.3465048080725</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F26" s="107"/>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F26" s="108"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
       </c>
@@ -4515,8 +4533,8 @@
         <v>718.99907925950561</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F27" s="107"/>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F27" s="108"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
       </c>
@@ -4548,28 +4566,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -4586,7 +4604,7 @@
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -4607,11 +4625,11 @@
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -4625,7 +4643,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -4642,7 +4660,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4658,7 +4676,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -4692,7 +4710,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -4735,7 +4753,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -4778,7 +4796,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -4821,7 +4839,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -4864,7 +4882,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -4907,7 +4925,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -4949,7 +4967,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -4963,7 +4981,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -4992,7 +5010,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -5006,7 +5024,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>48</v>
       </c>
@@ -5023,7 +5041,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
@@ -5065,7 +5083,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -5108,7 +5126,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
@@ -5121,7 +5139,7 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>52</v>
       </c>
@@ -5141,7 +5159,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
@@ -5157,7 +5175,7 @@
       <c r="J24" s="56"/>
       <c r="K24" s="57"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="61"/>
       <c r="B25" s="57"/>
       <c r="C25" s="55"/>
@@ -5184,7 +5202,7 @@
         <v>2.1800948972254187E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="61"/>
       <c r="B26" s="57"/>
       <c r="C26" s="55"/>
@@ -5223,30 +5241,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
@@ -5268,7 +5286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -5298,11 +5316,11 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="108" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="109"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -5314,7 +5332,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -5328,7 +5346,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -5344,7 +5362,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -5378,7 +5396,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -5419,7 +5437,7 @@
         <v>1.6950110175716127E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -5460,7 +5478,7 @@
         <v>1.6569444583412363E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -5501,7 +5519,7 @@
         <v>2.6757711845689425E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
         <v>31</v>
       </c>
@@ -5542,7 +5560,7 @@
         <v>1.2403630631296458E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="67" t="s">
         <v>26</v>
       </c>
@@ -5583,7 +5601,7 @@
         <v>6.0158250766381149E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="67" t="s">
         <v>50</v>
       </c>
@@ -5624,7 +5642,7 @@
         <v>1.7187955356369411E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="67" t="s">
         <v>52</v>
       </c>
@@ -5653,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -5682,7 +5700,7 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
@@ -5710,7 +5728,7 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
@@ -5737,7 +5755,7 @@
         <v>1.8504050679170173E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="61"/>
       <c r="C20" s="57"/>
       <c r="D20" s="55"/>
@@ -5755,7 +5773,7 @@
       </c>
       <c r="L20" s="57"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G24" s="74"/>
     </row>
   </sheetData>
@@ -5768,20 +5786,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -5789,7 +5807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -5797,7 +5815,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -5805,7 +5823,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -5813,17 +5831,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -5831,12 +5849,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -5844,7 +5862,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -5852,7 +5870,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -5860,7 +5878,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -5868,7 +5886,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -5876,7 +5894,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -5884,7 +5902,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -5892,7 +5910,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -5900,7 +5918,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -5908,7 +5926,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -5924,7 +5942,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -5932,7 +5950,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -5940,7 +5958,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -5948,7 +5966,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -5956,7 +5974,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -5964,7 +5982,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -5972,7 +5990,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -5980,7 +5998,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -5988,7 +6006,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -5996,7 +6014,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -6004,7 +6022,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -6012,7 +6030,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -6020,12 +6038,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -6033,7 +6051,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -6041,7 +6059,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -6049,7 +6067,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -6057,7 +6075,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -6065,7 +6083,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -6073,7 +6091,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -6081,7 +6099,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -6089,7 +6107,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -6097,7 +6115,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -6105,7 +6123,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -6113,7 +6131,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -6121,7 +6139,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -6129,7 +6147,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -6145,7 +6163,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -6153,7 +6171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -6161,7 +6179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6169,7 +6187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -6177,7 +6195,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -6185,7 +6203,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -6201,7 +6219,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6209,7 +6227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -6217,7 +6235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -6225,7 +6243,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -6233,7 +6251,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -6241,7 +6259,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6249,7 +6267,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -6257,7 +6275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -6265,7 +6283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -6273,7 +6291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -6281,7 +6299,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6289,7 +6307,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -6297,7 +6315,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -6305,7 +6323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6313,7 +6331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6321,7 +6339,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6329,7 +6347,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6337,7 +6355,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6345,7 +6363,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6353,7 +6371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6361,7 +6379,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6369,7 +6387,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6377,7 +6395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6385,7 +6403,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6393,7 +6411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6409,7 +6427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6417,7 +6435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6425,7 +6443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6433,7 +6451,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6441,7 +6459,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6449,7 +6467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6457,7 +6475,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6465,7 +6483,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6473,7 +6491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6481,7 +6499,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6489,7 +6507,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6497,7 +6515,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6505,7 +6523,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6513,7 +6531,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6521,7 +6539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6529,7 +6547,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6545,7 +6563,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6553,7 +6571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6561,7 +6579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6569,7 +6587,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6577,7 +6595,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6585,7 +6603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6593,7 +6611,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -6601,7 +6619,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -6609,7 +6627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -6617,7 +6635,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -6625,7 +6643,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -6633,7 +6651,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -6641,7 +6659,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -6649,7 +6667,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -6657,7 +6675,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -6665,7 +6683,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -6673,7 +6691,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -6681,7 +6699,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -6689,7 +6707,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -6697,7 +6715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -6705,7 +6723,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -6713,7 +6731,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -6729,7 +6747,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -6737,7 +6755,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -6745,7 +6763,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -6753,7 +6771,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -6761,7 +6779,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -6769,7 +6787,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -6777,7 +6795,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -6785,7 +6803,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -6793,7 +6811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -6801,7 +6819,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -6809,7 +6827,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -6817,7 +6835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -6825,7 +6843,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -6833,7 +6851,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -6841,7 +6859,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -6849,7 +6867,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -6857,7 +6875,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -6865,7 +6883,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -6873,7 +6891,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -6881,7 +6899,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -6889,7 +6907,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -6897,7 +6915,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -6913,7 +6931,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -6921,7 +6939,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -6929,7 +6947,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -6937,7 +6955,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -6945,7 +6963,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -6953,7 +6971,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -6961,7 +6979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -6969,7 +6987,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -6977,7 +6995,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -6985,7 +7003,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -6993,7 +7011,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +7019,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -7009,7 +7027,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -7017,7 +7035,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -7025,7 +7043,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -7033,7 +7051,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -7041,7 +7059,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -7049,7 +7067,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -7057,7 +7075,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -7065,7 +7083,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -7073,7 +7091,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -7081,7 +7099,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -7097,7 +7115,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -7113,7 +7131,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -7121,7 +7139,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -7129,7 +7147,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -7137,7 +7155,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -7145,7 +7163,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -7153,7 +7171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -7161,7 +7179,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -7169,7 +7187,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -7177,7 +7195,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -7185,7 +7203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -7193,7 +7211,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -7201,7 +7219,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -7209,7 +7227,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -7217,7 +7235,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -7225,7 +7243,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -7233,7 +7251,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -7241,7 +7259,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -7249,7 +7267,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -7257,7 +7275,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -7265,7 +7283,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -7281,7 +7299,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -7289,7 +7307,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -7297,7 +7315,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -7305,7 +7323,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7313,7 +7331,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7321,7 +7339,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7329,7 +7347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7337,7 +7355,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7345,7 +7363,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7353,7 +7371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7361,7 +7379,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7369,7 +7387,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7377,7 +7395,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7385,7 +7403,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7393,7 +7411,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7401,7 +7419,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7409,7 +7427,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7417,7 +7435,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7425,7 +7443,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7433,7 +7451,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7441,7 +7459,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7449,7 +7467,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7465,7 +7483,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7473,7 +7491,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7481,7 +7499,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7489,7 +7507,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7497,7 +7515,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7505,7 +7523,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7513,7 +7531,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7521,7 +7539,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7529,7 +7547,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7537,7 +7555,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7545,7 +7563,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7553,7 +7571,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7561,7 +7579,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7569,7 +7587,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7577,7 +7595,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7585,7 +7603,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7593,7 +7611,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -7601,7 +7619,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -7609,7 +7627,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -7617,7 +7635,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -7625,7 +7643,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -7633,7 +7651,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -7649,7 +7667,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -7657,7 +7675,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -7665,7 +7683,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -7673,7 +7691,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -7681,7 +7699,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -7689,7 +7707,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -7697,7 +7715,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -7705,7 +7723,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -7713,7 +7731,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -7721,7 +7739,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -7729,7 +7747,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -7737,7 +7755,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -7745,7 +7763,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -7753,7 +7771,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -7761,7 +7779,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -7769,7 +7787,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -7777,7 +7795,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -7785,7 +7803,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -7793,7 +7811,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -7801,7 +7819,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -7809,7 +7827,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -7817,7 +7835,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -7825,7 +7843,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -7833,7 +7851,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -7841,7 +7859,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -7849,7 +7867,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -7857,7 +7875,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -7865,7 +7883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -7873,7 +7891,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -7881,7 +7899,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -7889,7 +7907,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -7897,7 +7915,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -7905,7 +7923,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -7913,7 +7931,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -7921,7 +7939,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -7929,7 +7947,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -7937,7 +7955,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -7945,7 +7963,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -7953,7 +7971,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -7961,7 +7979,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -7969,7 +7987,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -7977,7 +7995,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -7985,7 +8003,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -7993,7 +8011,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -8009,7 +8027,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -8017,7 +8035,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -8025,7 +8043,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -8033,7 +8051,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -8041,7 +8059,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -8049,7 +8067,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -8057,7 +8075,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -8065,7 +8083,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -8073,7 +8091,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -8081,7 +8099,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -8089,7 +8107,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -8097,7 +8115,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -8105,7 +8123,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -8113,7 +8131,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -8121,7 +8139,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -8129,7 +8147,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -8137,7 +8155,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -8145,7 +8163,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -8153,7 +8171,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -8161,7 +8179,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -8169,7 +8187,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -8177,7 +8195,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -8185,7 +8203,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -8193,7 +8211,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -8201,7 +8219,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -8209,7 +8227,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -8217,7 +8235,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -8225,7 +8243,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -8233,7 +8251,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -8241,7 +8259,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -8249,7 +8267,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -8257,7 +8275,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -8265,7 +8283,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -8273,7 +8291,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -8281,7 +8299,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -8289,7 +8307,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -8297,7 +8315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -8305,7 +8323,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8313,7 +8331,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8321,7 +8339,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8329,7 +8347,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8337,7 +8355,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8345,7 +8363,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8353,7 +8371,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8361,7 +8379,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8369,7 +8387,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8377,7 +8395,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8385,7 +8403,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8393,7 +8411,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8401,7 +8419,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8409,7 +8427,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8417,7 +8435,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8425,7 +8443,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8433,7 +8451,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8441,7 +8459,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8449,7 +8467,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8457,7 +8475,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8465,7 +8483,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8473,7 +8491,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8481,7 +8499,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8489,7 +8507,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8497,7 +8515,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8505,7 +8523,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8513,7 +8531,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8521,7 +8539,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8529,7 +8547,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8537,7 +8555,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8545,7 +8563,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8553,7 +8571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8561,7 +8579,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8569,7 +8587,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8577,7 +8595,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8585,7 +8603,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8593,7 +8611,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -8601,7 +8619,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -8609,7 +8627,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -8617,7 +8635,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -8625,7 +8643,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -8633,7 +8651,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -8641,7 +8659,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -8649,7 +8667,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -8657,7 +8675,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -8665,7 +8683,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -8673,7 +8691,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -8681,7 +8699,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -8689,7 +8707,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -8697,7 +8715,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -8705,7 +8723,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -8713,7 +8731,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -8721,7 +8739,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -8729,7 +8747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -8737,7 +8755,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -8745,7 +8763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -8753,157 +8771,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E46A1A-6128-4A30-91C0-630BE4532AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
     <sheet name="FOREX ORTAK" sheetId="5" r:id="rId2"/>
-    <sheet name="Can Aksoy" sheetId="2" r:id="rId3"/>
-    <sheet name="Rabia Çakmak" sheetId="3" r:id="rId4"/>
+    <sheet name="Rabia Çakmak (ÖNCE BUNU GİR)" sheetId="3" r:id="rId3"/>
+    <sheet name="Can Aksoy" sheetId="2" r:id="rId4"/>
     <sheet name="Market Data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,14 +40,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="471">
   <si>
     <t>Equity</t>
   </si>
@@ -1449,9 +1450,6 @@
     <t>HESAPTA</t>
   </si>
   <si>
-    <t>ESİN</t>
-  </si>
-  <si>
     <t>Dengi USD</t>
   </si>
   <si>
@@ -1474,12 +1472,15 @@
   </si>
   <si>
     <t xml:space="preserve">NOW </t>
+  </si>
+  <si>
+    <t>ALEX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1936,6 +1937,12 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1945,18 +1952,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
+    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2460,41 +2461,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B5" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="5"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2548,7 +2549,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2556,11 +2557,11 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="112" t="s">
-        <v>470</v>
-      </c>
-      <c r="L11" s="112" t="s">
+      <c r="K11" s="108" t="s">
         <v>469</v>
+      </c>
+      <c r="L11" s="108" t="s">
+        <v>468</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>15</v>
@@ -2580,7 +2581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
@@ -2596,7 +2597,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K12" s="22">
         <v>17117</v>
@@ -2634,7 +2635,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="9" t="s">
@@ -2680,7 +2681,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2703,10 +2704,10 @@
       <c r="K14" s="2">
         <v>100</v>
       </c>
-      <c r="L14" s="111" t="s">
-        <v>468</v>
-      </c>
-      <c r="M14" s="111"/>
+      <c r="L14" s="109" t="s">
+        <v>467</v>
+      </c>
+      <c r="M14" s="109"/>
       <c r="O14" s="2"/>
       <c r="P14" s="11" t="s">
         <v>2</v>
@@ -2726,7 +2727,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
@@ -2744,8 +2745,8 @@
       <c r="K15" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
       <c r="O15" s="2"/>
       <c r="P15" s="11" t="s">
         <v>3</v>
@@ -2766,7 +2767,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -2778,14 +2779,14 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K16" s="106">
         <f>0.200006</f>
         <v>0.20000599999999999</v>
       </c>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
       <c r="O16" s="2"/>
       <c r="P16" s="11" t="s">
         <v>4</v>
@@ -2801,7 +2802,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
@@ -2833,7 +2834,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2855,7 +2856,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2907,7 +2908,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2970,7 +2971,7 @@
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>426</v>
@@ -3033,7 +3034,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
         <v>426</v>
@@ -3076,7 +3077,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
         <v>426</v>
@@ -3119,7 +3120,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
         <v>426</v>
@@ -3162,7 +3163,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
         <v>426</v>
@@ -3205,7 +3206,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
         <v>426</v>
@@ -3248,7 +3249,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
         <v>426</v>
@@ -3291,7 +3292,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14">
@@ -3337,7 +3338,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3359,7 +3360,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D31" s="23">
         <v>9675887</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3415,7 +3416,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3445,7 +3446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="11" t="s">
         <v>0</v>
@@ -3493,7 +3494,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="11" t="s">
         <v>1</v>
@@ -3535,7 +3536,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
       <c r="E36" s="11" t="s">
         <v>2</v>
@@ -3576,7 +3577,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
       <c r="E37" s="11" t="s">
         <v>3</v>
@@ -3624,7 +3625,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="11" t="s">
         <v>4</v>
@@ -3654,7 +3655,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="11" t="s">
         <v>5</v>
@@ -3686,7 +3687,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3708,7 +3709,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
@@ -3758,7 +3759,7 @@
       </c>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="13" t="s">
         <v>16</v>
@@ -3819,7 +3820,7 @@
       </c>
       <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
       <c r="E43" s="13" t="s">
         <v>16</v>
@@ -3876,7 +3877,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
       <c r="E44" s="13" t="s">
         <v>16</v>
@@ -3932,7 +3933,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3965,37 +3966,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -4062,7 +4063,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -4080,7 +4081,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -4097,10 +4098,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -4117,7 +4118,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -4133,8 +4134,8 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F11" s="108" t="s">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="110" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="57" t="s">
@@ -4153,8 +4154,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F12" s="108"/>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="110"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
       </c>
@@ -4171,8 +4172,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="F13" s="108"/>
+    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F13" s="110"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
       </c>
@@ -4198,8 +4199,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F14" s="108"/>
+    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F14" s="110"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
       </c>
@@ -4235,8 +4236,8 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F15" s="108"/>
+    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F15" s="110"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
       </c>
@@ -4267,7 +4268,7 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
@@ -4285,7 +4286,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -4306,12 +4307,12 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>446</v>
       </c>
       <c r="N18" s="89" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="O18" s="91">
         <f>20000/32.3</f>
@@ -4327,7 +4328,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4372,10 +4373,10 @@
         <v>451</v>
       </c>
       <c r="O20" s="93">
-        <v>2918.77</v>
-      </c>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+        <v>2925.4</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4396,24 +4397,24 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F22" s="108" t="s">
+    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F22" s="110" t="s">
         <v>445</v>
       </c>
       <c r="G22" s="57" t="s">
         <v>428</v>
       </c>
       <c r="H22" s="84">
-        <f>D3</f>
-        <v>315</v>
+        <f>O15</f>
+        <v>624.09197530864196</v>
       </c>
       <c r="I22" s="85">
         <f>H22/$H$27</f>
-        <v>0.11639507815098106</v>
+        <v>0.20008456842376413</v>
       </c>
       <c r="J22" s="84">
         <f>$J$27*I22</f>
-        <v>339.730462254739</v>
+        <v>585.32739646687958</v>
       </c>
       <c r="K22" s="88">
         <f>J11</f>
@@ -4421,32 +4422,32 @@
       </c>
       <c r="L22" s="88">
         <f>J22-K22</f>
-        <v>172.47480531080734</v>
+        <v>418.07173952294795</v>
       </c>
       <c r="N22" s="92" t="s">
         <v>458</v>
       </c>
       <c r="O22" s="93">
         <f>O20-O19</f>
-        <v>-200.37097236555474</v>
-      </c>
-    </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F23" s="108"/>
+        <v>-193.74097236555463</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="110"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
       </c>
       <c r="H23" s="84">
-        <f>D4</f>
-        <v>315</v>
+        <f>O17</f>
+        <v>623.10197530864195</v>
       </c>
       <c r="I23" s="85">
         <f t="shared" ref="I23:I26" si="6">H23/$H$27</f>
-        <v>0.11639507815098106</v>
+        <v>0.19976717334326885</v>
       </c>
       <c r="J23" s="84">
         <f t="shared" ref="J23:J26" si="7">$J$27*I23</f>
-        <v>339.730462254739</v>
+        <v>584.3988888983987</v>
       </c>
       <c r="K23" s="88">
         <f>J12</f>
@@ -4454,25 +4455,25 @@
       </c>
       <c r="L23" s="88">
         <f t="shared" ref="L23:L26" si="8">J23-K23</f>
-        <v>172.47480531080734</v>
-      </c>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F24" s="108"/>
+        <v>417.14323195446707</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="110"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
       </c>
       <c r="H24" s="84">
-        <f>D5</f>
-        <v>315</v>
+        <f>O16</f>
+        <v>623.10197530864195</v>
       </c>
       <c r="I24" s="85">
         <f t="shared" si="6"/>
-        <v>0.11639507815098106</v>
+        <v>0.19976717334326885</v>
       </c>
       <c r="J24" s="84">
         <f t="shared" si="7"/>
-        <v>339.730462254739</v>
+        <v>584.3988888983987</v>
       </c>
       <c r="K24" s="88">
         <f>J13</f>
@@ -4480,25 +4481,25 @@
       </c>
       <c r="L24" s="88">
         <f t="shared" si="8"/>
-        <v>172.47480531080734</v>
-      </c>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F25" s="108"/>
+        <v>417.14323195446707</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="110"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
       </c>
       <c r="H25" s="84">
-        <f>D6+333.33</f>
-        <v>1094.6399999999999</v>
+        <f>O14</f>
+        <v>629.65</v>
       </c>
       <c r="I25" s="85">
         <f t="shared" si="6"/>
-        <v>0.40447843919742821</v>
+        <v>0.20186647720589357</v>
       </c>
       <c r="J25" s="84">
         <f t="shared" si="7"/>
-        <v>1180.5795339762776</v>
+        <v>590.54019241812102</v>
       </c>
       <c r="K25" s="88">
         <f>J14</f>
@@ -4506,54 +4507,55 @@
       </c>
       <c r="L25" s="88">
         <f t="shared" si="8"/>
-        <v>776.3465048080725</v>
-      </c>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F26" s="108"/>
+        <v>186.30716324991596</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" s="110"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
       </c>
       <c r="H26" s="84">
-        <v>666.66</v>
+        <f>O18</f>
+        <v>619.19504643962853</v>
       </c>
       <c r="I26" s="85">
         <f t="shared" si="6"/>
-        <v>0.24633632634962865</v>
+        <v>0.19851460768380447</v>
       </c>
       <c r="J26" s="84">
         <f t="shared" si="7"/>
-        <v>718.99907925950561</v>
+        <v>580.73463331820165</v>
       </c>
       <c r="K26" s="88">
         <v>0</v>
       </c>
       <c r="L26" s="88">
         <f t="shared" si="8"/>
-        <v>718.99907925950561</v>
-      </c>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="108"/>
+        <v>580.73463331820165</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F27" s="110"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
       </c>
       <c r="H27" s="86">
         <f>SUM(H22:H26)</f>
-        <v>2706.2999999999997</v>
+        <v>3119.1409723655547</v>
       </c>
       <c r="I27" s="87">
         <f>SUM(I22:I26)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J27" s="86">
         <f>O20</f>
-        <v>2918.77</v>
+        <v>2925.4</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="88">
         <f>SUM(L22:L26)</f>
-        <v>2012.7700000000002</v>
+        <v>2019.3999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4568,573 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
-    <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
+    <col min="9" max="9" width="13" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="61"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="65">
+        <v>45358</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>463</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="66">
+        <f ca="1">L5</f>
+        <v>45371</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="36">
+        <v>31.7973</v>
+      </c>
+      <c r="G5" s="70">
+        <v>3993.81</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="36">
+        <v>32.320900000000002</v>
+      </c>
+      <c r="K5" s="56">
+        <f>J5</f>
+        <v>32.320900000000002</v>
+      </c>
+      <c r="L5" s="65">
+        <f ca="1">TODAY()</f>
+        <v>45371</v>
+      </c>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="68">
+        <v>2070261</v>
+      </c>
+      <c r="D10" s="69">
+        <v>0.17699000000000001</v>
+      </c>
+      <c r="E10" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F10" s="70">
+        <f t="shared" ref="F10:F15" si="0">C10*D10</f>
+        <v>366415.49439000001</v>
+      </c>
+      <c r="G10" s="71">
+        <f t="shared" ref="G10:G16" si="1">F10/$F$17</f>
+        <v>0.49951295228196646</v>
+      </c>
+      <c r="H10" s="69">
+        <v>0.18381</v>
+      </c>
+      <c r="I10" s="65">
+        <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
+        <v>45371</v>
+      </c>
+      <c r="J10" s="70">
+        <f t="shared" ref="J10:J15" si="3">C10*H10</f>
+        <v>380534.67440999998</v>
+      </c>
+      <c r="K10" s="70">
+        <f t="shared" ref="K10:K15" si="4">J10-F10</f>
+        <v>14119.180019999971</v>
+      </c>
+      <c r="L10" s="72">
+        <f t="shared" ref="L10:L18" si="5">J10/F10-1</f>
+        <v>3.8533250466127988E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="68">
+        <v>1058100</v>
+      </c>
+      <c r="D11" s="69">
+        <v>0.19988600000000001</v>
+      </c>
+      <c r="E11" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F11" s="70">
+        <f t="shared" si="0"/>
+        <v>211499.37660000002</v>
+      </c>
+      <c r="G11" s="71">
+        <f t="shared" si="1"/>
+        <v>0.28832481057368931</v>
+      </c>
+      <c r="H11" s="69">
+        <v>0.203489</v>
+      </c>
+      <c r="I11" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>45371</v>
+      </c>
+      <c r="J11" s="70">
+        <f t="shared" si="3"/>
+        <v>215311.71090000001</v>
+      </c>
+      <c r="K11" s="70">
+        <f t="shared" si="4"/>
+        <v>3812.3342999999877</v>
+      </c>
+      <c r="L11" s="72">
+        <f t="shared" si="5"/>
+        <v>1.8025274406411551E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="68">
+        <v>46443</v>
+      </c>
+      <c r="D12" s="69">
+        <v>2.9882599999999999</v>
+      </c>
+      <c r="E12" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F12" s="70">
+        <f t="shared" si="0"/>
+        <v>138783.75917999999</v>
+      </c>
+      <c r="G12" s="71">
+        <f t="shared" si="1"/>
+        <v>0.18919583461447426</v>
+      </c>
+      <c r="H12" s="69">
+        <v>3.068441</v>
+      </c>
+      <c r="I12" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>45371</v>
+      </c>
+      <c r="J12" s="70">
+        <f t="shared" si="3"/>
+        <v>142507.60536300001</v>
+      </c>
+      <c r="K12" s="70">
+        <f t="shared" si="4"/>
+        <v>3723.846183000016</v>
+      </c>
+      <c r="L12" s="72">
+        <f t="shared" si="5"/>
+        <v>2.6832002570057689E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="68">
+        <v>2380</v>
+      </c>
+      <c r="D13" s="69">
+        <v>3.2479200000000001</v>
+      </c>
+      <c r="E13" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F13" s="70">
+        <f t="shared" si="0"/>
+        <v>7730.0496000000003</v>
+      </c>
+      <c r="G13" s="71">
+        <f t="shared" si="1"/>
+        <v>1.053792745148556E-2</v>
+      </c>
+      <c r="H13" s="69">
+        <v>3.2711960000000002</v>
+      </c>
+      <c r="I13" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>45371</v>
+      </c>
+      <c r="J13" s="70">
+        <f t="shared" si="3"/>
+        <v>7785.4464800000005</v>
+      </c>
+      <c r="K13" s="70">
+        <f t="shared" si="4"/>
+        <v>55.396880000000237</v>
+      </c>
+      <c r="L13" s="72">
+        <f t="shared" si="5"/>
+        <v>7.1664326707554515E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="68">
+        <v>715</v>
+      </c>
+      <c r="D14" s="69">
+        <v>7.0558899999999998</v>
+      </c>
+      <c r="E14" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F14" s="70">
+        <f t="shared" si="0"/>
+        <v>5044.9613499999996</v>
+      </c>
+      <c r="G14" s="71">
+        <f t="shared" si="1"/>
+        <v>6.8775026620590688E-3</v>
+      </c>
+      <c r="H14" s="69">
+        <v>7.449592</v>
+      </c>
+      <c r="I14" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>45371</v>
+      </c>
+      <c r="J14" s="70">
+        <f t="shared" si="3"/>
+        <v>5326.4582799999998</v>
+      </c>
+      <c r="K14" s="70">
+        <f t="shared" si="4"/>
+        <v>281.49693000000025</v>
+      </c>
+      <c r="L14" s="72">
+        <f t="shared" si="5"/>
+        <v>5.5797638568628516E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="68">
+        <v>41</v>
+      </c>
+      <c r="D15" s="69">
+        <v>1.904415</v>
+      </c>
+      <c r="E15" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F15" s="70">
+        <f t="shared" si="0"/>
+        <v>78.081014999999994</v>
+      </c>
+      <c r="G15" s="71">
+        <f t="shared" si="1"/>
+        <v>1.0644331071411956E-4</v>
+      </c>
+      <c r="H15" s="69">
+        <v>1.9466570000000001</v>
+      </c>
+      <c r="I15" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>45371</v>
+      </c>
+      <c r="J15" s="70">
+        <f t="shared" si="3"/>
+        <v>79.812937000000005</v>
+      </c>
+      <c r="K15" s="70">
+        <f t="shared" si="4"/>
+        <v>1.7319220000000115</v>
+      </c>
+      <c r="L15" s="72">
+        <f t="shared" si="5"/>
+        <v>2.2181089730967329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="70">
+        <f>G5</f>
+        <v>3993.81</v>
+      </c>
+      <c r="G16" s="71">
+        <f t="shared" si="1"/>
+        <v>5.4445291056111128E-3</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="70">
+        <v>3993.81</v>
+      </c>
+      <c r="K16" s="70">
+        <f t="shared" ref="K16" si="6">J16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="72">
+        <f t="shared" ref="L16" si="7">J16/F16-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="98">
+        <f>SUM(F10:F16)</f>
+        <v>733545.5321350001</v>
+      </c>
+      <c r="G17" s="48">
+        <f>SUM(G10:G16)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="98">
+        <f>SUM(J10:J16)</f>
+        <v>755539.51837000006</v>
+      </c>
+      <c r="K17" s="98">
+        <f>SUM(K10:K15)</f>
+        <v>21993.986234999975</v>
+      </c>
+      <c r="L17" s="99">
+        <f t="shared" si="5"/>
+        <v>2.9983123434732084E-2</v>
+      </c>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="F18" s="101">
+        <f>F17/F5</f>
+        <v>23069.428289037121</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="101">
+        <f>J17/J5</f>
+        <v>23376.190587823978</v>
+      </c>
+      <c r="K18" s="101">
+        <f>J18-F18</f>
+        <v>306.76229878685626</v>
+      </c>
+      <c r="L18" s="99">
+        <f>J18/F18-1</f>
+        <v>1.3297351583378081E-2</v>
+      </c>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="61"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="52">
+        <f ca="1">$L$5</f>
+        <v>45371</v>
+      </c>
+      <c r="J19" s="53">
+        <f>J17</f>
+        <v>755539.51837000006</v>
+      </c>
+      <c r="K19" s="53">
+        <f>K17</f>
+        <v>21993.986234999975</v>
+      </c>
+      <c r="L19" s="54">
+        <f>K19/J19</f>
+        <v>2.9110305550197786E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="61"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="53">
+        <f>K19*0.07</f>
+        <v>1539.5790364499983</v>
+      </c>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A4:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="13" style="30" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -4600,11 +5147,11 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K7</f>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -4620,16 +5167,17 @@
         <v>44</v>
       </c>
       <c r="I5" s="36">
-        <v>32.202500000000001</v>
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!J5</f>
+        <v>32.320900000000002</v>
       </c>
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="110"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -4643,7 +5191,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -4656,11 +5204,11 @@
       <c r="J7" s="38"/>
       <c r="K7" s="65">
         <f ca="1">TODAY()</f>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4676,7 +5224,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -4710,7 +5258,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -4732,28 +5280,28 @@
         <v>0.5410245403030417</v>
       </c>
       <c r="G10" s="36">
-        <f>'Rabia Çakmak'!H10</f>
-        <v>0.17999000000000001</v>
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
+        <v>0.18381</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="I10" s="102">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
-        <v>202005.65684000001</v>
+        <v>206292.90396</v>
       </c>
       <c r="J10" s="102">
         <f t="shared" ref="J10:J15" si="4">I10-E10</f>
-        <v>7245.6720960000239</v>
+        <v>11532.919216000009</v>
       </c>
       <c r="K10" s="105">
         <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
-        <v>3.7203084121843588E-2</v>
+        <v>5.9216061405834131E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -4775,28 +5323,28 @@
         <v>0.26669735883456852</v>
       </c>
       <c r="G11" s="36">
-        <f>'Rabia Çakmak'!H11</f>
-        <v>0.20319799999999999</v>
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
+        <v>0.203489</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="I11" s="102">
         <f t="shared" si="3"/>
-        <v>97595.999400000001</v>
+        <v>97735.766700000007</v>
       </c>
       <c r="J11" s="102">
         <f t="shared" si="4"/>
-        <v>1589.3126999999949</v>
+        <v>1729.0800000000017</v>
       </c>
       <c r="K11" s="105">
         <f t="shared" si="5"/>
-        <v>1.655418757410354E-2</v>
+        <v>1.8009995547528801E-2</v>
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -4818,28 +5366,28 @@
         <v>0.17590045982923255</v>
       </c>
       <c r="G12" s="36">
-        <f>'Rabia Çakmak'!H12</f>
-        <v>3.068219</v>
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H12</f>
+        <v>3.068441</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="I12" s="102">
         <f t="shared" si="3"/>
-        <v>63079.514421</v>
+        <v>63084.078519000002</v>
       </c>
       <c r="J12" s="102">
         <f t="shared" si="4"/>
-        <v>-241.77383999999438</v>
+        <v>-237.20974199999182</v>
       </c>
       <c r="K12" s="105">
         <f t="shared" si="5"/>
-        <v>-3.8182078514170659E-3</v>
+        <v>-3.7461294378954291E-3</v>
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -4861,28 +5409,28 @@
         <v>9.796798739838462E-3</v>
       </c>
       <c r="G13" s="36">
-        <f>'Rabia Çakmak'!H13</f>
-        <v>3.2882060000000002</v>
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H13</f>
+        <v>3.2711960000000002</v>
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="I13" s="102">
         <f t="shared" si="3"/>
-        <v>3580.8563340000001</v>
+        <v>3562.3324440000001</v>
       </c>
       <c r="J13" s="102">
         <f t="shared" si="4"/>
-        <v>54.169038</v>
+        <v>35.645148000000063</v>
       </c>
       <c r="K13" s="105">
         <f t="shared" si="5"/>
-        <v>1.5359750795438831E-2</v>
+        <v>1.0107260726072598E-2</v>
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -4904,28 +5452,28 @@
         <v>6.3871094628491186E-3</v>
       </c>
       <c r="G14" s="36">
-        <f>'Rabia Çakmak'!H14</f>
-        <v>7.4803600000000001</v>
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H14</f>
+        <v>7.449592</v>
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="I14" s="102">
         <f t="shared" si="3"/>
-        <v>2356.3134</v>
+        <v>2346.6214799999998</v>
       </c>
       <c r="J14" s="102">
         <f t="shared" si="4"/>
-        <v>57.058469999999943</v>
+        <v>47.366549999999734</v>
       </c>
       <c r="K14" s="105">
         <f t="shared" si="5"/>
-        <v>2.4816069438633237E-2</v>
+        <v>2.0600825677037804E-2</v>
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -4947,27 +5495,27 @@
         <v>1.9373283046967237E-4</v>
       </c>
       <c r="G15" s="36">
-        <v>2.4213770000000001</v>
+        <v>2.4318819999999999</v>
       </c>
       <c r="H15" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="3"/>
-        <v>70.219932999999997</v>
+        <v>70.524577999999991</v>
       </c>
       <c r="J15" s="102">
         <f t="shared" si="4"/>
-        <v>0.47928299999999524</v>
+        <v>0.78392799999998886</v>
       </c>
       <c r="K15" s="105">
         <f t="shared" si="5"/>
-        <v>6.8723621015862602E-3</v>
+        <v>1.1240617917957385E-2</v>
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -4981,7 +5529,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -4998,19 +5546,19 @@
       <c r="H17" s="49"/>
       <c r="I17" s="103">
         <f>SUM(I10:I15)</f>
-        <v>368688.56032800005</v>
+        <v>373092.22768100002</v>
       </c>
       <c r="J17" s="103">
         <f>SUM(J10:J15)</f>
-        <v>8704.917747000025</v>
+        <v>13108.585100000018</v>
       </c>
       <c r="K17" s="104">
         <f>I17/E17-1</f>
-        <v>2.4181425813094792E-2</v>
+        <v>3.6414390959584875E-2</v>
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -5024,7 +5572,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>48</v>
       </c>
@@ -5041,7 +5589,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
@@ -5067,7 +5615,7 @@
       </c>
       <c r="H20" s="39">
         <f ca="1">$K$7</f>
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="I20" s="51">
         <f>B20*G20</f>
@@ -5083,7 +5631,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -5106,32 +5654,32 @@
       </c>
       <c r="G21" s="47">
         <f>G20*I5</f>
-        <v>9769.1114125000004</v>
+        <v>9805.0298285000008</v>
       </c>
       <c r="H21" s="39">
         <f ca="1">$K$7</f>
-        <v>45370</v>
-      </c>
-      <c r="I21" s="37">
+        <v>45371</v>
+      </c>
+      <c r="I21" s="103">
         <f>I20*$I$5</f>
-        <v>48845.557062500004</v>
-      </c>
-      <c r="J21" s="51">
-        <f>J20*$I$5</f>
-        <v>421.04768750000147</v>
-      </c>
-      <c r="K21" s="46">
+        <v>49025.149142500006</v>
+      </c>
+      <c r="J21" s="103">
+        <f>I21-E21</f>
+        <v>1822.4366425000117</v>
+      </c>
+      <c r="K21" s="104">
         <f>I21/E21-1</f>
-        <v>3.4804028740933246E-2</v>
+        <v>3.8608727040845725E-2</v>
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="57"/>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
@@ -5139,86 +5687,50 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
-        <v>52</v>
-      </c>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
       <c r="B23" s="57"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
-      <c r="E23" s="100">
-        <v>1550</v>
-      </c>
+      <c r="E23" s="56"/>
       <c r="F23" s="57"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="53">
-        <f>1550.05-I20</f>
-        <v>33.224999999999909</v>
-      </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G23" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="52">
+        <f ca="1">$K$7</f>
+        <v>45371</v>
+      </c>
+      <c r="I23" s="103">
+        <f>I21+I17</f>
+        <v>422117.37682350003</v>
+      </c>
+      <c r="J23" s="103">
+        <f>J21+J17</f>
+        <v>14931.02174250003</v>
+      </c>
+      <c r="K23" s="104">
+        <f>J23/I23</f>
+        <v>3.5371729671160021E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="55"/>
+      <c r="G24" s="64" t="s">
+        <v>47</v>
+      </c>
       <c r="H24" s="55"/>
-      <c r="I24" s="53">
-        <f>I23*I5</f>
-        <v>1069.9280624999972</v>
-      </c>
-      <c r="J24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="53">
+        <f>J23*0.07</f>
+        <v>1045.1715219750022</v>
+      </c>
       <c r="K24" s="57"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="52">
-        <f ca="1">$K$7</f>
-        <v>45370</v>
-      </c>
-      <c r="I25" s="53">
-        <f>I17+I21+I24</f>
-        <v>418604.04545300006</v>
-      </c>
-      <c r="J25" s="53">
-        <f>J21+J17</f>
-        <v>9125.9654345000272</v>
-      </c>
-      <c r="K25" s="54">
-        <f>J25/I25</f>
-        <v>2.1800948972254187E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="53">
-        <f>J25*0.07</f>
-        <v>638.817580415002</v>
-      </c>
-      <c r="K26" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5232,7 +5744,7 @@
           <xm:f>'Can Aksoy'!1:1048576</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{16543E2C-3DFA-490E-A56A-1DAE64007A71}">
-          <xm:f>'Can Aksoy'!XFD1048551:XFD1048576</xm:f>
+          <xm:f>'Can Aksoy'!XFD1048549:XFD1048576</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
@@ -5240,566 +5752,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M24"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
-    <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="65">
-        <v>45358</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>464</v>
-      </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="66">
-        <f ca="1">L5</f>
-        <v>45370</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="36">
-        <v>31.7973</v>
-      </c>
-      <c r="G5" s="70">
-        <v>3993.81</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="36">
-        <v>32.202500000000001</v>
-      </c>
-      <c r="K5" s="56">
-        <f>J5</f>
-        <v>32.202500000000001</v>
-      </c>
-      <c r="L5" s="65">
-        <f ca="1">TODAY()</f>
-        <v>45370</v>
-      </c>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="68">
-        <v>2070261</v>
-      </c>
-      <c r="D10" s="69">
-        <v>0.17699000000000001</v>
-      </c>
-      <c r="E10" s="65">
-        <v>45358</v>
-      </c>
-      <c r="F10" s="70">
-        <f t="shared" ref="F10:F15" si="0">C10*D10</f>
-        <v>366415.49439000001</v>
-      </c>
-      <c r="G10" s="71">
-        <f t="shared" ref="G10:G16" si="1">F10/$F$17</f>
-        <v>0.49951295228196646</v>
-      </c>
-      <c r="H10" s="69">
-        <v>0.17999000000000001</v>
-      </c>
-      <c r="I10" s="65">
-        <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45370</v>
-      </c>
-      <c r="J10" s="70">
-        <f t="shared" ref="J10:J15" si="3">C10*H10</f>
-        <v>372626.27739</v>
-      </c>
-      <c r="K10" s="70">
-        <f t="shared" ref="K10:K15" si="4">J10-F10</f>
-        <v>6210.7829999999958</v>
-      </c>
-      <c r="L10" s="72">
-        <f t="shared" ref="L10:L18" si="5">J10/F10-1</f>
-        <v>1.6950110175716127E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="68">
-        <v>1058100</v>
-      </c>
-      <c r="D11" s="69">
-        <v>0.19988600000000001</v>
-      </c>
-      <c r="E11" s="65">
-        <v>45358</v>
-      </c>
-      <c r="F11" s="70">
-        <f t="shared" si="0"/>
-        <v>211499.37660000002</v>
-      </c>
-      <c r="G11" s="71">
-        <f t="shared" si="1"/>
-        <v>0.28832481057368931</v>
-      </c>
-      <c r="H11" s="69">
-        <v>0.20319799999999999</v>
-      </c>
-      <c r="I11" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
-      </c>
-      <c r="J11" s="70">
-        <f t="shared" si="3"/>
-        <v>215003.80379999999</v>
-      </c>
-      <c r="K11" s="70">
-        <f t="shared" si="4"/>
-        <v>3504.4271999999764</v>
-      </c>
-      <c r="L11" s="72">
-        <f t="shared" si="5"/>
-        <v>1.6569444583412363E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="68">
-        <v>46443</v>
-      </c>
-      <c r="D12" s="69">
-        <v>2.9882599999999999</v>
-      </c>
-      <c r="E12" s="65">
-        <v>45358</v>
-      </c>
-      <c r="F12" s="70">
-        <f t="shared" si="0"/>
-        <v>138783.75917999999</v>
-      </c>
-      <c r="G12" s="71">
-        <f t="shared" si="1"/>
-        <v>0.18919583461447426</v>
-      </c>
-      <c r="H12" s="69">
-        <v>3.068219</v>
-      </c>
-      <c r="I12" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
-      </c>
-      <c r="J12" s="70">
-        <f t="shared" si="3"/>
-        <v>142497.295017</v>
-      </c>
-      <c r="K12" s="70">
-        <f t="shared" si="4"/>
-        <v>3713.5358370000031</v>
-      </c>
-      <c r="L12" s="72">
-        <f t="shared" si="5"/>
-        <v>2.6757711845689425E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="68">
-        <v>2380</v>
-      </c>
-      <c r="D13" s="69">
-        <v>3.2479200000000001</v>
-      </c>
-      <c r="E13" s="65">
-        <v>45358</v>
-      </c>
-      <c r="F13" s="70">
-        <f t="shared" si="0"/>
-        <v>7730.0496000000003</v>
-      </c>
-      <c r="G13" s="71">
-        <f t="shared" si="1"/>
-        <v>1.053792745148556E-2</v>
-      </c>
-      <c r="H13" s="69">
-        <v>3.2882060000000002</v>
-      </c>
-      <c r="I13" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
-      </c>
-      <c r="J13" s="70">
-        <f t="shared" si="3"/>
-        <v>7825.9302800000005</v>
-      </c>
-      <c r="K13" s="70">
-        <f t="shared" si="4"/>
-        <v>95.880680000000211</v>
-      </c>
-      <c r="L13" s="72">
-        <f t="shared" si="5"/>
-        <v>1.2403630631296458E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="68">
-        <v>715</v>
-      </c>
-      <c r="D14" s="69">
-        <v>7.0558899999999998</v>
-      </c>
-      <c r="E14" s="65">
-        <v>45358</v>
-      </c>
-      <c r="F14" s="70">
-        <f t="shared" si="0"/>
-        <v>5044.9613499999996</v>
-      </c>
-      <c r="G14" s="71">
-        <f t="shared" si="1"/>
-        <v>6.8775026620590688E-3</v>
-      </c>
-      <c r="H14" s="69">
-        <v>7.4803600000000001</v>
-      </c>
-      <c r="I14" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
-      </c>
-      <c r="J14" s="70">
-        <f t="shared" si="3"/>
-        <v>5348.4574000000002</v>
-      </c>
-      <c r="K14" s="70">
-        <f t="shared" si="4"/>
-        <v>303.49605000000065</v>
-      </c>
-      <c r="L14" s="72">
-        <f t="shared" si="5"/>
-        <v>6.0158250766381149E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="68">
-        <v>41</v>
-      </c>
-      <c r="D15" s="69">
-        <v>1.904415</v>
-      </c>
-      <c r="E15" s="65">
-        <v>45358</v>
-      </c>
-      <c r="F15" s="70">
-        <f t="shared" si="0"/>
-        <v>78.081014999999994</v>
-      </c>
-      <c r="G15" s="71">
-        <f t="shared" si="1"/>
-        <v>1.0644331071411956E-4</v>
-      </c>
-      <c r="H15" s="69">
-        <v>1.9371480000000001</v>
-      </c>
-      <c r="I15" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>45370</v>
-      </c>
-      <c r="J15" s="70">
-        <f t="shared" si="3"/>
-        <v>79.423068000000001</v>
-      </c>
-      <c r="K15" s="70">
-        <f t="shared" si="4"/>
-        <v>1.342053000000007</v>
-      </c>
-      <c r="L15" s="72">
-        <f t="shared" si="5"/>
-        <v>1.7187955356369411E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="70">
-        <f>G5</f>
-        <v>3993.81</v>
-      </c>
-      <c r="G16" s="71">
-        <f t="shared" si="1"/>
-        <v>5.4445291056111128E-3</v>
-      </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="70">
-        <v>3993.81</v>
-      </c>
-      <c r="K16" s="70">
-        <f t="shared" ref="K16" si="6">J16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="72">
-        <f t="shared" ref="L16" si="7">J16/F16-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="98">
-        <f>SUM(F10:F16)</f>
-        <v>733545.5321350001</v>
-      </c>
-      <c r="G17" s="48">
-        <f>SUM(G10:G16)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="98">
-        <f>SUM(J10:J16)</f>
-        <v>747374.9969550001</v>
-      </c>
-      <c r="K17" s="98">
-        <f>SUM(K10:K15)</f>
-        <v>13829.464819999976</v>
-      </c>
-      <c r="L17" s="99">
-        <f t="shared" si="5"/>
-        <v>1.8852905803609765E-2</v>
-      </c>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="F18" s="101">
-        <f>F17/F5</f>
-        <v>23069.428289037121</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="101">
-        <f>J17/J5</f>
-        <v>23208.601722071271</v>
-      </c>
-      <c r="K18" s="101">
-        <f>K17/K5</f>
-        <v>429.45314245788296</v>
-      </c>
-      <c r="L18" s="99">
-        <f t="shared" si="5"/>
-        <v>6.0328080648746063E-3</v>
-      </c>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="52">
-        <f ca="1">$L$5</f>
-        <v>45370</v>
-      </c>
-      <c r="J19" s="53">
-        <f>J17</f>
-        <v>747374.9969550001</v>
-      </c>
-      <c r="K19" s="53">
-        <f>K17</f>
-        <v>13829.464819999976</v>
-      </c>
-      <c r="L19" s="54">
-        <f>K19/J19</f>
-        <v>1.8504050679170173E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="53">
-        <f>K19*0.07</f>
-        <v>968.0625373999984</v>
-      </c>
-      <c r="L20" s="57"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G24" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -5807,7 +5774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -5815,7 +5782,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -5823,7 +5790,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -5831,17 +5798,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -5849,12 +5816,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -5862,7 +5829,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -5870,7 +5837,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -5878,7 +5845,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -5886,7 +5853,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -5894,7 +5861,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -5902,7 +5869,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -5910,7 +5877,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -5918,7 +5885,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -5926,7 +5893,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -5934,7 +5901,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -5942,7 +5909,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -5950,7 +5917,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -5958,7 +5925,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -5966,7 +5933,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -5974,7 +5941,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -5982,7 +5949,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -5990,7 +5957,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -5998,7 +5965,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -6006,7 +5973,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -6014,7 +5981,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -6022,7 +5989,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -6030,7 +5997,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -6038,12 +6005,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -6051,7 +6018,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -6059,7 +6026,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -6067,7 +6034,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -6075,7 +6042,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -6083,7 +6050,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -6091,7 +6058,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -6099,7 +6066,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -6107,7 +6074,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -6115,7 +6082,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -6123,7 +6090,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -6131,7 +6098,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -6139,7 +6106,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -6147,7 +6114,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -6155,7 +6122,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -6163,7 +6130,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -6171,7 +6138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -6179,7 +6146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6187,7 +6154,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -6195,7 +6162,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -6203,7 +6170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -6211,7 +6178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -6219,7 +6186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6227,7 +6194,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -6235,7 +6202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -6243,7 +6210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -6251,7 +6218,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -6259,7 +6226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6267,7 +6234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -6275,7 +6242,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -6283,7 +6250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -6291,7 +6258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -6299,7 +6266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6307,7 +6274,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -6315,7 +6282,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -6323,7 +6290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6331,7 +6298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6339,7 +6306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6347,7 +6314,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6355,7 +6322,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6363,7 +6330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6371,7 +6338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6379,7 +6346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6387,7 +6354,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6395,7 +6362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6403,7 +6370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6411,7 +6378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6419,7 +6386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6427,7 +6394,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6435,7 +6402,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6443,7 +6410,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6451,7 +6418,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6459,7 +6426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6467,7 +6434,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6475,7 +6442,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6483,7 +6450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6491,7 +6458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6499,7 +6466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6507,7 +6474,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6515,7 +6482,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6523,7 +6490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6531,7 +6498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6539,7 +6506,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6547,7 +6514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6555,7 +6522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6563,7 +6530,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6571,7 +6538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6579,7 +6546,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6587,7 +6554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6595,7 +6562,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6603,7 +6570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6611,7 +6578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -6619,7 +6586,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -6627,7 +6594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -6635,7 +6602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -6643,7 +6610,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -6651,7 +6618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -6659,7 +6626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -6667,7 +6634,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -6675,7 +6642,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -6683,7 +6650,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -6691,7 +6658,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -6699,7 +6666,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -6707,7 +6674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -6715,7 +6682,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -6723,7 +6690,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -6731,7 +6698,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -6739,7 +6706,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -6747,7 +6714,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -6755,7 +6722,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -6763,7 +6730,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -6771,7 +6738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -6779,7 +6746,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -6787,7 +6754,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -6795,7 +6762,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -6803,7 +6770,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -6811,7 +6778,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -6819,7 +6786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -6827,7 +6794,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -6835,7 +6802,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -6843,7 +6810,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -6851,7 +6818,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -6859,7 +6826,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -6867,7 +6834,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -6875,7 +6842,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -6883,7 +6850,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -6891,7 +6858,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -6899,7 +6866,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -6907,7 +6874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -6915,7 +6882,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -6923,7 +6890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -6931,7 +6898,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -6939,7 +6906,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -6947,7 +6914,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -6955,7 +6922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -6963,7 +6930,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -6971,7 +6938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -6979,7 +6946,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -6987,7 +6954,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -6995,7 +6962,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -7003,7 +6970,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -7011,7 +6978,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -7019,7 +6986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -7027,7 +6994,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -7035,7 +7002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -7043,7 +7010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -7051,7 +7018,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -7059,7 +7026,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7034,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -7075,7 +7042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -7083,7 +7050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -7091,7 +7058,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -7099,7 +7066,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -7107,7 +7074,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -7115,7 +7082,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -7123,7 +7090,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -7131,7 +7098,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -7139,7 +7106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -7147,7 +7114,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -7155,7 +7122,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -7163,7 +7130,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -7171,7 +7138,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -7179,7 +7146,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -7187,7 +7154,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -7195,7 +7162,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -7203,7 +7170,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -7211,7 +7178,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -7219,7 +7186,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -7227,7 +7194,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -7235,7 +7202,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -7243,7 +7210,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -7251,7 +7218,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -7259,7 +7226,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -7267,7 +7234,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -7275,7 +7242,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -7283,7 +7250,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -7291,7 +7258,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -7299,7 +7266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -7307,7 +7274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -7315,7 +7282,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -7323,7 +7290,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7331,7 +7298,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7339,7 +7306,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7347,7 +7314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7355,7 +7322,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7363,7 +7330,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7371,7 +7338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7379,7 +7346,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7387,7 +7354,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7395,7 +7362,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7403,7 +7370,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7411,7 +7378,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7419,7 +7386,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7435,7 +7402,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7443,7 +7410,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7451,7 +7418,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7459,7 +7426,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7467,7 +7434,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7475,7 +7442,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7483,7 +7450,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7491,7 +7458,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7499,7 +7466,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7507,7 +7474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7515,7 +7482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7523,7 +7490,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7531,7 +7498,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7539,7 +7506,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7547,7 +7514,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7555,7 +7522,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7563,7 +7530,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7571,7 +7538,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7579,7 +7546,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7587,7 +7554,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7595,7 +7562,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7603,7 +7570,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7611,7 +7578,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -7619,7 +7586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -7627,7 +7594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -7635,7 +7602,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -7643,7 +7610,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -7651,7 +7618,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -7659,7 +7626,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -7667,7 +7634,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -7675,7 +7642,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -7683,7 +7650,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -7691,7 +7658,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -7699,7 +7666,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -7707,7 +7674,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -7715,7 +7682,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -7723,7 +7690,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -7731,7 +7698,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -7739,7 +7706,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -7747,7 +7714,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -7755,7 +7722,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -7763,7 +7730,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -7771,7 +7738,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -7779,7 +7746,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -7787,7 +7754,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -7795,7 +7762,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -7803,7 +7770,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -7811,7 +7778,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -7819,7 +7786,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -7827,7 +7794,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -7835,7 +7802,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -7843,7 +7810,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -7851,7 +7818,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -7859,7 +7826,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -7867,7 +7834,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -7875,7 +7842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -7883,7 +7850,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -7891,7 +7858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -7899,7 +7866,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -7907,7 +7874,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -7915,7 +7882,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -7923,7 +7890,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -7931,7 +7898,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -7939,7 +7906,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -7947,7 +7914,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -7955,7 +7922,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -7963,7 +7930,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -7971,7 +7938,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -7979,7 +7946,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -7987,7 +7954,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -7995,7 +7962,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -8003,7 +7970,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -8011,7 +7978,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -8019,7 +7986,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -8027,7 +7994,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -8035,7 +8002,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -8043,7 +8010,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -8051,7 +8018,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -8059,7 +8026,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -8067,7 +8034,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -8075,7 +8042,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -8083,7 +8050,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -8091,7 +8058,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -8099,7 +8066,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -8107,7 +8074,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -8115,7 +8082,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -8123,7 +8090,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -8131,7 +8098,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -8139,7 +8106,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -8147,7 +8114,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -8155,7 +8122,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -8163,7 +8130,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -8171,7 +8138,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -8179,7 +8146,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -8187,7 +8154,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -8195,7 +8162,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -8203,7 +8170,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -8211,7 +8178,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -8219,7 +8186,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -8227,7 +8194,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -8235,7 +8202,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -8243,7 +8210,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -8251,7 +8218,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -8259,7 +8226,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -8267,7 +8234,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -8275,7 +8242,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -8283,7 +8250,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -8291,7 +8258,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -8299,7 +8266,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -8307,7 +8274,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -8315,7 +8282,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -8323,7 +8290,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8331,7 +8298,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8339,7 +8306,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8347,7 +8314,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8355,7 +8322,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8363,7 +8330,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8371,7 +8338,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8379,7 +8346,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8387,7 +8354,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8395,7 +8362,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8403,7 +8370,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8411,7 +8378,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8419,7 +8386,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8427,7 +8394,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8435,7 +8402,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8443,7 +8410,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8451,7 +8418,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8459,7 +8426,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8467,7 +8434,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8475,7 +8442,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8483,7 +8450,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8491,7 +8458,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8499,7 +8466,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8507,7 +8474,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8515,7 +8482,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8523,7 +8490,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8531,7 +8498,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8539,7 +8506,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8547,7 +8514,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8555,7 +8522,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8563,7 +8530,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8571,7 +8538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8579,7 +8546,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8587,7 +8554,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8595,7 +8562,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8603,7 +8570,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8611,7 +8578,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -8619,7 +8586,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -8627,7 +8594,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -8635,7 +8602,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -8643,7 +8610,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -8651,7 +8618,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -8659,7 +8626,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -8667,7 +8634,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -8675,7 +8642,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -8683,7 +8650,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -8691,7 +8658,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -8699,7 +8666,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -8707,7 +8674,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -8715,7 +8682,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -8723,7 +8690,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -8731,7 +8698,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -8739,7 +8706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -8747,7 +8714,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -8755,7 +8722,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -8763,7 +8730,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -8771,157 +8738,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E46A1A-6128-4A30-91C0-630BE4532AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
     <sheet name="FOREX ORTAK" sheetId="5" r:id="rId2"/>
     <sheet name="Rabia Çakmak (ÖNCE BUNU GİR)" sheetId="3" r:id="rId3"/>
     <sheet name="Can Aksoy" sheetId="2" r:id="rId4"/>
-    <sheet name="Market Data" sheetId="4" r:id="rId5"/>
+    <sheet name="Ferah Ünlü" sheetId="7" r:id="rId5"/>
+    <sheet name="Market Data" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +40,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="471">
   <si>
     <t>Equity</t>
   </si>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1624,7 +1624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,6 +1676,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1742,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1952,12 +1958,22 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
-    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2461,41 +2477,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="C6" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2527,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2549,7 +2565,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2581,7 +2597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
@@ -2635,7 +2651,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
@@ -2681,7 +2697,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2727,7 +2743,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
@@ -2767,7 +2783,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -2802,7 +2818,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
@@ -2834,7 +2850,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2856,7 +2872,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2908,7 +2924,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2971,7 +2987,7 @@
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>426</v>
@@ -3034,7 +3050,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
         <v>426</v>
@@ -3077,7 +3093,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
         <v>426</v>
@@ -3120,7 +3136,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
         <v>426</v>
@@ -3163,7 +3179,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
         <v>426</v>
@@ -3206,7 +3222,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
         <v>426</v>
@@ -3249,7 +3265,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
         <v>426</v>
@@ -3292,7 +3308,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14">
@@ -3338,7 +3354,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3360,7 +3376,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:24" ht="18" x14ac:dyDescent="0.35">
       <c r="D31" s="23">
         <v>9675887</v>
       </c>
@@ -3394,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3416,7 +3432,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3446,7 +3462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="11" t="s">
         <v>0</v>
@@ -3494,7 +3510,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
       <c r="E35" s="11" t="s">
         <v>1</v>
@@ -3536,7 +3552,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="6"/>
     </row>
-    <row r="36" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" s="11" t="s">
         <v>2</v>
@@ -3577,7 +3593,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="6"/>
     </row>
-    <row r="37" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="11" t="s">
         <v>3</v>
@@ -3625,7 +3641,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="2"/>
       <c r="E38" s="11" t="s">
         <v>4</v>
@@ -3655,7 +3671,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="11" t="s">
         <v>5</v>
@@ -3687,7 +3703,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="6"/>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3709,7 +3725,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
@@ -3759,7 +3775,7 @@
       </c>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D42" s="2"/>
       <c r="E42" s="13" t="s">
         <v>16</v>
@@ -3820,7 +3836,7 @@
       </c>
       <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="13" t="s">
         <v>16</v>
@@ -3877,7 +3893,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
       <c r="E44" s="13" t="s">
         <v>16</v>
@@ -3933,7 +3949,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3966,37 +3982,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
         <v>45371</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -4007,7 +4023,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -4023,7 +4039,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -4046,7 +4062,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -4063,7 +4079,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -4081,7 +4097,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -4098,10 +4114,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -4118,7 +4134,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -4134,7 +4150,7 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F11" s="110" t="s">
         <v>439</v>
       </c>
@@ -4154,7 +4170,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F12" s="110"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
@@ -4172,7 +4188,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
       <c r="F13" s="110"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
@@ -4199,7 +4215,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F14" s="110"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
@@ -4236,7 +4252,7 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F15" s="110"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
@@ -4268,7 +4284,7 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
@@ -4286,7 +4302,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -4307,7 +4323,7 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>446</v>
       </c>
@@ -4328,7 +4344,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4353,7 +4369,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4376,7 +4392,7 @@
         <v>2925.4</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4397,7 +4413,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F22" s="110" t="s">
         <v>445</v>
       </c>
@@ -4432,7 +4448,7 @@
         <v>-193.74097236555463</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F23" s="110"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
@@ -4458,7 +4474,7 @@
         <v>417.14323195446707</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F24" s="110"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
@@ -4484,7 +4500,7 @@
         <v>417.14323195446707</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F25" s="110"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
@@ -4510,7 +4526,7 @@
         <v>186.30716324991596</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F26" s="110"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
@@ -4535,7 +4551,7 @@
         <v>580.73463331820165</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F27" s="110"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
@@ -4568,30 +4584,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
@@ -4613,7 +4629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -4643,7 +4659,7 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="111" t="s">
         <v>21</v>
       </c>
@@ -4659,7 +4675,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -4673,7 +4689,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4689,7 +4705,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -4723,7 +4739,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -4745,7 +4761,7 @@
         <v>0.49951295228196646</v>
       </c>
       <c r="H10" s="69">
-        <v>0.18381</v>
+        <v>0.185303</v>
       </c>
       <c r="I10" s="65">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
@@ -4753,18 +4769,18 @@
       </c>
       <c r="J10" s="70">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
-        <v>380534.67440999998</v>
+        <v>383625.57408300001</v>
       </c>
       <c r="K10" s="70">
         <f t="shared" ref="K10:K15" si="4">J10-F10</f>
-        <v>14119.180019999971</v>
+        <v>17210.079693000007</v>
       </c>
       <c r="L10" s="72">
-        <f t="shared" ref="L10:L18" si="5">J10/F10-1</f>
-        <v>3.8533250466127988E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L10:L17" si="5">J10/F10-1</f>
+        <v>4.6968755296909359E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -4786,7 +4802,7 @@
         <v>0.28832481057368931</v>
       </c>
       <c r="H11" s="69">
-        <v>0.203489</v>
+        <v>0.20332600000000001</v>
       </c>
       <c r="I11" s="65">
         <f t="shared" ca="1" si="2"/>
@@ -4794,18 +4810,18 @@
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
-        <v>215311.71090000001</v>
+        <v>215139.24060000002</v>
       </c>
       <c r="K11" s="70">
         <f t="shared" si="4"/>
-        <v>3812.3342999999877</v>
+        <v>3639.8640000000014</v>
       </c>
       <c r="L11" s="72">
         <f t="shared" si="5"/>
-        <v>1.8025274406411551E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.7209809591467229E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -4827,7 +4843,7 @@
         <v>0.18919583461447426</v>
       </c>
       <c r="H12" s="69">
-        <v>3.068441</v>
+        <v>3.0739450000000001</v>
       </c>
       <c r="I12" s="65">
         <f t="shared" ca="1" si="2"/>
@@ -4835,141 +4851,141 @@
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
-        <v>142507.60536300001</v>
+        <v>142763.22763500002</v>
       </c>
       <c r="K12" s="70">
         <f t="shared" si="4"/>
-        <v>3723.846183000016</v>
+        <v>3979.4684550000238</v>
       </c>
       <c r="L12" s="72">
         <f t="shared" si="5"/>
-        <v>2.6832002570057689E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+        <v>2.8673877105740653E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="114">
         <v>2380</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="115">
         <v>3.2479200000000001</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="116">
         <v>45358</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="117">
         <f t="shared" si="0"/>
         <v>7730.0496000000003</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="118">
         <f t="shared" si="1"/>
         <v>1.053792745148556E-2</v>
       </c>
-      <c r="H13" s="69">
-        <v>3.2711960000000002</v>
-      </c>
-      <c r="I13" s="65">
+      <c r="H13" s="115">
+        <v>3.273298</v>
+      </c>
+      <c r="I13" s="116">
         <f t="shared" ca="1" si="2"/>
         <v>45371</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="117">
         <f t="shared" si="3"/>
-        <v>7785.4464800000005</v>
-      </c>
-      <c r="K13" s="70">
+        <v>7790.4492399999999</v>
+      </c>
+      <c r="K13" s="117">
         <f t="shared" si="4"/>
-        <v>55.396880000000237</v>
-      </c>
-      <c r="L13" s="72">
+        <v>60.399639999999636</v>
+      </c>
+      <c r="L13" s="119">
         <f t="shared" si="5"/>
-        <v>7.1664326707554515E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+        <v>7.8136160989186187E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="114">
         <v>715</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="115">
         <v>7.0558899999999998</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="116">
         <v>45358</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="117">
         <f t="shared" si="0"/>
         <v>5044.9613499999996</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="118">
         <f t="shared" si="1"/>
         <v>6.8775026620590688E-3</v>
       </c>
-      <c r="H14" s="69">
-        <v>7.449592</v>
-      </c>
-      <c r="I14" s="65">
+      <c r="H14" s="115">
+        <v>7.3383789999999998</v>
+      </c>
+      <c r="I14" s="116">
         <f t="shared" ca="1" si="2"/>
         <v>45371</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="117">
         <f t="shared" si="3"/>
-        <v>5326.4582799999998</v>
-      </c>
-      <c r="K14" s="70">
+        <v>5246.9409850000002</v>
+      </c>
+      <c r="K14" s="117">
         <f t="shared" si="4"/>
-        <v>281.49693000000025</v>
-      </c>
-      <c r="L14" s="72">
+        <v>201.9796350000006</v>
+      </c>
+      <c r="L14" s="119">
         <f t="shared" si="5"/>
-        <v>5.5797638568628516E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
+        <v>4.0035913258285039E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="114">
         <v>41</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="115">
         <v>1.904415</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="116">
         <v>45358</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="117">
         <f t="shared" si="0"/>
         <v>78.081014999999994</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="118">
         <f t="shared" si="1"/>
         <v>1.0644331071411956E-4</v>
       </c>
-      <c r="H15" s="69">
-        <v>1.9466570000000001</v>
-      </c>
-      <c r="I15" s="65">
+      <c r="H15" s="115">
+        <v>1.9490620000000001</v>
+      </c>
+      <c r="I15" s="116">
         <f t="shared" ca="1" si="2"/>
         <v>45371</v>
       </c>
-      <c r="J15" s="70">
+      <c r="J15" s="117">
         <f t="shared" si="3"/>
-        <v>79.812937000000005</v>
-      </c>
-      <c r="K15" s="70">
+        <v>79.911541999999997</v>
+      </c>
+      <c r="K15" s="117">
         <f t="shared" si="4"/>
-        <v>1.7319220000000115</v>
-      </c>
-      <c r="L15" s="72">
+        <v>1.8305270000000036</v>
+      </c>
+      <c r="L15" s="119">
         <f t="shared" si="5"/>
-        <v>2.2181089730967329E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.3443944728433808E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="67" t="s">
         <v>52</v>
       </c>
@@ -4998,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -5015,19 +5031,19 @@
       <c r="I17" s="49"/>
       <c r="J17" s="98">
         <f>SUM(J10:J16)</f>
-        <v>755539.51837000006</v>
+        <v>758639.15408500016</v>
       </c>
       <c r="K17" s="98">
         <f>SUM(K10:K15)</f>
-        <v>21993.986234999975</v>
+        <v>25093.62195000003</v>
       </c>
       <c r="L17" s="99">
         <f t="shared" si="5"/>
-        <v>2.9983123434732084E-2</v>
+        <v>3.4208676695180129E-2</v>
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
@@ -5043,19 +5059,19 @@
       <c r="I18" s="49"/>
       <c r="J18" s="101">
         <f>J17/J5</f>
-        <v>23376.190587823978</v>
+        <v>23472.092487678256</v>
       </c>
       <c r="K18" s="101">
         <f>J18-F18</f>
-        <v>306.76229878685626</v>
+        <v>402.66419864113413</v>
       </c>
       <c r="L18" s="99">
         <f>J18/F18-1</f>
-        <v>1.3297351583378081E-2</v>
+        <v>1.745445069535978E-2</v>
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
@@ -5071,18 +5087,18 @@
       </c>
       <c r="J19" s="53">
         <f>J17</f>
-        <v>755539.51837000006</v>
+        <v>758639.15408500016</v>
       </c>
       <c r="K19" s="53">
         <f>K17</f>
-        <v>21993.986234999975</v>
+        <v>25093.62195000003</v>
       </c>
       <c r="L19" s="54">
         <f>K19/J19</f>
-        <v>2.9110305550197786E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3.3077151126302752E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="61"/>
       <c r="C20" s="57"/>
       <c r="D20" s="55"/>
@@ -5096,11 +5112,11 @@
       <c r="J20" s="56"/>
       <c r="K20" s="53">
         <f>K19*0.07</f>
-        <v>1539.5790364499983</v>
+        <v>1756.5535365000023</v>
       </c>
       <c r="L20" s="57"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G24" s="74"/>
     </row>
   </sheetData>
@@ -5113,28 +5129,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -5151,7 +5167,7 @@
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -5173,7 +5189,7 @@
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="111" t="s">
         <v>39</v>
       </c>
@@ -5191,7 +5207,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -5208,7 +5224,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -5224,7 +5240,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -5258,7 +5274,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -5281,7 +5297,7 @@
       </c>
       <c r="G10" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
-        <v>0.18381</v>
+        <v>0.185303</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
@@ -5289,19 +5305,19 @@
       </c>
       <c r="I10" s="102">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
-        <v>206292.90396</v>
+        <v>207968.521748</v>
       </c>
       <c r="J10" s="102">
         <f t="shared" ref="J10:J15" si="4">I10-E10</f>
-        <v>11532.919216000009</v>
+        <v>13208.537004000013</v>
       </c>
       <c r="K10" s="105">
         <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
-        <v>5.9216061405834131E-2</v>
+        <v>6.7819562736985306E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -5324,7 +5340,7 @@
       </c>
       <c r="G11" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
-        <v>0.203489</v>
+        <v>0.20332600000000001</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="2"/>
@@ -5332,19 +5348,19 @@
       </c>
       <c r="I11" s="102">
         <f t="shared" si="3"/>
-        <v>97735.766700000007</v>
+        <v>97657.477800000008</v>
       </c>
       <c r="J11" s="102">
         <f t="shared" si="4"/>
-        <v>1729.0800000000017</v>
+        <v>1650.7911000000022</v>
       </c>
       <c r="K11" s="105">
         <f t="shared" si="5"/>
-        <v>1.8009995547528801E-2</v>
+        <v>1.7194542971349147E-2</v>
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -5367,7 +5383,7 @@
       </c>
       <c r="G12" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H12</f>
-        <v>3.068441</v>
+        <v>3.0739450000000001</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="2"/>
@@ -5375,19 +5391,19 @@
       </c>
       <c r="I12" s="102">
         <f t="shared" si="3"/>
-        <v>63084.078519000002</v>
+        <v>63197.235255</v>
       </c>
       <c r="J12" s="102">
         <f t="shared" si="4"/>
-        <v>-237.20974199999182</v>
+        <v>-124.05300599999464</v>
       </c>
       <c r="K12" s="105">
         <f t="shared" si="5"/>
-        <v>-3.7461294378954291E-3</v>
+        <v>-1.9591042666199376E-3</v>
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -5410,7 +5426,7 @@
       </c>
       <c r="G13" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H13</f>
-        <v>3.2711960000000002</v>
+        <v>3.273298</v>
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="2"/>
@@ -5418,19 +5434,19 @@
       </c>
       <c r="I13" s="102">
         <f t="shared" si="3"/>
-        <v>3562.3324440000001</v>
+        <v>3564.6215219999999</v>
       </c>
       <c r="J13" s="102">
         <f t="shared" si="4"/>
-        <v>35.645148000000063</v>
+        <v>37.934225999999853</v>
       </c>
       <c r="K13" s="105">
         <f t="shared" si="5"/>
-        <v>1.0107260726072598E-2</v>
+        <v>1.0756333866919654E-2</v>
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -5453,7 +5469,7 @@
       </c>
       <c r="G14" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H14</f>
-        <v>7.449592</v>
+        <v>7.3383789999999998</v>
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="2"/>
@@ -5461,19 +5477,19 @@
       </c>
       <c r="I14" s="102">
         <f t="shared" si="3"/>
-        <v>2346.6214799999998</v>
+        <v>2311.5893849999998</v>
       </c>
       <c r="J14" s="102">
         <f t="shared" si="4"/>
-        <v>47.366549999999734</v>
+        <v>12.334454999999707</v>
       </c>
       <c r="K14" s="105">
         <f t="shared" si="5"/>
-        <v>2.0600825677037804E-2</v>
+        <v>5.3645443308887319E-3</v>
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -5515,7 +5531,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -5529,7 +5545,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -5546,19 +5562,19 @@
       <c r="H17" s="49"/>
       <c r="I17" s="103">
         <f>SUM(I10:I15)</f>
-        <v>373092.22768100002</v>
+        <v>374769.97028800001</v>
       </c>
       <c r="J17" s="103">
         <f>SUM(J10:J15)</f>
-        <v>13108.585100000018</v>
+        <v>14786.32770700002</v>
       </c>
       <c r="K17" s="104">
         <f>I17/E17-1</f>
-        <v>3.6414390959584875E-2</v>
+        <v>4.1074998855463063E-2</v>
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -5572,7 +5588,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>48</v>
       </c>
@@ -5589,7 +5605,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
@@ -5631,7 +5647,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -5674,7 +5690,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
@@ -5687,7 +5703,7 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="61"/>
       <c r="B23" s="57"/>
       <c r="C23" s="55"/>
@@ -5703,18 +5719,18 @@
       </c>
       <c r="I23" s="103">
         <f>I21+I17</f>
-        <v>422117.37682350003</v>
+        <v>423795.11943050002</v>
       </c>
       <c r="J23" s="103">
         <f>J21+J17</f>
-        <v>14931.02174250003</v>
+        <v>16608.76434950003</v>
       </c>
       <c r="K23" s="104">
         <f>J23/I23</f>
-        <v>3.5371729671160021E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.9190551254622868E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
@@ -5728,7 +5744,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="53">
         <f>J23*0.07</f>
-        <v>1045.1715219750022</v>
+        <v>1162.6135044650023</v>
       </c>
       <c r="K24" s="57"/>
     </row>
@@ -5753,20 +5769,418 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="13" style="30" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="62">
+        <v>45362</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="66">
+        <f ca="1">K7</f>
+        <v>45371</v>
+      </c>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="37">
+        <v>31.39</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="36">
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!J5</f>
+        <v>32.320900000000002</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="65">
+        <f ca="1">TODAY()</f>
+        <v>45371</v>
+      </c>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="35">
+        <v>106378</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.17799599999999999</v>
+      </c>
+      <c r="D10" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" ref="E10:E12" si="0">B10*C10</f>
+        <v>18934.858487999998</v>
+      </c>
+      <c r="F10" s="45">
+        <f>E10/$E$14</f>
+        <v>0.53329383036388001</v>
+      </c>
+      <c r="G10" s="36">
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
+        <v>0.185303</v>
+      </c>
+      <c r="H10" s="39">
+        <f t="shared" ref="H10:H12" ca="1" si="1">$K$7</f>
+        <v>45371</v>
+      </c>
+      <c r="I10" s="102">
+        <f t="shared" ref="I10:I12" si="2">B10*G10</f>
+        <v>19712.162533999999</v>
+      </c>
+      <c r="J10" s="102">
+        <f t="shared" ref="J10:J12" si="3">I10-E10</f>
+        <v>777.30404600000111</v>
+      </c>
+      <c r="K10" s="105">
+        <f t="shared" ref="K10:K12" si="4">I10/E10-1</f>
+        <v>4.1051484303018082E-2</v>
+      </c>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="35">
+        <v>46100</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.202096</v>
+      </c>
+      <c r="D11" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="0"/>
+        <v>9316.6255999999994</v>
+      </c>
+      <c r="F11" s="45">
+        <f t="shared" ref="F11" si="5">E11/$E$14</f>
+        <v>0.26239958198995667</v>
+      </c>
+      <c r="G11" s="36">
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
+        <v>0.20332600000000001</v>
+      </c>
+      <c r="H11" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>45371</v>
+      </c>
+      <c r="I11" s="102">
+        <f t="shared" si="2"/>
+        <v>9373.3286000000007</v>
+      </c>
+      <c r="J11" s="102">
+        <f t="shared" si="3"/>
+        <v>56.703000000001339</v>
+      </c>
+      <c r="K11" s="105">
+        <f t="shared" si="4"/>
+        <v>6.0862164515875783E-3</v>
+      </c>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="35">
+        <v>2193</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3.3077999999999999</v>
+      </c>
+      <c r="D12" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E12" s="37">
+        <f t="shared" si="0"/>
+        <v>7254.0054</v>
+      </c>
+      <c r="F12" s="45">
+        <f>E12/$E$14</f>
+        <v>0.20430658764616325</v>
+      </c>
+      <c r="G12" s="36">
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H13</f>
+        <v>3.273298</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>45371</v>
+      </c>
+      <c r="I12" s="102">
+        <f t="shared" si="2"/>
+        <v>7178.3425139999999</v>
+      </c>
+      <c r="J12" s="102">
+        <f t="shared" si="3"/>
+        <v>-75.662886000000071</v>
+      </c>
+      <c r="K12" s="105">
+        <f t="shared" si="4"/>
+        <v>-1.0430497611705669E-2</v>
+      </c>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="103">
+        <f>SUM(E10:E12)</f>
+        <v>35505.489487999999</v>
+      </c>
+      <c r="F14" s="48">
+        <f>SUM(F10:F12)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="103">
+        <f>SUM(I10:I12)</f>
+        <v>36263.833648</v>
+      </c>
+      <c r="J14" s="103">
+        <f>SUM(J10:J12)</f>
+        <v>758.34416000000238</v>
+      </c>
+      <c r="K14" s="104">
+        <f>I14/E14-1</f>
+        <v>2.1358504584377158E-2</v>
+      </c>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="52">
+        <f ca="1">$K$7</f>
+        <v>45371</v>
+      </c>
+      <c r="I17" s="103">
+        <f>I14</f>
+        <v>36263.833648</v>
+      </c>
+      <c r="J17" s="103">
+        <f>J14</f>
+        <v>758.34416000000238</v>
+      </c>
+      <c r="K17" s="104">
+        <f>J17/I17</f>
+        <v>2.0911858557508746E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="53">
+        <f>J17*0.07</f>
+        <v>53.084091200000174</v>
+      </c>
+      <c r="K18" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -5774,7 +6188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -5782,7 +6196,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -5790,7 +6204,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -5798,17 +6212,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -5816,12 +6230,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -5829,7 +6243,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -5837,7 +6251,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -5845,7 +6259,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -5853,7 +6267,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -5861,7 +6275,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -5869,7 +6283,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -5877,7 +6291,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -5885,7 +6299,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -5893,7 +6307,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -5901,7 +6315,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -5909,7 +6323,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -5917,7 +6331,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -5925,7 +6339,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -5933,7 +6347,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -5941,7 +6355,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -5949,7 +6363,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -5957,7 +6371,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -5965,7 +6379,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -5973,7 +6387,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -5981,7 +6395,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -5989,7 +6403,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -5997,7 +6411,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -6005,12 +6419,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -6018,7 +6432,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -6026,7 +6440,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -6034,7 +6448,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -6042,7 +6456,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -6050,7 +6464,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -6058,7 +6472,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -6066,7 +6480,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -6074,7 +6488,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -6082,7 +6496,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -6090,7 +6504,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -6098,7 +6512,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -6106,7 +6520,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -6114,7 +6528,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -6122,7 +6536,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -6130,7 +6544,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -6138,7 +6552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -6146,7 +6560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6154,7 +6568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -6162,7 +6576,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -6170,7 +6584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -6178,7 +6592,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -6186,7 +6600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6194,7 +6608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -6202,7 +6616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -6210,7 +6624,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -6218,7 +6632,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -6226,7 +6640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6234,7 +6648,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -6242,7 +6656,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -6250,7 +6664,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -6258,7 +6672,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -6266,7 +6680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6274,7 +6688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -6282,7 +6696,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -6290,7 +6704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6298,7 +6712,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6306,7 +6720,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6314,7 +6728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6322,7 +6736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6330,7 +6744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6338,7 +6752,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6346,7 +6760,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6354,7 +6768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6362,7 +6776,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6370,7 +6784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6378,7 +6792,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6386,7 +6800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6394,7 +6808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6402,7 +6816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6410,7 +6824,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6418,7 +6832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6426,7 +6840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6434,7 +6848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6442,7 +6856,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6450,7 +6864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6458,7 +6872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6466,7 +6880,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6474,7 +6888,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6482,7 +6896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6490,7 +6904,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6498,7 +6912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6506,7 +6920,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6514,7 +6928,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6522,7 +6936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6530,7 +6944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6538,7 +6952,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6546,7 +6960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6554,7 +6968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6562,7 +6976,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6570,7 +6984,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6578,7 +6992,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -6586,7 +7000,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -6594,7 +7008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -6602,7 +7016,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -6610,7 +7024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -6618,7 +7032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -6626,7 +7040,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -6634,7 +7048,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -6642,7 +7056,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -6650,7 +7064,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -6658,7 +7072,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -6666,7 +7080,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -6674,7 +7088,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -6682,7 +7096,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -6690,7 +7104,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -6698,7 +7112,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -6706,7 +7120,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -6714,7 +7128,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -6722,7 +7136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -6730,7 +7144,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -6738,7 +7152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -6746,7 +7160,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -6754,7 +7168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -6762,7 +7176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -6770,7 +7184,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -6778,7 +7192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -6786,7 +7200,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -6794,7 +7208,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -6802,7 +7216,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -6810,7 +7224,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -6818,7 +7232,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -6826,7 +7240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -6834,7 +7248,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -6842,7 +7256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -6850,7 +7264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -6858,7 +7272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -6866,7 +7280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -6874,7 +7288,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -6882,7 +7296,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -6890,7 +7304,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -6898,7 +7312,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -6906,7 +7320,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -6914,7 +7328,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -6922,7 +7336,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -6930,7 +7344,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -6938,7 +7352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -6946,7 +7360,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -6954,7 +7368,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -6962,7 +7376,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -6970,7 +7384,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -6978,7 +7392,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -6986,7 +7400,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -6994,7 +7408,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -7002,7 +7416,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -7010,7 +7424,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -7018,7 +7432,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -7026,7 +7440,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -7034,7 +7448,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -7042,7 +7456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -7050,7 +7464,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -7058,7 +7472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -7066,7 +7480,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -7074,7 +7488,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -7082,7 +7496,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -7090,7 +7504,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -7098,7 +7512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -7106,7 +7520,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -7114,7 +7528,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -7122,7 +7536,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -7130,7 +7544,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -7138,7 +7552,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -7146,7 +7560,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -7154,7 +7568,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -7162,7 +7576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -7170,7 +7584,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -7178,7 +7592,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -7186,7 +7600,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -7194,7 +7608,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -7202,7 +7616,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -7210,7 +7624,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -7218,7 +7632,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -7226,7 +7640,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -7234,7 +7648,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -7242,7 +7656,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -7250,7 +7664,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -7258,7 +7672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -7266,7 +7680,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -7274,7 +7688,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -7282,7 +7696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -7290,7 +7704,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7298,7 +7712,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7306,7 +7720,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7314,7 +7728,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7322,7 +7736,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7330,7 +7744,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7338,7 +7752,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7346,7 +7760,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7354,7 +7768,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7362,7 +7776,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7370,7 +7784,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7378,7 +7792,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7386,7 +7800,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7394,7 +7808,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7402,7 +7816,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7410,7 +7824,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7418,7 +7832,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7426,7 +7840,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7434,7 +7848,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7442,7 +7856,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7450,7 +7864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7458,7 +7872,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7466,7 +7880,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7474,7 +7888,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7482,7 +7896,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7490,7 +7904,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7498,7 +7912,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7506,7 +7920,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7514,7 +7928,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7522,7 +7936,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7530,7 +7944,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7538,7 +7952,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7546,7 +7960,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7554,7 +7968,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7562,7 +7976,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7570,7 +7984,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7578,7 +7992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -7586,7 +8000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -7594,7 +8008,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -7602,7 +8016,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -7610,7 +8024,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -7618,7 +8032,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -7626,7 +8040,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -7634,7 +8048,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -7642,7 +8056,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -7650,7 +8064,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -7658,7 +8072,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -7666,7 +8080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -7674,7 +8088,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -7682,7 +8096,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -7690,7 +8104,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -7698,7 +8112,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -7706,7 +8120,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -7714,7 +8128,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -7722,7 +8136,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -7730,7 +8144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -7738,7 +8152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -7746,7 +8160,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -7754,7 +8168,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -7762,7 +8176,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -7770,7 +8184,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -7778,7 +8192,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -7786,7 +8200,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -7794,7 +8208,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -7802,7 +8216,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -7810,7 +8224,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -7818,7 +8232,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -7826,7 +8240,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -7834,7 +8248,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -7842,7 +8256,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -7850,7 +8264,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -7858,7 +8272,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -7866,7 +8280,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -7874,7 +8288,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -7882,7 +8296,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -7890,7 +8304,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -7898,7 +8312,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -7906,7 +8320,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -7914,7 +8328,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -7922,7 +8336,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -7930,7 +8344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -7938,7 +8352,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -7946,7 +8360,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -7954,7 +8368,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -7962,7 +8376,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -7970,7 +8384,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -7978,7 +8392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -7986,7 +8400,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -7994,7 +8408,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -8002,7 +8416,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -8010,7 +8424,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -8018,7 +8432,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -8026,7 +8440,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -8034,7 +8448,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -8042,7 +8456,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -8050,7 +8464,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -8058,7 +8472,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -8066,7 +8480,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -8074,7 +8488,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -8082,7 +8496,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -8090,7 +8504,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -8098,7 +8512,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -8106,7 +8520,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -8114,7 +8528,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -8122,7 +8536,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -8130,7 +8544,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -8138,7 +8552,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -8146,7 +8560,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -8154,7 +8568,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -8162,7 +8576,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -8170,7 +8584,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -8178,7 +8592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -8186,7 +8600,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -8194,7 +8608,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -8202,7 +8616,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -8210,7 +8624,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -8218,7 +8632,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -8226,7 +8640,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -8234,7 +8648,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -8242,7 +8656,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -8250,7 +8664,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -8258,7 +8672,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -8266,7 +8680,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -8274,7 +8688,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -8282,7 +8696,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -8290,7 +8704,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8298,7 +8712,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8306,7 +8720,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8314,7 +8728,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8322,7 +8736,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8330,7 +8744,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8338,7 +8752,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8346,7 +8760,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8354,7 +8768,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8362,7 +8776,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8370,7 +8784,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8378,7 +8792,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8386,7 +8800,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8394,7 +8808,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8402,7 +8816,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8410,7 +8824,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8418,7 +8832,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8426,7 +8840,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8434,7 +8848,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8442,7 +8856,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8450,7 +8864,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8458,7 +8872,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8466,7 +8880,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8474,7 +8888,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8482,7 +8896,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8490,7 +8904,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8498,7 +8912,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8506,7 +8920,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8514,7 +8928,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8522,7 +8936,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8530,7 +8944,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8538,7 +8952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8546,7 +8960,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8554,7 +8968,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8562,7 +8976,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8570,7 +8984,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8578,7 +8992,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -8586,7 +9000,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -8594,7 +9008,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -8602,7 +9016,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -8610,7 +9024,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -8618,7 +9032,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -8626,7 +9040,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -8634,7 +9048,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -8642,7 +9056,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -8650,7 +9064,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -8658,7 +9072,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -8666,7 +9080,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -8674,7 +9088,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -8682,7 +9096,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -8690,7 +9104,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -8698,7 +9112,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -8706,7 +9120,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -8714,7 +9128,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -8722,7 +9136,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -8730,7 +9144,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -8738,157 +9152,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE3F59-12E5-4F4A-8835-087F4D7C48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Ferah Ünlü" sheetId="7" r:id="rId5"/>
     <sheet name="Market Data" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +41,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="471">
   <si>
     <t>Equity</t>
   </si>
@@ -1480,7 +1481,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1946,6 +1947,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1958,22 +1969,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
+    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2477,41 +2478,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:X45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D4:X50"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="5"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K4" s="20"/>
     </row>
-    <row r="9" spans="4:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="23">
         <v>9462066</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2565,7 +2566,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2597,18 +2598,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="27">
         <f>F15+F16</f>
-        <v>4050.7639588000011</v>
+        <v>1632.2260144123584</v>
       </c>
       <c r="G12" s="107">
         <f>F12/F16-1</f>
-        <v>0.38783253178564991</v>
+        <v>-0.44078292759883153</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2616,7 +2617,7 @@
         <v>466</v>
       </c>
       <c r="K12" s="22">
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="L12" s="16">
         <f>AVERAGE(G20:G27)</f>
@@ -2624,7 +2625,7 @@
       </c>
       <c r="M12" s="7">
         <f>-(K12/L12-1)</f>
-        <v>3.969121110158913E-2</v>
+        <v>-3.4644779158993444E-2</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="11" t="s">
@@ -2632,7 +2633,7 @@
       </c>
       <c r="Q12" s="27">
         <f>Q15+Q16</f>
-        <v>-7450.8079389999994</v>
+        <v>-8699.5541889999986</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2642,7 +2643,7 @@
       </c>
       <c r="V12" s="22">
         <f>K12</f>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="W12" s="16">
         <v>8741.99</v>
@@ -2651,14 +2652,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="19">
         <f>F12-F14</f>
-        <v>3765.573958800001</v>
+        <v>1347.0360144123583</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
@@ -2680,7 +2681,7 @@
       </c>
       <c r="Q13" s="19">
         <f>Q12-Q14</f>
-        <v>-7534.5079389999992</v>
+        <v>-8783.2541889999993</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2697,7 +2698,7 @@
       </c>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -2720,10 +2721,10 @@
       <c r="K14" s="2">
         <v>100</v>
       </c>
-      <c r="L14" s="109" t="s">
+      <c r="L14" s="117" t="s">
         <v>467</v>
       </c>
-      <c r="M14" s="109"/>
+      <c r="M14" s="117"/>
       <c r="O14" s="2"/>
       <c r="P14" s="11" t="s">
         <v>2</v>
@@ -2743,14 +2744,14 @@
       <c r="W14" s="3"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="27">
-        <f>K28</f>
-        <v>1131.9939588000013</v>
+        <f>K28+K33</f>
+        <v>-1286.5439855876416</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2761,15 +2762,15 @@
       <c r="K15" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
       <c r="O15" s="2"/>
       <c r="P15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="19">
         <f>V20+V21+V28</f>
-        <v>-7779.8179389999996</v>
+        <v>-9028.5641889999988</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2783,7 +2784,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="11" t="s">
         <v>4</v>
@@ -2801,8 +2802,8 @@
         <f>0.200006</f>
         <v>0.20000599999999999</v>
       </c>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
       <c r="O16" s="2"/>
       <c r="P16" s="11" t="s">
         <v>4</v>
@@ -2818,14 +2819,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="107">
         <f>F13/F14+1</f>
-        <v>14.203737714506122</v>
+        <v>5.7232932936370782</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2840,7 +2841,7 @@
       </c>
       <c r="Q17" s="26">
         <f>Q13/Q14+1</f>
-        <v>-89.018015997610505</v>
+        <v>-103.93732603345279</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2850,7 +2851,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2872,7 +2873,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
@@ -2924,7 +2925,7 @@
       </c>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="13" t="s">
         <v>426</v>
@@ -2937,11 +2938,11 @@
       </c>
       <c r="H20" s="14">
         <f>$K$12</f>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I20" s="14">
         <f>G20-H20</f>
-        <v>717.31000000000131</v>
+        <v>-607.68999999999869</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" ref="J20:J27" si="0">$K$16</f>
@@ -2949,14 +2950,14 @@
       </c>
       <c r="K20" s="19">
         <f>I20*J20</f>
-        <v>143.46630386000027</v>
+        <v>-121.54164613999973</v>
       </c>
       <c r="L20" s="14">
         <v>-2.34</v>
       </c>
       <c r="M20" s="7">
-        <f>(H20/G20-1)*F20*10</f>
-        <v>4.0220787908251121E-3</v>
+        <f>(H20/G20-1)</f>
+        <v>3.4074208646143189E-2</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="13" t="s">
@@ -2970,11 +2971,11 @@
       </c>
       <c r="S20" s="14">
         <f>$K$12</f>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="T20" s="12">
         <f>R20-S20</f>
-        <v>-8195.41</v>
+        <v>-9520.41</v>
       </c>
       <c r="U20" s="25">
         <f>$V$13</f>
@@ -2982,12 +2983,12 @@
       </c>
       <c r="V20" s="14">
         <f>T20*U20</f>
-        <v>-2574.5880514999999</v>
+        <v>-2990.8368014999996</v>
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="13" t="s">
         <v>426</v>
@@ -3000,11 +3001,11 @@
       </c>
       <c r="H21" s="14">
         <f>$K$12</f>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" ref="I21:I27" si="1">G21-H21</f>
-        <v>718</v>
+        <f t="shared" ref="I21:I29" si="1">G21-H21</f>
+        <v>-607</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" si="0"/>
@@ -3012,14 +3013,14 @@
       </c>
       <c r="K21" s="19">
         <f>I21*J21</f>
-        <v>143.604308</v>
+        <v>-121.40364199999999</v>
       </c>
       <c r="L21" s="14">
         <v>-2.19</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" ref="M21:M27" si="2">(H21/G21-1)*F21*10</f>
-        <v>4.0257919820577475E-3</v>
+        <f t="shared" ref="M21:M27" si="2">(H21/G21-1)</f>
+        <v>3.4034202410989645E-2</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="13" t="s">
@@ -3033,11 +3034,11 @@
       </c>
       <c r="S21" s="14">
         <f>$K$12</f>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="T21" s="12">
         <f>R21-S21</f>
-        <v>-8279.6200000000008</v>
+        <v>-9604.6200000000008</v>
       </c>
       <c r="U21" s="25">
         <f t="shared" ref="U21:U28" si="3">$V$13</f>
@@ -3045,12 +3046,12 @@
       </c>
       <c r="V21" s="14">
         <f>T21*U21</f>
-        <v>-2601.0426230000003</v>
+        <v>-3017.291373</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="13" t="s">
         <v>426</v>
@@ -3063,11 +3064,11 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="1"/>
-        <v>712.90000000000146</v>
+        <v>-612.09999999999854</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="0"/>
@@ -3075,12 +3076,12 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>142.58427740000027</v>
+        <v>-122.4236725999997</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>3.9983398673015588E-3</v>
+        <v>3.432997380804137E-2</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="13"/>
@@ -3093,7 +3094,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="13" t="s">
         <v>426</v>
@@ -3106,11 +3107,11 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
-        <v>708.22000000000116</v>
+        <v>-616.77999999999884</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="0"/>
@@ -3118,12 +3119,12 @@
       </c>
       <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>141.64824932000022</v>
+        <v>-123.35970067999976</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="7">
         <f t="shared" si="2"/>
-        <v>3.9731346934287594E-3</v>
+        <v>3.460153647472497E-2</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="13"/>
@@ -3136,7 +3137,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="13" t="s">
         <v>426</v>
@@ -3149,11 +3150,11 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="1"/>
-        <v>703.22000000000116</v>
+        <v>-621.77999999999884</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" si="0"/>
@@ -3161,12 +3162,12 @@
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>140.64821932000024</v>
+        <v>-124.35973067999976</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="7">
         <f t="shared" si="2"/>
-        <v>3.9461914611604197E-3</v>
+        <v>3.4891825128982701E-2</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13"/>
@@ -3179,7 +3180,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="13" t="s">
         <v>426</v>
@@ -3192,11 +3193,11 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
-        <v>699.15000000000146</v>
+        <v>-625.84999999999854</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" si="0"/>
@@ -3204,12 +3205,12 @@
       </c>
       <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>139.83419490000028</v>
+        <v>-125.1737550999997</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="7">
         <f t="shared" si="2"/>
-        <v>3.9242485048677778E-3</v>
+        <v>3.5128240388636156E-2</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13"/>
@@ -3222,7 +3223,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="6"/>
     </row>
-    <row r="26" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="13" t="s">
         <v>426</v>
@@ -3235,11 +3236,11 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="1"/>
-        <v>703</v>
+        <v>-622</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" si="0"/>
@@ -3247,12 +3248,12 @@
       </c>
       <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>140.604218</v>
+        <v>-124.40373199999999</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>3.9450056116722811E-3</v>
+        <v>3.4904601571268179E-2</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13"/>
@@ -3265,7 +3266,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="13" t="s">
         <v>426</v>
@@ -3278,11 +3279,11 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="1"/>
-        <v>698</v>
+        <v>-627</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" si="0"/>
@@ -3290,12 +3291,12 @@
       </c>
       <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>139.60418799999999</v>
+        <v>-125.403762</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="7">
         <f t="shared" si="2"/>
-        <v>3.9180465899522846E-3</v>
+        <v>3.5195060342408047E-2</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="13"/>
@@ -3308,7 +3309,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="6"/>
     </row>
-    <row r="28" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14">
@@ -3321,7 +3322,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="19">
         <f>SUM(K20:K27)</f>
-        <v>1131.9939588000013</v>
+        <v>-988.06964119999861</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3337,11 +3338,11 @@
       </c>
       <c r="S28" s="14">
         <f>$K$12</f>
-        <v>17117</v>
+        <v>18442</v>
       </c>
       <c r="T28" s="14">
         <f>R28-S28</f>
-        <v>-8289.6299999999992</v>
+        <v>-9614.6299999999992</v>
       </c>
       <c r="U28" s="25">
         <f t="shared" si="3"/>
@@ -3349,607 +3350,553 @@
       </c>
       <c r="V28" s="14">
         <f>T28*U28</f>
-        <v>-2604.1872644999994</v>
+        <v>-3020.4360144999996</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="6"/>
+      <c r="E29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>8731.1299999999992</v>
+      </c>
+      <c r="H29" s="14">
+        <v>8960</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="1"/>
+        <v>-228.8700000000008</v>
+      </c>
+      <c r="J29" s="17">
+        <f>L29/I29</f>
+        <v>0.30938960982216873</v>
+      </c>
+      <c r="K29" s="19">
+        <f>I29*J29</f>
+        <v>-70.81</v>
+      </c>
+      <c r="L29" s="6">
+        <v>-70.81</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" ref="M29:M32" si="6">(H29/G29-1)*F29*10</f>
+        <v>-2.621310185508641E-2</v>
+      </c>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="21"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="14"/>
       <c r="W29" s="3"/>
       <c r="X29" s="6"/>
     </row>
-    <row r="31" spans="4:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="D31" s="23">
-        <v>9675887</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="28">
-        <v>3</v>
-      </c>
-      <c r="O31" s="23">
-        <v>9675888</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+    <row r="30" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>8723.33</v>
+      </c>
+      <c r="H30" s="14">
+        <v>8960</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" ref="I30:I32" si="7">G30-H30</f>
+        <v>-236.67000000000007</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0.30938960982216873</v>
+      </c>
+      <c r="K30" s="19">
+        <f>I30*J30</f>
+        <v>-73.22323895661269</v>
+      </c>
+      <c r="L30" s="6">
+        <v>-70.81</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="6"/>
+        <v>-2.7130694356398255E-2</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="6"/>
+    </row>
+    <row r="31" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G31" s="14">
+        <v>8711.7999999999993</v>
+      </c>
+      <c r="H31" s="14">
+        <v>8960</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="7"/>
+        <v>-248.20000000000073</v>
+      </c>
+      <c r="J31" s="17">
+        <v>0.30938960982216873</v>
+      </c>
+      <c r="K31" s="19">
+        <f>I31*J31</f>
+        <v>-76.790501157862508</v>
+      </c>
+      <c r="L31" s="6">
+        <v>-70.81</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="6"/>
+        <v>-2.8490093895635841E-2</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="14"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="X31" s="6"/>
+    </row>
+    <row r="32" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="6"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G32" s="12">
+        <v>8709.02</v>
+      </c>
+      <c r="H32" s="14">
+        <v>8960</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="7"/>
+        <v>-250.97999999999956</v>
+      </c>
+      <c r="J32" s="17">
+        <v>0.30938960982216873</v>
+      </c>
+      <c r="K32" s="19">
+        <f>I32*J32</f>
+        <v>-77.650604273167772</v>
+      </c>
+      <c r="L32" s="6">
+        <v>-70.81</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="6"/>
+        <v>-2.8818397477557767E-2</v>
+      </c>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="14"/>
       <c r="W32" s="3"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="4:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="19">
+        <f>SUM(K29:K32)</f>
+        <v>-298.47434438764299</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="27">
-        <f>F37+F38</f>
-        <v>-5571.4119134999992</v>
-      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="22">
-        <v>9034.8700000000008</v>
-      </c>
-      <c r="L34" s="16">
-        <v>8741.99</v>
-      </c>
-      <c r="M34" s="7">
-        <v>-0.01</v>
-      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="6"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="27">
-        <f>Q37+Q38</f>
-        <v>-7455.0865479999993</v>
-      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V34" s="22">
-        <v>9034.8700000000008</v>
-      </c>
-      <c r="W34" s="16">
-        <v>8741.99</v>
-      </c>
-      <c r="X34" s="7">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-      <c r="E35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="19">
-        <f>F34-F36</f>
-        <v>-5655.3519134999988</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="18">
-        <f>V13</f>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="19">
-        <f>Q34-Q36</f>
-        <v>-7535.2565479999994</v>
-      </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V35" s="18">
-        <f>K35</f>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="W35" s="3"/>
-      <c r="X35" s="6"/>
-    </row>
-    <row r="36" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D36" s="2"/>
-      <c r="E36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="19">
-        <v>83.94</v>
-      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="36" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D36" s="23">
+        <v>9675887</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="2">
-        <v>100</v>
-      </c>
+      <c r="I36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="6"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="19">
-        <v>80.17</v>
-      </c>
-      <c r="R36" s="2">
-        <f>Q36/2</f>
-        <v>40.085000000000001</v>
-      </c>
+      <c r="M36" s="28">
+        <v>3</v>
+      </c>
+      <c r="O36" s="23">
+        <v>9675888</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V36" s="2">
-        <v>100</v>
-      </c>
+      <c r="T36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="6"/>
-    </row>
-    <row r="37" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X36" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
-      <c r="E37" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="19">
-        <f>SUM(K42:K44)-G37</f>
-        <v>-5885.8719134999992</v>
-      </c>
-      <c r="G37" s="19">
-        <v>3</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
       <c r="L37" s="3"/>
       <c r="M37" s="6"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="19">
-        <f>SUM(V42:V44)-R37</f>
-        <v>-7776.9665479999994</v>
-      </c>
-      <c r="R37" s="19">
-        <v>2.76</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
       <c r="W37" s="3"/>
       <c r="X37" s="6"/>
     </row>
-    <row r="38" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:24" ht="30" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
-      <c r="E38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="19">
-        <v>314.45999999999998</v>
-      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="19">
-        <v>321.88</v>
-      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="26">
-        <f>F35/F36+1</f>
-        <v>-66.373742119370974</v>
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
+        <f>F42+F43</f>
+        <v>-6517.8090634999999</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6"/>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="22">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="L39" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="M39" s="7">
+        <v>-0.01</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="26">
-        <f>Q35/Q36+1</f>
-        <v>-92.99097602594486</v>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="27">
+        <f>Q42+Q43</f>
+        <v>-8704.1640480000005</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="6"/>
-    </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="U39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V39" s="22">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="W39" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="X39" s="7">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="19">
+        <f>F39-F41</f>
+        <v>-6601.7490634999995</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="J40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="18">
+        <f>V13</f>
+        <v>0.31414999999999998</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="6"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="P40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="19">
+        <f>Q39-Q41</f>
+        <v>-8784.3340480000006</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+      <c r="U40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V40" s="18">
+        <f>K40</f>
+        <v>0.31414999999999998</v>
+      </c>
       <c r="W40" s="3"/>
       <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="E41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="19">
+        <v>83.94</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="2">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3"/>
       <c r="M41" s="6"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="P41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>80.17</v>
+      </c>
+      <c r="R41" s="2">
+        <f>Q41/2</f>
+        <v>40.085000000000001</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V41" s="2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3"/>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
-      <c r="E42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G42" s="12">
-        <v>8920.14</v>
-      </c>
-      <c r="H42" s="14">
-        <f>$K$12</f>
-        <v>17117</v>
-      </c>
-      <c r="I42" s="12">
-        <f>G42-H42</f>
-        <v>-8196.86</v>
-      </c>
-      <c r="J42" s="17">
-        <f>$K$16</f>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K42" s="14">
-        <f>I42*J42</f>
-        <v>-1639.4211811600001</v>
-      </c>
-      <c r="L42" s="14">
-        <v>40.61</v>
-      </c>
+      <c r="E42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="19">
+        <f>SUM(K47:K49)-G42</f>
+        <v>-6832.2690634999999</v>
+      </c>
+      <c r="G42" s="19">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="3"/>
       <c r="M42" s="6"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R42" s="14">
-        <v>8921.43</v>
-      </c>
-      <c r="S42" s="14">
-        <f>$K$12</f>
-        <v>17117</v>
-      </c>
-      <c r="T42" s="12">
-        <f>R42-S42</f>
-        <v>-8195.57</v>
-      </c>
-      <c r="U42" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="V42" s="14">
-        <f>T42*U42</f>
-        <v>-2575.4578724999997</v>
-      </c>
-      <c r="W42" s="14">
-        <v>40.61</v>
-      </c>
+      <c r="P42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="19">
+        <f>SUM(V47:V49)-R42</f>
+        <v>-9026.0440479999997</v>
+      </c>
+      <c r="R42" s="19">
+        <v>2.76</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W42" s="3"/>
       <c r="X42" s="6"/>
     </row>
-    <row r="43" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
-      <c r="E43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G43" s="14">
-        <v>8897.86</v>
-      </c>
-      <c r="H43" s="14">
-        <f>$K$12</f>
-        <v>17117</v>
-      </c>
-      <c r="I43" s="12">
-        <f>G43-H43</f>
-        <v>-8219.14</v>
-      </c>
-      <c r="J43" s="17">
-        <f>$K$16</f>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K43" s="14">
-        <f>I43*J43</f>
-        <v>-1643.8773148399998</v>
-      </c>
+      <c r="E43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="19">
+        <v>314.45999999999998</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R43" s="14">
-        <v>8849.77</v>
-      </c>
-      <c r="S43" s="14">
-        <f>$K$12</f>
-        <v>17117</v>
-      </c>
-      <c r="T43" s="12">
-        <f>R43-S43</f>
-        <v>-8267.23</v>
-      </c>
-      <c r="U43" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="V43" s="14">
-        <f>T43*U43</f>
-        <v>-2597.9770274999996</v>
-      </c>
+      <c r="P43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>321.88</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
       <c r="W43" s="3"/>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="4:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
-      <c r="E44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G44" s="12">
-        <v>8844.69</v>
-      </c>
-      <c r="H44" s="14">
-        <f>$K$12</f>
-        <v>17117</v>
-      </c>
-      <c r="I44" s="12">
-        <f>G44-H44</f>
-        <v>-8272.31</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="K44" s="14">
-        <f>I44*J44</f>
-        <v>-2599.5734174999998</v>
-      </c>
+      <c r="E44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="26">
+        <f>F40/F41+1</f>
+        <v>-77.648428204669997</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R44" s="12">
-        <v>8839.56</v>
-      </c>
-      <c r="S44" s="14">
-        <f>$K$12</f>
-        <v>17117</v>
-      </c>
-      <c r="T44" s="12">
-        <f>R44-S44</f>
-        <v>-8277.44</v>
-      </c>
-      <c r="U44" s="17">
-        <v>0.31419999999999998</v>
-      </c>
-      <c r="V44" s="14">
-        <f>T44*U44</f>
-        <v>-2600.7716479999999</v>
-      </c>
+      <c r="P44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="26">
+        <f>Q40/Q41+1</f>
+        <v>-108.57133650991643</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
       <c r="W44" s="3"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3971,6 +3918,252 @@
       <c r="W45" s="3"/>
       <c r="X45" s="6"/>
     </row>
+    <row r="46" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X46" s="6"/>
+    </row>
+    <row r="47" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+      <c r="E47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>8920.14</v>
+      </c>
+      <c r="H47" s="14">
+        <f>$K$12</f>
+        <v>18442</v>
+      </c>
+      <c r="I47" s="12">
+        <f>G47-H47</f>
+        <v>-9521.86</v>
+      </c>
+      <c r="J47" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K47" s="14">
+        <f>I47*J47</f>
+        <v>-1904.42913116</v>
+      </c>
+      <c r="L47" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="M47" s="6"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R47" s="14">
+        <v>8921.43</v>
+      </c>
+      <c r="S47" s="14">
+        <f>$K$12</f>
+        <v>18442</v>
+      </c>
+      <c r="T47" s="12">
+        <f>R47-S47</f>
+        <v>-9520.57</v>
+      </c>
+      <c r="U47" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="V47" s="14">
+        <f>T47*U47</f>
+        <v>-2991.8391224999996</v>
+      </c>
+      <c r="W47" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="X47" s="6"/>
+    </row>
+    <row r="48" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="E48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G48" s="14">
+        <v>8897.86</v>
+      </c>
+      <c r="H48" s="14">
+        <f>$K$12</f>
+        <v>18442</v>
+      </c>
+      <c r="I48" s="12">
+        <f>G48-H48</f>
+        <v>-9544.14</v>
+      </c>
+      <c r="J48" s="17">
+        <f>$K$16</f>
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="K48" s="14">
+        <f>I48*J48</f>
+        <v>-1908.8852648399998</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="6"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R48" s="14">
+        <v>8849.77</v>
+      </c>
+      <c r="S48" s="14">
+        <f>$K$12</f>
+        <v>18442</v>
+      </c>
+      <c r="T48" s="12">
+        <f>R48-S48</f>
+        <v>-9592.23</v>
+      </c>
+      <c r="U48" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="V48" s="14">
+        <f>T48*U48</f>
+        <v>-3014.3582774999995</v>
+      </c>
+      <c r="W48" s="3"/>
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+      <c r="E49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>8844.69</v>
+      </c>
+      <c r="H49" s="14">
+        <f>$K$12</f>
+        <v>18442</v>
+      </c>
+      <c r="I49" s="12">
+        <f>G49-H49</f>
+        <v>-9597.31</v>
+      </c>
+      <c r="J49" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="K49" s="14">
+        <f>I49*J49</f>
+        <v>-3015.9546674999997</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="6"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="R49" s="12">
+        <v>8839.56</v>
+      </c>
+      <c r="S49" s="14">
+        <f>$K$12</f>
+        <v>18442</v>
+      </c>
+      <c r="T49" s="12">
+        <f>R49-S49</f>
+        <v>-9602.44</v>
+      </c>
+      <c r="U49" s="17">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="V49" s="14">
+        <f>T49*U49</f>
+        <v>-3017.086648</v>
+      </c>
+      <c r="W49" s="3"/>
+      <c r="X49" s="6"/>
+    </row>
+    <row r="50" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="6"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L14:M16"/>
@@ -3982,37 +4175,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
         <v>45371</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
@@ -4023,7 +4216,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>428</v>
       </c>
@@ -4039,7 +4232,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>429</v>
       </c>
@@ -4062,7 +4255,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>430</v>
       </c>
@@ -4079,7 +4272,7 @@
       </c>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>431</v>
       </c>
@@ -4097,7 +4290,7 @@
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>432</v>
       </c>
@@ -4114,10 +4307,10 @@
       </c>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F9" s="80"/>
       <c r="G9" s="81" t="s">
         <v>436</v>
@@ -4134,7 +4327,7 @@
       <c r="K9" s="91"/>
       <c r="L9" s="89"/>
     </row>
-    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F10" s="80"/>
       <c r="G10" s="83" t="s">
         <v>438</v>
@@ -4150,8 +4343,8 @@
       </c>
       <c r="L10" s="89"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F11" s="110" t="s">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="118" t="s">
         <v>439</v>
       </c>
       <c r="G11" s="57" t="s">
@@ -4170,8 +4363,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F12" s="110"/>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="118"/>
       <c r="G12" s="57" t="s">
         <v>429</v>
       </c>
@@ -4188,8 +4381,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="F13" s="110"/>
+    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F13" s="118"/>
       <c r="G13" s="57" t="s">
         <v>430</v>
       </c>
@@ -4215,8 +4408,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F14" s="110"/>
+    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F14" s="118"/>
       <c r="G14" s="57" t="s">
         <v>431</v>
       </c>
@@ -4252,8 +4445,8 @@
       </c>
       <c r="S14" s="91"/>
     </row>
-    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F15" s="110"/>
+    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F15" s="118"/>
       <c r="G15" s="83" t="s">
         <v>432</v>
       </c>
@@ -4284,7 +4477,7 @@
       </c>
       <c r="S15" s="91"/>
     </row>
-    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="N16" s="89" t="s">
         <v>454</v>
       </c>
@@ -4302,7 +4495,7 @@
       </c>
       <c r="S16" s="91"/>
     </row>
-    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>450</v>
       </c>
@@ -4323,7 +4516,7 @@
       </c>
       <c r="S17" s="91"/>
     </row>
-    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>446</v>
       </c>
@@ -4344,7 +4537,7 @@
       </c>
       <c r="S18" s="91"/>
     </row>
-    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>449</v>
       </c>
@@ -4369,7 +4562,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F20" s="80"/>
       <c r="G20" s="81" t="s">
         <v>436</v>
@@ -4392,7 +4585,7 @@
         <v>2925.4</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="80"/>
       <c r="G21" s="83" t="s">
         <v>438</v>
@@ -4413,8 +4606,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F22" s="110" t="s">
+    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F22" s="118" t="s">
         <v>445</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -4448,8 +4641,8 @@
         <v>-193.74097236555463</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F23" s="110"/>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="118"/>
       <c r="G23" s="57" t="s">
         <v>429</v>
       </c>
@@ -4474,8 +4667,8 @@
         <v>417.14323195446707</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F24" s="110"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="118"/>
       <c r="G24" s="57" t="s">
         <v>430</v>
       </c>
@@ -4500,8 +4693,8 @@
         <v>417.14323195446707</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F25" s="110"/>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="118"/>
       <c r="G25" s="57" t="s">
         <v>431</v>
       </c>
@@ -4526,8 +4719,8 @@
         <v>186.30716324991596</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F26" s="110"/>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" s="118"/>
       <c r="G26" s="57" t="s">
         <v>442</v>
       </c>
@@ -4551,8 +4744,8 @@
         <v>580.73463331820165</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="110"/>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F27" s="118"/>
       <c r="G27" s="83" t="s">
         <v>432</v>
       </c>
@@ -4584,30 +4777,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:M24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="61"/>
       <c r="C4" s="57"/>
       <c r="D4" s="55"/>
@@ -4629,7 +4822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -4659,11 +4852,11 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="111" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="112"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37"/>
@@ -4675,7 +4868,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -4689,7 +4882,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -4705,7 +4898,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34"/>
       <c r="C9" s="41" t="s">
         <v>25</v>
@@ -4739,7 +4932,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>29</v>
       </c>
@@ -4780,7 +4973,7 @@
         <v>4.6968755296909359E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
@@ -4821,7 +5014,7 @@
         <v>1.7209809591467229E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
@@ -4862,130 +5055,130 @@
         <v>2.8673877105740653E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="113" t="s">
+    <row r="13" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="114">
+      <c r="C13" s="110">
         <v>2380</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="111">
         <v>3.2479200000000001</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="112">
         <v>45358</v>
       </c>
-      <c r="F13" s="117">
+      <c r="F13" s="113">
         <f t="shared" si="0"/>
         <v>7730.0496000000003</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="114">
         <f t="shared" si="1"/>
         <v>1.053792745148556E-2</v>
       </c>
-      <c r="H13" s="115">
+      <c r="H13" s="111">
         <v>3.273298</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="112">
         <f t="shared" ca="1" si="2"/>
         <v>45371</v>
       </c>
-      <c r="J13" s="117">
+      <c r="J13" s="113">
         <f t="shared" si="3"/>
         <v>7790.4492399999999</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="113">
         <f t="shared" si="4"/>
         <v>60.399639999999636</v>
       </c>
-      <c r="L13" s="119">
+      <c r="L13" s="115">
         <f t="shared" si="5"/>
         <v>7.8136160989186187E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="113" t="s">
+    <row r="14" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="114">
+      <c r="C14" s="110">
         <v>715</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="111">
         <v>7.0558899999999998</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="112">
         <v>45358</v>
       </c>
-      <c r="F14" s="117">
+      <c r="F14" s="113">
         <f t="shared" si="0"/>
         <v>5044.9613499999996</v>
       </c>
-      <c r="G14" s="118">
+      <c r="G14" s="114">
         <f t="shared" si="1"/>
         <v>6.8775026620590688E-3</v>
       </c>
-      <c r="H14" s="115">
+      <c r="H14" s="111">
         <v>7.3383789999999998</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="112">
         <f t="shared" ca="1" si="2"/>
         <v>45371</v>
       </c>
-      <c r="J14" s="117">
+      <c r="J14" s="113">
         <f t="shared" si="3"/>
         <v>5246.9409850000002</v>
       </c>
-      <c r="K14" s="117">
+      <c r="K14" s="113">
         <f t="shared" si="4"/>
         <v>201.9796350000006</v>
       </c>
-      <c r="L14" s="119">
+      <c r="L14" s="115">
         <f t="shared" si="5"/>
         <v>4.0035913258285039E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="113" t="s">
+    <row r="15" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="114">
+      <c r="C15" s="110">
         <v>41</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="111">
         <v>1.904415</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="112">
         <v>45358</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="113">
         <f t="shared" si="0"/>
         <v>78.081014999999994</v>
       </c>
-      <c r="G15" s="118">
+      <c r="G15" s="114">
         <f t="shared" si="1"/>
         <v>1.0644331071411956E-4</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="111">
         <v>1.9490620000000001</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="112">
         <f t="shared" ca="1" si="2"/>
         <v>45371</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="113">
         <f t="shared" si="3"/>
         <v>79.911541999999997</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="113">
         <f t="shared" si="4"/>
         <v>1.8305270000000036</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="115">
         <f t="shared" si="5"/>
         <v>2.3443944728433808E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
         <v>52</v>
       </c>
@@ -5014,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -5043,7 +5236,7 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
@@ -5071,7 +5264,7 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
       <c r="C19" s="57"/>
       <c r="D19" s="55"/>
@@ -5098,7 +5291,7 @@
         <v>3.3077151126302752E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="61"/>
       <c r="C20" s="57"/>
       <c r="D20" s="55"/>
@@ -5116,7 +5309,7 @@
       </c>
       <c r="L20" s="57"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G24" s="74"/>
     </row>
   </sheetData>
@@ -5129,28 +5322,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -5167,7 +5360,7 @@
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -5189,11 +5382,11 @@
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="111" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -5207,7 +5400,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -5224,7 +5417,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -5240,7 +5433,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -5274,7 +5467,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -5317,7 +5510,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -5360,7 +5553,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>30</v>
       </c>
@@ -5403,7 +5596,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
@@ -5446,7 +5639,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
@@ -5489,7 +5682,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
@@ -5531,7 +5724,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -5545,7 +5738,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -5574,7 +5767,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -5588,7 +5781,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>48</v>
       </c>
@@ -5605,7 +5798,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>40</v>
       </c>
@@ -5647,7 +5840,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
@@ -5690,7 +5883,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55"/>
@@ -5703,7 +5896,7 @@
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="57"/>
       <c r="C23" s="55"/>
@@ -5730,7 +5923,7 @@
         <v>3.9190551254622868E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="57"/>
       <c r="C24" s="55"/>
@@ -5769,28 +5962,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
     <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="57"/>
       <c r="C4" s="55"/>
@@ -5807,7 +6000,7 @@
       </c>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -5829,11 +6022,11 @@
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="111" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -5847,7 +6040,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -5864,7 +6057,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>41</v>
       </c>
@@ -5880,7 +6073,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="41" t="s">
         <v>25</v>
@@ -5914,7 +6107,7 @@
       </c>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -5957,7 +6150,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>27</v>
       </c>
@@ -6000,7 +6193,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
@@ -6043,7 +6236,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36"/>
@@ -6057,7 +6250,7 @@
       <c r="K13" s="46"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
@@ -6086,7 +6279,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
@@ -6100,7 +6293,7 @@
       <c r="K15" s="50"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="57"/>
       <c r="C16" s="55"/>
@@ -6113,7 +6306,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="57"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="57"/>
       <c r="C17" s="55"/>
@@ -6140,7 +6333,7 @@
         <v>2.0911858557508746E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="57"/>
       <c r="C18" s="55"/>
@@ -6167,20 +6360,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6188,7 +6381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -6196,7 +6389,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -6204,7 +6397,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -6212,17 +6405,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -6230,12 +6423,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -6243,7 +6436,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -6251,7 +6444,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6259,7 +6452,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -6267,7 +6460,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6468,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -6283,7 +6476,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -6291,7 +6484,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -6299,7 +6492,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -6307,7 +6500,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -6315,7 +6508,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -6323,7 +6516,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -6331,7 +6524,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -6339,7 +6532,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -6347,7 +6540,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -6355,7 +6548,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -6363,7 +6556,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -6371,7 +6564,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -6379,7 +6572,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -6387,7 +6580,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -6395,7 +6588,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -6403,7 +6596,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -6411,7 +6604,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -6419,12 +6612,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -6432,7 +6625,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -6440,7 +6633,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -6448,7 +6641,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -6456,7 +6649,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -6464,7 +6657,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -6472,7 +6665,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -6480,7 +6673,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -6488,7 +6681,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -6496,7 +6689,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -6504,7 +6697,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -6512,7 +6705,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -6520,7 +6713,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -6528,7 +6721,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -6536,7 +6729,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -6544,7 +6737,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -6552,7 +6745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -6560,7 +6753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6568,7 +6761,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -6576,7 +6769,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -6584,7 +6777,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -6592,7 +6785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -6600,7 +6793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6608,7 +6801,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -6616,7 +6809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -6624,7 +6817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -6632,7 +6825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -6640,7 +6833,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6648,7 +6841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -6656,7 +6849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -6664,7 +6857,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -6672,7 +6865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -6680,7 +6873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6688,7 +6881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -6696,7 +6889,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -6704,7 +6897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6712,7 +6905,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6720,7 +6913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6728,7 +6921,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6736,7 +6929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6744,7 +6937,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6752,7 +6945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6760,7 +6953,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6768,7 +6961,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6776,7 +6969,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6784,7 +6977,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6792,7 +6985,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6800,7 +6993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6808,7 +7001,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6816,7 +7009,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6824,7 +7017,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6832,7 +7025,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6840,7 +7033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6848,7 +7041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6856,7 +7049,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6864,7 +7057,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6872,7 +7065,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6880,7 +7073,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6888,7 +7081,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6896,7 +7089,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6904,7 +7097,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6912,7 +7105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6920,7 +7113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6928,7 +7121,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -6936,7 +7129,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -6944,7 +7137,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -6952,7 +7145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -6960,7 +7153,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -6968,7 +7161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -6976,7 +7169,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -6984,7 +7177,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -6992,7 +7185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -7000,7 +7193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -7008,7 +7201,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -7016,7 +7209,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -7024,7 +7217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -7032,7 +7225,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -7040,7 +7233,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -7048,7 +7241,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -7056,7 +7249,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -7064,7 +7257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -7072,7 +7265,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -7080,7 +7273,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -7088,7 +7281,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -7096,7 +7289,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -7104,7 +7297,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -7112,7 +7305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -7120,7 +7313,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -7128,7 +7321,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -7136,7 +7329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -7144,7 +7337,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -7152,7 +7345,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -7160,7 +7353,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -7168,7 +7361,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -7176,7 +7369,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -7184,7 +7377,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -7192,7 +7385,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -7200,7 +7393,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -7208,7 +7401,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -7216,7 +7409,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -7224,7 +7417,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -7232,7 +7425,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -7240,7 +7433,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -7248,7 +7441,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -7256,7 +7449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -7264,7 +7457,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -7272,7 +7465,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -7280,7 +7473,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -7288,7 +7481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -7296,7 +7489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -7304,7 +7497,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -7312,7 +7505,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -7320,7 +7513,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -7328,7 +7521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -7336,7 +7529,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -7344,7 +7537,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -7352,7 +7545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -7360,7 +7553,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -7368,7 +7561,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -7376,7 +7569,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -7384,7 +7577,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -7392,7 +7585,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -7400,7 +7593,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -7408,7 +7601,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -7416,7 +7609,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -7424,7 +7617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -7432,7 +7625,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -7440,7 +7633,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -7448,7 +7641,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -7456,7 +7649,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -7464,7 +7657,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -7472,7 +7665,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -7480,7 +7673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -7488,7 +7681,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -7496,7 +7689,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -7504,7 +7697,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -7512,7 +7705,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -7520,7 +7713,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -7528,7 +7721,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -7536,7 +7729,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -7544,7 +7737,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -7552,7 +7745,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -7560,7 +7753,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -7568,7 +7761,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -7576,7 +7769,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -7584,7 +7777,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -7592,7 +7785,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -7600,7 +7793,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -7608,7 +7801,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -7616,7 +7809,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -7624,7 +7817,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -7632,7 +7825,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -7640,7 +7833,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -7648,7 +7841,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -7656,7 +7849,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -7664,7 +7857,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -7672,7 +7865,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -7680,7 +7873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -7688,7 +7881,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -7696,7 +7889,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -7704,7 +7897,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7712,7 +7905,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7720,7 +7913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7728,7 +7921,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7736,7 +7929,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7744,7 +7937,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7752,7 +7945,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7760,7 +7953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7768,7 +7961,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7776,7 +7969,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7784,7 +7977,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7792,7 +7985,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7800,7 +7993,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7808,7 +8001,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7816,7 +8009,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7824,7 +8017,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7832,7 +8025,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7840,7 +8033,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7848,7 +8041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7856,7 +8049,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7864,7 +8057,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7872,7 +8065,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7880,7 +8073,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7888,7 +8081,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7896,7 +8089,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7904,7 +8097,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7912,7 +8105,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7920,7 +8113,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7928,7 +8121,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -7936,7 +8129,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -7944,7 +8137,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -7952,7 +8145,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -7960,7 +8153,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -7968,7 +8161,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -7976,7 +8169,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -7984,7 +8177,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -7992,7 +8185,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -8000,7 +8193,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -8008,7 +8201,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -8016,7 +8209,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -8024,7 +8217,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -8032,7 +8225,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -8040,7 +8233,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -8048,7 +8241,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -8056,7 +8249,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -8064,7 +8257,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -8072,7 +8265,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -8080,7 +8273,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -8088,7 +8281,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -8096,7 +8289,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -8104,7 +8297,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -8112,7 +8305,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -8120,7 +8313,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -8128,7 +8321,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -8136,7 +8329,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -8144,7 +8337,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -8152,7 +8345,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -8160,7 +8353,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -8168,7 +8361,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -8176,7 +8369,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -8184,7 +8377,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -8192,7 +8385,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -8200,7 +8393,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -8208,7 +8401,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -8216,7 +8409,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -8224,7 +8417,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -8232,7 +8425,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -8240,7 +8433,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -8248,7 +8441,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -8256,7 +8449,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -8264,7 +8457,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -8272,7 +8465,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -8280,7 +8473,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -8288,7 +8481,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -8296,7 +8489,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -8304,7 +8497,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -8312,7 +8505,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -8320,7 +8513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -8328,7 +8521,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -8336,7 +8529,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -8344,7 +8537,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -8352,7 +8545,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -8360,7 +8553,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -8368,7 +8561,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -8376,7 +8569,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -8384,7 +8577,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -8392,7 +8585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -8400,7 +8593,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -8408,7 +8601,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -8416,7 +8609,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -8424,7 +8617,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -8432,7 +8625,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -8440,7 +8633,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -8448,7 +8641,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -8456,7 +8649,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -8464,7 +8657,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -8472,7 +8665,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -8480,7 +8673,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -8488,7 +8681,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -8496,7 +8689,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -8504,7 +8697,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -8512,7 +8705,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -8520,7 +8713,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -8528,7 +8721,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -8536,7 +8729,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -8544,7 +8737,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -8552,7 +8745,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -8560,7 +8753,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -8568,7 +8761,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -8576,7 +8769,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -8584,7 +8777,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -8592,7 +8785,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -8600,7 +8793,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -8608,7 +8801,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -8616,7 +8809,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -8624,7 +8817,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -8632,7 +8825,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -8640,7 +8833,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -8648,7 +8841,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -8656,7 +8849,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -8664,7 +8857,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -8672,7 +8865,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -8680,7 +8873,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -8688,7 +8881,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -8696,7 +8889,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -8704,7 +8897,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8712,7 +8905,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8720,7 +8913,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8728,7 +8921,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8736,7 +8929,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8744,7 +8937,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8752,7 +8945,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8760,7 +8953,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8768,7 +8961,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8776,7 +8969,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8784,7 +8977,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8792,7 +8985,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8800,7 +8993,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8808,7 +9001,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8816,7 +9009,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8824,7 +9017,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8832,7 +9025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8840,7 +9033,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8848,7 +9041,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8856,7 +9049,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8864,7 +9057,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8872,7 +9065,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8880,7 +9073,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8888,7 +9081,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8896,7 +9089,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8904,7 +9097,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8912,7 +9105,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8920,7 +9113,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8928,7 +9121,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -8936,7 +9129,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -8944,7 +9137,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -8952,7 +9145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -8960,7 +9153,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -8968,7 +9161,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -8976,7 +9169,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -8984,7 +9177,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -8992,7 +9185,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -9000,7 +9193,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -9008,7 +9201,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -9016,7 +9209,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -9024,7 +9217,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -9032,7 +9225,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -9040,7 +9233,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -9048,7 +9241,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -9056,7 +9249,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -9064,7 +9257,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -9072,7 +9265,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -9080,7 +9273,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -9088,7 +9281,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -9096,7 +9289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -9104,7 +9297,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -9112,7 +9305,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -9120,7 +9313,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -9128,7 +9321,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -9136,7 +9329,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -9144,7 +9337,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -9152,157 +9345,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE3F59-12E5-4F4A-8835-087F4D7C48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E881D6CD-8617-453E-954F-D05AECBC3BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -2481,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -4202,7 +4202,7 @@
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F1" s="76">
         <f ca="1">TODAY()</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
   <dimension ref="B3:M24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,7 +4794,7 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
     <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="29" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4815,7 +4815,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="66">
         <f ca="1">L5</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="38" t="s">
@@ -4840,15 +4840,15 @@
         <v>44</v>
       </c>
       <c r="J5" s="36">
-        <v>32.320900000000002</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="K5" s="56">
         <f>J5</f>
-        <v>32.320900000000002</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="L5" s="65">
         <f ca="1">TODAY()</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="M5" s="32"/>
     </row>
@@ -4950,109 +4950,109 @@
         <v>366415.49439000001</v>
       </c>
       <c r="G10" s="71">
-        <f t="shared" ref="G10:G16" si="1">F10/$F$17</f>
+        <f>F10/$F$17</f>
         <v>0.49951295228196646</v>
       </c>
       <c r="H10" s="69">
-        <v>0.185303</v>
+        <v>0.18853600000000001</v>
       </c>
       <c r="I10" s="65">
-        <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45371</v>
+        <f t="shared" ref="I10:I15" ca="1" si="1">$L$5</f>
+        <v>45373</v>
       </c>
       <c r="J10" s="70">
-        <f t="shared" ref="J10:J15" si="3">C10*H10</f>
-        <v>383625.57408300001</v>
+        <f t="shared" ref="J10:J15" si="2">C10*H10</f>
+        <v>390318.72789600003</v>
       </c>
       <c r="K10" s="70">
-        <f t="shared" ref="K10:K15" si="4">J10-F10</f>
-        <v>17210.079693000007</v>
+        <f t="shared" ref="K10:K15" si="3">J10-F10</f>
+        <v>23903.233506000019</v>
       </c>
       <c r="L10" s="72">
-        <f t="shared" ref="L10:L17" si="5">J10/F10-1</f>
-        <v>4.6968755296909359E-2</v>
+        <f t="shared" ref="L10:L17" si="4">J10/F10-1</f>
+        <v>6.523532402960619E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="68">
-        <v>1058100</v>
+        <v>46443</v>
       </c>
       <c r="D11" s="69">
-        <v>0.19988600000000001</v>
+        <v>2.9882599999999999</v>
       </c>
       <c r="E11" s="65">
         <v>45358</v>
       </c>
       <c r="F11" s="70">
+        <f>C11*D11</f>
+        <v>138783.75917999999</v>
+      </c>
+      <c r="G11" s="71">
+        <f>F11/$F$17</f>
+        <v>0.18919583461447426</v>
+      </c>
+      <c r="H11" s="69">
+        <v>3.070805</v>
+      </c>
+      <c r="I11" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
+      </c>
+      <c r="J11" s="70">
+        <f>C11*H11</f>
+        <v>142617.39661500001</v>
+      </c>
+      <c r="K11" s="70">
+        <f>J11-F11</f>
+        <v>3833.6374350000115</v>
+      </c>
+      <c r="L11" s="72">
+        <f>J11/F11-1</f>
+        <v>2.7623098391706291E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="68">
+        <v>1058100</v>
+      </c>
+      <c r="D12" s="69">
+        <v>0.19988600000000001</v>
+      </c>
+      <c r="E12" s="65">
+        <v>45358</v>
+      </c>
+      <c r="F12" s="70">
         <f t="shared" si="0"/>
         <v>211499.37660000002</v>
       </c>
-      <c r="G11" s="71">
-        <f t="shared" si="1"/>
+      <c r="G12" s="71">
+        <f>F12/$F$17</f>
         <v>0.28832481057368931</v>
       </c>
-      <c r="H11" s="69">
-        <v>0.20332600000000001</v>
-      </c>
-      <c r="I11" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
-      </c>
-      <c r="J11" s="70">
+      <c r="H12" s="69">
+        <v>0.20593400000000001</v>
+      </c>
+      <c r="I12" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
+      </c>
+      <c r="J12" s="70">
+        <f t="shared" si="2"/>
+        <v>217898.7654</v>
+      </c>
+      <c r="K12" s="70">
         <f t="shared" si="3"/>
-        <v>215139.24060000002</v>
-      </c>
-      <c r="K11" s="70">
+        <v>6399.3887999999861</v>
+      </c>
+      <c r="L12" s="72">
         <f t="shared" si="4"/>
-        <v>3639.8640000000014</v>
-      </c>
-      <c r="L11" s="72">
-        <f t="shared" si="5"/>
-        <v>1.7209809591467229E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="68">
-        <v>46443</v>
-      </c>
-      <c r="D12" s="69">
-        <v>2.9882599999999999</v>
-      </c>
-      <c r="E12" s="65">
-        <v>45358</v>
-      </c>
-      <c r="F12" s="70">
-        <f t="shared" si="0"/>
-        <v>138783.75917999999</v>
-      </c>
-      <c r="G12" s="71">
-        <f t="shared" si="1"/>
-        <v>0.18919583461447426</v>
-      </c>
-      <c r="H12" s="69">
-        <v>3.0739450000000001</v>
-      </c>
-      <c r="I12" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
-      </c>
-      <c r="J12" s="70">
-        <f t="shared" si="3"/>
-        <v>142763.22763500002</v>
-      </c>
-      <c r="K12" s="70">
-        <f t="shared" si="4"/>
-        <v>3979.4684550000238</v>
-      </c>
-      <c r="L12" s="72">
-        <f t="shared" si="5"/>
-        <v>2.8673877105740653E-2</v>
+        <v>3.0257246630579271E-2</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
@@ -5073,27 +5073,27 @@
         <v>7730.0496000000003</v>
       </c>
       <c r="G13" s="114">
-        <f t="shared" si="1"/>
+        <f>F13/$F$17</f>
         <v>1.053792745148556E-2</v>
       </c>
       <c r="H13" s="111">
-        <v>3.273298</v>
+        <v>3.3456860000000002</v>
       </c>
       <c r="I13" s="112">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
       </c>
       <c r="J13" s="113">
+        <f t="shared" si="2"/>
+        <v>7962.7326800000001</v>
+      </c>
+      <c r="K13" s="113">
         <f t="shared" si="3"/>
-        <v>7790.4492399999999</v>
-      </c>
-      <c r="K13" s="113">
+        <v>232.68307999999979</v>
+      </c>
+      <c r="L13" s="115">
         <f t="shared" si="4"/>
-        <v>60.399639999999636</v>
-      </c>
-      <c r="L13" s="115">
-        <f t="shared" si="5"/>
-        <v>7.8136160989186187E-3</v>
+        <v>3.0101110864799496E-2</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
@@ -5114,27 +5114,27 @@
         <v>5044.9613499999996</v>
       </c>
       <c r="G14" s="114">
-        <f t="shared" si="1"/>
+        <f>F14/$F$17</f>
         <v>6.8775026620590688E-3</v>
       </c>
       <c r="H14" s="111">
-        <v>7.3383789999999998</v>
+        <v>7.4649369999999999</v>
       </c>
       <c r="I14" s="112">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
       </c>
       <c r="J14" s="113">
+        <f t="shared" si="2"/>
+        <v>5337.4299549999996</v>
+      </c>
+      <c r="K14" s="113">
         <f t="shared" si="3"/>
-        <v>5246.9409850000002</v>
-      </c>
-      <c r="K14" s="113">
+        <v>292.46860500000003</v>
+      </c>
+      <c r="L14" s="115">
         <f t="shared" si="4"/>
-        <v>201.9796350000006</v>
-      </c>
-      <c r="L14" s="115">
-        <f t="shared" si="5"/>
-        <v>4.0035913258285039E-2</v>
+        <v>5.7972417370452112E-2</v>
       </c>
     </row>
     <row r="15" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
@@ -5155,27 +5155,27 @@
         <v>78.081014999999994</v>
       </c>
       <c r="G15" s="114">
-        <f t="shared" si="1"/>
+        <f>F15/$F$17</f>
         <v>1.0644331071411956E-4</v>
       </c>
       <c r="H15" s="111">
-        <v>1.9490620000000001</v>
+        <v>1.953886</v>
       </c>
       <c r="I15" s="112">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
       </c>
       <c r="J15" s="113">
+        <f t="shared" si="2"/>
+        <v>80.109325999999996</v>
+      </c>
+      <c r="K15" s="113">
         <f t="shared" si="3"/>
-        <v>79.911541999999997</v>
-      </c>
-      <c r="K15" s="113">
+        <v>2.0283110000000022</v>
+      </c>
+      <c r="L15" s="115">
         <f t="shared" si="4"/>
-        <v>1.8305270000000036</v>
-      </c>
-      <c r="L15" s="115">
-        <f t="shared" si="5"/>
-        <v>2.3443944728433808E-2</v>
+        <v>2.597700606222908E-2</v>
       </c>
     </row>
     <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>3993.81</v>
       </c>
       <c r="G16" s="71">
-        <f t="shared" si="1"/>
+        <f>F16/$F$17</f>
         <v>5.4445291056111128E-3</v>
       </c>
       <c r="H16" s="69"/>
@@ -5199,11 +5199,11 @@
         <v>3993.81</v>
       </c>
       <c r="K16" s="70">
-        <f t="shared" ref="K16" si="6">J16-F16</f>
+        <f t="shared" ref="K16" si="5">J16-F16</f>
         <v>0</v>
       </c>
       <c r="L16" s="72">
-        <f t="shared" ref="L16" si="7">J16/F16-1</f>
+        <f t="shared" ref="L16" si="6">J16/F16-1</f>
         <v>0</v>
       </c>
     </row>
@@ -5224,15 +5224,15 @@
       <c r="I17" s="49"/>
       <c r="J17" s="98">
         <f>SUM(J10:J16)</f>
-        <v>758639.15408500016</v>
+        <v>768208.97187200014</v>
       </c>
       <c r="K17" s="98">
         <f>SUM(K10:K15)</f>
-        <v>25093.62195000003</v>
+        <v>34663.439737000022</v>
       </c>
       <c r="L17" s="99">
-        <f t="shared" si="5"/>
-        <v>3.4208676695180129E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.725465321302047E-2</v>
       </c>
       <c r="M17" s="32"/>
     </row>
@@ -5252,15 +5252,15 @@
       <c r="I18" s="49"/>
       <c r="J18" s="101">
         <f>J17/J5</f>
-        <v>23472.092487678256</v>
+        <v>23471.09599364498</v>
       </c>
       <c r="K18" s="101">
         <f>J18-F18</f>
-        <v>402.66419864113413</v>
+        <v>401.66770460785847</v>
       </c>
       <c r="L18" s="99">
         <f>J18/F18-1</f>
-        <v>1.745445069535978E-2</v>
+        <v>1.7411255258490188E-2</v>
       </c>
       <c r="M18" s="32"/>
     </row>
@@ -5276,19 +5276,19 @@
       </c>
       <c r="I19" s="52">
         <f ca="1">$L$5</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="J19" s="53">
         <f>J17</f>
-        <v>758639.15408500016</v>
+        <v>768208.97187200014</v>
       </c>
       <c r="K19" s="53">
         <f>K17</f>
-        <v>25093.62195000003</v>
+        <v>34663.439737000022</v>
       </c>
       <c r="L19" s="54">
         <f>K19/J19</f>
-        <v>3.3077151126302752E-2</v>
+        <v>4.5122409404476059E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -5305,7 +5305,7 @@
       <c r="J20" s="56"/>
       <c r="K20" s="53">
         <f>K19*0.07</f>
-        <v>1756.5535365000023</v>
+        <v>2426.4407815900017</v>
       </c>
       <c r="L20" s="57"/>
     </row>
@@ -5326,7 +5326,7 @@
   <dimension ref="A4:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,7 +5356,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K7</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="J4" s="56"/>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="I5" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!J5</f>
-        <v>32.320900000000002</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
@@ -5413,7 +5413,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="65">
         <f ca="1">TODAY()</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="L7" s="32"/>
     </row>
@@ -5485,114 +5485,114 @@
         <v>194759.98474399999</v>
       </c>
       <c r="F10" s="45">
-        <f t="shared" ref="F10:F15" si="1">E10/$E$17</f>
+        <f>E10/$E$17</f>
         <v>0.5410245403030417</v>
       </c>
       <c r="G10" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
-        <v>0.185303</v>
+        <v>0.18853600000000001</v>
       </c>
       <c r="H10" s="39">
-        <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
-        <v>45371</v>
+        <f t="shared" ref="H10:H15" ca="1" si="1">$K$7</f>
+        <v>45373</v>
       </c>
       <c r="I10" s="102">
-        <f t="shared" ref="I10:I15" si="3">B10*G10</f>
-        <v>207968.521748</v>
+        <f t="shared" ref="I10:I15" si="2">B10*G10</f>
+        <v>211596.96937600002</v>
       </c>
       <c r="J10" s="102">
-        <f t="shared" ref="J10:J15" si="4">I10-E10</f>
-        <v>13208.537004000013</v>
+        <f t="shared" ref="J10:J15" si="3">I10-E10</f>
+        <v>16836.984632000036</v>
       </c>
       <c r="K10" s="105">
-        <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
-        <v>6.7819562736985306E-2</v>
+        <f t="shared" ref="K10:K15" si="4">I10/E10-1</f>
+        <v>8.6449917595399439E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="35">
-        <v>480300</v>
+        <v>20559</v>
       </c>
       <c r="C11" s="36">
-        <v>0.19988900000000001</v>
+        <v>3.0799789999999998</v>
       </c>
       <c r="D11" s="39">
         <v>45358</v>
       </c>
       <c r="E11" s="37">
+        <f>B11*C11</f>
+        <v>63321.288260999994</v>
+      </c>
+      <c r="F11" s="45">
+        <f>E11/$E$17</f>
+        <v>0.17590045982923255</v>
+      </c>
+      <c r="G11" s="36">
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
+        <v>3.070805</v>
+      </c>
+      <c r="H11" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
+      </c>
+      <c r="I11" s="102">
+        <f>B11*G11</f>
+        <v>63132.679994999999</v>
+      </c>
+      <c r="J11" s="102">
+        <f>I11-E11</f>
+        <v>-188.60826599999564</v>
+      </c>
+      <c r="K11" s="105">
+        <f>I11/E11-1</f>
+        <v>-2.9785917371514259E-3</v>
+      </c>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="35">
+        <v>480300</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.19988900000000001</v>
+      </c>
+      <c r="D12" s="39">
+        <v>45358</v>
+      </c>
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>96006.686700000006</v>
       </c>
-      <c r="F11" s="45">
-        <f t="shared" si="1"/>
+      <c r="F12" s="45">
+        <f>E12/$E$17</f>
         <v>0.26669735883456852</v>
-      </c>
-      <c r="G11" s="36">
-        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
-        <v>0.20332600000000001</v>
-      </c>
-      <c r="H11" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
-      </c>
-      <c r="I11" s="102">
-        <f t="shared" si="3"/>
-        <v>97657.477800000008</v>
-      </c>
-      <c r="J11" s="102">
-        <f t="shared" si="4"/>
-        <v>1650.7911000000022</v>
-      </c>
-      <c r="K11" s="105">
-        <f t="shared" si="5"/>
-        <v>1.7194542971349147E-2</v>
-      </c>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="35">
-        <v>20559</v>
-      </c>
-      <c r="C12" s="36">
-        <v>3.0799789999999998</v>
-      </c>
-      <c r="D12" s="39">
-        <v>45358</v>
-      </c>
-      <c r="E12" s="37">
-        <f t="shared" si="0"/>
-        <v>63321.288260999994</v>
-      </c>
-      <c r="F12" s="45">
-        <f t="shared" si="1"/>
-        <v>0.17590045982923255</v>
       </c>
       <c r="G12" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H12</f>
-        <v>3.0739450000000001</v>
+        <v>0.20593400000000001</v>
       </c>
       <c r="H12" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
       </c>
       <c r="I12" s="102">
+        <f t="shared" si="2"/>
+        <v>98910.100200000001</v>
+      </c>
+      <c r="J12" s="102">
         <f t="shared" si="3"/>
-        <v>63197.235255</v>
-      </c>
-      <c r="J12" s="102">
+        <v>2903.4134999999951</v>
+      </c>
+      <c r="K12" s="105">
         <f t="shared" si="4"/>
-        <v>-124.05300599999464</v>
-      </c>
-      <c r="K12" s="105">
-        <f t="shared" si="5"/>
-        <v>-1.9591042666199376E-3</v>
+        <v>3.0241784190225607E-2</v>
       </c>
       <c r="L12" s="32"/>
     </row>
@@ -5614,28 +5614,28 @@
         <v>3526.6872960000001</v>
       </c>
       <c r="F13" s="45">
-        <f t="shared" si="1"/>
+        <f>E13/$E$17</f>
         <v>9.796798739838462E-3</v>
       </c>
       <c r="G13" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H13</f>
-        <v>3.273298</v>
+        <v>3.3456860000000002</v>
       </c>
       <c r="H13" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
       </c>
       <c r="I13" s="102">
+        <f t="shared" si="2"/>
+        <v>3643.4520540000003</v>
+      </c>
+      <c r="J13" s="102">
         <f t="shared" si="3"/>
-        <v>3564.6215219999999</v>
-      </c>
-      <c r="J13" s="102">
+        <v>116.76475800000026</v>
+      </c>
+      <c r="K13" s="105">
         <f t="shared" si="4"/>
-        <v>37.934225999999853</v>
-      </c>
-      <c r="K13" s="105">
-        <f t="shared" si="5"/>
-        <v>1.0756333866919654E-2</v>
+        <v>3.3108905950475442E-2</v>
       </c>
       <c r="L13" s="32"/>
     </row>
@@ -5657,28 +5657,28 @@
         <v>2299.2549300000001</v>
       </c>
       <c r="F14" s="45">
-        <f t="shared" si="1"/>
+        <f>E14/$E$17</f>
         <v>6.3871094628491186E-3</v>
       </c>
       <c r="G14" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H14</f>
-        <v>7.3383789999999998</v>
+        <v>7.4649369999999999</v>
       </c>
       <c r="H14" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
       </c>
       <c r="I14" s="102">
+        <f t="shared" si="2"/>
+        <v>2351.4551550000001</v>
+      </c>
+      <c r="J14" s="102">
         <f t="shared" si="3"/>
-        <v>2311.5893849999998</v>
-      </c>
-      <c r="J14" s="102">
+        <v>52.200225000000046</v>
+      </c>
+      <c r="K14" s="105">
         <f t="shared" si="4"/>
-        <v>12.334454999999707</v>
-      </c>
-      <c r="K14" s="105">
-        <f t="shared" si="5"/>
-        <v>5.3645443308887319E-3</v>
+        <v>2.2703104522646456E-2</v>
       </c>
       <c r="L14" s="32"/>
     </row>
@@ -5700,27 +5700,27 @@
         <v>69.740650000000002</v>
       </c>
       <c r="F15" s="45">
-        <f t="shared" si="1"/>
+        <f>E15/$E$17</f>
         <v>1.9373283046967237E-4</v>
       </c>
       <c r="G15" s="36">
-        <v>2.4318819999999999</v>
+        <v>2.515619</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" ca="1" si="2"/>
-        <v>45371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45373</v>
       </c>
       <c r="I15" s="102">
+        <f t="shared" si="2"/>
+        <v>72.952950999999999</v>
+      </c>
+      <c r="J15" s="102">
         <f t="shared" si="3"/>
-        <v>70.524577999999991</v>
-      </c>
-      <c r="J15" s="102">
+        <v>3.2123009999999965</v>
+      </c>
+      <c r="K15" s="105">
         <f t="shared" si="4"/>
-        <v>0.78392799999998886</v>
-      </c>
-      <c r="K15" s="105">
-        <f t="shared" si="5"/>
-        <v>1.1240617917957385E-2</v>
+        <v>4.6060669064598603E-2</v>
       </c>
       <c r="L15" s="32"/>
     </row>
@@ -5749,21 +5749,21 @@
       </c>
       <c r="F17" s="48">
         <f>SUM(F10:F15)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
       <c r="I17" s="103">
         <f>SUM(I10:I15)</f>
-        <v>374769.97028800001</v>
+        <v>379707.60973099997</v>
       </c>
       <c r="J17" s="103">
         <f>SUM(J10:J15)</f>
-        <v>14786.32770700002</v>
+        <v>19723.967150000037</v>
       </c>
       <c r="K17" s="104">
         <f>I17/E17-1</f>
-        <v>4.1074998855463063E-2</v>
+        <v>5.4791287205673278E-2</v>
       </c>
       <c r="L17" s="32"/>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H20" s="39">
         <f ca="1">$K$7</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="I20" s="51">
         <f>B20*G20</f>
@@ -5863,23 +5863,23 @@
       </c>
       <c r="G21" s="47">
         <f>G20*I5</f>
-        <v>9805.0298285000008</v>
+        <v>9929.13645</v>
       </c>
       <c r="H21" s="39">
         <f ca="1">$K$7</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="I21" s="103">
         <f>I20*$I$5</f>
-        <v>49025.149142500006</v>
+        <v>49645.682249999998</v>
       </c>
       <c r="J21" s="103">
         <f>I21-E21</f>
-        <v>1822.4366425000117</v>
+        <v>2442.9697500000038</v>
       </c>
       <c r="K21" s="104">
         <f>I21/E21-1</f>
-        <v>3.8608727040845725E-2</v>
+        <v>5.1754859426775601E-2</v>
       </c>
       <c r="L21" s="32"/>
     </row>
@@ -5908,19 +5908,19 @@
       </c>
       <c r="H23" s="52">
         <f ca="1">$K$7</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="I23" s="103">
         <f>I21+I17</f>
-        <v>423795.11943050002</v>
+        <v>429353.29198099999</v>
       </c>
       <c r="J23" s="103">
         <f>J21+J17</f>
-        <v>16608.76434950003</v>
+        <v>22166.936900000041</v>
       </c>
       <c r="K23" s="104">
         <f>J23/I23</f>
-        <v>3.9190551254622868E-2</v>
+        <v>5.1628664118827779E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -5937,7 +5937,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="53">
         <f>J23*0.07</f>
-        <v>1162.6135044650023</v>
+        <v>1551.6855830000029</v>
       </c>
       <c r="K24" s="57"/>
     </row>
@@ -5965,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,7 +5996,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="66">
         <f ca="1">K7</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="J4" s="56"/>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I5" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!J5</f>
-        <v>32.320900000000002</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="J5" s="56"/>
       <c r="L5" s="32"/>
@@ -6053,7 +6053,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="65">
         <f ca="1">TODAY()</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="L7" s="32"/>
     </row>
@@ -6130,23 +6130,23 @@
       </c>
       <c r="G10" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
-        <v>0.185303</v>
+        <v>0.18853600000000001</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" ref="H10:H12" ca="1" si="1">$K$7</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="I10" s="102">
         <f t="shared" ref="I10:I12" si="2">B10*G10</f>
-        <v>19712.162533999999</v>
+        <v>20056.082608000001</v>
       </c>
       <c r="J10" s="102">
         <f t="shared" ref="J10:J12" si="3">I10-E10</f>
-        <v>777.30404600000111</v>
+        <v>1121.2241200000026</v>
       </c>
       <c r="K10" s="105">
         <f t="shared" ref="K10:K12" si="4">I10/E10-1</f>
-        <v>4.1051484303018082E-2</v>
+        <v>5.9214813816040879E-2</v>
       </c>
       <c r="L10" s="32"/>
     </row>
@@ -6172,24 +6172,24 @@
         <v>0.26239958198995667</v>
       </c>
       <c r="G11" s="36">
-        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
-        <v>0.20332600000000001</v>
+        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H12</f>
+        <v>0.20593400000000001</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="I11" s="102">
         <f t="shared" si="2"/>
-        <v>9373.3286000000007</v>
+        <v>9493.5573999999997</v>
       </c>
       <c r="J11" s="102">
         <f t="shared" si="3"/>
-        <v>56.703000000001339</v>
+        <v>176.93180000000029</v>
       </c>
       <c r="K11" s="105">
         <f t="shared" si="4"/>
-        <v>6.0862164515875783E-3</v>
+        <v>1.8990974586335252E-2</v>
       </c>
       <c r="L11" s="32"/>
     </row>
@@ -6216,23 +6216,23 @@
       </c>
       <c r="G12" s="36">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H13</f>
-        <v>3.273298</v>
+        <v>3.3456860000000002</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="I12" s="102">
         <f t="shared" si="2"/>
-        <v>7178.3425139999999</v>
+        <v>7337.0893980000001</v>
       </c>
       <c r="J12" s="102">
         <f t="shared" si="3"/>
-        <v>-75.662886000000071</v>
+        <v>83.083998000000065</v>
       </c>
       <c r="K12" s="105">
         <f t="shared" si="4"/>
-        <v>-1.0430497611705669E-2</v>
+        <v>1.1453534070983817E-2</v>
       </c>
       <c r="L12" s="32"/>
     </row>
@@ -6267,15 +6267,15 @@
       <c r="H14" s="49"/>
       <c r="I14" s="103">
         <f>SUM(I10:I12)</f>
-        <v>36263.833648</v>
+        <v>36886.729405999999</v>
       </c>
       <c r="J14" s="103">
         <f>SUM(J10:J12)</f>
-        <v>758.34416000000238</v>
+        <v>1381.2399180000029</v>
       </c>
       <c r="K14" s="104">
         <f>I14/E14-1</f>
-        <v>2.1358504584377158E-2</v>
+        <v>3.8902151129808438E-2</v>
       </c>
       <c r="L14" s="32"/>
     </row>
@@ -6318,19 +6318,19 @@
       </c>
       <c r="H17" s="52">
         <f ca="1">$K$7</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="I17" s="103">
         <f>I14</f>
-        <v>36263.833648</v>
+        <v>36886.729405999999</v>
       </c>
       <c r="J17" s="103">
         <f>J14</f>
-        <v>758.34416000000238</v>
+        <v>1381.2399180000029</v>
       </c>
       <c r="K17" s="104">
         <f>J17/I17</f>
-        <v>2.0911858557508746E-2</v>
+        <v>3.7445442852825285E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6347,7 +6347,7 @@
       <c r="I18" s="56"/>
       <c r="J18" s="53">
         <f>J17*0.07</f>
-        <v>53.084091200000174</v>
+        <v>96.686794260000212</v>
       </c>
       <c r="K18" s="57"/>
     </row>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E881D6CD-8617-453E-954F-D05AECBC3BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0BC86-0AB9-4909-93EA-747F261A4328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -4178,7 +4178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -5965,7 +5965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0BC86-0AB9-4909-93EA-747F261A4328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A5673-A472-4727-911D-C29D2E797D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="474">
   <si>
     <t>Equity</t>
   </si>
@@ -1476,6 +1476,15 @@
   </si>
   <si>
     <t>ALEX</t>
+  </si>
+  <si>
+    <t>KALDIRAÇ</t>
+  </si>
+  <si>
+    <t>XAUUSD</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1801,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1967,6 +1975,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2479,1694 +2490,1507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:X50"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K4" s="20"/>
-    </row>
-    <row r="9" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="23">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="22">
         <v>9462066</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="22">
+        <v>9672767</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="120">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="107" t="s">
+        <v>469</v>
+      </c>
+      <c r="I3" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <f>C7+C8</f>
+        <v>1873.63</v>
+      </c>
+      <c r="D4" s="106">
+        <f>C4/C8-1</f>
+        <v>0.56314292150204803</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2165.06</v>
+      </c>
+      <c r="I4" s="16">
+        <f>AVERAGE(D12:D19)</f>
+        <v>2141.1062500000003</v>
+      </c>
+      <c r="J4" s="7">
+        <f>-(H4/I4-1)</f>
+        <v>-1.1187557833713058E-2</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
+        <f>N7+N8</f>
+        <v>6640.6479140000001</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="21">
+        <f>H4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="T4" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="U4" s="7">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <f>C4-C6</f>
+        <v>1851.98</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="105">
+        <f>H8</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <f>N4-N6</f>
+        <v>6556.9479140000003</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="T5" s="3">
+        <f>T13/Q13</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19">
+        <f>-C20*100*E6</f>
+        <v>21.65</v>
+      </c>
+      <c r="D6" s="2">
+        <v>285.19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21.65</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="116" t="s">
+        <v>467</v>
+      </c>
+      <c r="J6" s="116"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="19">
+        <v>83.7</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="2">
+        <v>100</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="26">
+        <f>H20</f>
+        <v>675</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="19">
+        <f>S12+S13+S20</f>
+        <v>6311.6379139999999</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1198.6300000000001</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H8" s="105">
+        <v>5</v>
+      </c>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="19">
+        <v>329.01</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="106">
+        <f>C5/C6+1</f>
+        <v>86.541801385681296</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="23">
-        <v>9672767</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="25">
+        <f>N5/N6+1</f>
+        <v>79.338684755077665</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="T9" s="3"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="6"/>
-    </row>
-    <row r="11" spans="4:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="108" t="s">
-        <v>469</v>
-      </c>
-      <c r="L11" s="108" t="s">
-        <v>468</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="T10" s="3"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2165</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2030</v>
+      </c>
+      <c r="F12" s="14">
+        <f>D12-E12</f>
+        <v>135</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" ref="G12:G19" si="0">$H$8</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="19">
+        <f>F12*G12*$C$3*-C12</f>
+        <v>675</v>
+      </c>
+      <c r="I12" s="14">
+        <v>32.15</v>
+      </c>
+      <c r="J12" s="7">
+        <f>(E12/D12-1)*SIGN(C12)</f>
+        <v>6.2355658198614328E-2</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>8921.59</v>
+      </c>
+      <c r="P12" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>O12-P12</f>
+        <v>6756.5300000000007</v>
+      </c>
+      <c r="R12" s="24">
+        <f>$S$5</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="S12" s="14">
+        <f>Q12*R12</f>
+        <v>2122.5638994999999</v>
+      </c>
+      <c r="T12" s="14"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2030</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" ref="E13:E19" si="1">$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" ref="F13:F19" si="2">D13-E13</f>
+        <v>-135.05999999999995</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" ref="H13:H19" si="3">F13*G13*$C$3*-C13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>-2.19</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" ref="J13:J19" si="4">(E13/D13-1)*SIGN(C13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>8837.3799999999992</v>
+      </c>
+      <c r="P13" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>O13-P13</f>
+        <v>6672.32</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" ref="R13:R20" si="5">$S$5</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="S13" s="14">
+        <f>Q13*R13</f>
+        <v>2096.109328</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2030</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="1"/>
+        <v>2165.06</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="2"/>
+        <v>-135.05999999999995</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2180.77</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="1"/>
+        <v>2165.06</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="2"/>
+        <v>15.710000000000036</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2180.77</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="1"/>
+        <v>2165.06</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="2"/>
+        <v>15.710000000000036</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2180.77</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="1"/>
+        <v>2165.06</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="2"/>
+        <v>15.710000000000036</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2180.77</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="1"/>
+        <v>2165.06</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="2"/>
+        <v>15.710000000000036</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2180.77</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="1"/>
+        <v>2165.06</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="2"/>
+        <v>15.710000000000036</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C20" s="14">
+        <f>SUM(C12:C19)</f>
+        <v>-0.01</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19">
+        <f>SUM(H12:H19)</f>
+        <v>675</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="O20" s="12">
+        <v>8827.3700000000008</v>
+      </c>
+      <c r="P20" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="Q20" s="14">
+        <f>O20-P20</f>
+        <v>6662.3100000000013</v>
+      </c>
+      <c r="R20" s="24">
+        <f t="shared" si="5"/>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="S20" s="14">
+        <f>Q20*R20</f>
+        <v>2092.9646865000004</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="23" spans="1:21" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>9675887</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="27">
+        <v>3</v>
+      </c>
+      <c r="L23" s="22">
+        <v>9675888</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="6"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="15" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="U25" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="11" t="s">
+    <row r="26" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="27">
-        <f>F15+F16</f>
-        <v>1632.2260144123584</v>
-      </c>
-      <c r="G12" s="107">
-        <f>F12/F16-1</f>
-        <v>-0.44078292759883153</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="K12" s="22">
-        <v>18442</v>
-      </c>
-      <c r="L12" s="16">
-        <f>AVERAGE(G20:G27)</f>
-        <v>17824.474999999999</v>
-      </c>
-      <c r="M12" s="7">
-        <f>-(K12/L12-1)</f>
-        <v>-3.4644779158993444E-2</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="11" t="s">
+      <c r="C26" s="26">
+        <f>C29+C30</f>
+        <v>69849.933727500014</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="21">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="I26" s="16">
+        <v>8741.99</v>
+      </c>
+      <c r="J26" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="27">
-        <f>Q15+Q16</f>
-        <v>-8699.5541889999986</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="9" t="s">
+      <c r="N26" s="26">
+        <f>N29+N30</f>
+        <v>6640.1072900000008</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V12" s="22">
-        <f>K12</f>
-        <v>18442</v>
-      </c>
-      <c r="W12" s="16">
+      <c r="S26" s="21">
+        <v>9034.8700000000008</v>
+      </c>
+      <c r="T26" s="16">
         <v>8741.99</v>
       </c>
-      <c r="X12" s="7">
+      <c r="U26" s="7">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="11" t="s">
+    <row r="27" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="19">
-        <f>F12-F14</f>
-        <v>1347.0360144123583</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="9" t="s">
+      <c r="C27" s="19">
+        <f>C26-C28</f>
+        <v>69765.993727500012</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="106">
-        <f>K16</f>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="11" t="s">
+      <c r="H27" s="18">
+        <f>S5</f>
+        <v>0.31414999999999998</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="6"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="19">
-        <f>Q12-Q14</f>
-        <v>-8783.2541889999993</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="9" t="s">
+      <c r="N27" s="19">
+        <f>N26-N28</f>
+        <v>6559.9372900000008</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="24">
+      <c r="S27" s="18">
+        <f>H27</f>
         <v>0.31414999999999998</v>
       </c>
-      <c r="W13" s="3">
-        <f>W21/T21</f>
+      <c r="T27" s="3"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19">
+        <v>83.94</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2">
+        <v>100</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="6"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="19">
+        <v>80.17</v>
+      </c>
+      <c r="O28" s="2">
+        <f>N28/2</f>
+        <v>40.085000000000001</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="2">
+        <v>100</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="19">
+        <f>SUM(H34:H36)-D29</f>
+        <v>69535.473727500008</v>
+      </c>
+      <c r="D29" s="19">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="X13" s="6"/>
-    </row>
-    <row r="14" spans="4:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19">
-        <f>-F28*100*H14</f>
-        <v>285.19</v>
-      </c>
-      <c r="G14" s="2">
-        <v>285.19</v>
-      </c>
-      <c r="H14" s="2">
-        <f>G14/8</f>
-        <v>35.64875</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="2">
-        <v>100</v>
-      </c>
-      <c r="L14" s="117" t="s">
-        <v>467</v>
-      </c>
-      <c r="M14" s="117"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>83.7</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V14" s="2">
-        <v>100</v>
-      </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="6"/>
-    </row>
-    <row r="15" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="11" t="s">
+      <c r="H29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="6"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="27">
-        <f>K28+K33</f>
-        <v>-1286.5439855876416</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="9" t="s">
+      <c r="N29" s="19">
+        <f>SUM(S34:S36)-O29</f>
+        <v>6318.2272900000007</v>
+      </c>
+      <c r="O29" s="19">
+        <v>2.76</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="19">
-        <f>V20+V21+V28</f>
-        <v>-9028.5641889999988</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="6"/>
-    </row>
-    <row r="16" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="11" t="s">
+      <c r="T29" s="3"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="19">
-        <v>2918.77</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="K16" s="106">
-        <f>0.200006</f>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="11" t="s">
+      <c r="C30" s="19">
+        <v>314.45999999999998</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="6"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" s="19">
-        <v>329.01</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="6"/>
-    </row>
-    <row r="17" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="11" t="s">
+      <c r="N30" s="19">
+        <v>321.88</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="107">
-        <f>F13/F14+1</f>
-        <v>5.7232932936370782</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="6"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="11" t="s">
+      <c r="C31" s="25">
+        <f>C27/C28+1</f>
+        <v>832.1412166726235</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="6"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="26">
-        <f>Q13/Q14+1</f>
-        <v>-103.93732603345279</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="6"/>
-    </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="6"/>
-    </row>
-    <row r="19" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="N31" s="25">
+        <f>N27/N28+1</f>
+        <v>82.825337283273058</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="6"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="75" t="s">
-        <v>427</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13" t="s">
+      <c r="J33" s="6"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="O33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="P33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="Q33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="13" t="s">
+      <c r="R33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V19" s="13" t="s">
+      <c r="S33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="13" t="s">
+      <c r="T33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X19" s="6"/>
-    </row>
-    <row r="20" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G20" s="12">
-        <v>17834.310000000001</v>
-      </c>
-      <c r="H20" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="I20" s="14">
-        <f>G20-H20</f>
-        <v>-607.68999999999869</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" ref="J20:J27" si="0">$K$16</f>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K20" s="19">
-        <f>I20*J20</f>
-        <v>-121.54164613999973</v>
-      </c>
-      <c r="L20" s="14">
-        <v>-2.34</v>
-      </c>
-      <c r="M20" s="7">
-        <f>(H20/G20-1)</f>
-        <v>3.4074208646143189E-2</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="13" t="s">
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="C34" s="12">
         <v>-0.1</v>
       </c>
-      <c r="R20" s="12">
-        <v>8921.59</v>
-      </c>
-      <c r="S20" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="T20" s="12">
-        <f>R20-S20</f>
-        <v>-9520.41</v>
-      </c>
-      <c r="U20" s="25">
-        <f>$V$13</f>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="V20" s="14">
-        <f>T20*U20</f>
-        <v>-2990.8368014999996</v>
-      </c>
-      <c r="W20" s="14"/>
-      <c r="X20" s="6"/>
-    </row>
-    <row r="21" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F21" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G21" s="14">
-        <v>17835</v>
-      </c>
-      <c r="H21" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" ref="I21:I29" si="1">G21-H21</f>
-        <v>-607</v>
-      </c>
-      <c r="J21" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K21" s="19">
-        <f>I21*J21</f>
-        <v>-121.40364199999999</v>
-      </c>
-      <c r="L21" s="14">
-        <v>-2.19</v>
-      </c>
-      <c r="M21" s="7">
-        <f t="shared" ref="M21:M27" si="2">(H21/G21-1)</f>
-        <v>3.4034202410989645E-2</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="13" t="s">
+      <c r="D34" s="12">
+        <v>8920.14</v>
+      </c>
+      <c r="E34" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="F34" s="12">
+        <f>D34-E34</f>
+        <v>6755.08</v>
+      </c>
+      <c r="G34" s="17">
+        <f>$H$8</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="14">
+        <f>F34*G34</f>
+        <v>33775.4</v>
+      </c>
+      <c r="I34" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="N34" s="12">
         <v>-0.1</v>
       </c>
-      <c r="R21" s="14">
-        <v>8837.3799999999992</v>
-      </c>
-      <c r="S21" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="T21" s="12">
-        <f>R21-S21</f>
-        <v>-9604.6200000000008</v>
-      </c>
-      <c r="U21" s="25">
-        <f t="shared" ref="U21:U28" si="3">$V$13</f>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="V21" s="14">
-        <f>T21*U21</f>
-        <v>-3017.291373</v>
-      </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F22" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G22" s="14">
-        <v>17829.900000000001</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" ref="H22:H27" si="4">$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="1"/>
-        <v>-612.09999999999854</v>
-      </c>
-      <c r="J22" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K22" s="19">
-        <f t="shared" ref="K22:K27" si="5">I22*J22</f>
-        <v>-122.4236725999997</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="7">
-        <f t="shared" si="2"/>
-        <v>3.432997380804137E-2</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="6"/>
-    </row>
-    <row r="23" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-      <c r="E23" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F23" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G23" s="14">
-        <v>17825.22</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="4"/>
-        <v>18442</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
-        <v>-616.77999999999884</v>
-      </c>
-      <c r="J23" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K23" s="19">
-        <f t="shared" si="5"/>
-        <v>-123.35970067999976</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="7">
-        <f t="shared" si="2"/>
-        <v>3.460153647472497E-2</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="6"/>
-    </row>
-    <row r="24" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-      <c r="E24" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F24" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G24" s="14">
-        <v>17820.22</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="4"/>
-        <v>18442</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
-        <v>-621.77999999999884</v>
-      </c>
-      <c r="J24" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K24" s="19">
-        <f t="shared" si="5"/>
-        <v>-124.35973067999976</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="7">
-        <f t="shared" si="2"/>
-        <v>3.4891825128982701E-2</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="6"/>
-    </row>
-    <row r="25" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F25" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G25" s="14">
-        <v>17816.150000000001</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="4"/>
-        <v>18442</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="1"/>
-        <v>-625.84999999999854</v>
-      </c>
-      <c r="J25" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K25" s="19">
-        <f t="shared" si="5"/>
-        <v>-125.1737550999997</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5128240388636156E-2</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="6"/>
-    </row>
-    <row r="26" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F26" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G26" s="14">
-        <v>17820</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="4"/>
-        <v>18442</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="1"/>
-        <v>-622</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K26" s="19">
-        <f t="shared" si="5"/>
-        <v>-124.40373199999999</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="7">
-        <f t="shared" si="2"/>
-        <v>3.4904601571268179E-2</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="6"/>
-    </row>
-    <row r="27" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-      <c r="E27" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F27" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="G27" s="14">
-        <v>17815</v>
-      </c>
-      <c r="H27" s="14">
-        <f t="shared" si="4"/>
-        <v>18442</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="1"/>
-        <v>-627</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="shared" si="5"/>
-        <v>-125.403762</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5195060342408047E-2</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="6"/>
-    </row>
-    <row r="28" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14">
-        <f>SUM(F20:F27)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="19">
-        <f>SUM(K20:K27)</f>
-        <v>-988.06964119999861</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="13" t="s">
+      <c r="O34" s="14">
+        <v>8921.43</v>
+      </c>
+      <c r="P34" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="Q34" s="12">
+        <f>O34-P34</f>
+        <v>6756.3700000000008</v>
+      </c>
+      <c r="R34" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="S34" s="14">
+        <f>Q34*R34</f>
+        <v>2123.1892725000002</v>
+      </c>
+      <c r="T34" s="14">
+        <v>40.61</v>
+      </c>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="C35" s="12">
         <v>-0.1</v>
       </c>
-      <c r="R28" s="12">
-        <v>8827.3700000000008</v>
-      </c>
-      <c r="S28" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="T28" s="14">
-        <f>R28-S28</f>
-        <v>-9614.6299999999992</v>
-      </c>
-      <c r="U28" s="25">
-        <f t="shared" si="3"/>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="V28" s="14">
-        <f>T28*U28</f>
-        <v>-3020.4360144999996</v>
-      </c>
-      <c r="W28" s="3"/>
-      <c r="X28" s="6"/>
-    </row>
-    <row r="29" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-      <c r="E29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="D35" s="14">
+        <v>8897.86</v>
+      </c>
+      <c r="E35" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="F35" s="12">
+        <f>D35-E35</f>
+        <v>6732.8000000000011</v>
+      </c>
+      <c r="G35" s="17">
+        <f>$H$8</f>
+        <v>5</v>
+      </c>
+      <c r="H35" s="14">
+        <f>F35*G35</f>
+        <v>33664.000000000007</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="6"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="12">
         <v>-0.1</v>
       </c>
-      <c r="G29" s="12">
-        <v>8731.1299999999992</v>
-      </c>
-      <c r="H29" s="14">
-        <v>8960</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="1"/>
-        <v>-228.8700000000008</v>
-      </c>
-      <c r="J29" s="17">
-        <f>L29/I29</f>
-        <v>0.30938960982216873</v>
-      </c>
-      <c r="K29" s="19">
-        <f>I29*J29</f>
-        <v>-70.81</v>
-      </c>
-      <c r="L29" s="6">
-        <v>-70.81</v>
-      </c>
-      <c r="M29" s="7">
-        <f t="shared" ref="M29:M32" si="6">(H29/G29-1)*F29*10</f>
-        <v>-2.621310185508641E-2</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="6"/>
-    </row>
-    <row r="30" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14">
+      <c r="O35" s="14">
+        <v>8849.77</v>
+      </c>
+      <c r="P35" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="Q35" s="12">
+        <f>O35-P35</f>
+        <v>6684.7100000000009</v>
+      </c>
+      <c r="R35" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="S35" s="14">
+        <f>Q35*R35</f>
+        <v>2100.6701175000003</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12">
         <v>-0.1</v>
       </c>
-      <c r="G30" s="12">
-        <v>8723.33</v>
-      </c>
-      <c r="H30" s="14">
-        <v>8960</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" ref="I30:I32" si="7">G30-H30</f>
-        <v>-236.67000000000007</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0.30938960982216873</v>
-      </c>
-      <c r="K30" s="19">
-        <f>I30*J30</f>
-        <v>-73.22323895661269</v>
-      </c>
-      <c r="L30" s="6">
-        <v>-70.81</v>
-      </c>
-      <c r="M30" s="7">
-        <f t="shared" si="6"/>
-        <v>-2.7130694356398255E-2</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="6"/>
-    </row>
-    <row r="31" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14">
+      <c r="D36" s="12">
+        <v>8844.69</v>
+      </c>
+      <c r="E36" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="F36" s="12">
+        <f>D36-E36</f>
+        <v>6679.630000000001</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0.31424999999999997</v>
+      </c>
+      <c r="H36" s="14">
+        <f>F36*G36</f>
+        <v>2099.0737275000001</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="6"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="12">
         <v>-0.1</v>
       </c>
-      <c r="G31" s="14">
-        <v>8711.7999999999993</v>
-      </c>
-      <c r="H31" s="14">
-        <v>8960</v>
-      </c>
-      <c r="I31" s="14">
-        <f t="shared" si="7"/>
-        <v>-248.20000000000073</v>
-      </c>
-      <c r="J31" s="17">
-        <v>0.30938960982216873</v>
-      </c>
-      <c r="K31" s="19">
-        <f>I31*J31</f>
-        <v>-76.790501157862508</v>
-      </c>
-      <c r="L31" s="6">
-        <v>-70.81</v>
-      </c>
-      <c r="M31" s="7">
-        <f t="shared" si="6"/>
-        <v>-2.8490093895635841E-2</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="6"/>
-    </row>
-    <row r="32" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="G32" s="12">
-        <v>8709.02</v>
-      </c>
-      <c r="H32" s="14">
-        <v>8960</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" si="7"/>
-        <v>-250.97999999999956</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0.30938960982216873</v>
-      </c>
-      <c r="K32" s="19">
-        <f>I32*J32</f>
-        <v>-77.650604273167772</v>
-      </c>
-      <c r="L32" s="6">
-        <v>-70.81</v>
-      </c>
-      <c r="M32" s="7">
-        <f t="shared" si="6"/>
-        <v>-2.8818397477557767E-2</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="6"/>
-    </row>
-    <row r="33" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="19">
-        <f>SUM(K29:K32)</f>
-        <v>-298.47434438764299</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="6"/>
-    </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="6"/>
-    </row>
-    <row r="36" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D36" s="23">
-        <v>9675887</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="28">
-        <v>3</v>
-      </c>
-      <c r="O36" s="23">
-        <v>9675888</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="O36" s="12">
+        <v>8839.56</v>
+      </c>
+      <c r="P36" s="14">
+        <f>$H$4</f>
+        <v>2165.06</v>
+      </c>
+      <c r="Q36" s="12">
+        <f>O36-P36</f>
+        <v>6674.5</v>
+      </c>
+      <c r="R36" s="17">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="S36" s="14">
+        <f>Q36*R36</f>
+        <v>2097.1279</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="6"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="6"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="6"/>
-    </row>
-    <row r="38" spans="4:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X38" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
-      <c r="E39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="27">
-        <f>F42+F43</f>
-        <v>-6517.8090634999999</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="22">
-        <v>9034.8700000000008</v>
-      </c>
-      <c r="L39" s="16">
-        <v>8741.99</v>
-      </c>
-      <c r="M39" s="7">
-        <v>-0.01</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="27">
-        <f>Q42+Q43</f>
-        <v>-8704.1640480000005</v>
-      </c>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V39" s="22">
-        <v>9034.8700000000008</v>
-      </c>
-      <c r="W39" s="16">
-        <v>8741.99</v>
-      </c>
-      <c r="X39" s="7">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="40" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-      <c r="E40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="19">
-        <f>F39-F41</f>
-        <v>-6601.7490634999995</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="18">
-        <f>V13</f>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="19">
-        <f>Q39-Q41</f>
-        <v>-8784.3340480000006</v>
-      </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V40" s="18">
-        <f>K40</f>
-        <v>0.31414999999999998</v>
-      </c>
-      <c r="W40" s="3"/>
-      <c r="X40" s="6"/>
-    </row>
-    <row r="41" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-      <c r="E41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="19">
-        <v>83.94</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="2">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="19">
-        <v>80.17</v>
-      </c>
-      <c r="R41" s="2">
-        <f>Q41/2</f>
-        <v>40.085000000000001</v>
-      </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V41" s="2">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3"/>
-      <c r="X41" s="6"/>
-    </row>
-    <row r="42" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="2"/>
-      <c r="E42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="19">
-        <f>SUM(K47:K49)-G42</f>
-        <v>-6832.2690634999999</v>
-      </c>
-      <c r="G42" s="19">
-        <v>3</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="6"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="19">
-        <f>SUM(V47:V49)-R42</f>
-        <v>-9026.0440479999997</v>
-      </c>
-      <c r="R42" s="19">
-        <v>2.76</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T42" s="2"/>
-      <c r="U42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W42" s="3"/>
-      <c r="X42" s="6"/>
-    </row>
-    <row r="43" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="2"/>
-      <c r="E43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="19">
-        <v>314.45999999999998</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="19">
-        <v>321.88</v>
-      </c>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="6"/>
-    </row>
-    <row r="44" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
-      <c r="E44" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="26">
-        <f>F40/F41+1</f>
-        <v>-77.648428204669997</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="26">
-        <f>Q40/Q41+1</f>
-        <v>-108.57133650991643</v>
-      </c>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="6"/>
-    </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="6"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="6"/>
-    </row>
-    <row r="46" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="X46" s="6"/>
-    </row>
-    <row r="47" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D47" s="2"/>
-      <c r="E47" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G47" s="12">
-        <v>8920.14</v>
-      </c>
-      <c r="H47" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="I47" s="12">
-        <f>G47-H47</f>
-        <v>-9521.86</v>
-      </c>
-      <c r="J47" s="17">
-        <f>$K$16</f>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K47" s="14">
-        <f>I47*J47</f>
-        <v>-1904.42913116</v>
-      </c>
-      <c r="L47" s="14">
-        <v>40.61</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R47" s="14">
-        <v>8921.43</v>
-      </c>
-      <c r="S47" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="T47" s="12">
-        <f>R47-S47</f>
-        <v>-9520.57</v>
-      </c>
-      <c r="U47" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="V47" s="14">
-        <f>T47*U47</f>
-        <v>-2991.8391224999996</v>
-      </c>
-      <c r="W47" s="14">
-        <v>40.61</v>
-      </c>
-      <c r="X47" s="6"/>
-    </row>
-    <row r="48" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-      <c r="E48" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G48" s="14">
-        <v>8897.86</v>
-      </c>
-      <c r="H48" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="I48" s="12">
-        <f>G48-H48</f>
-        <v>-9544.14</v>
-      </c>
-      <c r="J48" s="17">
-        <f>$K$16</f>
-        <v>0.20000599999999999</v>
-      </c>
-      <c r="K48" s="14">
-        <f>I48*J48</f>
-        <v>-1908.8852648399998</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="6"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R48" s="14">
-        <v>8849.77</v>
-      </c>
-      <c r="S48" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="T48" s="12">
-        <f>R48-S48</f>
-        <v>-9592.23</v>
-      </c>
-      <c r="U48" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="V48" s="14">
-        <f>T48*U48</f>
-        <v>-3014.3582774999995</v>
-      </c>
-      <c r="W48" s="3"/>
-      <c r="X48" s="6"/>
-    </row>
-    <row r="49" spans="4:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-      <c r="E49" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="G49" s="12">
-        <v>8844.69</v>
-      </c>
-      <c r="H49" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="I49" s="12">
-        <f>G49-H49</f>
-        <v>-9597.31</v>
-      </c>
-      <c r="J49" s="17">
-        <v>0.31424999999999997</v>
-      </c>
-      <c r="K49" s="14">
-        <f>I49*J49</f>
-        <v>-3015.9546674999997</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="6"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q49" s="12">
-        <v>-0.1</v>
-      </c>
-      <c r="R49" s="12">
-        <v>8839.56</v>
-      </c>
-      <c r="S49" s="14">
-        <f>$K$12</f>
-        <v>18442</v>
-      </c>
-      <c r="T49" s="12">
-        <f>R49-S49</f>
-        <v>-9602.44</v>
-      </c>
-      <c r="U49" s="17">
-        <v>0.31419999999999998</v>
-      </c>
-      <c r="V49" s="14">
-        <f>T49*U49</f>
-        <v>-3017.086648</v>
-      </c>
-      <c r="W49" s="3"/>
-      <c r="X49" s="6"/>
-    </row>
-    <row r="50" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="6"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="6"/>
-    </row>
+      <c r="T37" s="3"/>
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L14:M16"/>
+    <mergeCell ref="I6:J8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4178,7 +4002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -4200,9 +4024,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F1" s="76">
+      <c r="F1" s="75">
         <f ca="1">TODAY()</f>
-        <v>45373</v>
+        <v>45374</v>
       </c>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
@@ -4220,14 +4044,14 @@
       <c r="C3" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="76">
         <v>315</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="78">
         <f>D3/$D$7</f>
         <v>0.18460889287409674</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="76">
         <f t="shared" ref="F3:F4" si="0">$F$7*E3</f>
         <v>167.25565694393165</v>
       </c>
@@ -4236,22 +4060,22 @@
       <c r="C4" t="s">
         <v>429</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="76">
         <v>315</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="78">
         <f t="shared" ref="E4:E7" si="1">D4/$D$7</f>
         <v>0.18460889287409674</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="76">
         <f t="shared" si="0"/>
         <v>167.25565694393165</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88" t="s">
         <v>452</v>
       </c>
-      <c r="N4" s="94">
+      <c r="N4" s="93">
         <v>32.299999999999997</v>
       </c>
     </row>
@@ -4259,510 +4083,510 @@
       <c r="C5" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="76">
         <v>315</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="78">
         <f t="shared" si="1"/>
         <v>0.18460889287409674</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="76">
         <f>$F$7*E5</f>
         <v>167.25565694393165</v>
       </c>
-      <c r="K5" s="91"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="76">
         <f>204.62+91.69+465</f>
         <v>761.31</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="78">
         <f t="shared" si="1"/>
         <v>0.44617332137770976</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="76">
         <f>E6*F7</f>
         <v>404.23302916820506</v>
       </c>
-      <c r="K6" s="91"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="77">
         <f>SUM(D3:D6)</f>
         <v>1706.31</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="77">
         <v>906</v>
       </c>
-      <c r="K7" s="91"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="K8" s="91"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F9" s="80"/>
-      <c r="G9" s="81" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="81">
         <v>44990</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="81" t="s">
         <v>440</v>
       </c>
-      <c r="K9" s="91"/>
-      <c r="L9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="88"/>
     </row>
     <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F10" s="80"/>
-      <c r="G10" s="83" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="L10" s="89"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="117" t="s">
         <v>439</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="83">
         <f>D3</f>
         <v>315</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="84">
         <f>H11/$H$15</f>
         <v>0.18460889287409674</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="85">
         <f>$J$15*I11</f>
         <v>167.25565694393165</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F12" s="118"/>
-      <c r="G12" s="57" t="s">
+      <c r="F12" s="117"/>
+      <c r="G12" s="56" t="s">
         <v>429</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="83">
         <f t="shared" ref="H12:H14" si="2">D4</f>
         <v>315</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="84">
         <f t="shared" ref="I12:I14" si="3">H12/$H$15</f>
         <v>0.18460889287409674</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="85">
         <f t="shared" ref="J12:J14" si="4">$J$15*I12</f>
         <v>167.25565694393165</v>
       </c>
     </row>
     <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F13" s="118"/>
-      <c r="G13" s="57" t="s">
+      <c r="F13" s="117"/>
+      <c r="G13" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="83">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="84">
         <f t="shared" si="3"/>
         <v>0.18460889287409674</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="85">
         <f t="shared" si="4"/>
         <v>167.25565694393165</v>
       </c>
-      <c r="O13" s="97" t="s">
+      <c r="O13" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="P13" s="97" t="s">
+      <c r="P13" s="96" t="s">
         <v>460</v>
       </c>
-      <c r="Q13" s="97" t="s">
+      <c r="Q13" s="96" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F14" s="118"/>
-      <c r="G14" s="57" t="s">
+      <c r="F14" s="117"/>
+      <c r="G14" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="83">
         <f t="shared" si="2"/>
         <v>761.31</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="84">
         <f t="shared" si="3"/>
         <v>0.44617332137770976</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="85">
         <f t="shared" si="4"/>
         <v>404.23302916820506</v>
       </c>
-      <c r="M14" s="92">
+      <c r="M14" s="91">
         <v>9462066</v>
       </c>
-      <c r="N14" s="89" t="s">
+      <c r="N14" s="88" t="s">
         <v>453</v>
       </c>
-      <c r="O14" s="91">
+      <c r="O14" s="90">
         <f>204.62+91.69+333.34</f>
         <v>629.65</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P14" s="94">
         <f>O14/$O$19</f>
         <v>0.20186647720589357</v>
       </c>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91">
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90">
         <v>0</v>
       </c>
-      <c r="S14" s="91"/>
+      <c r="S14" s="90"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F15" s="118"/>
-      <c r="G15" s="83" t="s">
+      <c r="F15" s="117"/>
+      <c r="G15" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="85">
         <f>SUM(H11:H14)</f>
         <v>1706.31</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="86">
         <v>1</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="85">
         <v>906</v>
       </c>
-      <c r="N15" s="89" t="s">
+      <c r="N15" s="88" t="s">
         <v>455</v>
       </c>
-      <c r="O15" s="91">
+      <c r="O15" s="90">
         <f>315.45+10000/32.4</f>
         <v>624.09197530864196</v>
       </c>
-      <c r="P15" s="95">
+      <c r="P15" s="94">
         <f t="shared" ref="P15:P19" si="5">O15/$O$19</f>
         <v>0.20008456842376413</v>
       </c>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91">
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90">
         <v>1.25</v>
       </c>
-      <c r="S15" s="91"/>
+      <c r="S15" s="90"/>
     </row>
     <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="N16" s="89" t="s">
+      <c r="N16" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="O16" s="91">
+      <c r="O16" s="90">
         <f>314.46+10000/32.4</f>
         <v>623.10197530864195</v>
       </c>
-      <c r="P16" s="95">
+      <c r="P16" s="94">
         <f t="shared" si="5"/>
         <v>0.19976717334326885</v>
       </c>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91">
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90">
         <v>5.46</v>
       </c>
-      <c r="S16" s="91"/>
+      <c r="S16" s="90"/>
     </row>
     <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>450</v>
       </c>
-      <c r="N17" s="89" t="s">
+      <c r="N17" s="88" t="s">
         <v>456</v>
       </c>
-      <c r="O17" s="91">
+      <c r="O17" s="90">
         <f>314.46+10000/32.4</f>
         <v>623.10197530864195</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P17" s="94">
         <f t="shared" si="5"/>
         <v>0.19976717334326885</v>
       </c>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91">
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90">
         <v>5.48</v>
       </c>
-      <c r="S17" s="91"/>
+      <c r="S17" s="90"/>
     </row>
     <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>446</v>
       </c>
-      <c r="N18" s="89" t="s">
+      <c r="N18" s="88" t="s">
         <v>470</v>
       </c>
-      <c r="O18" s="91">
+      <c r="O18" s="90">
         <f>20000/32.3</f>
         <v>619.19504643962853</v>
       </c>
-      <c r="P18" s="95">
+      <c r="P18" s="94">
         <f t="shared" si="5"/>
         <v>0.19851460768380447</v>
       </c>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91">
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90">
         <v>0</v>
       </c>
-      <c r="S18" s="91"/>
+      <c r="S18" s="90"/>
     </row>
     <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>449</v>
       </c>
-      <c r="N19" s="92" t="s">
+      <c r="N19" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="O19" s="93">
+      <c r="O19" s="92">
         <f>SUM(O14:O18)</f>
         <v>3119.1409723655547</v>
       </c>
-      <c r="P19" s="96">
+      <c r="P19" s="95">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="93">
+      <c r="Q19" s="95"/>
+      <c r="R19" s="92">
         <f>SUM(R16:R18)</f>
         <v>10.940000000000001</v>
       </c>
-      <c r="S19" s="94">
+      <c r="S19" s="93">
         <f>R19*N4</f>
         <v>353.36200000000002</v>
       </c>
     </row>
     <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F20" s="80"/>
-      <c r="G20" s="81" t="s">
+      <c r="F20" s="79"/>
+      <c r="G20" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="81">
         <v>44990</v>
       </c>
-      <c r="I20" s="81" t="s">
+      <c r="I20" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="J20" s="82" t="s">
+      <c r="J20" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="N20" s="92" t="s">
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="N20" s="91" t="s">
         <v>451</v>
       </c>
-      <c r="O20" s="93">
+      <c r="O20" s="92">
         <v>2925.4</v>
       </c>
     </row>
     <row r="21" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F21" s="80"/>
-      <c r="G21" s="83" t="s">
+      <c r="F21" s="79"/>
+      <c r="G21" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="I21" s="81" t="s">
+      <c r="I21" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="J21" s="81" t="s">
+      <c r="J21" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="80" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F22" s="118" t="s">
+      <c r="F22" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="83">
         <f>O15</f>
         <v>624.09197530864196</v>
       </c>
-      <c r="I22" s="85">
+      <c r="I22" s="84">
         <f>H22/$H$27</f>
         <v>0.20008456842376413</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="83">
         <f>$J$27*I22</f>
         <v>585.32739646687958</v>
       </c>
-      <c r="K22" s="88">
+      <c r="K22" s="87">
         <f>J11</f>
         <v>167.25565694393165</v>
       </c>
-      <c r="L22" s="88">
+      <c r="L22" s="87">
         <f>J22-K22</f>
         <v>418.07173952294795</v>
       </c>
-      <c r="N22" s="92" t="s">
+      <c r="N22" s="91" t="s">
         <v>458</v>
       </c>
-      <c r="O22" s="93">
+      <c r="O22" s="92">
         <f>O20-O19</f>
         <v>-193.74097236555463</v>
       </c>
     </row>
     <row r="23" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="118"/>
-      <c r="G23" s="57" t="s">
+      <c r="F23" s="117"/>
+      <c r="G23" s="56" t="s">
         <v>429</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="83">
         <f>O17</f>
         <v>623.10197530864195</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="84">
         <f t="shared" ref="I23:I26" si="6">H23/$H$27</f>
         <v>0.19976717334326885</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="83">
         <f t="shared" ref="J23:J26" si="7">$J$27*I23</f>
         <v>584.3988888983987</v>
       </c>
-      <c r="K23" s="88">
+      <c r="K23" s="87">
         <f>J12</f>
         <v>167.25565694393165</v>
       </c>
-      <c r="L23" s="88">
+      <c r="L23" s="87">
         <f t="shared" ref="L23:L26" si="8">J23-K23</f>
         <v>417.14323195446707</v>
       </c>
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="118"/>
-      <c r="G24" s="57" t="s">
+      <c r="F24" s="117"/>
+      <c r="G24" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="83">
         <f>O16</f>
         <v>623.10197530864195</v>
       </c>
-      <c r="I24" s="85">
+      <c r="I24" s="84">
         <f t="shared" si="6"/>
         <v>0.19976717334326885</v>
       </c>
-      <c r="J24" s="84">
+      <c r="J24" s="83">
         <f t="shared" si="7"/>
         <v>584.3988888983987</v>
       </c>
-      <c r="K24" s="88">
+      <c r="K24" s="87">
         <f>J13</f>
         <v>167.25565694393165</v>
       </c>
-      <c r="L24" s="88">
+      <c r="L24" s="87">
         <f t="shared" si="8"/>
         <v>417.14323195446707</v>
       </c>
     </row>
     <row r="25" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F25" s="118"/>
-      <c r="G25" s="57" t="s">
+      <c r="F25" s="117"/>
+      <c r="G25" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="83">
         <f>O14</f>
         <v>629.65</v>
       </c>
-      <c r="I25" s="85">
+      <c r="I25" s="84">
         <f t="shared" si="6"/>
         <v>0.20186647720589357</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="83">
         <f t="shared" si="7"/>
         <v>590.54019241812102</v>
       </c>
-      <c r="K25" s="88">
+      <c r="K25" s="87">
         <f>J14</f>
         <v>404.23302916820506</v>
       </c>
-      <c r="L25" s="88">
+      <c r="L25" s="87">
         <f t="shared" si="8"/>
         <v>186.30716324991596</v>
       </c>
     </row>
     <row r="26" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F26" s="118"/>
-      <c r="G26" s="57" t="s">
+      <c r="F26" s="117"/>
+      <c r="G26" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="83">
         <f>O18</f>
         <v>619.19504643962853</v>
       </c>
-      <c r="I26" s="85">
+      <c r="I26" s="84">
         <f t="shared" si="6"/>
         <v>0.19851460768380447</v>
       </c>
-      <c r="J26" s="84">
+      <c r="J26" s="83">
         <f t="shared" si="7"/>
         <v>580.73463331820165</v>
       </c>
-      <c r="K26" s="88">
+      <c r="K26" s="87">
         <v>0</v>
       </c>
-      <c r="L26" s="88">
+      <c r="L26" s="87">
         <f t="shared" si="8"/>
         <v>580.73463331820165</v>
       </c>
     </row>
     <row r="27" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F27" s="118"/>
-      <c r="G27" s="83" t="s">
+      <c r="F27" s="117"/>
+      <c r="G27" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="H27" s="86">
+      <c r="H27" s="85">
         <f>SUM(H22:H26)</f>
         <v>3119.1409723655547</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="86">
         <f>SUM(I22:I26)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J27" s="85">
         <f>O20</f>
         <v>2925.4</v>
       </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="88">
+      <c r="K27" s="56"/>
+      <c r="L27" s="87">
         <f>SUM(L22:L26)</f>
         <v>2019.3999999999996</v>
       </c>
@@ -4786,531 +4610,531 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="16" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="30" customWidth="1"/>
-    <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="28" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="65">
+      <c r="B4" s="60"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="64">
         <v>45358</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="79" t="s">
         <v>463</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="66">
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="65">
         <f ca="1">L5</f>
-        <v>45373</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="38" t="s">
+        <v>45374</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="60" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>31.7973</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="69">
         <v>3993.81</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>32.729999999999997</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="55">
         <f>J5</f>
         <v>32.729999999999997</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="64">
         <f ca="1">TODAY()</f>
-        <v>45373</v>
-      </c>
-      <c r="M5" s="32"/>
+        <v>45374</v>
+      </c>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="32"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <v>2070261</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="68">
         <v>0.17699000000000001</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="64">
         <v>45358</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <f t="shared" ref="F10:F15" si="0">C10*D10</f>
         <v>366415.49439000001</v>
       </c>
-      <c r="G10" s="71">
-        <f>F10/$F$17</f>
+      <c r="G10" s="70">
+        <f t="shared" ref="G10:G16" si="1">F10/$F$17</f>
         <v>0.49951295228196646</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="68">
         <v>0.18853600000000001</v>
       </c>
-      <c r="I10" s="65">
-        <f t="shared" ref="I10:I15" ca="1" si="1">$L$5</f>
-        <v>45373</v>
-      </c>
-      <c r="J10" s="70">
-        <f t="shared" ref="J10:J15" si="2">C10*H10</f>
+      <c r="I10" s="64">
+        <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
+        <v>45374</v>
+      </c>
+      <c r="J10" s="69">
+        <f t="shared" ref="J10:J15" si="3">C10*H10</f>
         <v>390318.72789600003</v>
       </c>
-      <c r="K10" s="70">
-        <f t="shared" ref="K10:K15" si="3">J10-F10</f>
+      <c r="K10" s="69">
+        <f t="shared" ref="K10:K15" si="4">J10-F10</f>
         <v>23903.233506000019</v>
       </c>
-      <c r="L10" s="72">
-        <f t="shared" ref="L10:L17" si="4">J10/F10-1</f>
+      <c r="L10" s="71">
+        <f t="shared" ref="L10:L17" si="5">J10/F10-1</f>
         <v>6.523532402960619E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="67">
         <v>46443</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>2.9882599999999999</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <v>45358</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <f>C11*D11</f>
         <v>138783.75917999999</v>
       </c>
-      <c r="G11" s="71">
-        <f>F11/$F$17</f>
+      <c r="G11" s="70">
+        <f t="shared" si="1"/>
         <v>0.18919583461447426</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="68">
         <v>3.070805</v>
       </c>
-      <c r="I11" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="J11" s="70">
+      <c r="I11" s="64">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="J11" s="69">
         <f>C11*H11</f>
         <v>142617.39661500001</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="69">
         <f>J11-F11</f>
         <v>3833.6374350000115</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="71">
         <f>J11/F11-1</f>
         <v>2.7623098391706291E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
+    <row r="12" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="67">
         <v>1058100</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="68">
         <v>0.19988600000000001</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="64">
         <v>45358</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <f t="shared" si="0"/>
         <v>211499.37660000002</v>
       </c>
-      <c r="G12" s="71">
-        <f>F12/$F$17</f>
+      <c r="G12" s="70">
+        <f t="shared" si="1"/>
         <v>0.28832481057368931</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="68">
         <v>0.20593400000000001</v>
       </c>
-      <c r="I12" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="J12" s="70">
-        <f t="shared" si="2"/>
+      <c r="I12" s="64">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="J12" s="69">
+        <f t="shared" si="3"/>
         <v>217898.7654</v>
       </c>
-      <c r="K12" s="70">
-        <f t="shared" si="3"/>
+      <c r="K12" s="69">
+        <f t="shared" si="4"/>
         <v>6399.3887999999861</v>
       </c>
-      <c r="L12" s="72">
-        <f t="shared" si="4"/>
+      <c r="L12" s="71">
+        <f t="shared" si="5"/>
         <v>3.0257246630579271E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="109" t="s">
+    <row r="13" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="109">
         <v>2380</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="110">
         <v>3.2479200000000001</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="111">
         <v>45358</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="112">
         <f t="shared" si="0"/>
         <v>7730.0496000000003</v>
       </c>
-      <c r="G13" s="114">
-        <f>F13/$F$17</f>
+      <c r="G13" s="113">
+        <f t="shared" si="1"/>
         <v>1.053792745148556E-2</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="110">
         <v>3.3456860000000002</v>
       </c>
-      <c r="I13" s="112">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="J13" s="113">
-        <f t="shared" si="2"/>
+      <c r="I13" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="J13" s="112">
+        <f t="shared" si="3"/>
         <v>7962.7326800000001</v>
       </c>
-      <c r="K13" s="113">
-        <f t="shared" si="3"/>
+      <c r="K13" s="112">
+        <f t="shared" si="4"/>
         <v>232.68307999999979</v>
       </c>
-      <c r="L13" s="115">
-        <f t="shared" si="4"/>
+      <c r="L13" s="114">
+        <f t="shared" si="5"/>
         <v>3.0101110864799496E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="109" t="s">
+    <row r="14" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="109">
         <v>715</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="110">
         <v>7.0558899999999998</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="111">
         <v>45358</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="112">
         <f t="shared" si="0"/>
         <v>5044.9613499999996</v>
       </c>
-      <c r="G14" s="114">
-        <f>F14/$F$17</f>
+      <c r="G14" s="113">
+        <f t="shared" si="1"/>
         <v>6.8775026620590688E-3</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="110">
         <v>7.4649369999999999</v>
       </c>
-      <c r="I14" s="112">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="J14" s="113">
-        <f t="shared" si="2"/>
+      <c r="I14" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="J14" s="112">
+        <f t="shared" si="3"/>
         <v>5337.4299549999996</v>
       </c>
-      <c r="K14" s="113">
-        <f t="shared" si="3"/>
+      <c r="K14" s="112">
+        <f t="shared" si="4"/>
         <v>292.46860500000003</v>
       </c>
-      <c r="L14" s="115">
-        <f t="shared" si="4"/>
+      <c r="L14" s="114">
+        <f t="shared" si="5"/>
         <v>5.7972417370452112E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="109" t="s">
+    <row r="15" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="109">
         <v>41</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="110">
         <v>1.904415</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="111">
         <v>45358</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="112">
         <f t="shared" si="0"/>
         <v>78.081014999999994</v>
       </c>
-      <c r="G15" s="114">
-        <f>F15/$F$17</f>
+      <c r="G15" s="113">
+        <f t="shared" si="1"/>
         <v>1.0644331071411956E-4</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="110">
         <v>1.953886</v>
       </c>
-      <c r="I15" s="112">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="J15" s="113">
-        <f t="shared" si="2"/>
+      <c r="I15" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="J15" s="112">
+        <f t="shared" si="3"/>
         <v>80.109325999999996</v>
       </c>
-      <c r="K15" s="113">
-        <f t="shared" si="3"/>
+      <c r="K15" s="112">
+        <f t="shared" si="4"/>
         <v>2.0283110000000022</v>
       </c>
-      <c r="L15" s="115">
-        <f t="shared" si="4"/>
+      <c r="L15" s="114">
+        <f t="shared" si="5"/>
         <v>2.597700606222908E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67" t="s">
+    <row r="16" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="70">
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="69">
         <f>G5</f>
         <v>3993.81</v>
       </c>
-      <c r="G16" s="71">
-        <f>F16/$F$17</f>
+      <c r="G16" s="70">
+        <f t="shared" si="1"/>
         <v>5.4445291056111128E-3</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="70">
+      <c r="H16" s="68"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="69">
         <v>3993.81</v>
       </c>
-      <c r="K16" s="70">
-        <f t="shared" ref="K16" si="5">J16-F16</f>
+      <c r="K16" s="69">
+        <f t="shared" ref="K16" si="6">J16-F16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="72">
-        <f t="shared" ref="L16" si="6">J16/F16-1</f>
+      <c r="L16" s="71">
+        <f t="shared" ref="L16" si="7">J16/F16-1</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="98">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="97">
         <f>SUM(F10:F16)</f>
         <v>733545.5321350001</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <f>SUM(G10:G16)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="98">
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="97">
         <f>SUM(J10:J16)</f>
         <v>768208.97187200014</v>
       </c>
-      <c r="K17" s="98">
+      <c r="K17" s="97">
         <f>SUM(K10:K15)</f>
         <v>34663.439737000022</v>
       </c>
-      <c r="L17" s="99">
-        <f t="shared" si="4"/>
+      <c r="L17" s="98">
+        <f t="shared" si="5"/>
         <v>4.725465321302047E-2</v>
       </c>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="100">
         <f>F17/F5</f>
         <v>23069.428289037121</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="101">
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="100">
         <f>J17/J5</f>
         <v>23471.09599364498</v>
       </c>
-      <c r="K18" s="101">
+      <c r="K18" s="100">
         <f>J18-F18</f>
         <v>401.66770460785847</v>
       </c>
-      <c r="L18" s="99">
+      <c r="L18" s="98">
         <f>J18/F18-1</f>
         <v>1.7411255258490188E-2</v>
       </c>
-      <c r="M18" s="32"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="63" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="51">
         <f ca="1">$L$5</f>
-        <v>45373</v>
-      </c>
-      <c r="J19" s="53">
+        <v>45374</v>
+      </c>
+      <c r="J19" s="52">
         <f>J17</f>
         <v>768208.97187200014</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="52">
         <f>K17</f>
         <v>34663.439737000022</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="53">
         <f>K19/J19</f>
         <v>4.5122409404476059E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="64" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="53">
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="52">
         <f>K19*0.07</f>
         <v>2426.4407815900017</v>
       </c>
-      <c r="L20" s="57"/>
+      <c r="L20" s="56"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="74"/>
+      <c r="G24" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5331,615 +5155,615 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="28" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
-    <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="13" style="29" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="28" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="62">
+      <c r="A4" s="60"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="61">
         <v>45355</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="66">
+      <c r="F4" s="56"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="65">
         <f ca="1">K7</f>
-        <v>45373</v>
-      </c>
-      <c r="J4" s="56"/>
+        <v>45374</v>
+      </c>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="59" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>31.39</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="60" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!J5</f>
         <v>32.729999999999997</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="L5" s="32"/>
+      <c r="J5" s="55"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="38" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="65">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="64">
         <f ca="1">TODAY()</f>
-        <v>45373</v>
-      </c>
-      <c r="L7" s="32"/>
+        <v>45374</v>
+      </c>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>1122316</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>0.17353399999999999</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>45358</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <f t="shared" ref="E10:E15" si="0">B10*C10</f>
         <v>194759.98474399999</v>
       </c>
-      <c r="F10" s="45">
-        <f>E10/$E$17</f>
+      <c r="F10" s="44">
+        <f t="shared" ref="F10:F15" si="1">E10/$E$17</f>
         <v>0.5410245403030417</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
         <v>0.18853600000000001</v>
       </c>
-      <c r="H10" s="39">
-        <f t="shared" ref="H10:H15" ca="1" si="1">$K$7</f>
-        <v>45373</v>
-      </c>
-      <c r="I10" s="102">
-        <f t="shared" ref="I10:I15" si="2">B10*G10</f>
+      <c r="H10" s="38">
+        <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
+        <v>45374</v>
+      </c>
+      <c r="I10" s="101">
+        <f t="shared" ref="I10:I15" si="3">B10*G10</f>
         <v>211596.96937600002</v>
       </c>
-      <c r="J10" s="102">
-        <f t="shared" ref="J10:J15" si="3">I10-E10</f>
+      <c r="J10" s="101">
+        <f t="shared" ref="J10:J15" si="4">I10-E10</f>
         <v>16836.984632000036</v>
       </c>
-      <c r="K10" s="105">
-        <f t="shared" ref="K10:K15" si="4">I10/E10-1</f>
+      <c r="K10" s="104">
+        <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
         <v>8.6449917595399439E-2</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>20559</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>3.0799789999999998</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>45358</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <f>B11*C11</f>
         <v>63321.288260999994</v>
       </c>
-      <c r="F11" s="45">
-        <f>E11/$E$17</f>
+      <c r="F11" s="44">
+        <f t="shared" si="1"/>
         <v>0.17590045982923255</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
         <v>3.070805</v>
       </c>
-      <c r="H11" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="I11" s="102">
+      <c r="H11" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="I11" s="101">
         <f>B11*G11</f>
         <v>63132.679994999999</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="101">
         <f>I11-E11</f>
         <v>-188.60826599999564</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="104">
         <f>I11/E11-1</f>
         <v>-2.9785917371514259E-3</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>480300</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>0.19988900000000001</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>45358</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
         <v>96006.686700000006</v>
       </c>
-      <c r="F12" s="45">
-        <f>E12/$E$17</f>
+      <c r="F12" s="44">
+        <f t="shared" si="1"/>
         <v>0.26669735883456852</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H12</f>
         <v>0.20593400000000001</v>
       </c>
-      <c r="H12" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="I12" s="102">
-        <f t="shared" si="2"/>
+      <c r="H12" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="I12" s="101">
+        <f t="shared" si="3"/>
         <v>98910.100200000001</v>
       </c>
-      <c r="J12" s="102">
-        <f t="shared" si="3"/>
+      <c r="J12" s="101">
+        <f t="shared" si="4"/>
         <v>2903.4134999999951</v>
       </c>
-      <c r="K12" s="105">
-        <f t="shared" si="4"/>
+      <c r="K12" s="104">
+        <f t="shared" si="5"/>
         <v>3.0241784190225607E-2</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>1089</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>3.238464</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>45358</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <f t="shared" si="0"/>
         <v>3526.6872960000001</v>
       </c>
-      <c r="F13" s="45">
-        <f>E13/$E$17</f>
+      <c r="F13" s="44">
+        <f t="shared" si="1"/>
         <v>9.796798739838462E-3</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H13</f>
         <v>3.3456860000000002</v>
       </c>
-      <c r="H13" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="I13" s="102">
-        <f t="shared" si="2"/>
+      <c r="H13" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="I13" s="101">
+        <f t="shared" si="3"/>
         <v>3643.4520540000003</v>
       </c>
-      <c r="J13" s="102">
-        <f t="shared" si="3"/>
+      <c r="J13" s="101">
+        <f t="shared" si="4"/>
         <v>116.76475800000026</v>
       </c>
-      <c r="K13" s="105">
-        <f t="shared" si="4"/>
+      <c r="K13" s="104">
+        <f t="shared" si="5"/>
         <v>3.3108905950475442E-2</v>
       </c>
-      <c r="L13" s="32"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>315</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>7.2992220000000003</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <v>45358</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <f t="shared" si="0"/>
         <v>2299.2549300000001</v>
       </c>
-      <c r="F14" s="45">
-        <f>E14/$E$17</f>
+      <c r="F14" s="44">
+        <f t="shared" si="1"/>
         <v>6.3871094628491186E-3</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H14</f>
         <v>7.4649369999999999</v>
       </c>
-      <c r="H14" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="I14" s="102">
-        <f t="shared" si="2"/>
+      <c r="H14" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="I14" s="101">
+        <f t="shared" si="3"/>
         <v>2351.4551550000001</v>
       </c>
-      <c r="J14" s="102">
-        <f t="shared" si="3"/>
+      <c r="J14" s="101">
+        <f t="shared" si="4"/>
         <v>52.200225000000046</v>
       </c>
-      <c r="K14" s="105">
-        <f t="shared" si="4"/>
+      <c r="K14" s="104">
+        <f t="shared" si="5"/>
         <v>2.2703104522646456E-2</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>29</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>2.4048500000000002</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <v>45358</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <f t="shared" si="0"/>
         <v>69.740650000000002</v>
       </c>
-      <c r="F15" s="45">
-        <f>E15/$E$17</f>
+      <c r="F15" s="44">
+        <f t="shared" si="1"/>
         <v>1.9373283046967237E-4</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>2.515619</v>
       </c>
-      <c r="H15" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="I15" s="102">
-        <f t="shared" si="2"/>
+      <c r="H15" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>45374</v>
+      </c>
+      <c r="I15" s="101">
+        <f t="shared" si="3"/>
         <v>72.952950999999999</v>
       </c>
-      <c r="J15" s="102">
-        <f t="shared" si="3"/>
+      <c r="J15" s="101">
+        <f t="shared" si="4"/>
         <v>3.2123009999999965</v>
       </c>
-      <c r="K15" s="105">
-        <f t="shared" si="4"/>
+      <c r="K15" s="104">
+        <f t="shared" si="5"/>
         <v>4.6060669064598603E-2</v>
       </c>
-      <c r="L15" s="32"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="32"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="103">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="102">
         <f>SUM(E10:E15)</f>
         <v>359983.64258099999</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="47">
         <f>SUM(F10:F15)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="103">
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="102">
         <f>SUM(I10:I15)</f>
         <v>379707.60973099997</v>
       </c>
-      <c r="J17" s="103">
+      <c r="J17" s="102">
         <f>SUM(J10:J15)</f>
         <v>19723.967150000037</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="103">
         <f>I17/E17-1</f>
         <v>5.4791287205673278E-2</v>
       </c>
-      <c r="L17" s="32"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="32"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="32"/>
+      <c r="H19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>5</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <f>1503.75/5</f>
         <v>300.75</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="38">
         <v>45355</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <f>B20*C20</f>
         <v>1503.75</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <v>100</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="50">
         <v>303.36500000000001</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <f ca="1">$K$7</f>
-        <v>45373</v>
-      </c>
-      <c r="I20" s="51">
+        <v>45374</v>
+      </c>
+      <c r="I20" s="50">
         <f>B20*G20</f>
         <v>1516.825</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="50">
         <f>I20-E20</f>
         <v>13.075000000000045</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="45">
         <f>I20/E20-1</f>
         <v>8.6949293433085106E-3</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>5</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <f>C20*E5</f>
         <v>9440.5424999999996</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <v>45355</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <f>B21*C21</f>
         <v>47202.712499999994</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="57">
         <v>100</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="46">
         <f>G20*I5</f>
         <v>9929.13645</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="38">
         <f ca="1">$K$7</f>
-        <v>45373</v>
-      </c>
-      <c r="I21" s="103">
+        <v>45374</v>
+      </c>
+      <c r="I21" s="102">
         <f>I20*$I$5</f>
         <v>49645.682249999998</v>
       </c>
-      <c r="J21" s="103">
+      <c r="J21" s="102">
         <f>I21-E21</f>
         <v>2442.9697500000038</v>
       </c>
-      <c r="K21" s="104">
+      <c r="K21" s="103">
         <f>I21/E21-1</f>
         <v>5.1754859426775601E-2</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="63" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="51">
         <f ca="1">$K$7</f>
-        <v>45373</v>
-      </c>
-      <c r="I23" s="103">
+        <v>45374</v>
+      </c>
+      <c r="I23" s="102">
         <f>I21+I17</f>
         <v>429353.29198099999</v>
       </c>
-      <c r="J23" s="103">
+      <c r="J23" s="102">
         <f>J21+J17</f>
         <v>22166.936900000041</v>
       </c>
-      <c r="K23" s="104">
+      <c r="K23" s="103">
         <f>J23/I23</f>
         <v>5.1628664118827779E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="64" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="53">
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="52">
         <f>J23*0.07</f>
         <v>1551.6855830000029</v>
       </c>
-      <c r="K24" s="57"/>
+      <c r="K24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5971,385 +5795,385 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="28" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
-    <col min="8" max="8" width="13" style="30" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="13" style="29" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="28" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="62">
+      <c r="A4" s="60"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="61">
         <v>45362</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="66">
+      <c r="F4" s="56"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="65">
         <f ca="1">K7</f>
-        <v>45373</v>
-      </c>
-      <c r="J4" s="56"/>
+        <v>45374</v>
+      </c>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="59" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>31.39</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="60" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!J5</f>
         <v>32.729999999999997</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="L5" s="32"/>
+      <c r="J5" s="55"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="38" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="65">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="64">
         <f ca="1">TODAY()</f>
-        <v>45373</v>
-      </c>
-      <c r="L7" s="32"/>
+        <v>45374</v>
+      </c>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>106378</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>0.17799599999999999</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>45358</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <f t="shared" ref="E10:E12" si="0">B10*C10</f>
         <v>18934.858487999998</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f>E10/$E$14</f>
         <v>0.53329383036388001</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
         <v>0.18853600000000001</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <f t="shared" ref="H10:H12" ca="1" si="1">$K$7</f>
-        <v>45373</v>
-      </c>
-      <c r="I10" s="102">
+        <v>45374</v>
+      </c>
+      <c r="I10" s="101">
         <f t="shared" ref="I10:I12" si="2">B10*G10</f>
         <v>20056.082608000001</v>
       </c>
-      <c r="J10" s="102">
+      <c r="J10" s="101">
         <f t="shared" ref="J10:J12" si="3">I10-E10</f>
         <v>1121.2241200000026</v>
       </c>
-      <c r="K10" s="105">
+      <c r="K10" s="104">
         <f t="shared" ref="K10:K12" si="4">I10/E10-1</f>
         <v>5.9214813816040879E-2</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>46100</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>0.202096</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>45358</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>9316.6255999999994</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <f t="shared" ref="F11" si="5">E11/$E$14</f>
         <v>0.26239958198995667</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H12</f>
         <v>0.20593400000000001</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="I11" s="102">
+        <v>45374</v>
+      </c>
+      <c r="I11" s="101">
         <f t="shared" si="2"/>
         <v>9493.5573999999997</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="101">
         <f t="shared" si="3"/>
         <v>176.93180000000029</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="104">
         <f t="shared" si="4"/>
         <v>1.8990974586335252E-2</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>2193</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>3.3077999999999999</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>45358</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
         <v>7254.0054</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <f>E12/$E$14</f>
         <v>0.20430658764616325</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H13</f>
         <v>3.3456860000000002</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>45373</v>
-      </c>
-      <c r="I12" s="102">
+        <v>45374</v>
+      </c>
+      <c r="I12" s="101">
         <f t="shared" si="2"/>
         <v>7337.0893980000001</v>
       </c>
-      <c r="J12" s="102">
+      <c r="J12" s="101">
         <f t="shared" si="3"/>
         <v>83.083998000000065</v>
       </c>
-      <c r="K12" s="105">
+      <c r="K12" s="104">
         <f t="shared" si="4"/>
         <v>1.1453534070983817E-2</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="32"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="103">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="102">
         <f>SUM(E10:E12)</f>
         <v>35505.489487999999</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <f>SUM(F10:F12)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="103">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="102">
         <f>SUM(I10:I12)</f>
         <v>36886.729405999999</v>
       </c>
-      <c r="J14" s="103">
+      <c r="J14" s="102">
         <f>SUM(J10:J12)</f>
         <v>1381.2399180000029</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="103">
         <f>I14/E14-1</f>
         <v>3.8902151129808438E-2</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="63" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="51">
         <f ca="1">$K$7</f>
-        <v>45373</v>
-      </c>
-      <c r="I17" s="103">
+        <v>45374</v>
+      </c>
+      <c r="I17" s="102">
         <f>I14</f>
         <v>36886.729405999999</v>
       </c>
-      <c r="J17" s="103">
+      <c r="J17" s="102">
         <f>J14</f>
         <v>1381.2399180000029</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="103">
         <f>J17/I17</f>
         <v>3.7445442852825285E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="64" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="53">
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="52">
         <f>J17*0.07</f>
         <v>96.686794260000212</v>
       </c>
-      <c r="K18" s="57"/>
+      <c r="K18" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6370,14 +6194,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6385,7 +6209,7 @@
       <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>38692</v>
       </c>
     </row>
@@ -6393,7 +6217,7 @@
       <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>5120.71</v>
       </c>
     </row>
@@ -6401,7 +6225,7 @@
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>17997</v>
       </c>
     </row>
@@ -6419,7 +6243,7 @@
       <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>7660</v>
       </c>
     </row>
@@ -6432,7 +6256,7 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>17815</v>
       </c>
     </row>
@@ -6440,7 +6264,7 @@
       <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>8028</v>
       </c>
     </row>
@@ -6448,7 +6272,7 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>33404</v>
       </c>
     </row>
@@ -6456,7 +6280,7 @@
       <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>10306</v>
       </c>
     </row>
@@ -6464,7 +6288,7 @@
       <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="30">
         <v>3316</v>
       </c>
     </row>
@@ -6472,7 +6296,7 @@
       <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>862</v>
       </c>
     </row>
@@ -6480,7 +6304,7 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>9155</v>
       </c>
     </row>
@@ -6488,7 +6312,7 @@
       <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>11647</v>
       </c>
     </row>
@@ -6496,7 +6320,7 @@
       <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>2488</v>
       </c>
     </row>
@@ -6504,7 +6328,7 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>9678</v>
       </c>
     </row>
@@ -6512,7 +6336,7 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <v>1477</v>
       </c>
     </row>
@@ -6520,7 +6344,7 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>4961</v>
       </c>
     </row>
@@ -6528,7 +6352,7 @@
       <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>1487</v>
       </c>
     </row>
@@ -6536,7 +6360,7 @@
       <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>21738</v>
       </c>
     </row>
@@ -6544,7 +6368,7 @@
       <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="30">
         <v>127071</v>
       </c>
     </row>
@@ -6552,7 +6376,7 @@
       <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <v>54936</v>
       </c>
     </row>
@@ -6560,7 +6384,7 @@
       <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>38972</v>
       </c>
     </row>
@@ -6568,7 +6392,7 @@
       <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <v>3046</v>
       </c>
     </row>
@@ -6576,7 +6400,7 @@
       <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>3545</v>
       </c>
     </row>
@@ -6584,7 +6408,7 @@
       <c r="C31" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <v>2426</v>
       </c>
     </row>
@@ -6592,7 +6416,7 @@
       <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>74119</v>
       </c>
     </row>
@@ -6600,7 +6424,7 @@
       <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>19785</v>
       </c>
     </row>
@@ -6608,7 +6432,7 @@
       <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <v>3147</v>
       </c>
     </row>
@@ -6621,7 +6445,7 @@
       <c r="C36" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <v>4253</v>
       </c>
     </row>
@@ -6629,7 +6453,7 @@
       <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <v>7746</v>
       </c>
     </row>
@@ -6637,7 +6461,7 @@
       <c r="C38" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="30">
         <v>11924</v>
       </c>
     </row>
@@ -6645,7 +6469,7 @@
       <c r="C39" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="30">
         <v>101331</v>
       </c>
     </row>
@@ -6653,7 +6477,7 @@
       <c r="C40" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <v>73718</v>
       </c>
     </row>
@@ -6661,7 +6485,7 @@
       <c r="C41" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="30">
         <v>67298</v>
       </c>
     </row>
@@ -6669,7 +6493,7 @@
       <c r="C42" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="30">
         <v>32920</v>
       </c>
     </row>
@@ -6677,7 +6501,7 @@
       <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="30">
         <v>12907</v>
       </c>
     </row>
@@ -6685,7 +6509,7 @@
       <c r="C44" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="30">
         <v>1556</v>
       </c>
     </row>
@@ -6693,7 +6517,7 @@
       <c r="C45" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="30">
         <v>1767</v>
       </c>
     </row>
@@ -6701,7 +6525,7 @@
       <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="30">
         <v>8708</v>
       </c>
     </row>
@@ -6709,7 +6533,7 @@
       <c r="C47" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="30">
         <v>3336</v>
       </c>
     </row>
@@ -6717,7 +6541,7 @@
       <c r="C48" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="30">
         <v>9057</v>
       </c>
     </row>
@@ -6725,7 +6549,7 @@
       <c r="C49" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="30">
         <v>1550</v>
       </c>
     </row>
@@ -6733,7 +6557,7 @@
       <c r="C50" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="30">
         <v>2064</v>
       </c>
     </row>
@@ -6741,7 +6565,7 @@
       <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="30" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6749,7 +6573,7 @@
       <c r="C52" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6757,7 +6581,7 @@
       <c r="C53" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6765,7 +6589,7 @@
       <c r="C54" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="30" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6773,7 +6597,7 @@
       <c r="C55" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6781,7 +6605,7 @@
       <c r="C56" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="30" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6789,7 +6613,7 @@
       <c r="C57" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6797,7 +6621,7 @@
       <c r="C58" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="30" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6805,7 +6629,7 @@
       <c r="C59" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="30" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6813,7 +6637,7 @@
       <c r="C60" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6821,7 +6645,7 @@
       <c r="C61" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="30" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6829,7 +6653,7 @@
       <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="30" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6837,7 +6661,7 @@
       <c r="C63" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="30" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6845,7 +6669,7 @@
       <c r="C64" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="30" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6853,7 +6677,7 @@
       <c r="C65" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="30" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6861,7 +6685,7 @@
       <c r="C66" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6869,7 +6693,7 @@
       <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="30" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6877,7 +6701,7 @@
       <c r="C68" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6885,7 +6709,7 @@
       <c r="C69" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6893,7 +6717,7 @@
       <c r="C70" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="30" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6901,7 +6725,7 @@
       <c r="C71" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6909,7 +6733,7 @@
       <c r="C72" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6917,7 +6741,7 @@
       <c r="C73" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6925,7 +6749,7 @@
       <c r="C74" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="30" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6933,7 +6757,7 @@
       <c r="C75" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="30" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6941,7 +6765,7 @@
       <c r="C76" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="30" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6949,7 +6773,7 @@
       <c r="C77" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="30" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6957,7 +6781,7 @@
       <c r="C78" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6965,7 +6789,7 @@
       <c r="C79" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="30" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6973,7 +6797,7 @@
       <c r="C80" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="30" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6981,7 +6805,7 @@
       <c r="C81" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6989,7 +6813,7 @@
       <c r="C82" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="30" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6997,7 +6821,7 @@
       <c r="C83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="30" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7005,7 +6829,7 @@
       <c r="C84" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="30" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7013,7 +6837,7 @@
       <c r="C85" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="30" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7021,7 +6845,7 @@
       <c r="C86" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="30" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7029,7 +6853,7 @@
       <c r="C87" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="30" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7037,7 +6861,7 @@
       <c r="C88" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="30" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7045,7 +6869,7 @@
       <c r="C89" t="s">
         <v>54</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="30" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7053,7 +6877,7 @@
       <c r="C90" t="s">
         <v>54</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="30" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7061,7 +6885,7 @@
       <c r="C91" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="30" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7069,7 +6893,7 @@
       <c r="C92" t="s">
         <v>54</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="30" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7077,7 +6901,7 @@
       <c r="C93" t="s">
         <v>54</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7085,7 +6909,7 @@
       <c r="C94" t="s">
         <v>54</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7093,7 +6917,7 @@
       <c r="C95" t="s">
         <v>54</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="30" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7101,7 +6925,7 @@
       <c r="C96" t="s">
         <v>54</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="30" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7109,7 +6933,7 @@
       <c r="C97" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="30" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7117,7 +6941,7 @@
       <c r="C98" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="30" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7125,7 +6949,7 @@
       <c r="C99" t="s">
         <v>54</v>
       </c>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="30" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7133,7 +6957,7 @@
       <c r="C100" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="30" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7141,7 +6965,7 @@
       <c r="C101" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="30" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7149,7 +6973,7 @@
       <c r="C102" t="s">
         <v>54</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="30" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7157,7 +6981,7 @@
       <c r="C103" t="s">
         <v>54</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="30" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7165,7 +6989,7 @@
       <c r="C104" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="30" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7173,7 +6997,7 @@
       <c r="C105" t="s">
         <v>54</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="30" t="s">
         <v>154</v>
       </c>
     </row>
@@ -7181,7 +7005,7 @@
       <c r="C106" t="s">
         <v>54</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="30" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7189,7 +7013,7 @@
       <c r="C107" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="30" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7197,7 +7021,7 @@
       <c r="C108" t="s">
         <v>54</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7205,7 +7029,7 @@
       <c r="C109" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="30" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7213,7 +7037,7 @@
       <c r="C110" t="s">
         <v>54</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="30" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7221,7 +7045,7 @@
       <c r="C111" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="30" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7229,7 +7053,7 @@
       <c r="C112" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="30" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7237,7 +7061,7 @@
       <c r="C113" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="30" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7245,7 +7069,7 @@
       <c r="C114" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="30" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7253,7 +7077,7 @@
       <c r="C115" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="30" t="s">
         <v>164</v>
       </c>
     </row>
@@ -7261,7 +7085,7 @@
       <c r="C116" t="s">
         <v>54</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="30" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7269,7 +7093,7 @@
       <c r="C117" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="30" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7277,7 +7101,7 @@
       <c r="C118" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="30" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7285,7 +7109,7 @@
       <c r="C119" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="30" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7293,7 +7117,7 @@
       <c r="C120" t="s">
         <v>54</v>
       </c>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="30" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7301,7 +7125,7 @@
       <c r="C121" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="30" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7309,7 +7133,7 @@
       <c r="C122" t="s">
         <v>54</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="30" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7317,7 +7141,7 @@
       <c r="C123" t="s">
         <v>54</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="30" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7325,7 +7149,7 @@
       <c r="C124" t="s">
         <v>54</v>
       </c>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="30" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7333,7 +7157,7 @@
       <c r="C125" t="s">
         <v>54</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="30" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7341,7 +7165,7 @@
       <c r="C126" t="s">
         <v>54</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7349,7 +7173,7 @@
       <c r="C127" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="30" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7357,7 +7181,7 @@
       <c r="C128" t="s">
         <v>54</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="30" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7365,7 +7189,7 @@
       <c r="C129" t="s">
         <v>54</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7373,7 +7197,7 @@
       <c r="C130" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="30" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7381,7 +7205,7 @@
       <c r="C131" t="s">
         <v>54</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="30" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7389,7 +7213,7 @@
       <c r="C132" t="s">
         <v>54</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="30" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7397,7 +7221,7 @@
       <c r="C133" t="s">
         <v>54</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="30" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7405,7 +7229,7 @@
       <c r="C134" t="s">
         <v>54</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="30" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7413,7 +7237,7 @@
       <c r="C135" t="s">
         <v>54</v>
       </c>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="30" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7421,7 +7245,7 @@
       <c r="C136" t="s">
         <v>54</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="30" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7429,7 +7253,7 @@
       <c r="C137" t="s">
         <v>54</v>
       </c>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="30" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7437,7 +7261,7 @@
       <c r="C138" t="s">
         <v>54</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="30" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7445,7 +7269,7 @@
       <c r="C139" t="s">
         <v>54</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="30" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7453,7 +7277,7 @@
       <c r="C140" t="s">
         <v>54</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="30" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7461,7 +7285,7 @@
       <c r="C141" t="s">
         <v>54</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="30" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7469,7 +7293,7 @@
       <c r="C142" t="s">
         <v>54</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="30" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7477,7 +7301,7 @@
       <c r="C143" t="s">
         <v>54</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="30" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7485,7 +7309,7 @@
       <c r="C144" t="s">
         <v>54</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="30" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7493,7 +7317,7 @@
       <c r="C145" t="s">
         <v>54</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="30" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7501,7 +7325,7 @@
       <c r="C146" t="s">
         <v>54</v>
       </c>
-      <c r="D146" s="31" t="s">
+      <c r="D146" s="30" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7509,7 +7333,7 @@
       <c r="C147" t="s">
         <v>54</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="30" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7517,7 +7341,7 @@
       <c r="C148" t="s">
         <v>54</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7525,7 +7349,7 @@
       <c r="C149" t="s">
         <v>54</v>
       </c>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="30" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7533,7 +7357,7 @@
       <c r="C150" t="s">
         <v>54</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="30" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7541,7 +7365,7 @@
       <c r="C151" t="s">
         <v>54</v>
       </c>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="30" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7549,7 +7373,7 @@
       <c r="C152" t="s">
         <v>54</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="30" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7557,7 +7381,7 @@
       <c r="C153" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="30" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7565,7 +7389,7 @@
       <c r="C154" t="s">
         <v>54</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="30" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7573,7 +7397,7 @@
       <c r="C155" t="s">
         <v>54</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="30" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7581,7 +7405,7 @@
       <c r="C156" t="s">
         <v>54</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="30" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7589,7 +7413,7 @@
       <c r="C157" t="s">
         <v>54</v>
       </c>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="30" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7597,7 +7421,7 @@
       <c r="C158" t="s">
         <v>54</v>
       </c>
-      <c r="D158" s="31" t="s">
+      <c r="D158" s="30" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7605,7 +7429,7 @@
       <c r="C159" t="s">
         <v>54</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="D159" s="30" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7613,7 +7437,7 @@
       <c r="C160" t="s">
         <v>54</v>
       </c>
-      <c r="D160" s="31" t="s">
+      <c r="D160" s="30" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7621,7 +7445,7 @@
       <c r="C161" t="s">
         <v>54</v>
       </c>
-      <c r="D161" s="31" t="s">
+      <c r="D161" s="30" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7629,7 +7453,7 @@
       <c r="C162" t="s">
         <v>54</v>
       </c>
-      <c r="D162" s="31" t="s">
+      <c r="D162" s="30" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7637,7 +7461,7 @@
       <c r="C163" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="31" t="s">
+      <c r="D163" s="30" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7645,7 +7469,7 @@
       <c r="C164" t="s">
         <v>54</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="30" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7653,7 +7477,7 @@
       <c r="C165" t="s">
         <v>54</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="30" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7661,7 +7485,7 @@
       <c r="C166" t="s">
         <v>54</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="30" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7669,7 +7493,7 @@
       <c r="C167" t="s">
         <v>54</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="30" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7677,7 +7501,7 @@
       <c r="C168" t="s">
         <v>54</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="30" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7685,7 +7509,7 @@
       <c r="C169" t="s">
         <v>54</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7693,7 +7517,7 @@
       <c r="C170" t="s">
         <v>54</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D170" s="30" t="s">
         <v>219</v>
       </c>
     </row>
@@ -7701,7 +7525,7 @@
       <c r="C171" t="s">
         <v>54</v>
       </c>
-      <c r="D171" s="31" t="s">
+      <c r="D171" s="30" t="s">
         <v>220</v>
       </c>
     </row>
@@ -7709,7 +7533,7 @@
       <c r="C172" t="s">
         <v>54</v>
       </c>
-      <c r="D172" s="31" t="s">
+      <c r="D172" s="30" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7717,7 +7541,7 @@
       <c r="C173" t="s">
         <v>54</v>
       </c>
-      <c r="D173" s="31" t="s">
+      <c r="D173" s="30" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7725,7 +7549,7 @@
       <c r="C174" t="s">
         <v>54</v>
       </c>
-      <c r="D174" s="31" t="s">
+      <c r="D174" s="30" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7733,7 +7557,7 @@
       <c r="C175" t="s">
         <v>54</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="D175" s="30" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7741,7 +7565,7 @@
       <c r="C176" t="s">
         <v>54</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="30" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7749,7 +7573,7 @@
       <c r="C177" t="s">
         <v>54</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="D177" s="30" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7757,7 +7581,7 @@
       <c r="C178" t="s">
         <v>54</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D178" s="30" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7765,7 +7589,7 @@
       <c r="C179" t="s">
         <v>54</v>
       </c>
-      <c r="D179" s="31" t="s">
+      <c r="D179" s="30" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7773,7 +7597,7 @@
       <c r="C180" t="s">
         <v>54</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="D180" s="30" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7781,7 +7605,7 @@
       <c r="C181" t="s">
         <v>54</v>
       </c>
-      <c r="D181" s="31" t="s">
+      <c r="D181" s="30" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7789,7 +7613,7 @@
       <c r="C182" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="31" t="s">
+      <c r="D182" s="30" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7797,7 +7621,7 @@
       <c r="C183" t="s">
         <v>54</v>
       </c>
-      <c r="D183" s="31" t="s">
+      <c r="D183" s="30" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7805,7 +7629,7 @@
       <c r="C184" t="s">
         <v>54</v>
       </c>
-      <c r="D184" s="31" t="s">
+      <c r="D184" s="30" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7813,7 +7637,7 @@
       <c r="C185" t="s">
         <v>54</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="30" t="s">
         <v>234</v>
       </c>
     </row>
@@ -7821,7 +7645,7 @@
       <c r="C186" t="s">
         <v>54</v>
       </c>
-      <c r="D186" s="31" t="s">
+      <c r="D186" s="30" t="s">
         <v>235</v>
       </c>
     </row>
@@ -7829,7 +7653,7 @@
       <c r="C187" t="s">
         <v>54</v>
       </c>
-      <c r="D187" s="31" t="s">
+      <c r="D187" s="30" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7837,7 +7661,7 @@
       <c r="C188" t="s">
         <v>54</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="30" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7845,7 +7669,7 @@
       <c r="C189" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="31" t="s">
+      <c r="D189" s="30" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7853,7 +7677,7 @@
       <c r="C190" t="s">
         <v>54</v>
       </c>
-      <c r="D190" s="31" t="s">
+      <c r="D190" s="30" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7861,7 +7685,7 @@
       <c r="C191" t="s">
         <v>54</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="D191" s="30" t="s">
         <v>240</v>
       </c>
     </row>
@@ -7869,7 +7693,7 @@
       <c r="C192" t="s">
         <v>54</v>
       </c>
-      <c r="D192" s="31" t="s">
+      <c r="D192" s="30" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7877,7 +7701,7 @@
       <c r="C193" t="s">
         <v>54</v>
       </c>
-      <c r="D193" s="31" t="s">
+      <c r="D193" s="30" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7885,7 +7709,7 @@
       <c r="C194" t="s">
         <v>54</v>
       </c>
-      <c r="D194" s="31" t="s">
+      <c r="D194" s="30" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7893,7 +7717,7 @@
       <c r="C195" t="s">
         <v>54</v>
       </c>
-      <c r="D195" s="31" t="s">
+      <c r="D195" s="30" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7901,7 +7725,7 @@
       <c r="C196" t="s">
         <v>54</v>
       </c>
-      <c r="D196" s="31" t="s">
+      <c r="D196" s="30" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7909,7 +7733,7 @@
       <c r="C197" t="s">
         <v>54</v>
       </c>
-      <c r="D197" s="31" t="s">
+      <c r="D197" s="30" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7917,7 +7741,7 @@
       <c r="C198" t="s">
         <v>54</v>
       </c>
-      <c r="D198" s="31" t="s">
+      <c r="D198" s="30" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7925,7 +7749,7 @@
       <c r="C199" t="s">
         <v>54</v>
       </c>
-      <c r="D199" s="31" t="s">
+      <c r="D199" s="30" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7933,7 +7757,7 @@
       <c r="C200" t="s">
         <v>54</v>
       </c>
-      <c r="D200" s="31" t="s">
+      <c r="D200" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7941,7 +7765,7 @@
       <c r="C201" t="s">
         <v>54</v>
       </c>
-      <c r="D201" s="31" t="s">
+      <c r="D201" s="30" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7949,7 +7773,7 @@
       <c r="C202" t="s">
         <v>54</v>
       </c>
-      <c r="D202" s="31" t="s">
+      <c r="D202" s="30" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7957,7 +7781,7 @@
       <c r="C203" t="s">
         <v>54</v>
       </c>
-      <c r="D203" s="31" t="s">
+      <c r="D203" s="30" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7965,7 +7789,7 @@
       <c r="C204" t="s">
         <v>54</v>
       </c>
-      <c r="D204" s="31" t="s">
+      <c r="D204" s="30" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7973,7 +7797,7 @@
       <c r="C205" t="s">
         <v>54</v>
       </c>
-      <c r="D205" s="31" t="s">
+      <c r="D205" s="30" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7981,7 +7805,7 @@
       <c r="C206" t="s">
         <v>54</v>
       </c>
-      <c r="D206" s="31" t="s">
+      <c r="D206" s="30" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7989,7 +7813,7 @@
       <c r="C207" t="s">
         <v>54</v>
       </c>
-      <c r="D207" s="31" t="s">
+      <c r="D207" s="30" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7997,7 +7821,7 @@
       <c r="C208" t="s">
         <v>54</v>
       </c>
-      <c r="D208" s="31" t="s">
+      <c r="D208" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8005,7 +7829,7 @@
       <c r="C209" t="s">
         <v>54</v>
       </c>
-      <c r="D209" s="31" t="s">
+      <c r="D209" s="30" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8013,7 +7837,7 @@
       <c r="C210" t="s">
         <v>54</v>
       </c>
-      <c r="D210" s="31" t="s">
+      <c r="D210" s="30" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8021,7 +7845,7 @@
       <c r="C211" t="s">
         <v>54</v>
       </c>
-      <c r="D211" s="31" t="s">
+      <c r="D211" s="30" t="s">
         <v>260</v>
       </c>
     </row>
@@ -8029,7 +7853,7 @@
       <c r="C212" t="s">
         <v>54</v>
       </c>
-      <c r="D212" s="31" t="s">
+      <c r="D212" s="30" t="s">
         <v>261</v>
       </c>
     </row>
@@ -8037,7 +7861,7 @@
       <c r="C213" t="s">
         <v>54</v>
       </c>
-      <c r="D213" s="31" t="s">
+      <c r="D213" s="30" t="s">
         <v>262</v>
       </c>
     </row>
@@ -8045,7 +7869,7 @@
       <c r="C214" t="s">
         <v>54</v>
       </c>
-      <c r="D214" s="31" t="s">
+      <c r="D214" s="30" t="s">
         <v>263</v>
       </c>
     </row>
@@ -8053,7 +7877,7 @@
       <c r="C215" t="s">
         <v>54</v>
       </c>
-      <c r="D215" s="31" t="s">
+      <c r="D215" s="30" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8061,7 +7885,7 @@
       <c r="C216" t="s">
         <v>54</v>
       </c>
-      <c r="D216" s="31" t="s">
+      <c r="D216" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -8069,7 +7893,7 @@
       <c r="C217" t="s">
         <v>54</v>
       </c>
-      <c r="D217" s="31" t="s">
+      <c r="D217" s="30" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8077,7 +7901,7 @@
       <c r="C218" t="s">
         <v>54</v>
       </c>
-      <c r="D218" s="31" t="s">
+      <c r="D218" s="30" t="s">
         <v>267</v>
       </c>
     </row>
@@ -8085,7 +7909,7 @@
       <c r="C219" t="s">
         <v>54</v>
       </c>
-      <c r="D219" s="31" t="s">
+      <c r="D219" s="30" t="s">
         <v>268</v>
       </c>
     </row>
@@ -8093,7 +7917,7 @@
       <c r="C220" t="s">
         <v>54</v>
       </c>
-      <c r="D220" s="31" t="s">
+      <c r="D220" s="30" t="s">
         <v>269</v>
       </c>
     </row>
@@ -8101,7 +7925,7 @@
       <c r="C221" t="s">
         <v>54</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D221" s="30" t="s">
         <v>270</v>
       </c>
     </row>
@@ -8109,7 +7933,7 @@
       <c r="C222" t="s">
         <v>54</v>
       </c>
-      <c r="D222" s="31" t="s">
+      <c r="D222" s="30" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8117,7 +7941,7 @@
       <c r="C223" t="s">
         <v>54</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="30" t="s">
         <v>272</v>
       </c>
     </row>
@@ -8125,7 +7949,7 @@
       <c r="C224" t="s">
         <v>54</v>
       </c>
-      <c r="D224" s="31" t="s">
+      <c r="D224" s="30" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8133,7 +7957,7 @@
       <c r="C225" t="s">
         <v>54</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="30" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8141,7 +7965,7 @@
       <c r="C226" t="s">
         <v>54</v>
       </c>
-      <c r="D226" s="31" t="s">
+      <c r="D226" s="30" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8149,7 +7973,7 @@
       <c r="C227" t="s">
         <v>54</v>
       </c>
-      <c r="D227" s="31" t="s">
+      <c r="D227" s="30" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8157,7 +7981,7 @@
       <c r="C228" t="s">
         <v>54</v>
       </c>
-      <c r="D228" s="31" t="s">
+      <c r="D228" s="30" t="s">
         <v>277</v>
       </c>
     </row>
@@ -8165,7 +7989,7 @@
       <c r="C229" t="s">
         <v>54</v>
       </c>
-      <c r="D229" s="31" t="s">
+      <c r="D229" s="30" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8173,7 +7997,7 @@
       <c r="C230" t="s">
         <v>54</v>
       </c>
-      <c r="D230" s="31" t="s">
+      <c r="D230" s="30" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8181,7 +8005,7 @@
       <c r="C231" t="s">
         <v>54</v>
       </c>
-      <c r="D231" s="31" t="s">
+      <c r="D231" s="30" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8189,7 +8013,7 @@
       <c r="C232" t="s">
         <v>54</v>
       </c>
-      <c r="D232" s="31" t="s">
+      <c r="D232" s="30" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8197,7 +8021,7 @@
       <c r="C233" t="s">
         <v>54</v>
       </c>
-      <c r="D233" s="31" t="s">
+      <c r="D233" s="30" t="s">
         <v>282</v>
       </c>
     </row>
@@ -8205,7 +8029,7 @@
       <c r="C234" t="s">
         <v>54</v>
       </c>
-      <c r="D234" s="31" t="s">
+      <c r="D234" s="30" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8213,7 +8037,7 @@
       <c r="C235" t="s">
         <v>54</v>
       </c>
-      <c r="D235" s="31" t="s">
+      <c r="D235" s="30" t="s">
         <v>284</v>
       </c>
     </row>
@@ -8221,7 +8045,7 @@
       <c r="C236" t="s">
         <v>54</v>
       </c>
-      <c r="D236" s="31" t="s">
+      <c r="D236" s="30" t="s">
         <v>285</v>
       </c>
     </row>
@@ -8229,7 +8053,7 @@
       <c r="C237" t="s">
         <v>54</v>
       </c>
-      <c r="D237" s="31" t="s">
+      <c r="D237" s="30" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8237,7 +8061,7 @@
       <c r="C238" t="s">
         <v>54</v>
       </c>
-      <c r="D238" s="31" t="s">
+      <c r="D238" s="30" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8245,7 +8069,7 @@
       <c r="C239" t="s">
         <v>54</v>
       </c>
-      <c r="D239" s="31" t="s">
+      <c r="D239" s="30" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8253,7 +8077,7 @@
       <c r="C240" t="s">
         <v>54</v>
       </c>
-      <c r="D240" s="31" t="s">
+      <c r="D240" s="30" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8261,7 +8085,7 @@
       <c r="C241" t="s">
         <v>54</v>
       </c>
-      <c r="D241" s="31" t="s">
+      <c r="D241" s="30" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8269,7 +8093,7 @@
       <c r="C242" t="s">
         <v>54</v>
       </c>
-      <c r="D242" s="31" t="s">
+      <c r="D242" s="30" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8277,7 +8101,7 @@
       <c r="C243" t="s">
         <v>54</v>
       </c>
-      <c r="D243" s="31" t="s">
+      <c r="D243" s="30" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8285,7 +8109,7 @@
       <c r="C244" t="s">
         <v>54</v>
       </c>
-      <c r="D244" s="31" t="s">
+      <c r="D244" s="30" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8293,7 +8117,7 @@
       <c r="C245" t="s">
         <v>54</v>
       </c>
-      <c r="D245" s="31" t="s">
+      <c r="D245" s="30" t="s">
         <v>294</v>
       </c>
     </row>
@@ -8301,7 +8125,7 @@
       <c r="C246" t="s">
         <v>54</v>
       </c>
-      <c r="D246" s="31" t="s">
+      <c r="D246" s="30" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8309,7 +8133,7 @@
       <c r="C247" t="s">
         <v>54</v>
       </c>
-      <c r="D247" s="31" t="s">
+      <c r="D247" s="30" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8317,7 +8141,7 @@
       <c r="C248" t="s">
         <v>54</v>
       </c>
-      <c r="D248" s="31" t="s">
+      <c r="D248" s="30" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8325,7 +8149,7 @@
       <c r="C249" t="s">
         <v>54</v>
       </c>
-      <c r="D249" s="31" t="s">
+      <c r="D249" s="30" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8333,7 +8157,7 @@
       <c r="C250" t="s">
         <v>54</v>
       </c>
-      <c r="D250" s="31" t="s">
+      <c r="D250" s="30" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8341,7 +8165,7 @@
       <c r="C251" t="s">
         <v>54</v>
       </c>
-      <c r="D251" s="31" t="s">
+      <c r="D251" s="30" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8349,7 +8173,7 @@
       <c r="C252" t="s">
         <v>54</v>
       </c>
-      <c r="D252" s="31" t="s">
+      <c r="D252" s="30" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8357,7 +8181,7 @@
       <c r="C253" t="s">
         <v>54</v>
       </c>
-      <c r="D253" s="31" t="s">
+      <c r="D253" s="30" t="s">
         <v>302</v>
       </c>
     </row>
@@ -8365,7 +8189,7 @@
       <c r="C254" t="s">
         <v>54</v>
       </c>
-      <c r="D254" s="31" t="s">
+      <c r="D254" s="30" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8373,7 +8197,7 @@
       <c r="C255" t="s">
         <v>54</v>
       </c>
-      <c r="D255" s="31" t="s">
+      <c r="D255" s="30" t="s">
         <v>304</v>
       </c>
     </row>
@@ -8381,7 +8205,7 @@
       <c r="C256" t="s">
         <v>54</v>
       </c>
-      <c r="D256" s="31" t="s">
+      <c r="D256" s="30" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8389,7 +8213,7 @@
       <c r="C257" t="s">
         <v>54</v>
       </c>
-      <c r="D257" s="31" t="s">
+      <c r="D257" s="30" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8397,7 +8221,7 @@
       <c r="C258" t="s">
         <v>54</v>
       </c>
-      <c r="D258" s="31" t="s">
+      <c r="D258" s="30" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8405,7 +8229,7 @@
       <c r="C259" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="31" t="s">
+      <c r="D259" s="30" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8413,7 +8237,7 @@
       <c r="C260" t="s">
         <v>54</v>
       </c>
-      <c r="D260" s="31" t="s">
+      <c r="D260" s="30" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8421,7 +8245,7 @@
       <c r="C261" t="s">
         <v>54</v>
       </c>
-      <c r="D261" s="31" t="s">
+      <c r="D261" s="30" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8429,7 +8253,7 @@
       <c r="C262" t="s">
         <v>54</v>
       </c>
-      <c r="D262" s="31" t="s">
+      <c r="D262" s="30" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8437,7 +8261,7 @@
       <c r="C263" t="s">
         <v>54</v>
       </c>
-      <c r="D263" s="31" t="s">
+      <c r="D263" s="30" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8445,7 +8269,7 @@
       <c r="C264" t="s">
         <v>54</v>
       </c>
-      <c r="D264" s="31" t="s">
+      <c r="D264" s="30" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8453,7 +8277,7 @@
       <c r="C265" t="s">
         <v>54</v>
       </c>
-      <c r="D265" s="31" t="s">
+      <c r="D265" s="30" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8461,7 +8285,7 @@
       <c r="C266" t="s">
         <v>54</v>
       </c>
-      <c r="D266" s="31" t="s">
+      <c r="D266" s="30" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8469,7 +8293,7 @@
       <c r="C267" t="s">
         <v>54</v>
       </c>
-      <c r="D267" s="31" t="s">
+      <c r="D267" s="30" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8477,7 +8301,7 @@
       <c r="C268" t="s">
         <v>54</v>
       </c>
-      <c r="D268" s="31" t="s">
+      <c r="D268" s="30" t="s">
         <v>317</v>
       </c>
     </row>
@@ -8485,7 +8309,7 @@
       <c r="C269" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="31" t="s">
+      <c r="D269" s="30" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8493,7 +8317,7 @@
       <c r="C270" t="s">
         <v>54</v>
       </c>
-      <c r="D270" s="31" t="s">
+      <c r="D270" s="30" t="s">
         <v>319</v>
       </c>
     </row>
@@ -8501,7 +8325,7 @@
       <c r="C271" t="s">
         <v>54</v>
       </c>
-      <c r="D271" s="31" t="s">
+      <c r="D271" s="30" t="s">
         <v>320</v>
       </c>
     </row>
@@ -8509,7 +8333,7 @@
       <c r="C272" t="s">
         <v>54</v>
       </c>
-      <c r="D272" s="31" t="s">
+      <c r="D272" s="30" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8517,7 +8341,7 @@
       <c r="C273" t="s">
         <v>54</v>
       </c>
-      <c r="D273" s="31" t="s">
+      <c r="D273" s="30" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8525,7 +8349,7 @@
       <c r="C274" t="s">
         <v>54</v>
       </c>
-      <c r="D274" s="31" t="s">
+      <c r="D274" s="30" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8533,7 +8357,7 @@
       <c r="C275" t="s">
         <v>54</v>
       </c>
-      <c r="D275" s="31" t="s">
+      <c r="D275" s="30" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8541,7 +8365,7 @@
       <c r="C276" t="s">
         <v>54</v>
       </c>
-      <c r="D276" s="31" t="s">
+      <c r="D276" s="30" t="s">
         <v>325</v>
       </c>
     </row>
@@ -8549,7 +8373,7 @@
       <c r="C277" t="s">
         <v>54</v>
       </c>
-      <c r="D277" s="31" t="s">
+      <c r="D277" s="30" t="s">
         <v>326</v>
       </c>
     </row>
@@ -8557,7 +8381,7 @@
       <c r="C278" t="s">
         <v>54</v>
       </c>
-      <c r="D278" s="31" t="s">
+      <c r="D278" s="30" t="s">
         <v>327</v>
       </c>
     </row>
@@ -8565,7 +8389,7 @@
       <c r="C279" t="s">
         <v>54</v>
       </c>
-      <c r="D279" s="31" t="s">
+      <c r="D279" s="30" t="s">
         <v>328</v>
       </c>
     </row>
@@ -8573,7 +8397,7 @@
       <c r="C280" t="s">
         <v>54</v>
       </c>
-      <c r="D280" s="31" t="s">
+      <c r="D280" s="30" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8581,7 +8405,7 @@
       <c r="C281" t="s">
         <v>54</v>
       </c>
-      <c r="D281" s="31" t="s">
+      <c r="D281" s="30" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8589,7 +8413,7 @@
       <c r="C282" t="s">
         <v>54</v>
       </c>
-      <c r="D282" s="31" t="s">
+      <c r="D282" s="30" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8597,7 +8421,7 @@
       <c r="C283" t="s">
         <v>54</v>
       </c>
-      <c r="D283" s="31" t="s">
+      <c r="D283" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8605,7 +8429,7 @@
       <c r="C284" t="s">
         <v>54</v>
       </c>
-      <c r="D284" s="31" t="s">
+      <c r="D284" s="30" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8613,7 +8437,7 @@
       <c r="C285" t="s">
         <v>54</v>
       </c>
-      <c r="D285" s="31" t="s">
+      <c r="D285" s="30" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8621,7 +8445,7 @@
       <c r="C286" t="s">
         <v>54</v>
       </c>
-      <c r="D286" s="31" t="s">
+      <c r="D286" s="30" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8629,7 +8453,7 @@
       <c r="C287" t="s">
         <v>54</v>
       </c>
-      <c r="D287" s="31" t="s">
+      <c r="D287" s="30" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8637,7 +8461,7 @@
       <c r="C288" t="s">
         <v>54</v>
       </c>
-      <c r="D288" s="31" t="s">
+      <c r="D288" s="30" t="s">
         <v>337</v>
       </c>
     </row>
@@ -8645,7 +8469,7 @@
       <c r="C289" t="s">
         <v>54</v>
       </c>
-      <c r="D289" s="31" t="s">
+      <c r="D289" s="30" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8653,7 +8477,7 @@
       <c r="C290" t="s">
         <v>54</v>
       </c>
-      <c r="D290" s="31" t="s">
+      <c r="D290" s="30" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8661,7 +8485,7 @@
       <c r="C291" t="s">
         <v>54</v>
       </c>
-      <c r="D291" s="31" t="s">
+      <c r="D291" s="30" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8669,7 +8493,7 @@
       <c r="C292" t="s">
         <v>54</v>
       </c>
-      <c r="D292" s="31" t="s">
+      <c r="D292" s="30" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8677,7 +8501,7 @@
       <c r="C293" t="s">
         <v>54</v>
       </c>
-      <c r="D293" s="31" t="s">
+      <c r="D293" s="30" t="s">
         <v>342</v>
       </c>
     </row>
@@ -8685,7 +8509,7 @@
       <c r="C294" t="s">
         <v>54</v>
       </c>
-      <c r="D294" s="31" t="s">
+      <c r="D294" s="30" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8693,7 +8517,7 @@
       <c r="C295" t="s">
         <v>54</v>
       </c>
-      <c r="D295" s="31" t="s">
+      <c r="D295" s="30" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8701,7 +8525,7 @@
       <c r="C296" t="s">
         <v>54</v>
       </c>
-      <c r="D296" s="31" t="s">
+      <c r="D296" s="30" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8709,7 +8533,7 @@
       <c r="C297" t="s">
         <v>54</v>
       </c>
-      <c r="D297" s="31" t="s">
+      <c r="D297" s="30" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8717,7 +8541,7 @@
       <c r="C298" t="s">
         <v>54</v>
       </c>
-      <c r="D298" s="31" t="s">
+      <c r="D298" s="30" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8725,7 +8549,7 @@
       <c r="C299" t="s">
         <v>54</v>
       </c>
-      <c r="D299" s="31" t="s">
+      <c r="D299" s="30" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8733,7 +8557,7 @@
       <c r="C300" t="s">
         <v>54</v>
       </c>
-      <c r="D300" s="31" t="s">
+      <c r="D300" s="30" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8741,7 +8565,7 @@
       <c r="C301" t="s">
         <v>54</v>
       </c>
-      <c r="D301" s="31" t="s">
+      <c r="D301" s="30" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8749,7 +8573,7 @@
       <c r="C302" t="s">
         <v>54</v>
       </c>
-      <c r="D302" s="31" t="s">
+      <c r="D302" s="30" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8757,7 +8581,7 @@
       <c r="C303" t="s">
         <v>54</v>
       </c>
-      <c r="D303" s="31" t="s">
+      <c r="D303" s="30" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8765,7 +8589,7 @@
       <c r="C304" t="s">
         <v>54</v>
       </c>
-      <c r="D304" s="31" t="s">
+      <c r="D304" s="30" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8773,7 +8597,7 @@
       <c r="C305" t="s">
         <v>54</v>
       </c>
-      <c r="D305" s="31" t="s">
+      <c r="D305" s="30" t="s">
         <v>354</v>
       </c>
     </row>
@@ -8781,7 +8605,7 @@
       <c r="C306" t="s">
         <v>54</v>
       </c>
-      <c r="D306" s="31" t="s">
+      <c r="D306" s="30" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8789,7 +8613,7 @@
       <c r="C307" t="s">
         <v>54</v>
       </c>
-      <c r="D307" s="31" t="s">
+      <c r="D307" s="30" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8797,7 +8621,7 @@
       <c r="C308" t="s">
         <v>54</v>
       </c>
-      <c r="D308" s="31" t="s">
+      <c r="D308" s="30" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8805,7 +8629,7 @@
       <c r="C309" t="s">
         <v>54</v>
       </c>
-      <c r="D309" s="31" t="s">
+      <c r="D309" s="30" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8813,7 +8637,7 @@
       <c r="C310" t="s">
         <v>54</v>
       </c>
-      <c r="D310" s="31" t="s">
+      <c r="D310" s="30" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8821,7 +8645,7 @@
       <c r="C311" t="s">
         <v>54</v>
       </c>
-      <c r="D311" s="31" t="s">
+      <c r="D311" s="30" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8829,7 +8653,7 @@
       <c r="C312" t="s">
         <v>54</v>
       </c>
-      <c r="D312" s="31" t="s">
+      <c r="D312" s="30" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8837,7 +8661,7 @@
       <c r="C313" t="s">
         <v>54</v>
       </c>
-      <c r="D313" s="31" t="s">
+      <c r="D313" s="30" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8845,7 +8669,7 @@
       <c r="C314" t="s">
         <v>54</v>
       </c>
-      <c r="D314" s="31" t="s">
+      <c r="D314" s="30" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8853,7 +8677,7 @@
       <c r="C315" t="s">
         <v>54</v>
       </c>
-      <c r="D315" s="31" t="s">
+      <c r="D315" s="30" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8861,7 +8685,7 @@
       <c r="C316" t="s">
         <v>54</v>
       </c>
-      <c r="D316" s="31" t="s">
+      <c r="D316" s="30" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8869,7 +8693,7 @@
       <c r="C317" t="s">
         <v>54</v>
       </c>
-      <c r="D317" s="31" t="s">
+      <c r="D317" s="30" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8877,7 +8701,7 @@
       <c r="C318" t="s">
         <v>54</v>
       </c>
-      <c r="D318" s="31" t="s">
+      <c r="D318" s="30" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8885,7 +8709,7 @@
       <c r="C319" t="s">
         <v>54</v>
       </c>
-      <c r="D319" s="31" t="s">
+      <c r="D319" s="30" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8893,7 +8717,7 @@
       <c r="C320" t="s">
         <v>54</v>
       </c>
-      <c r="D320" s="31" t="s">
+      <c r="D320" s="30" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8901,7 +8725,7 @@
       <c r="C321" t="s">
         <v>54</v>
       </c>
-      <c r="D321" s="31" t="s">
+      <c r="D321" s="30" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8909,7 +8733,7 @@
       <c r="C322" t="s">
         <v>54</v>
       </c>
-      <c r="D322" s="31" t="s">
+      <c r="D322" s="30" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8917,7 +8741,7 @@
       <c r="C323" t="s">
         <v>54</v>
       </c>
-      <c r="D323" s="31" t="s">
+      <c r="D323" s="30" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8925,7 +8749,7 @@
       <c r="C324" t="s">
         <v>54</v>
       </c>
-      <c r="D324" s="31" t="s">
+      <c r="D324" s="30" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8933,7 +8757,7 @@
       <c r="C325" t="s">
         <v>54</v>
       </c>
-      <c r="D325" s="31" t="s">
+      <c r="D325" s="30" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8941,7 +8765,7 @@
       <c r="C326" t="s">
         <v>54</v>
       </c>
-      <c r="D326" s="31" t="s">
+      <c r="D326" s="30" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8949,7 +8773,7 @@
       <c r="C327" t="s">
         <v>54</v>
       </c>
-      <c r="D327" s="31" t="s">
+      <c r="D327" s="30" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8957,7 +8781,7 @@
       <c r="C328" t="s">
         <v>54</v>
       </c>
-      <c r="D328" s="31" t="s">
+      <c r="D328" s="30" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8965,7 +8789,7 @@
       <c r="C329" t="s">
         <v>54</v>
       </c>
-      <c r="D329" s="31" t="s">
+      <c r="D329" s="30" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8973,7 +8797,7 @@
       <c r="C330" t="s">
         <v>54</v>
       </c>
-      <c r="D330" s="31" t="s">
+      <c r="D330" s="30" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8981,7 +8805,7 @@
       <c r="C331" t="s">
         <v>54</v>
       </c>
-      <c r="D331" s="31" t="s">
+      <c r="D331" s="30" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8989,7 +8813,7 @@
       <c r="C332" t="s">
         <v>54</v>
       </c>
-      <c r="D332" s="31" t="s">
+      <c r="D332" s="30" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8997,7 +8821,7 @@
       <c r="C333" t="s">
         <v>54</v>
       </c>
-      <c r="D333" s="31" t="s">
+      <c r="D333" s="30" t="s">
         <v>382</v>
       </c>
     </row>
@@ -9005,7 +8829,7 @@
       <c r="C334" t="s">
         <v>54</v>
       </c>
-      <c r="D334" s="31" t="s">
+      <c r="D334" s="30" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9013,7 +8837,7 @@
       <c r="C335" t="s">
         <v>54</v>
       </c>
-      <c r="D335" s="31" t="s">
+      <c r="D335" s="30" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9021,7 +8845,7 @@
       <c r="C336" t="s">
         <v>54</v>
       </c>
-      <c r="D336" s="31" t="s">
+      <c r="D336" s="30" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9029,7 +8853,7 @@
       <c r="C337" t="s">
         <v>54</v>
       </c>
-      <c r="D337" s="31" t="s">
+      <c r="D337" s="30" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9037,7 +8861,7 @@
       <c r="C338" t="s">
         <v>54</v>
       </c>
-      <c r="D338" s="31" t="s">
+      <c r="D338" s="30" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9045,7 +8869,7 @@
       <c r="C339" t="s">
         <v>54</v>
       </c>
-      <c r="D339" s="31" t="s">
+      <c r="D339" s="30" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9053,7 +8877,7 @@
       <c r="C340" t="s">
         <v>54</v>
       </c>
-      <c r="D340" s="31" t="s">
+      <c r="D340" s="30" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9061,7 +8885,7 @@
       <c r="C341" t="s">
         <v>54</v>
       </c>
-      <c r="D341" s="31" t="s">
+      <c r="D341" s="30" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9069,7 +8893,7 @@
       <c r="C342" t="s">
         <v>54</v>
       </c>
-      <c r="D342" s="31" t="s">
+      <c r="D342" s="30" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9077,7 +8901,7 @@
       <c r="C343" t="s">
         <v>54</v>
       </c>
-      <c r="D343" s="31" t="s">
+      <c r="D343" s="30" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9085,7 +8909,7 @@
       <c r="C344" t="s">
         <v>54</v>
       </c>
-      <c r="D344" s="31" t="s">
+      <c r="D344" s="30" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9093,7 +8917,7 @@
       <c r="C345" t="s">
         <v>54</v>
       </c>
-      <c r="D345" s="31" t="s">
+      <c r="D345" s="30" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9101,7 +8925,7 @@
       <c r="C346" t="s">
         <v>54</v>
       </c>
-      <c r="D346" s="31" t="s">
+      <c r="D346" s="30" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9109,7 +8933,7 @@
       <c r="C347" t="s">
         <v>54</v>
       </c>
-      <c r="D347" s="31" t="s">
+      <c r="D347" s="30" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9117,7 +8941,7 @@
       <c r="C348" t="s">
         <v>54</v>
       </c>
-      <c r="D348" s="31" t="s">
+      <c r="D348" s="30" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9125,7 +8949,7 @@
       <c r="C349" t="s">
         <v>54</v>
       </c>
-      <c r="D349" s="31" t="s">
+      <c r="D349" s="30" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9133,7 +8957,7 @@
       <c r="C350" t="s">
         <v>54</v>
       </c>
-      <c r="D350" s="31" t="s">
+      <c r="D350" s="30" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9141,7 +8965,7 @@
       <c r="C351" t="s">
         <v>54</v>
       </c>
-      <c r="D351" s="31" t="s">
+      <c r="D351" s="30" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9149,7 +8973,7 @@
       <c r="C352" t="s">
         <v>54</v>
       </c>
-      <c r="D352" s="31" t="s">
+      <c r="D352" s="30" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9157,7 +8981,7 @@
       <c r="C353" t="s">
         <v>54</v>
       </c>
-      <c r="D353" s="31" t="s">
+      <c r="D353" s="30" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9165,7 +8989,7 @@
       <c r="C354" t="s">
         <v>54</v>
       </c>
-      <c r="D354" s="31" t="s">
+      <c r="D354" s="30" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9173,7 +8997,7 @@
       <c r="C355" t="s">
         <v>54</v>
       </c>
-      <c r="D355" s="31" t="s">
+      <c r="D355" s="30" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9181,7 +9005,7 @@
       <c r="C356" t="s">
         <v>54</v>
       </c>
-      <c r="D356" s="31" t="s">
+      <c r="D356" s="30" t="s">
         <v>405</v>
       </c>
     </row>
@@ -9189,7 +9013,7 @@
       <c r="C357" t="s">
         <v>54</v>
       </c>
-      <c r="D357" s="31" t="s">
+      <c r="D357" s="30" t="s">
         <v>406</v>
       </c>
     </row>
@@ -9197,7 +9021,7 @@
       <c r="C358" t="s">
         <v>54</v>
       </c>
-      <c r="D358" s="31" t="s">
+      <c r="D358" s="30" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9205,7 +9029,7 @@
       <c r="C359" t="s">
         <v>54</v>
       </c>
-      <c r="D359" s="31" t="s">
+      <c r="D359" s="30" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9213,7 +9037,7 @@
       <c r="C360" t="s">
         <v>54</v>
       </c>
-      <c r="D360" s="31" t="s">
+      <c r="D360" s="30" t="s">
         <v>409</v>
       </c>
     </row>
@@ -9221,7 +9045,7 @@
       <c r="C361" t="s">
         <v>54</v>
       </c>
-      <c r="D361" s="31" t="s">
+      <c r="D361" s="30" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9229,7 +9053,7 @@
       <c r="C362" t="s">
         <v>54</v>
       </c>
-      <c r="D362" s="31" t="s">
+      <c r="D362" s="30" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9237,7 +9061,7 @@
       <c r="C363" t="s">
         <v>54</v>
       </c>
-      <c r="D363" s="31" t="s">
+      <c r="D363" s="30" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9245,7 +9069,7 @@
       <c r="C364" t="s">
         <v>54</v>
       </c>
-      <c r="D364" s="31" t="s">
+      <c r="D364" s="30" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9253,7 +9077,7 @@
       <c r="C365" t="s">
         <v>54</v>
       </c>
-      <c r="D365" s="31" t="s">
+      <c r="D365" s="30" t="s">
         <v>414</v>
       </c>
     </row>
@@ -9261,7 +9085,7 @@
       <c r="C366" t="s">
         <v>54</v>
       </c>
-      <c r="D366" s="31" t="s">
+      <c r="D366" s="30" t="s">
         <v>415</v>
       </c>
     </row>
@@ -9269,7 +9093,7 @@
       <c r="C367" t="s">
         <v>54</v>
       </c>
-      <c r="D367" s="31" t="s">
+      <c r="D367" s="30" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9277,7 +9101,7 @@
       <c r="C368" t="s">
         <v>54</v>
       </c>
-      <c r="D368" s="31" t="s">
+      <c r="D368" s="30" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9285,7 +9109,7 @@
       <c r="C369" t="s">
         <v>54</v>
       </c>
-      <c r="D369" s="31" t="s">
+      <c r="D369" s="30" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9293,7 +9117,7 @@
       <c r="C370" t="s">
         <v>54</v>
       </c>
-      <c r="D370" s="31" t="s">
+      <c r="D370" s="30" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9301,7 +9125,7 @@
       <c r="C371" t="s">
         <v>54</v>
       </c>
-      <c r="D371" s="31" t="s">
+      <c r="D371" s="30" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9309,7 +9133,7 @@
       <c r="C372" t="s">
         <v>54</v>
       </c>
-      <c r="D372" s="31" t="s">
+      <c r="D372" s="30" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9317,7 +9141,7 @@
       <c r="C373" t="s">
         <v>54</v>
       </c>
-      <c r="D373" s="31" t="s">
+      <c r="D373" s="30" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9325,7 +9149,7 @@
       <c r="C374" t="s">
         <v>54</v>
       </c>
-      <c r="D374" s="31" t="s">
+      <c r="D374" s="30" t="s">
         <v>423</v>
       </c>
     </row>
@@ -9333,7 +9157,7 @@
       <c r="C375" t="s">
         <v>54</v>
       </c>
-      <c r="D375" s="31" t="s">
+      <c r="D375" s="30" t="s">
         <v>424</v>
       </c>
     </row>
@@ -9341,7 +9165,7 @@
       <c r="C376" t="s">
         <v>54</v>
       </c>
-      <c r="D376" s="31" t="s">
+      <c r="D376" s="30" t="s">
         <v>425</v>
       </c>
     </row>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A5673-A472-4727-911D-C29D2E797D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023C2A11-152F-47B2-9D26-C1036C584CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="475">
   <si>
     <t>Equity</t>
   </si>
@@ -1343,9 +1343,6 @@
     <t>UPDC REAL ESTATE INVESTMENT TRUST</t>
   </si>
   <si>
-    <t>NAS100</t>
-  </si>
-  <si>
     <t>P/L %</t>
   </si>
   <si>
@@ -1485,13 +1482,19 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MIN30DAY</t>
+  </si>
+  <si>
+    <t>MAX30DAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
@@ -1504,8 +1507,9 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="173" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1633,6 +1637,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1752,7 +1765,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1979,6 +1992,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2493,7 +2535,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,7 +2549,7 @@
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="10" max="10" width="26.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" hidden="1" customWidth="1"/>
@@ -2533,8 +2575,12 @@
         <v>20</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>474</v>
+      </c>
       <c r="J1" s="6"/>
       <c r="L1" s="22">
         <v>9672767</v>
@@ -2560,9 +2606,15 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="3"/>
+      <c r="G2" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2" s="121">
+        <v>2014</v>
+      </c>
+      <c r="I2" s="121">
+        <v>2182.5</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2578,7 +2630,7 @@
     <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C3" s="120">
         <v>100</v>
@@ -2588,10 +2640,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="107" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I3" s="107" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>15</v>
@@ -2618,27 +2670,27 @@
       </c>
       <c r="C4" s="26">
         <f>C7+C8</f>
-        <v>1873.63</v>
+        <v>4573.63</v>
       </c>
       <c r="D4" s="106">
         <f>C4/C8-1</f>
-        <v>0.56314292150204803</v>
+        <v>2.8157146075102406</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H4" s="21">
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="I4" s="16">
         <f>AVERAGE(D12:D19)</f>
-        <v>2141.1062500000003</v>
+        <v>2165</v>
       </c>
       <c r="J4" s="7">
         <f>-(H4/I4-1)</f>
-        <v>-1.1187557833713058E-2</v>
+        <v>-6.2355658198614217E-2</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="11" t="s">
@@ -2646,7 +2698,7 @@
       </c>
       <c r="N4" s="26">
         <f>N7+N8</f>
-        <v>6640.6479140000001</v>
+        <v>6513.4737110000005</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2656,7 +2708,7 @@
       </c>
       <c r="S4" s="21">
         <f>H4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="T4" s="16">
         <v>8741.99</v>
@@ -2672,11 +2724,11 @@
       </c>
       <c r="C5" s="19">
         <f>C4-C6</f>
-        <v>1851.98</v>
+        <v>4465.38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="9" t="s">
@@ -2694,7 +2746,7 @@
       </c>
       <c r="N5" s="19">
         <f>N4-N6</f>
-        <v>6556.9479140000003</v>
+        <v>6429.7737110000007</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2717,8 +2769,8 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <f>-C20*100*E6</f>
-        <v>21.65</v>
+        <f>ABS(C20)*100*E6</f>
+        <v>108.25</v>
       </c>
       <c r="D6" s="2">
         <v>285.19</v>
@@ -2734,7 +2786,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="116" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J6" s="116"/>
       <c r="L6" s="2"/>
@@ -2763,7 +2815,7 @@
       </c>
       <c r="C7" s="26">
         <f>H20</f>
-        <v>675</v>
+        <v>3375</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2772,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="I7" s="116"/>
       <c r="J7" s="116"/>
@@ -2782,7 +2834,7 @@
       </c>
       <c r="N7" s="19">
         <f>S12+S13+S20</f>
-        <v>6311.6379139999999</v>
+        <v>6184.4637110000003</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2808,7 +2860,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H8" s="105">
         <v>5</v>
@@ -2837,7 +2889,7 @@
       </c>
       <c r="C9" s="106">
         <f>C5/C6+1</f>
-        <v>86.541801385681296</v>
+        <v>42.250623556581985</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2852,7 +2904,7 @@
       </c>
       <c r="N9" s="25">
         <f>N5/N6+1</f>
-        <v>79.338684755077665</v>
+        <v>77.81927970131423</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2909,7 +2961,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="12"/>
@@ -2939,20 +2991,21 @@
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C12" s="12">
-        <v>-0.01</v>
-      </c>
-      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
         <v>2165</v>
       </c>
       <c r="E12" s="14">
-        <v>2030</v>
+        <f>$H$4</f>
+        <v>2300</v>
       </c>
       <c r="F12" s="14">
         <f>D12-E12</f>
-        <v>135</v>
+        <v>-135</v>
       </c>
       <c r="G12" s="24">
         <f t="shared" ref="G12:G19" si="0">$H$8</f>
@@ -2960,14 +3013,14 @@
       </c>
       <c r="H12" s="19">
         <f>F12*G12*$C$3*-C12</f>
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="I12" s="14">
         <v>32.15</v>
       </c>
-      <c r="J12" s="7">
-        <f>(E12/D12-1)*SIGN(C12)</f>
-        <v>6.2355658198614328E-2</v>
+      <c r="J12" s="122">
+        <f>H12/$C$8</f>
+        <v>0</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="13" t="s">
@@ -2981,11 +3034,11 @@
       </c>
       <c r="P12" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="Q12" s="12">
         <f>O12-P12</f>
-        <v>6756.5300000000007</v>
+        <v>6621.59</v>
       </c>
       <c r="R12" s="24">
         <f>$S$5</f>
@@ -2993,7 +3046,7 @@
       </c>
       <c r="S12" s="14">
         <f>Q12*R12</f>
-        <v>2122.5638994999999</v>
+        <v>2080.1724985000001</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="6"/>
@@ -3001,21 +3054,21 @@
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13" s="12">
         <v>0</v>
       </c>
-      <c r="D13" s="12">
-        <v>2030</v>
+      <c r="D13" s="14">
+        <v>2165</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ref="E13:E19" si="1">$H$4</f>
-        <v>2165.06</v>
+        <f t="shared" ref="D13:E19" si="1">$H$4</f>
+        <v>2300</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" ref="F13:F19" si="2">D13-E13</f>
-        <v>-135.05999999999995</v>
+        <v>-135</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="0"/>
@@ -3025,11 +3078,9 @@
         <f t="shared" ref="H13:H19" si="3">F13*G13*$C$3*-C13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="14">
-        <v>-2.19</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" ref="J13:J19" si="4">(E13/D13-1)*SIGN(C13)</f>
+      <c r="I13" s="14"/>
+      <c r="J13" s="122">
+        <f>H13/$C$8</f>
         <v>0</v>
       </c>
       <c r="L13" s="2"/>
@@ -3044,19 +3095,19 @@
       </c>
       <c r="P13" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="Q13" s="12">
         <f>O13-P13</f>
-        <v>6672.32</v>
+        <v>6537.3799999999992</v>
       </c>
       <c r="R13" s="24">
-        <f t="shared" ref="R13:R20" si="5">$S$5</f>
+        <f t="shared" ref="R13:R20" si="4">$S$5</f>
         <v>0.31414999999999998</v>
       </c>
       <c r="S13" s="14">
         <f>Q13*R13</f>
-        <v>2096.109328</v>
+        <v>2053.7179269999997</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="6"/>
@@ -3064,21 +3115,21 @@
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
       </c>
-      <c r="D14" s="12">
-        <v>2030</v>
+      <c r="D14" s="14">
+        <v>2165</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="1"/>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="2"/>
-        <v>-135.05999999999995</v>
+        <v>-135</v>
       </c>
       <c r="G14" s="24">
         <f t="shared" si="0"/>
@@ -3089,8 +3140,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="14"/>
-      <c r="J14" s="7">
-        <f t="shared" si="4"/>
+      <c r="J14" s="122">
+        <f t="shared" ref="J14:J19" si="5">H14/$C$8</f>
         <v>0</v>
       </c>
       <c r="L14" s="2"/>
@@ -3107,21 +3158,21 @@
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2180.77</v>
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2165</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="1"/>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="2"/>
-        <v>15.710000000000036</v>
+        <v>-135</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="0"/>
@@ -3129,12 +3180,12 @@
       </c>
       <c r="H15" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3375</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="J15" s="122">
+        <f t="shared" si="5"/>
+        <v>2.8157146075102406</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="13"/>
@@ -3150,21 +3201,21 @@
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C16" s="12">
         <v>0</v>
       </c>
-      <c r="D16" s="12">
-        <v>2180.77</v>
+      <c r="D16" s="14">
+        <v>2165</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" si="1"/>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="2"/>
-        <v>15.710000000000036</v>
+        <v>-135</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="0"/>
@@ -3175,8 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="14"/>
-      <c r="J16" s="7">
-        <f t="shared" si="4"/>
+      <c r="J16" s="122">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L16" s="2"/>
@@ -3193,21 +3244,21 @@
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C17" s="12">
         <v>0</v>
       </c>
-      <c r="D17" s="12">
-        <v>2180.77</v>
+      <c r="D17" s="14">
+        <v>2165</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="1"/>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="2"/>
-        <v>15.710000000000036</v>
+        <v>-135</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="0"/>
@@ -3218,8 +3269,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="7">
-        <f t="shared" si="4"/>
+      <c r="J17" s="122">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L17" s="2"/>
@@ -3236,21 +3287,21 @@
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C18" s="12">
         <v>0</v>
       </c>
-      <c r="D18" s="12">
-        <v>2180.77</v>
+      <c r="D18" s="14">
+        <v>2165</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="1"/>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="2"/>
-        <v>15.710000000000036</v>
+        <v>-135</v>
       </c>
       <c r="G18" s="24">
         <f t="shared" si="0"/>
@@ -3261,8 +3312,8 @@
         <v>0</v>
       </c>
       <c r="I18" s="14"/>
-      <c r="J18" s="7">
-        <f t="shared" si="4"/>
+      <c r="J18" s="122">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L18" s="2"/>
@@ -3279,21 +3330,21 @@
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="12">
-        <v>2180.77</v>
+      <c r="D19" s="14">
+        <v>2165</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="1"/>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="2"/>
-        <v>15.710000000000036</v>
+        <v>-135</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="0"/>
@@ -3304,8 +3355,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="14"/>
-      <c r="J19" s="7">
-        <f t="shared" si="4"/>
+      <c r="J19" s="122">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L19" s="2"/>
@@ -3319,53 +3370,54 @@
       <c r="T19" s="3"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="C20" s="14">
+    <row r="20" spans="1:21" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="123" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="125">
         <f>SUM(C12:C19)</f>
-        <v>-0.01</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127">
         <f>SUM(H12:H19)</f>
-        <v>675</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="13" t="s">
+        <v>3375</v>
+      </c>
+      <c r="I20" s="128"/>
+      <c r="J20" s="131">
+        <f>H20/C8</f>
+        <v>2.8157146075102406</v>
+      </c>
+      <c r="M20" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="123">
         <v>-0.1</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="123">
         <v>8827.3700000000008</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="125">
         <f>$H$4</f>
-        <v>2165.06</v>
-      </c>
-      <c r="Q20" s="14">
+        <v>2300</v>
+      </c>
+      <c r="Q20" s="125">
         <f>O20-P20</f>
-        <v>6662.3100000000013</v>
-      </c>
-      <c r="R20" s="24">
-        <f t="shared" si="5"/>
+        <v>6527.3700000000008</v>
+      </c>
+      <c r="R20" s="129">
+        <f t="shared" si="4"/>
         <v>0.31414999999999998</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="125">
         <f>Q20*R20</f>
-        <v>2092.9646865000004</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="6"/>
+        <v>2050.5732855000001</v>
+      </c>
+      <c r="T20" s="130"/>
+      <c r="U20" s="128"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -3482,7 +3534,7 @@
       </c>
       <c r="C26" s="26">
         <f>C29+C30</f>
-        <v>69849.933727500014</v>
+        <v>68458.128832500006</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3505,7 +3557,7 @@
       </c>
       <c r="N26" s="26">
         <f>N29+N30</f>
-        <v>6640.1072900000008</v>
+        <v>6512.8993519999995</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -3530,7 +3582,7 @@
       </c>
       <c r="C27" s="19">
         <f>C26-C28</f>
-        <v>69765.993727500012</v>
+        <v>68374.188832500004</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -3550,7 +3602,7 @@
       </c>
       <c r="N27" s="19">
         <f>N26-N28</f>
-        <v>6559.9372900000008</v>
+        <v>6432.7293519999994</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -3613,7 +3665,7 @@
       </c>
       <c r="C29" s="19">
         <f>SUM(H34:H36)-D29</f>
-        <v>69535.473727500008</v>
+        <v>68143.6688325</v>
       </c>
       <c r="D29" s="19">
         <v>3</v>
@@ -3636,7 +3688,7 @@
       </c>
       <c r="N29" s="19">
         <f>SUM(S34:S36)-O29</f>
-        <v>6318.2272900000007</v>
+        <v>6191.0193519999993</v>
       </c>
       <c r="O29" s="19">
         <v>2.76</v>
@@ -3691,7 +3743,7 @@
       </c>
       <c r="C31" s="25">
         <f>C27/C28+1</f>
-        <v>832.1412166726235</v>
+        <v>815.56026724446042</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3706,7 +3758,7 @@
       </c>
       <c r="N31" s="25">
         <f>N27/N28+1</f>
-        <v>82.825337283273058</v>
+        <v>81.238609854060115</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3801,11 +3853,11 @@
       </c>
       <c r="E34" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F34" s="12">
         <f>D34-E34</f>
-        <v>6755.08</v>
+        <v>6620.1399999999994</v>
       </c>
       <c r="G34" s="17">
         <f>$H$8</f>
@@ -3813,7 +3865,7 @@
       </c>
       <c r="H34" s="14">
         <f>F34*G34</f>
-        <v>33775.4</v>
+        <v>33100.699999999997</v>
       </c>
       <c r="I34" s="14">
         <v>40.61</v>
@@ -3831,18 +3883,18 @@
       </c>
       <c r="P34" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="Q34" s="12">
         <f>O34-P34</f>
-        <v>6756.3700000000008</v>
+        <v>6621.43</v>
       </c>
       <c r="R34" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="S34" s="14">
         <f>Q34*R34</f>
-        <v>2123.1892725000002</v>
+        <v>2080.7843775000001</v>
       </c>
       <c r="T34" s="14">
         <v>40.61</v>
@@ -3862,11 +3914,11 @@
       </c>
       <c r="E35" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F35" s="12">
         <f>D35-E35</f>
-        <v>6732.8000000000011</v>
+        <v>6597.8600000000006</v>
       </c>
       <c r="G35" s="17">
         <f>$H$8</f>
@@ -3874,7 +3926,7 @@
       </c>
       <c r="H35" s="14">
         <f>F35*G35</f>
-        <v>33664.000000000007</v>
+        <v>32989.300000000003</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="6"/>
@@ -3890,18 +3942,18 @@
       </c>
       <c r="P35" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="Q35" s="12">
         <f>O35-P35</f>
-        <v>6684.7100000000009</v>
+        <v>6549.77</v>
       </c>
       <c r="R35" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="S35" s="14">
         <f>Q35*R35</f>
-        <v>2100.6701175000003</v>
+        <v>2058.2652225000002</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="6"/>
@@ -3919,18 +3971,18 @@
       </c>
       <c r="E36" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="F36" s="12">
         <f>D36-E36</f>
-        <v>6679.630000000001</v>
+        <v>6544.6900000000005</v>
       </c>
       <c r="G36" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="H36" s="14">
         <f>F36*G36</f>
-        <v>2099.0737275000001</v>
+        <v>2056.6688325</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="6"/>
@@ -3946,18 +3998,18 @@
       </c>
       <c r="P36" s="14">
         <f>$H$4</f>
-        <v>2165.06</v>
+        <v>2300</v>
       </c>
       <c r="Q36" s="12">
         <f>O36-P36</f>
-        <v>6674.5</v>
+        <v>6539.5599999999995</v>
       </c>
       <c r="R36" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="S36" s="14">
         <f>Q36*R36</f>
-        <v>2097.1279</v>
+        <v>2054.7297519999997</v>
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="6"/>
@@ -4031,18 +4083,18 @@
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" s="76">
         <v>315</v>
@@ -4058,7 +4110,7 @@
     </row>
     <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" s="76">
         <v>315</v>
@@ -4073,7 +4125,7 @@
       </c>
       <c r="L4" s="89"/>
       <c r="M4" s="88" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N4" s="93">
         <v>32.299999999999997</v>
@@ -4081,7 +4133,7 @@
     </row>
     <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" s="76">
         <v>315</v>
@@ -4098,7 +4150,7 @@
     </row>
     <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" s="76">
         <f>204.62+91.69+465</f>
@@ -4116,7 +4168,7 @@
     </row>
     <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" s="77">
         <f>SUM(D3:D6)</f>
@@ -4137,16 +4189,16 @@
     <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F9" s="79"/>
       <c r="G9" s="80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H9" s="81">
         <v>44990</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K9" s="90"/>
       <c r="L9" s="88"/>
@@ -4154,25 +4206,25 @@
     <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F10" s="79"/>
       <c r="G10" s="82" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H10" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="I10" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="I10" s="80" t="s">
-        <v>434</v>
-      </c>
       <c r="J10" s="80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L10" s="88"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F11" s="117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H11" s="83">
         <f>D3</f>
@@ -4190,7 +4242,7 @@
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F12" s="117"/>
       <c r="G12" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H12" s="83">
         <f t="shared" ref="H12:H14" si="2">D4</f>
@@ -4208,7 +4260,7 @@
     <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="F13" s="117"/>
       <c r="G13" s="56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H13" s="83">
         <f t="shared" si="2"/>
@@ -4223,19 +4275,19 @@
         <v>167.25565694393165</v>
       </c>
       <c r="O13" s="96" t="s">
+        <v>458</v>
+      </c>
+      <c r="P13" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="P13" s="96" t="s">
+      <c r="Q13" s="96" t="s">
         <v>460</v>
-      </c>
-      <c r="Q13" s="96" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F14" s="117"/>
       <c r="G14" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H14" s="83">
         <f t="shared" si="2"/>
@@ -4253,7 +4305,7 @@
         <v>9462066</v>
       </c>
       <c r="N14" s="88" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O14" s="90">
         <f>204.62+91.69+333.34</f>
@@ -4272,7 +4324,7 @@
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F15" s="117"/>
       <c r="G15" s="82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H15" s="85">
         <f>SUM(H11:H14)</f>
@@ -4285,7 +4337,7 @@
         <v>906</v>
       </c>
       <c r="N15" s="88" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O15" s="90">
         <f>315.45+10000/32.4</f>
@@ -4303,7 +4355,7 @@
     </row>
     <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="N16" s="88" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O16" s="90">
         <f>314.46+10000/32.4</f>
@@ -4321,10 +4373,10 @@
     </row>
     <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N17" s="88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O17" s="90">
         <f>314.46+10000/32.4</f>
@@ -4342,10 +4394,10 @@
     </row>
     <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N18" s="88" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O18" s="90">
         <f>20000/32.3</f>
@@ -4363,10 +4415,10 @@
     </row>
     <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N19" s="91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O19" s="92">
         <f>SUM(O14:O18)</f>
@@ -4389,21 +4441,21 @@
     <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F20" s="79"/>
       <c r="G20" s="80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H20" s="81">
         <v>44990</v>
       </c>
       <c r="I20" s="80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K20" s="56"/>
       <c r="L20" s="56"/>
       <c r="N20" s="91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O20" s="92">
         <v>2925.4</v>
@@ -4412,30 +4464,30 @@
     <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="79"/>
       <c r="G21" s="82" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H21" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="I21" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="I21" s="80" t="s">
-        <v>434</v>
-      </c>
       <c r="J21" s="80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K21" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="L21" s="80" t="s">
         <v>443</v>
-      </c>
-      <c r="L21" s="80" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F22" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H22" s="83">
         <f>O15</f>
@@ -4458,7 +4510,7 @@
         <v>418.07173952294795</v>
       </c>
       <c r="N22" s="91" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O22" s="92">
         <f>O20-O19</f>
@@ -4468,7 +4520,7 @@
     <row r="23" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F23" s="117"/>
       <c r="G23" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H23" s="83">
         <f>O17</f>
@@ -4494,7 +4546,7 @@
     <row r="24" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F24" s="117"/>
       <c r="G24" s="56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H24" s="83">
         <f>O16</f>
@@ -4520,7 +4572,7 @@
     <row r="25" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F25" s="117"/>
       <c r="G25" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H25" s="83">
         <f>O14</f>
@@ -4546,7 +4598,7 @@
     <row r="26" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F26" s="117"/>
       <c r="G26" s="56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H26" s="83">
         <f>O18</f>
@@ -4571,7 +4623,7 @@
     <row r="27" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F27" s="117"/>
       <c r="G27" s="82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H27" s="85">
         <f>SUM(H22:H26)</f>
@@ -4633,7 +4685,7 @@
         <v>45358</v>
       </c>
       <c r="G4" s="79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="54"/>
@@ -5065,7 +5117,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F18" s="100">
         <f>F17/F5</f>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023C2A11-152F-47B2-9D26-C1036C584CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4BA6F-53F6-49B3-A98E-2A56349BE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -2534,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,11 +2670,11 @@
       </c>
       <c r="C4" s="26">
         <f>C7+C8</f>
-        <v>4573.63</v>
+        <v>473.63000000000011</v>
       </c>
       <c r="D4" s="106">
         <f>C4/C8-1</f>
-        <v>2.8157146075102406</v>
+        <v>-0.60485721198368125</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2682,7 +2682,7 @@
         <v>465</v>
       </c>
       <c r="H4" s="21">
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="I4" s="16">
         <f>AVERAGE(D12:D19)</f>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="J4" s="7">
         <f>-(H4/I4-1)</f>
-        <v>-6.2355658198614217E-2</v>
+        <v>1.3394919168591257E-2</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="11" t="s">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="N4" s="26">
         <f>N7+N8</f>
-        <v>6513.4737110000005</v>
+        <v>6668.035511</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="S4" s="21">
         <f>H4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="T4" s="16">
         <v>8741.99</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C5" s="19">
         <f>C4-C6</f>
-        <v>4465.38</v>
+        <v>365.38000000000011</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="N5" s="19">
         <f>N4-N6</f>
-        <v>6429.7737110000007</v>
+        <v>6584.3355110000002</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C7" s="26">
         <f>H20</f>
-        <v>3375</v>
+        <v>-725</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="N7" s="19">
         <f>S12+S13+S20</f>
-        <v>6184.4637110000003</v>
+        <v>6339.0255109999998</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C9" s="106">
         <f>C5/C6+1</f>
-        <v>42.250623556581985</v>
+        <v>4.3753348729792156</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="N9" s="25">
         <f>N5/N6+1</f>
-        <v>77.81927970131423</v>
+        <v>79.665896188769409</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2994,18 +2994,18 @@
         <v>471</v>
       </c>
       <c r="C12" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D12" s="14">
         <v>2165</v>
       </c>
       <c r="E12" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F12" s="14">
         <f>D12-E12</f>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G12" s="24">
         <f t="shared" ref="G12:G19" si="0">$H$8</f>
@@ -3013,14 +3013,14 @@
       </c>
       <c r="H12" s="19">
         <f>F12*G12*$C$3*-C12</f>
-        <v>0</v>
+        <v>-725</v>
       </c>
       <c r="I12" s="14">
         <v>32.15</v>
       </c>
       <c r="J12" s="122">
         <f>H12/$C$8</f>
-        <v>0</v>
+        <v>-0.60485721198368136</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="13" t="s">
@@ -3034,11 +3034,11 @@
       </c>
       <c r="P12" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="Q12" s="12">
         <f>O12-P12</f>
-        <v>6621.59</v>
+        <v>6785.59</v>
       </c>
       <c r="R12" s="24">
         <f>$S$5</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="S12" s="14">
         <f>Q12*R12</f>
-        <v>2080.1724985000001</v>
+        <v>2131.6930984999999</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="6"/>
@@ -3064,11 +3064,11 @@
       </c>
       <c r="E13" s="14">
         <f t="shared" ref="D13:E19" si="1">$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" ref="F13:F19" si="2">D13-E13</f>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="0"/>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="P13" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="Q13" s="12">
         <f>O13-P13</f>
-        <v>6537.3799999999992</v>
+        <v>6701.3799999999992</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" ref="R13:R20" si="4">$S$5</f>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="S13" s="14">
         <f>Q13*R13</f>
-        <v>2053.7179269999997</v>
+        <v>2105.2385269999995</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="6"/>
@@ -3125,11 +3125,11 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G14" s="24">
         <f t="shared" si="0"/>
@@ -3161,18 +3161,18 @@
         <v>471</v>
       </c>
       <c r="C15" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D15" s="14">
         <v>2165</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="0"/>
@@ -3180,12 +3180,12 @@
       </c>
       <c r="H15" s="19">
         <f t="shared" si="3"/>
-        <v>3375</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="122">
         <f t="shared" si="5"/>
-        <v>2.8157146075102406</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="13"/>
@@ -3211,11 +3211,11 @@
       </c>
       <c r="E16" s="14">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="0"/>
@@ -3254,11 +3254,11 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="0"/>
@@ -3297,11 +3297,11 @@
       </c>
       <c r="E18" s="14">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G18" s="24">
         <f t="shared" si="0"/>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="E19" s="14">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>29</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="0"/>
@@ -3384,12 +3384,12 @@
       <c r="G20" s="126"/>
       <c r="H20" s="127">
         <f>SUM(H12:H19)</f>
-        <v>3375</v>
+        <v>-725</v>
       </c>
       <c r="I20" s="128"/>
       <c r="J20" s="131">
         <f>H20/C8</f>
-        <v>2.8157146075102406</v>
+        <v>-0.60485721198368136</v>
       </c>
       <c r="M20" s="123" t="s">
         <v>16</v>
@@ -3402,11 +3402,11 @@
       </c>
       <c r="P20" s="125">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="Q20" s="125">
         <f>O20-P20</f>
-        <v>6527.3700000000008</v>
+        <v>6691.3700000000008</v>
       </c>
       <c r="R20" s="129">
         <f t="shared" si="4"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="S20" s="125">
         <f>Q20*R20</f>
-        <v>2050.5732855000001</v>
+        <v>2102.0938854999999</v>
       </c>
       <c r="T20" s="130"/>
       <c r="U20" s="128"/>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C26" s="26">
         <f>C29+C30</f>
-        <v>68458.128832500006</v>
+        <v>70149.665832500003</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="N26" s="26">
         <f>N29+N30</f>
-        <v>6512.8993519999995</v>
+        <v>6667.502152</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C27" s="19">
         <f>C26-C28</f>
-        <v>68374.188832500004</v>
+        <v>70065.7258325</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="N27" s="19">
         <f>N26-N28</f>
-        <v>6432.7293519999994</v>
+        <v>6587.332152</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="C29" s="19">
         <f>SUM(H34:H36)-D29</f>
-        <v>68143.6688325</v>
+        <v>69835.205832499996</v>
       </c>
       <c r="D29" s="19">
         <v>3</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="N29" s="19">
         <f>SUM(S34:S36)-O29</f>
-        <v>6191.0193519999993</v>
+        <v>6345.6221519999999</v>
       </c>
       <c r="O29" s="19">
         <v>2.76</v>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="C31" s="25">
         <f>C27/C28+1</f>
-        <v>815.56026724446042</v>
+        <v>835.71200658208249</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="N31" s="25">
         <f>N27/N28+1</f>
-        <v>81.238609854060115</v>
+        <v>83.167046925283771</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3853,11 +3853,11 @@
       </c>
       <c r="E34" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F34" s="12">
         <f>D34-E34</f>
-        <v>6620.1399999999994</v>
+        <v>6784.1399999999994</v>
       </c>
       <c r="G34" s="17">
         <f>$H$8</f>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="H34" s="14">
         <f>F34*G34</f>
-        <v>33100.699999999997</v>
+        <v>33920.699999999997</v>
       </c>
       <c r="I34" s="14">
         <v>40.61</v>
@@ -3883,18 +3883,18 @@
       </c>
       <c r="P34" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="Q34" s="12">
         <f>O34-P34</f>
-        <v>6621.43</v>
+        <v>6785.43</v>
       </c>
       <c r="R34" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="S34" s="14">
         <f>Q34*R34</f>
-        <v>2080.7843775000001</v>
+        <v>2132.3213774999999</v>
       </c>
       <c r="T34" s="14">
         <v>40.61</v>
@@ -3914,11 +3914,11 @@
       </c>
       <c r="E35" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F35" s="12">
         <f>D35-E35</f>
-        <v>6597.8600000000006</v>
+        <v>6761.8600000000006</v>
       </c>
       <c r="G35" s="17">
         <f>$H$8</f>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="H35" s="14">
         <f>F35*G35</f>
-        <v>32989.300000000003</v>
+        <v>33809.300000000003</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="6"/>
@@ -3942,18 +3942,18 @@
       </c>
       <c r="P35" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="Q35" s="12">
         <f>O35-P35</f>
-        <v>6549.77</v>
+        <v>6713.77</v>
       </c>
       <c r="R35" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="S35" s="14">
         <f>Q35*R35</f>
-        <v>2058.2652225000002</v>
+        <v>2109.8022225</v>
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="6"/>
@@ -3971,18 +3971,18 @@
       </c>
       <c r="E36" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="F36" s="12">
         <f>D36-E36</f>
-        <v>6544.6900000000005</v>
+        <v>6708.6900000000005</v>
       </c>
       <c r="G36" s="17">
         <v>0.31424999999999997</v>
       </c>
       <c r="H36" s="14">
         <f>F36*G36</f>
-        <v>2056.6688325</v>
+        <v>2108.2058324999998</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="6"/>
@@ -3998,18 +3998,18 @@
       </c>
       <c r="P36" s="14">
         <f>$H$4</f>
-        <v>2300</v>
+        <v>2136</v>
       </c>
       <c r="Q36" s="12">
         <f>O36-P36</f>
-        <v>6539.5599999999995</v>
+        <v>6703.5599999999995</v>
       </c>
       <c r="R36" s="17">
         <v>0.31419999999999998</v>
       </c>
       <c r="S36" s="14">
         <f>Q36*R36</f>
-        <v>2054.7297519999997</v>
+        <v>2106.2585519999998</v>
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="6"/>
@@ -4656,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL_FILES\CODING\GitHub\MarkovMarkowitz\XLS-CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aulku\Documents\GitHub\MarkovMarkowitzV2\XLS-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4BA6F-53F6-49B3-A98E-2A56349BE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Ferah Ünlü" sheetId="7" r:id="rId5"/>
     <sheet name="Market Data" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,14 +40,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="478">
   <si>
     <t>Equity</t>
   </si>
@@ -1488,12 +1487,21 @@
   </si>
   <si>
     <t>MAX30DAY</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>ALIŞ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1765,7 +1773,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1978,18 +1986,6 @@
     <xf numFmtId="170" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,12 +2018,30 @@
     <xf numFmtId="174" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ParaBirimi" xfId="3" builtinId="4"/>
-    <cellStyle name="Virgül" xfId="2" builtinId="3"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2531,39 +2545,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" hidden="1" customWidth="1"/>
     <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="22">
         <v>9462066</v>
       </c>
@@ -2599,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2609,10 +2623,10 @@
       <c r="G2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="H2" s="121">
+      <c r="H2" s="117">
         <v>2014</v>
       </c>
-      <c r="I2" s="121">
+      <c r="I2" s="117">
         <v>2182.5</v>
       </c>
       <c r="J2" s="6"/>
@@ -2627,12 +2641,12 @@
       <c r="T2" s="3"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C3" s="120">
+      <c r="C3" s="116">
         <v>100</v>
       </c>
       <c r="D3" s="2"/>
@@ -2663,7 +2677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
         <v>0</v>
@@ -2717,7 +2731,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
         <v>1</v>
@@ -2763,7 +2777,7 @@
       </c>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
         <v>2</v>
@@ -2785,10 +2799,10 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="116" t="s">
+      <c r="I6" s="128" t="s">
         <v>466</v>
       </c>
-      <c r="J6" s="116"/>
+      <c r="J6" s="128"/>
       <c r="L6" s="2"/>
       <c r="M6" s="11" t="s">
         <v>2</v>
@@ -2808,7 +2822,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
         <v>3</v>
@@ -2826,8 +2840,8 @@
       <c r="H7" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
       <c r="L7" s="2"/>
       <c r="M7" s="11" t="s">
         <v>3</v>
@@ -2848,7 +2862,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -2865,8 +2879,8 @@
       <c r="H8" s="105">
         <v>5</v>
       </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
       <c r="L8" s="2"/>
       <c r="M8" s="11" t="s">
         <v>4</v>
@@ -2882,7 +2896,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
         <v>5</v>
@@ -2914,7 +2928,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2936,7 +2950,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
@@ -2988,7 +3002,7 @@
       </c>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
         <v>471</v>
@@ -3018,7 +3032,7 @@
       <c r="I12" s="14">
         <v>32.15</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="118">
         <f>H12/$C$8</f>
         <v>-0.60485721198368136</v>
       </c>
@@ -3051,7 +3065,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="13" t="s">
         <v>471</v>
@@ -3063,7 +3077,7 @@
         <v>2165</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ref="D13:E19" si="1">$H$4</f>
+        <f t="shared" ref="E13:E19" si="1">$H$4</f>
         <v>2136</v>
       </c>
       <c r="F13" s="14">
@@ -3079,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="14"/>
-      <c r="J13" s="122">
+      <c r="J13" s="118">
         <f>H13/$C$8</f>
         <v>0</v>
       </c>
@@ -3112,7 +3126,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="13" t="s">
         <v>471</v>
@@ -3140,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="14"/>
-      <c r="J14" s="122">
+      <c r="J14" s="118">
         <f t="shared" ref="J14:J19" si="5">H14/$C$8</f>
         <v>0</v>
       </c>
@@ -3155,7 +3169,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="13" t="s">
         <v>471</v>
@@ -3183,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="122">
+      <c r="J15" s="118">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3198,7 +3212,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="13" t="s">
         <v>471</v>
@@ -3226,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="14"/>
-      <c r="J16" s="122">
+      <c r="J16" s="118">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3241,7 +3255,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="13" t="s">
         <v>471</v>
@@ -3269,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="122">
+      <c r="J17" s="118">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3284,7 +3298,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
         <v>471</v>
@@ -3312,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="14"/>
-      <c r="J18" s="122">
+      <c r="J18" s="118">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3327,7 +3341,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
         <v>471</v>
@@ -3355,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="14"/>
-      <c r="J19" s="122">
+      <c r="J19" s="118">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3370,56 +3384,56 @@
       <c r="T19" s="3"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="123" t="s">
+    <row r="20" spans="1:21" s="120" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="119" t="s">
         <v>472</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20" s="121">
         <f>SUM(C12:C19)</f>
         <v>0.05</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127">
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123">
         <f>SUM(H12:H19)</f>
         <v>-725</v>
       </c>
-      <c r="I20" s="128"/>
-      <c r="J20" s="131">
+      <c r="I20" s="124"/>
+      <c r="J20" s="127">
         <f>H20/C8</f>
         <v>-0.60485721198368136</v>
       </c>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="123">
+      <c r="N20" s="119">
         <v>-0.1</v>
       </c>
-      <c r="O20" s="123">
+      <c r="O20" s="119">
         <v>8827.3700000000008</v>
       </c>
-      <c r="P20" s="125">
+      <c r="P20" s="121">
         <f>$H$4</f>
         <v>2136</v>
       </c>
-      <c r="Q20" s="125">
+      <c r="Q20" s="121">
         <f>O20-P20</f>
         <v>6691.3700000000008</v>
       </c>
-      <c r="R20" s="129">
+      <c r="R20" s="125">
         <f t="shared" si="4"/>
         <v>0.31414999999999998</v>
       </c>
-      <c r="S20" s="125">
+      <c r="S20" s="121">
         <f>Q20*R20</f>
         <v>2102.0938854999999</v>
       </c>
-      <c r="T20" s="130"/>
-      <c r="U20" s="128"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T20" s="126"/>
+      <c r="U20" s="124"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3441,7 +3455,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="23" spans="1:21" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>9675887</v>
       </c>
@@ -3475,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3497,7 +3511,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="6"/>
     </row>
-    <row r="25" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3527,7 +3541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="11" t="s">
         <v>0</v>
@@ -3575,7 +3589,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="11" t="s">
         <v>1</v>
@@ -3617,7 +3631,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="11" t="s">
         <v>2</v>
@@ -3658,7 +3672,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="6"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -3706,7 +3720,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="6"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="11" t="s">
         <v>4</v>
@@ -3736,7 +3750,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="6"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="11" t="s">
         <v>5</v>
@@ -3768,7 +3782,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="6"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3790,7 +3804,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="6"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13" t="s">
@@ -3840,7 +3854,7 @@
       </c>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="13" t="s">
         <v>16</v>
@@ -3901,7 +3915,7 @@
       </c>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="13" t="s">
         <v>16</v>
@@ -3958,7 +3972,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="13" t="s">
         <v>16</v>
@@ -4014,7 +4028,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4036,10 +4050,66 @@
       <c r="T37" s="3"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>476</v>
+      </c>
+      <c r="D43" s="132">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E43" s="133">
+        <f>E44*(1+$D$43)</f>
+        <v>18451.8</v>
+      </c>
+      <c r="F43" s="133">
+        <f>F44*(1+$D$43)</f>
+        <v>18411.610049999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D44" s="132">
+        <v>0</v>
+      </c>
+      <c r="E44" s="133">
+        <v>18360</v>
+      </c>
+      <c r="F44">
+        <v>18320.009999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>475</v>
+      </c>
+      <c r="D45" s="132">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E45" s="133">
+        <f>E44*(1+$D$45)</f>
+        <v>18268.2</v>
+      </c>
+      <c r="F45" s="133">
+        <f>F44*(1+$D$45)</f>
+        <v>18228.409949999997</v>
+      </c>
+      <c r="G45">
+        <v>18387</v>
+      </c>
+      <c r="H45" s="134">
+        <f>G45/E44-1</f>
+        <v>1.4705882352941124E-3</v>
+      </c>
+      <c r="I45" s="135">
+        <v>11.2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I6:J8"/>
@@ -4051,37 +4121,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F1" s="75">
         <f ca="1">TODAY()</f>
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>432</v>
       </c>
@@ -4092,7 +4162,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>427</v>
       </c>
@@ -4108,7 +4178,7 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>428</v>
       </c>
@@ -4131,7 +4201,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>429</v>
       </c>
@@ -4148,7 +4218,7 @@
       </c>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>430</v>
       </c>
@@ -4166,7 +4236,7 @@
       </c>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>431</v>
       </c>
@@ -4183,10 +4253,10 @@
       </c>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F9" s="79"/>
       <c r="G9" s="80" t="s">
         <v>435</v>
@@ -4203,7 +4273,7 @@
       <c r="K9" s="90"/>
       <c r="L9" s="88"/>
     </row>
-    <row r="10" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F10" s="79"/>
       <c r="G10" s="82" t="s">
         <v>437</v>
@@ -4219,8 +4289,8 @@
       </c>
       <c r="L10" s="88"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="117" t="s">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="F11" s="129" t="s">
         <v>438</v>
       </c>
       <c r="G11" s="56" t="s">
@@ -4239,8 +4309,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F12" s="117"/>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="F12" s="129"/>
       <c r="G12" s="56" t="s">
         <v>428</v>
       </c>
@@ -4257,8 +4327,8 @@
         <v>167.25565694393165</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F13" s="117"/>
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="F13" s="129"/>
       <c r="G13" s="56" t="s">
         <v>429</v>
       </c>
@@ -4284,8 +4354,8 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F14" s="117"/>
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F14" s="129"/>
       <c r="G14" s="56" t="s">
         <v>430</v>
       </c>
@@ -4321,8 +4391,8 @@
       </c>
       <c r="S14" s="90"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F15" s="117"/>
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F15" s="129"/>
       <c r="G15" s="82" t="s">
         <v>431</v>
       </c>
@@ -4353,7 +4423,7 @@
       </c>
       <c r="S15" s="90"/>
     </row>
-    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="N16" s="88" t="s">
         <v>453</v>
       </c>
@@ -4371,7 +4441,7 @@
       </c>
       <c r="S16" s="90"/>
     </row>
-    <row r="17" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G17" t="s">
         <v>449</v>
       </c>
@@ -4392,7 +4462,7 @@
       </c>
       <c r="S17" s="90"/>
     </row>
-    <row r="18" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G18" t="s">
         <v>445</v>
       </c>
@@ -4413,7 +4483,7 @@
       </c>
       <c r="S18" s="90"/>
     </row>
-    <row r="19" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>448</v>
       </c>
@@ -4438,7 +4508,7 @@
         <v>353.36200000000002</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F20" s="79"/>
       <c r="G20" s="80" t="s">
         <v>435</v>
@@ -4461,7 +4531,7 @@
         <v>2925.4</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F21" s="79"/>
       <c r="G21" s="82" t="s">
         <v>437</v>
@@ -4482,8 +4552,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="22" spans="6:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F22" s="117" t="s">
+    <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F22" s="129" t="s">
         <v>444</v>
       </c>
       <c r="G22" s="56" t="s">
@@ -4517,8 +4587,8 @@
         <v>-193.74097236555463</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="117"/>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F23" s="129"/>
       <c r="G23" s="56" t="s">
         <v>428</v>
       </c>
@@ -4543,8 +4613,8 @@
         <v>417.14323195446707</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="117"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F24" s="129"/>
       <c r="G24" s="56" t="s">
         <v>429</v>
       </c>
@@ -4569,8 +4639,8 @@
         <v>417.14323195446707</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F25" s="117"/>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F25" s="129"/>
       <c r="G25" s="56" t="s">
         <v>430</v>
       </c>
@@ -4595,8 +4665,8 @@
         <v>186.30716324991596</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F26" s="117"/>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F26" s="129"/>
       <c r="G26" s="56" t="s">
         <v>441</v>
       </c>
@@ -4620,8 +4690,8 @@
         <v>580.73463331820165</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F27" s="117"/>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F27" s="129"/>
       <c r="G27" s="82" t="s">
         <v>431</v>
       </c>
@@ -4653,30 +4723,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="29" customWidth="1"/>
     <col min="6" max="6" width="16" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="29" customWidth="1"/>
     <col min="9" max="9" width="13" style="29" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="60"/>
       <c r="C4" s="56"/>
       <c r="D4" s="54"/>
@@ -4691,14 +4761,14 @@
       <c r="I4" s="54"/>
       <c r="J4" s="65">
         <f ca="1">L5</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="K4" s="55"/>
       <c r="L4" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
@@ -4724,15 +4794,15 @@
       </c>
       <c r="L5" s="64">
         <f ca="1">TODAY()</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="118" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="119"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
@@ -4744,7 +4814,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
@@ -4758,7 +4828,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
         <v>41</v>
       </c>
@@ -4774,7 +4844,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="40" t="s">
         <v>25</v>
@@ -4808,7 +4878,7 @@
       </c>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="66" t="s">
         <v>29</v>
       </c>
@@ -4834,7 +4904,7 @@
       </c>
       <c r="I10" s="64">
         <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J10" s="69">
         <f t="shared" ref="J10:J15" si="3">C10*H10</f>
@@ -4849,7 +4919,7 @@
         <v>6.523532402960619E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>30</v>
       </c>
@@ -4875,7 +4945,7 @@
       </c>
       <c r="I11" s="64">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J11" s="69">
         <f>C11*H11</f>
@@ -4890,7 +4960,7 @@
         <v>2.7623098391706291E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="66" t="s">
         <v>27</v>
       </c>
@@ -4916,7 +4986,7 @@
       </c>
       <c r="I12" s="64">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J12" s="69">
         <f t="shared" si="3"/>
@@ -4931,7 +5001,7 @@
         <v>3.0257246630579271E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="108" t="s">
         <v>31</v>
       </c>
@@ -4957,7 +5027,7 @@
       </c>
       <c r="I13" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J13" s="112">
         <f t="shared" si="3"/>
@@ -4972,7 +5042,7 @@
         <v>3.0101110864799496E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="108" t="s">
         <v>26</v>
       </c>
@@ -4998,7 +5068,7 @@
       </c>
       <c r="I14" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J14" s="112">
         <f t="shared" si="3"/>
@@ -5013,7 +5083,7 @@
         <v>5.7972417370452112E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="108" t="s">
         <v>50</v>
       </c>
@@ -5039,7 +5109,7 @@
       </c>
       <c r="I15" s="111">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J15" s="112">
         <f t="shared" si="3"/>
@@ -5054,7 +5124,7 @@
         <v>2.597700606222908E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="66" t="s">
         <v>52</v>
       </c>
@@ -5083,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
@@ -5112,7 +5182,7 @@
       </c>
       <c r="M17" s="31"/>
     </row>
-    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="35"/>
@@ -5140,7 +5210,7 @@
       </c>
       <c r="M18" s="31"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="60"/>
       <c r="C19" s="56"/>
       <c r="D19" s="54"/>
@@ -5152,7 +5222,7 @@
       </c>
       <c r="I19" s="51">
         <f ca="1">$L$5</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J19" s="52">
         <f>J17</f>
@@ -5167,7 +5237,7 @@
         <v>4.5122409404476059E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="60"/>
       <c r="C20" s="56"/>
       <c r="D20" s="54"/>
@@ -5185,7 +5255,7 @@
       </c>
       <c r="L20" s="56"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G24" s="73"/>
     </row>
   </sheetData>
@@ -5198,28 +5268,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="29" customWidth="1"/>
     <col min="8" max="8" width="13" style="29" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="56"/>
       <c r="C4" s="54"/>
@@ -5232,11 +5302,11 @@
       <c r="H4" s="54"/>
       <c r="I4" s="65">
         <f ca="1">K7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -5258,11 +5328,11 @@
       <c r="J5" s="55"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -5276,7 +5346,7 @@
       </c>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
@@ -5289,11 +5359,11 @@
       <c r="J7" s="37"/>
       <c r="K7" s="64">
         <f ca="1">TODAY()</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>41</v>
       </c>
@@ -5309,7 +5379,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="40" t="s">
         <v>25</v>
@@ -5343,7 +5413,7 @@
       </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>29</v>
       </c>
@@ -5370,7 +5440,7 @@
       </c>
       <c r="H10" s="38">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I10" s="101">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
@@ -5386,7 +5456,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
@@ -5413,7 +5483,7 @@
       </c>
       <c r="H11" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I11" s="101">
         <f>B11*G11</f>
@@ -5429,7 +5499,7 @@
       </c>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>27</v>
       </c>
@@ -5456,7 +5526,7 @@
       </c>
       <c r="H12" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I12" s="101">
         <f t="shared" si="3"/>
@@ -5472,7 +5542,7 @@
       </c>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
@@ -5499,7 +5569,7 @@
       </c>
       <c r="H13" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I13" s="101">
         <f t="shared" si="3"/>
@@ -5515,7 +5585,7 @@
       </c>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>26</v>
       </c>
@@ -5542,7 +5612,7 @@
       </c>
       <c r="H14" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I14" s="101">
         <f t="shared" si="3"/>
@@ -5558,7 +5628,7 @@
       </c>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>32</v>
       </c>
@@ -5584,7 +5654,7 @@
       </c>
       <c r="H15" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I15" s="101">
         <f t="shared" si="3"/>
@@ -5600,7 +5670,7 @@
       </c>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
@@ -5614,7 +5684,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
@@ -5643,7 +5713,7 @@
       </c>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
@@ -5657,7 +5727,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>48</v>
       </c>
@@ -5674,7 +5744,7 @@
       <c r="K19" s="34"/>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>40</v>
       </c>
@@ -5700,7 +5770,7 @@
       </c>
       <c r="H20" s="38">
         <f ca="1">$K$7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I20" s="50">
         <f>B20*G20</f>
@@ -5716,7 +5786,7 @@
       </c>
       <c r="L20" s="31"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>45</v>
       </c>
@@ -5743,7 +5813,7 @@
       </c>
       <c r="H21" s="38">
         <f ca="1">$K$7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I21" s="102">
         <f>I20*$I$5</f>
@@ -5759,7 +5829,7 @@
       </c>
       <c r="L21" s="31"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="60"/>
       <c r="B22" s="56"/>
       <c r="C22" s="54"/>
@@ -5772,7 +5842,7 @@
       <c r="J22" s="55"/>
       <c r="K22" s="56"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="60"/>
       <c r="B23" s="56"/>
       <c r="C23" s="54"/>
@@ -5784,7 +5854,7 @@
       </c>
       <c r="H23" s="51">
         <f ca="1">$K$7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I23" s="102">
         <f>I21+I17</f>
@@ -5799,7 +5869,7 @@
         <v>5.1628664118827779E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="56"/>
       <c r="C24" s="54"/>
@@ -5838,28 +5908,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="29" customWidth="1"/>
     <col min="8" max="8" width="13" style="29" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="56"/>
       <c r="C4" s="54"/>
@@ -5872,11 +5942,11 @@
       <c r="H4" s="54"/>
       <c r="I4" s="65">
         <f ca="1">K7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -5898,11 +5968,11 @@
       <c r="J5" s="55"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -5916,7 +5986,7 @@
       </c>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
@@ -5929,11 +5999,11 @@
       <c r="J7" s="37"/>
       <c r="K7" s="64">
         <f ca="1">TODAY()</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>41</v>
       </c>
@@ -5949,7 +6019,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="40" t="s">
         <v>25</v>
@@ -5983,7 +6053,7 @@
       </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>29</v>
       </c>
@@ -6010,7 +6080,7 @@
       </c>
       <c r="H10" s="38">
         <f t="shared" ref="H10:H12" ca="1" si="1">$K$7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I10" s="101">
         <f t="shared" ref="I10:I12" si="2">B10*G10</f>
@@ -6026,7 +6096,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>27</v>
       </c>
@@ -6053,7 +6123,7 @@
       </c>
       <c r="H11" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I11" s="101">
         <f t="shared" si="2"/>
@@ -6069,7 +6139,7 @@
       </c>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>31</v>
       </c>
@@ -6096,7 +6166,7 @@
       </c>
       <c r="H12" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I12" s="101">
         <f t="shared" si="2"/>
@@ -6112,7 +6182,7 @@
       </c>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="34"/>
       <c r="C13" s="35"/>
@@ -6126,7 +6196,7 @@
       <c r="K13" s="45"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
@@ -6155,7 +6225,7 @@
       </c>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="35"/>
@@ -6169,7 +6239,7 @@
       <c r="K15" s="49"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
       <c r="B16" s="56"/>
       <c r="C16" s="54"/>
@@ -6182,7 +6252,7 @@
       <c r="J16" s="55"/>
       <c r="K16" s="56"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="60"/>
       <c r="B17" s="56"/>
       <c r="C17" s="54"/>
@@ -6194,7 +6264,7 @@
       </c>
       <c r="H17" s="51">
         <f ca="1">$K$7</f>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="I17" s="102">
         <f>I14</f>
@@ -6209,7 +6279,7 @@
         <v>3.7445442852825285E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
       <c r="B18" s="56"/>
       <c r="C18" s="54"/>
@@ -6236,20 +6306,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:XFD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6257,7 +6327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -6265,7 +6335,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>56</v>
       </c>
@@ -6273,7 +6343,7 @@
         <v>5120.71</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -6281,17 +6351,17 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>60</v>
       </c>
@@ -6299,12 +6369,12 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>62</v>
       </c>
@@ -6312,7 +6382,7 @@
         <v>17815</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -6320,7 +6390,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -6328,7 +6398,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -6336,7 +6406,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -6344,7 +6414,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>67</v>
       </c>
@@ -6352,7 +6422,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -6360,7 +6430,7 @@
         <v>9155</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>68</v>
       </c>
@@ -6368,7 +6438,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -6376,7 +6446,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>70</v>
       </c>
@@ -6384,7 +6454,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -6392,7 +6462,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>72</v>
       </c>
@@ -6400,7 +6470,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>73</v>
       </c>
@@ -6408,7 +6478,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>74</v>
       </c>
@@ -6416,7 +6486,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>75</v>
       </c>
@@ -6424,7 +6494,7 @@
         <v>127071</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>76</v>
       </c>
@@ -6432,7 +6502,7 @@
         <v>54936</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>77</v>
       </c>
@@ -6440,7 +6510,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -6448,7 +6518,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>79</v>
       </c>
@@ -6456,7 +6526,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>80</v>
       </c>
@@ -6464,7 +6534,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>81</v>
       </c>
@@ -6472,7 +6542,7 @@
         <v>74119</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>82</v>
       </c>
@@ -6480,7 +6550,7 @@
         <v>19785</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>83</v>
       </c>
@@ -6488,12 +6558,12 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>85</v>
       </c>
@@ -6501,7 +6571,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>86</v>
       </c>
@@ -6509,7 +6579,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>87</v>
       </c>
@@ -6517,7 +6587,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>88</v>
       </c>
@@ -6525,7 +6595,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -6533,7 +6603,7 @@
         <v>73718</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -6541,7 +6611,7 @@
         <v>67298</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>91</v>
       </c>
@@ -6549,7 +6619,7 @@
         <v>32920</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>92</v>
       </c>
@@ -6557,7 +6627,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>93</v>
       </c>
@@ -6565,7 +6635,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -6573,7 +6643,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>95</v>
       </c>
@@ -6581,7 +6651,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>96</v>
       </c>
@@ -6589,7 +6659,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>97</v>
       </c>
@@ -6597,7 +6667,7 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>98</v>
       </c>
@@ -6605,7 +6675,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -6613,7 +6683,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -6621,7 +6691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -6629,7 +6699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6637,7 +6707,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -6645,7 +6715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -6653,7 +6723,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -6661,7 +6731,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -6669,7 +6739,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6677,7 +6747,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -6685,7 +6755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -6693,7 +6763,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -6701,7 +6771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -6709,7 +6779,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6717,7 +6787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -6725,7 +6795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -6733,7 +6803,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -6741,7 +6811,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -6749,7 +6819,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6757,7 +6827,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -6765,7 +6835,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -6773,7 +6843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -6781,7 +6851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -6789,7 +6859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -6797,7 +6867,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>54</v>
       </c>
@@ -6805,7 +6875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -6813,7 +6883,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -6821,7 +6891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -6829,7 +6899,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -6837,7 +6907,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6845,7 +6915,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>54</v>
       </c>
@@ -6853,7 +6923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -6861,7 +6931,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>54</v>
       </c>
@@ -6869,7 +6939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -6877,7 +6947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -6885,7 +6955,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -6893,7 +6963,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -6901,7 +6971,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>54</v>
       </c>
@@ -6909,7 +6979,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>54</v>
       </c>
@@ -6917,7 +6987,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -6925,7 +6995,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -6933,7 +7003,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>54</v>
       </c>
@@ -6941,7 +7011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -6949,7 +7019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>54</v>
       </c>
@@ -6957,7 +7027,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>54</v>
       </c>
@@ -6965,7 +7035,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -6973,7 +7043,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -6981,7 +7051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -6989,7 +7059,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -6997,7 +7067,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -7005,7 +7075,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>54</v>
       </c>
@@ -7013,7 +7083,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -7021,7 +7091,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>54</v>
       </c>
@@ -7029,7 +7099,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>54</v>
       </c>
@@ -7037,7 +7107,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>54</v>
       </c>
@@ -7045,7 +7115,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>54</v>
       </c>
@@ -7053,7 +7123,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -7061,7 +7131,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -7069,7 +7139,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -7077,7 +7147,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>54</v>
       </c>
@@ -7085,7 +7155,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>54</v>
       </c>
@@ -7093,7 +7163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>54</v>
       </c>
@@ -7101,7 +7171,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>54</v>
       </c>
@@ -7109,7 +7179,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>54</v>
       </c>
@@ -7117,7 +7187,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>54</v>
       </c>
@@ -7125,7 +7195,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>54</v>
       </c>
@@ -7133,7 +7203,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>54</v>
       </c>
@@ -7141,7 +7211,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>54</v>
       </c>
@@ -7149,7 +7219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>54</v>
       </c>
@@ -7157,7 +7227,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>54</v>
       </c>
@@ -7165,7 +7235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>54</v>
       </c>
@@ -7173,7 +7243,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>54</v>
       </c>
@@ -7181,7 +7251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>54</v>
       </c>
@@ -7189,7 +7259,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>54</v>
       </c>
@@ -7197,7 +7267,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>54</v>
       </c>
@@ -7205,7 +7275,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>54</v>
       </c>
@@ -7213,7 +7283,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>54</v>
       </c>
@@ -7221,7 +7291,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>54</v>
       </c>
@@ -7229,7 +7299,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -7237,7 +7307,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>54</v>
       </c>
@@ -7245,7 +7315,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>54</v>
       </c>
@@ -7253,7 +7323,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>54</v>
       </c>
@@ -7261,7 +7331,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>54</v>
       </c>
@@ -7269,7 +7339,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>54</v>
       </c>
@@ -7277,7 +7347,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>54</v>
       </c>
@@ -7285,7 +7355,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>54</v>
       </c>
@@ -7293,7 +7363,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>54</v>
       </c>
@@ -7301,7 +7371,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>54</v>
       </c>
@@ -7309,7 +7379,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>54</v>
       </c>
@@ -7317,7 +7387,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>54</v>
       </c>
@@ -7325,7 +7395,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>54</v>
       </c>
@@ -7333,7 +7403,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>54</v>
       </c>
@@ -7341,7 +7411,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>54</v>
       </c>
@@ -7349,7 +7419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>54</v>
       </c>
@@ -7357,7 +7427,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>54</v>
       </c>
@@ -7365,7 +7435,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>54</v>
       </c>
@@ -7373,7 +7443,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>54</v>
       </c>
@@ -7381,7 +7451,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>54</v>
       </c>
@@ -7389,7 +7459,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>54</v>
       </c>
@@ -7397,7 +7467,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -7405,7 +7475,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -7413,7 +7483,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>54</v>
       </c>
@@ -7421,7 +7491,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>54</v>
       </c>
@@ -7429,7 +7499,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>54</v>
       </c>
@@ -7437,7 +7507,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>54</v>
       </c>
@@ -7445,7 +7515,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>54</v>
       </c>
@@ -7453,7 +7523,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>54</v>
       </c>
@@ -7461,7 +7531,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>54</v>
       </c>
@@ -7469,7 +7539,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>54</v>
       </c>
@@ -7477,7 +7547,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>54</v>
       </c>
@@ -7485,7 +7555,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>54</v>
       </c>
@@ -7493,7 +7563,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>54</v>
       </c>
@@ -7501,7 +7571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>54</v>
       </c>
@@ -7509,7 +7579,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -7517,7 +7587,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>54</v>
       </c>
@@ -7525,7 +7595,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>54</v>
       </c>
@@ -7533,7 +7603,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>54</v>
       </c>
@@ -7541,7 +7611,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>54</v>
       </c>
@@ -7549,7 +7619,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>54</v>
       </c>
@@ -7557,7 +7627,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>54</v>
       </c>
@@ -7565,7 +7635,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>54</v>
       </c>
@@ -7573,7 +7643,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -7581,7 +7651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>54</v>
       </c>
@@ -7589,7 +7659,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -7597,7 +7667,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>54</v>
       </c>
@@ -7605,7 +7675,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>54</v>
       </c>
@@ -7613,7 +7683,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>54</v>
       </c>
@@ -7621,7 +7691,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
         <v>54</v>
       </c>
@@ -7629,7 +7699,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>54</v>
       </c>
@@ -7637,7 +7707,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>54</v>
       </c>
@@ -7645,7 +7715,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>54</v>
       </c>
@@ -7653,7 +7723,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>54</v>
       </c>
@@ -7661,7 +7731,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>54</v>
       </c>
@@ -7669,7 +7739,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>54</v>
       </c>
@@ -7677,7 +7747,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>54</v>
       </c>
@@ -7685,7 +7755,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>54</v>
       </c>
@@ -7693,7 +7763,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>54</v>
       </c>
@@ -7701,7 +7771,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>54</v>
       </c>
@@ -7709,7 +7779,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>54</v>
       </c>
@@ -7717,7 +7787,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>54</v>
       </c>
@@ -7725,7 +7795,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
         <v>54</v>
       </c>
@@ -7733,7 +7803,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>54</v>
       </c>
@@ -7741,7 +7811,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
         <v>54</v>
       </c>
@@ -7749,7 +7819,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>54</v>
       </c>
@@ -7757,7 +7827,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>54</v>
       </c>
@@ -7765,7 +7835,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -7773,7 +7843,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>54</v>
       </c>
@@ -7781,7 +7851,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>54</v>
       </c>
@@ -7789,7 +7859,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>54</v>
       </c>
@@ -7797,7 +7867,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>54</v>
       </c>
@@ -7805,7 +7875,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>54</v>
       </c>
@@ -7813,7 +7883,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>54</v>
       </c>
@@ -7821,7 +7891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>54</v>
       </c>
@@ -7829,7 +7899,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>54</v>
       </c>
@@ -7837,7 +7907,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>54</v>
       </c>
@@ -7845,7 +7915,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>54</v>
       </c>
@@ -7853,7 +7923,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>54</v>
       </c>
@@ -7861,7 +7931,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>54</v>
       </c>
@@ -7869,7 +7939,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>54</v>
       </c>
@@ -7877,7 +7947,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -7885,7 +7955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>54</v>
       </c>
@@ -7893,7 +7963,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>54</v>
       </c>
@@ -7901,7 +7971,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>54</v>
       </c>
@@ -7909,7 +7979,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>54</v>
       </c>
@@ -7917,7 +7987,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>54</v>
       </c>
@@ -7925,7 +7995,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>54</v>
       </c>
@@ -7933,7 +8003,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>54</v>
       </c>
@@ -7941,7 +8011,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>54</v>
       </c>
@@ -7949,7 +8019,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>54</v>
       </c>
@@ -7957,7 +8027,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -7965,7 +8035,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -7973,7 +8043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>54</v>
       </c>
@@ -7981,7 +8051,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>54</v>
       </c>
@@ -7989,7 +8059,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>54</v>
       </c>
@@ -7997,7 +8067,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>54</v>
       </c>
@@ -8005,7 +8075,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>54</v>
       </c>
@@ -8013,7 +8083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>54</v>
       </c>
@@ -8021,7 +8091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>54</v>
       </c>
@@ -8029,7 +8099,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>54</v>
       </c>
@@ -8037,7 +8107,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -8045,7 +8115,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -8053,7 +8123,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>54</v>
       </c>
@@ -8061,7 +8131,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>54</v>
       </c>
@@ -8069,7 +8139,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
         <v>54</v>
       </c>
@@ -8077,7 +8147,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
         <v>54</v>
       </c>
@@ -8085,7 +8155,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>54</v>
       </c>
@@ -8093,7 +8163,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>54</v>
       </c>
@@ -8101,7 +8171,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>54</v>
       </c>
@@ -8109,7 +8179,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>54</v>
       </c>
@@ -8117,7 +8187,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>54</v>
       </c>
@@ -8125,7 +8195,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>54</v>
       </c>
@@ -8133,7 +8203,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>54</v>
       </c>
@@ -8141,7 +8211,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>54</v>
       </c>
@@ -8149,7 +8219,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>54</v>
       </c>
@@ -8157,7 +8227,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>54</v>
       </c>
@@ -8165,7 +8235,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
         <v>54</v>
       </c>
@@ -8173,7 +8243,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>54</v>
       </c>
@@ -8181,7 +8251,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>54</v>
       </c>
@@ -8189,7 +8259,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>54</v>
       </c>
@@ -8197,7 +8267,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>54</v>
       </c>
@@ -8205,7 +8275,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>54</v>
       </c>
@@ -8213,7 +8283,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>54</v>
       </c>
@@ -8221,7 +8291,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>54</v>
       </c>
@@ -8229,7 +8299,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>54</v>
       </c>
@@ -8237,7 +8307,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>54</v>
       </c>
@@ -8245,7 +8315,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>54</v>
       </c>
@@ -8253,7 +8323,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>54</v>
       </c>
@@ -8261,7 +8331,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
         <v>54</v>
       </c>
@@ -8269,7 +8339,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>54</v>
       </c>
@@ -8277,7 +8347,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>54</v>
       </c>
@@ -8285,7 +8355,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>54</v>
       </c>
@@ -8293,7 +8363,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C261" t="s">
         <v>54</v>
       </c>
@@ -8301,7 +8371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C262" t="s">
         <v>54</v>
       </c>
@@ -8309,7 +8379,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>54</v>
       </c>
@@ -8317,7 +8387,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C264" t="s">
         <v>54</v>
       </c>
@@ -8325,7 +8395,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C265" t="s">
         <v>54</v>
       </c>
@@ -8333,7 +8403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>54</v>
       </c>
@@ -8341,7 +8411,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>54</v>
       </c>
@@ -8349,7 +8419,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>54</v>
       </c>
@@ -8357,7 +8427,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
         <v>54</v>
       </c>
@@ -8365,7 +8435,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>54</v>
       </c>
@@ -8373,7 +8443,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C271" t="s">
         <v>54</v>
       </c>
@@ -8381,7 +8451,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C272" t="s">
         <v>54</v>
       </c>
@@ -8389,7 +8459,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>54</v>
       </c>
@@ -8397,7 +8467,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>54</v>
       </c>
@@ -8405,7 +8475,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
         <v>54</v>
       </c>
@@ -8413,7 +8483,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>54</v>
       </c>
@@ -8421,7 +8491,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>54</v>
       </c>
@@ -8429,7 +8499,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C278" t="s">
         <v>54</v>
       </c>
@@ -8437,7 +8507,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C279" t="s">
         <v>54</v>
       </c>
@@ -8445,7 +8515,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C280" t="s">
         <v>54</v>
       </c>
@@ -8453,7 +8523,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C281" t="s">
         <v>54</v>
       </c>
@@ -8461,7 +8531,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
         <v>54</v>
       </c>
@@ -8469,7 +8539,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>54</v>
       </c>
@@ -8477,7 +8547,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>54</v>
       </c>
@@ -8485,7 +8555,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C285" t="s">
         <v>54</v>
       </c>
@@ -8493,7 +8563,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C286" t="s">
         <v>54</v>
       </c>
@@ -8501,7 +8571,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>54</v>
       </c>
@@ -8509,7 +8579,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>54</v>
       </c>
@@ -8517,7 +8587,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
         <v>54</v>
       </c>
@@ -8525,7 +8595,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
         <v>54</v>
       </c>
@@ -8533,7 +8603,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>54</v>
       </c>
@@ -8541,7 +8611,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
         <v>54</v>
       </c>
@@ -8549,7 +8619,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C293" t="s">
         <v>54</v>
       </c>
@@ -8557,7 +8627,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
         <v>54</v>
       </c>
@@ -8565,7 +8635,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
         <v>54</v>
       </c>
@@ -8573,7 +8643,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C296" t="s">
         <v>54</v>
       </c>
@@ -8581,7 +8651,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C297" t="s">
         <v>54</v>
       </c>
@@ -8589,7 +8659,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
         <v>54</v>
       </c>
@@ -8597,7 +8667,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
         <v>54</v>
       </c>
@@ -8605,7 +8675,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
         <v>54</v>
       </c>
@@ -8613,7 +8683,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
         <v>54</v>
       </c>
@@ -8621,7 +8691,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
         <v>54</v>
       </c>
@@ -8629,7 +8699,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
         <v>54</v>
       </c>
@@ -8637,7 +8707,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
         <v>54</v>
       </c>
@@ -8645,7 +8715,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
         <v>54</v>
       </c>
@@ -8653,7 +8723,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C306" t="s">
         <v>54</v>
       </c>
@@ -8661,7 +8731,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
         <v>54</v>
       </c>
@@ -8669,7 +8739,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
         <v>54</v>
       </c>
@@ -8677,7 +8747,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>54</v>
       </c>
@@ -8685,7 +8755,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>54</v>
       </c>
@@ -8693,7 +8763,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
         <v>54</v>
       </c>
@@ -8701,7 +8771,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
         <v>54</v>
       </c>
@@ -8709,7 +8779,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
         <v>54</v>
       </c>
@@ -8717,7 +8787,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
         <v>54</v>
       </c>
@@ -8725,7 +8795,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
         <v>54</v>
       </c>
@@ -8733,7 +8803,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
         <v>54</v>
       </c>
@@ -8741,7 +8811,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C317" t="s">
         <v>54</v>
       </c>
@@ -8749,7 +8819,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C318" t="s">
         <v>54</v>
       </c>
@@ -8757,7 +8827,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C319" t="s">
         <v>54</v>
       </c>
@@ -8765,7 +8835,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C320" t="s">
         <v>54</v>
       </c>
@@ -8773,7 +8843,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C321" t="s">
         <v>54</v>
       </c>
@@ -8781,7 +8851,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
         <v>54</v>
       </c>
@@ -8789,7 +8859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C323" t="s">
         <v>54</v>
       </c>
@@ -8797,7 +8867,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
         <v>54</v>
       </c>
@@ -8805,7 +8875,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
         <v>54</v>
       </c>
@@ -8813,7 +8883,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
         <v>54</v>
       </c>
@@ -8821,7 +8891,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
         <v>54</v>
       </c>
@@ -8829,7 +8899,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C328" t="s">
         <v>54</v>
       </c>
@@ -8837,7 +8907,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C329" t="s">
         <v>54</v>
       </c>
@@ -8845,7 +8915,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C330" t="s">
         <v>54</v>
       </c>
@@ -8853,7 +8923,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
         <v>54</v>
       </c>
@@ -8861,7 +8931,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C332" t="s">
         <v>54</v>
       </c>
@@ -8869,7 +8939,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
         <v>54</v>
       </c>
@@ -8877,7 +8947,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
         <v>54</v>
       </c>
@@ -8885,7 +8955,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C335" t="s">
         <v>54</v>
       </c>
@@ -8893,7 +8963,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C336" t="s">
         <v>54</v>
       </c>
@@ -8901,7 +8971,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C337" t="s">
         <v>54</v>
       </c>
@@ -8909,7 +8979,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C338" t="s">
         <v>54</v>
       </c>
@@ -8917,7 +8987,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
         <v>54</v>
       </c>
@@ -8925,7 +8995,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>54</v>
       </c>
@@ -8933,7 +9003,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C341" t="s">
         <v>54</v>
       </c>
@@ -8941,7 +9011,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
         <v>54</v>
       </c>
@@ -8949,7 +9019,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C343" t="s">
         <v>54</v>
       </c>
@@ -8957,7 +9027,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
         <v>54</v>
       </c>
@@ -8965,7 +9035,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>54</v>
       </c>
@@ -8973,7 +9043,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>54</v>
       </c>
@@ -8981,7 +9051,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C347" t="s">
         <v>54</v>
       </c>
@@ -8989,7 +9059,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C348" t="s">
         <v>54</v>
       </c>
@@ -8997,7 +9067,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -9005,7 +9075,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C350" t="s">
         <v>54</v>
       </c>
@@ -9013,7 +9083,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C351" t="s">
         <v>54</v>
       </c>
@@ -9021,7 +9091,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C352" t="s">
         <v>54</v>
       </c>
@@ -9029,7 +9099,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
         <v>54</v>
       </c>
@@ -9037,7 +9107,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C354" t="s">
         <v>54</v>
       </c>
@@ -9045,7 +9115,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C355" t="s">
         <v>54</v>
       </c>
@@ -9053,7 +9123,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C356" t="s">
         <v>54</v>
       </c>
@@ -9061,7 +9131,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C357" t="s">
         <v>54</v>
       </c>
@@ -9069,7 +9139,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
         <v>54</v>
       </c>
@@ -9077,7 +9147,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C359" t="s">
         <v>54</v>
       </c>
@@ -9085,7 +9155,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C360" t="s">
         <v>54</v>
       </c>
@@ -9093,7 +9163,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C361" t="s">
         <v>54</v>
       </c>
@@ -9101,7 +9171,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C362" t="s">
         <v>54</v>
       </c>
@@ -9109,7 +9179,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C363" t="s">
         <v>54</v>
       </c>
@@ -9117,7 +9187,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
         <v>54</v>
       </c>
@@ -9125,7 +9195,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
         <v>54</v>
       </c>
@@ -9133,7 +9203,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>54</v>
       </c>
@@ -9141,7 +9211,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C367" t="s">
         <v>54</v>
       </c>
@@ -9149,7 +9219,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>54</v>
       </c>
@@ -9157,7 +9227,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
         <v>54</v>
       </c>
@@ -9165,7 +9235,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
         <v>54</v>
       </c>
@@ -9173,7 +9243,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
         <v>54</v>
       </c>
@@ -9181,7 +9251,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>54</v>
       </c>
@@ -9189,7 +9259,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C373" t="s">
         <v>54</v>
       </c>
@@ -9197,7 +9267,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C374" t="s">
         <v>54</v>
       </c>
@@ -9205,7 +9275,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
         <v>54</v>
       </c>
@@ -9213,7 +9283,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>54</v>
       </c>
@@ -9221,157 +9291,157 @@
         <v>425</v>
       </c>
     </row>
-    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048550" t="e" cm="1">
         <f t="array" ref="XFD1048550">solver_pre</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048551" t="e" cm="1">
         <f t="array" ref="XFD1048551">solver_scl</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048552" t="e" cm="1">
         <f t="array" ref="XFD1048552">solver_rlx</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048553" t="e" cm="1">
         <f t="array" ref="XFD1048553">solver_tol</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048554" t="e" cm="1">
         <f t="array" ref="XFD1048554">solver_cvg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048555" t="e" cm="1">
         <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048556" t="e" cm="1">
         <f t="array" ref="XFD1048556">solver_ssz</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048557" t="e" cm="1">
         <f t="array" ref="XFD1048557">solver_rsd</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048558" t="e" cm="1">
         <f t="array" ref="XFD1048558">solver_mrt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048559" t="e" cm="1">
         <f t="array" ref="XFD1048559">solver_mni</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048560" t="e" cm="1">
         <f t="array" ref="XFD1048560">solver_rbv</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048561" t="e" cm="1">
         <f t="array" ref="XFD1048561">solver_neg</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048562" t="e" cm="1">
         <f t="array" ref="XFD1048562">solver_ntr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048563" t="e" cm="1">
         <f t="array" ref="XFD1048563">solver_acc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048564" t="e" cm="1">
         <f t="array" ref="XFD1048564">solver_res</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048565" t="e" cm="1">
         <f t="array" ref="XFD1048565">solver_ars</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048566" t="e" cm="1">
         <f t="array" ref="XFD1048566">solver_sta</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048567" t="e" cm="1">
         <f t="array" ref="XFD1048567">solver_met</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048568" t="e" cm="1">
         <f t="array" ref="XFD1048568">solver_soc</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048569" t="e" cm="1">
         <f t="array" ref="XFD1048569">solver_lpt</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048570" t="e" cm="1">
         <f t="array" ref="XFD1048570">solver_lpp</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048571" t="e" cm="1">
         <f t="array" ref="XFD1048571">solver_gap</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048572" t="e" cm="1">
         <f t="array" ref="XFD1048572">solver_ips</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048573" t="e" cm="1">
         <f t="array" ref="XFD1048573">solver_fea</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048574" t="e" cm="1">
         <f t="array" ref="XFD1048574">solver_ipi</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048575" t="e" cm="1">
         <f t="array" ref="XFD1048575">solver_ipd</f>
         <v>#NAME?</v>

--- a/XLS-CSV/MM_MarginCalculator_v2.xlsx
+++ b/XLS-CSV/MM_MarginCalculator_v2.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FOREX Müşteri" sheetId="1" r:id="rId1"/>
     <sheet name="FOREX ORTAK" sheetId="5" r:id="rId2"/>
-    <sheet name="Rabia Çakmak (ÖNCE BUNU GİR)" sheetId="3" r:id="rId3"/>
-    <sheet name="Can Aksoy" sheetId="2" r:id="rId4"/>
-    <sheet name="Ferah Ünlü" sheetId="7" r:id="rId5"/>
-    <sheet name="Market Data" sheetId="4" r:id="rId6"/>
+    <sheet name="Rabia Çakmak P2" sheetId="8" r:id="rId3"/>
+    <sheet name="Rabia Çakmak P1" sheetId="3" r:id="rId4"/>
+    <sheet name="Can Aksoy" sheetId="2" r:id="rId5"/>
+    <sheet name="Ferah Ünlü" sheetId="7" r:id="rId6"/>
+    <sheet name="Market Data" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="482">
   <si>
     <t>Equity</t>
   </si>
@@ -1496,6 +1497,18 @@
   </si>
   <si>
     <t>ALIŞ</t>
+  </si>
+  <si>
+    <t>ESKİ FON</t>
+  </si>
+  <si>
+    <t>ESKİ NAKİT</t>
+  </si>
+  <si>
+    <t>ŞİMDİ</t>
+  </si>
+  <si>
+    <t>BAŞLANGIÇTA</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1786,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2018,6 +2031,12 @@
     <xf numFmtId="174" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2030,12 +2049,8 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2548,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -2799,10 +2814,10 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="128" t="s">
+      <c r="I6" s="132" t="s">
         <v>466</v>
       </c>
-      <c r="J6" s="128"/>
+      <c r="J6" s="132"/>
       <c r="L6" s="2"/>
       <c r="M6" s="11" t="s">
         <v>2</v>
@@ -2840,8 +2855,8 @@
       <c r="H7" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
       <c r="L7" s="2"/>
       <c r="M7" s="11" t="s">
         <v>3</v>
@@ -2879,8 +2894,8 @@
       <c r="H8" s="105">
         <v>5</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
       <c r="L8" s="2"/>
       <c r="M8" s="11" t="s">
         <v>4</v>
@@ -4058,14 +4073,14 @@
       <c r="C43" t="s">
         <v>476</v>
       </c>
-      <c r="D43" s="132">
+      <c r="D43" s="128">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E43" s="133">
+      <c r="E43" s="129">
         <f>E44*(1+$D$43)</f>
         <v>18451.8</v>
       </c>
-      <c r="F43" s="133">
+      <c r="F43" s="129">
         <f>F44*(1+$D$43)</f>
         <v>18411.610049999996</v>
       </c>
@@ -4074,10 +4089,10 @@
       <c r="C44" t="s">
         <v>477</v>
       </c>
-      <c r="D44" s="132">
+      <c r="D44" s="128">
         <v>0</v>
       </c>
-      <c r="E44" s="133">
+      <c r="E44" s="129">
         <v>18360</v>
       </c>
       <c r="F44">
@@ -4088,25 +4103,25 @@
       <c r="C45" t="s">
         <v>475</v>
       </c>
-      <c r="D45" s="132">
+      <c r="D45" s="128">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E45" s="133">
+      <c r="E45" s="129">
         <f>E44*(1+$D$45)</f>
         <v>18268.2</v>
       </c>
-      <c r="F45" s="133">
+      <c r="F45" s="129">
         <f>F44*(1+$D$45)</f>
         <v>18228.409949999997</v>
       </c>
       <c r="G45">
         <v>18387</v>
       </c>
-      <c r="H45" s="134">
+      <c r="H45" s="130">
         <f>G45/E44-1</f>
         <v>1.4705882352941124E-3</v>
       </c>
-      <c r="I45" s="135">
+      <c r="I45" s="131">
         <v>11.2</v>
       </c>
     </row>
@@ -4148,7 +4163,7 @@
     <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F1" s="75">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.3">
@@ -4290,7 +4305,7 @@
       <c r="L10" s="88"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="133" t="s">
         <v>438</v>
       </c>
       <c r="G11" s="56" t="s">
@@ -4310,7 +4325,7 @@
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="F12" s="129"/>
+      <c r="F12" s="133"/>
       <c r="G12" s="56" t="s">
         <v>428</v>
       </c>
@@ -4328,7 +4343,7 @@
       </c>
     </row>
     <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="F13" s="129"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="56" t="s">
         <v>429</v>
       </c>
@@ -4355,7 +4370,7 @@
       </c>
     </row>
     <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F14" s="129"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="56" t="s">
         <v>430</v>
       </c>
@@ -4392,7 +4407,7 @@
       <c r="S14" s="90"/>
     </row>
     <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F15" s="129"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="82" t="s">
         <v>431</v>
       </c>
@@ -4553,7 +4568,7 @@
       </c>
     </row>
     <row r="22" spans="6:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="133" t="s">
         <v>444</v>
       </c>
       <c r="G22" s="56" t="s">
@@ -4588,7 +4603,7 @@
       </c>
     </row>
     <row r="23" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F23" s="129"/>
+      <c r="F23" s="133"/>
       <c r="G23" s="56" t="s">
         <v>428</v>
       </c>
@@ -4614,7 +4629,7 @@
       </c>
     </row>
     <row r="24" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F24" s="129"/>
+      <c r="F24" s="133"/>
       <c r="G24" s="56" t="s">
         <v>429</v>
       </c>
@@ -4640,7 +4655,7 @@
       </c>
     </row>
     <row r="25" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F25" s="129"/>
+      <c r="F25" s="133"/>
       <c r="G25" s="56" t="s">
         <v>430</v>
       </c>
@@ -4666,7 +4681,7 @@
       </c>
     </row>
     <row r="26" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F26" s="129"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="56" t="s">
         <v>441</v>
       </c>
@@ -4691,7 +4706,7 @@
       </c>
     </row>
     <row r="27" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="129"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="82" t="s">
         <v>431</v>
       </c>
@@ -4724,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M24"/>
+  <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4743,10 +4758,11 @@
     <col min="10" max="10" width="17.5546875" style="28" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" style="28" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="60"/>
       <c r="C4" s="56"/>
       <c r="D4" s="54"/>
@@ -4761,14 +4777,14 @@
       <c r="I4" s="54"/>
       <c r="J4" s="65">
         <f ca="1">L5</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="K4" s="55"/>
       <c r="L4" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
@@ -4786,23 +4802,23 @@
         <v>44</v>
       </c>
       <c r="J5" s="35">
-        <v>32.729999999999997</v>
+        <v>32.19</v>
       </c>
       <c r="K5" s="55">
         <f>J5</f>
-        <v>32.729999999999997</v>
+        <v>32.19</v>
       </c>
       <c r="L5" s="64">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="130" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="131"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="36"/>
@@ -4814,7 +4830,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
@@ -4828,7 +4844,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
         <v>41</v>
       </c>
@@ -4844,7 +4860,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="40" t="s">
         <v>25</v>
@@ -4878,7 +4894,7 @@
       </c>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="66" t="s">
         <v>29</v>
       </c>
@@ -4892,34 +4908,34 @@
         <v>45358</v>
       </c>
       <c r="F10" s="69">
-        <f t="shared" ref="F10:F15" si="0">C10*D10</f>
+        <f t="shared" ref="F10:F12" si="0">C10*D10</f>
         <v>366415.49439000001</v>
       </c>
       <c r="G10" s="70">
-        <f t="shared" ref="G10:G16" si="1">F10/$F$17</f>
-        <v>0.49951295228196646</v>
+        <f>F10/$F$15</f>
+        <v>0.499512953620047</v>
       </c>
       <c r="H10" s="68">
-        <v>0.18853600000000001</v>
+        <v>0.18869900000000001</v>
       </c>
       <c r="I10" s="64">
-        <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
-        <v>45376</v>
+        <f t="shared" ref="I10:I13" ca="1" si="1">$L$5</f>
+        <v>45377</v>
       </c>
       <c r="J10" s="69">
-        <f t="shared" ref="J10:J15" si="3">C10*H10</f>
-        <v>390318.72789600003</v>
+        <f t="shared" ref="J10:J12" si="2">C10*H10</f>
+        <v>390656.18043900002</v>
       </c>
       <c r="K10" s="69">
-        <f t="shared" ref="K10:K15" si="4">J10-F10</f>
-        <v>23903.233506000019</v>
+        <f t="shared" ref="K10:K14" si="3">J10-F10</f>
+        <v>24240.686049000011</v>
       </c>
       <c r="L10" s="71">
-        <f t="shared" ref="L10:L17" si="5">J10/F10-1</f>
-        <v>6.523532402960619E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L10:L15" si="4">J10/F10-1</f>
+        <v>6.615628001582019E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>30</v>
       </c>
@@ -4937,30 +4953,30 @@
         <v>138783.75917999999</v>
       </c>
       <c r="G11" s="70">
-        <f t="shared" si="1"/>
-        <v>0.18919583461447426</v>
+        <f>F11/$F$15</f>
+        <v>0.18919583512128646</v>
       </c>
       <c r="H11" s="68">
-        <v>3.070805</v>
+        <v>3.0636220000000001</v>
       </c>
       <c r="I11" s="64">
-        <f t="shared" ca="1" si="2"/>
-        <v>45376</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45377</v>
       </c>
       <c r="J11" s="69">
         <f>C11*H11</f>
-        <v>142617.39661500001</v>
+        <v>142283.796546</v>
       </c>
       <c r="K11" s="69">
         <f>J11-F11</f>
-        <v>3833.6374350000115</v>
+        <v>3500.0373660000041</v>
       </c>
       <c r="L11" s="71">
         <f>J11/F11-1</f>
-        <v>2.7623098391706291E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2.5219358422627236E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="66" t="s">
         <v>27</v>
       </c>
@@ -4978,32 +4994,32 @@
         <v>211499.37660000002</v>
       </c>
       <c r="G12" s="70">
-        <f t="shared" si="1"/>
-        <v>0.28832481057368931</v>
+        <f>F12/$F$15</f>
+        <v>0.28832481134604526</v>
       </c>
       <c r="H12" s="68">
-        <v>0.20593400000000001</v>
+        <v>0.204239</v>
       </c>
       <c r="I12" s="64">
-        <f t="shared" ca="1" si="2"/>
-        <v>45376</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45377</v>
       </c>
       <c r="J12" s="69">
+        <f t="shared" si="2"/>
+        <v>216105.28590000002</v>
+      </c>
+      <c r="K12" s="69">
         <f t="shared" si="3"/>
-        <v>217898.7654</v>
-      </c>
-      <c r="K12" s="69">
+        <v>4605.9092999999993</v>
+      </c>
+      <c r="L12" s="71">
         <f t="shared" si="4"/>
-        <v>6399.3887999999861</v>
-      </c>
-      <c r="L12" s="71">
-        <f t="shared" si="5"/>
-        <v>3.0257246630579271E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2.1777413125481537E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="115" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="108" t="s">
-        <v>31</v>
+        <v>478</v>
       </c>
       <c r="C13" s="109">
         <v>2380</v>
@@ -5015,248 +5031,442 @@
         <v>45358</v>
       </c>
       <c r="F13" s="112">
-        <f t="shared" si="0"/>
-        <v>7730.0496000000003</v>
+        <v>12853.09</v>
       </c>
       <c r="G13" s="113">
-        <f t="shared" si="1"/>
-        <v>1.053792745148556E-2</v>
+        <f>F13/$F$15</f>
+        <v>1.7521870792425499E-2</v>
       </c>
       <c r="H13" s="110">
-        <v>3.3456860000000002</v>
+        <v>3.2644000000000002</v>
       </c>
       <c r="I13" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>45376</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45377</v>
       </c>
       <c r="J13" s="112">
+        <v>13136</v>
+      </c>
+      <c r="K13" s="112">
         <f t="shared" si="3"/>
-        <v>7962.7326800000001</v>
-      </c>
-      <c r="K13" s="112">
+        <v>282.90999999999985</v>
+      </c>
+      <c r="L13" s="114">
         <f t="shared" si="4"/>
-        <v>232.68307999999979</v>
-      </c>
-      <c r="L13" s="114">
-        <f t="shared" si="5"/>
-        <v>3.0101110864799496E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="109">
-        <v>715</v>
-      </c>
-      <c r="D14" s="110">
-        <v>7.0558899999999998</v>
-      </c>
-      <c r="E14" s="111">
-        <v>45358</v>
-      </c>
-      <c r="F14" s="112">
-        <f t="shared" si="0"/>
-        <v>5044.9613499999996</v>
-      </c>
-      <c r="G14" s="113">
-        <f t="shared" si="1"/>
-        <v>6.8775026620590688E-3</v>
-      </c>
-      <c r="H14" s="110">
-        <v>7.4649369999999999</v>
-      </c>
-      <c r="I14" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>45376</v>
-      </c>
-      <c r="J14" s="112">
-        <f t="shared" si="3"/>
-        <v>5337.4299549999996</v>
-      </c>
-      <c r="K14" s="112">
-        <f t="shared" si="4"/>
-        <v>292.46860500000003</v>
-      </c>
-      <c r="L14" s="114">
-        <f t="shared" si="5"/>
-        <v>5.7972417370452112E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" s="115" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="109">
-        <v>41</v>
-      </c>
-      <c r="D15" s="110">
-        <v>1.904415</v>
-      </c>
-      <c r="E15" s="111">
-        <v>45358</v>
-      </c>
-      <c r="F15" s="112">
-        <f t="shared" si="0"/>
-        <v>78.081014999999994</v>
-      </c>
-      <c r="G15" s="113">
-        <f t="shared" si="1"/>
-        <v>1.0644331071411956E-4</v>
-      </c>
-      <c r="H15" s="110">
-        <v>1.953886</v>
-      </c>
-      <c r="I15" s="111">
-        <f t="shared" ca="1" si="2"/>
-        <v>45376</v>
-      </c>
-      <c r="J15" s="112">
-        <f t="shared" si="3"/>
-        <v>80.109325999999996</v>
-      </c>
-      <c r="K15" s="112">
-        <f t="shared" si="4"/>
-        <v>2.0283110000000022</v>
-      </c>
-      <c r="L15" s="114">
-        <f t="shared" si="5"/>
-        <v>2.597700606222908E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
+        <v>2.2011049483042555E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="69">
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="69">
         <f>G5</f>
         <v>3993.81</v>
       </c>
-      <c r="G16" s="70">
-        <f t="shared" si="1"/>
-        <v>5.4445291056111128E-3</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="69">
-        <v>3993.81</v>
-      </c>
-      <c r="K16" s="69">
-        <f t="shared" ref="K16" si="6">J16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="71">
-        <f t="shared" ref="L16" si="7">J16/F16-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="97">
-        <f>SUM(F10:F16)</f>
-        <v>733545.5321350001</v>
-      </c>
-      <c r="G17" s="47">
-        <f>SUM(G10:G16)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="97">
-        <f>SUM(J10:J16)</f>
-        <v>768208.97187200014</v>
-      </c>
-      <c r="K17" s="97">
-        <f>SUM(K10:K15)</f>
-        <v>34663.439737000022</v>
-      </c>
-      <c r="L17" s="98">
+      <c r="G14" s="70">
+        <f>F14/$F$15</f>
+        <v>5.4445291201957562E-3</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="69">
+        <v>4863</v>
+      </c>
+      <c r="K14" s="69">
+        <f t="shared" si="3"/>
+        <v>869.19</v>
+      </c>
+      <c r="L14" s="71">
+        <f t="shared" si="4"/>
+        <v>0.21763428906232396</v>
+      </c>
+      <c r="N14" s="136"/>
+    </row>
+    <row r="15" spans="2:14" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="97">
+        <f>SUM(F10:F14)</f>
+        <v>733545.53017000004</v>
+      </c>
+      <c r="G15" s="47">
+        <f>SUM(G10:G14)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="97">
+        <f>SUM(J10:J14)</f>
+        <v>767044.26288500009</v>
+      </c>
+      <c r="K15" s="97">
+        <f>SUM(K10:K13)</f>
+        <v>32629.542715000014</v>
+      </c>
+      <c r="L15" s="98">
+        <f t="shared" si="4"/>
+        <v>4.5666875929619044E-2</v>
+      </c>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:14" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" s="100">
+        <f>F15/F5</f>
+        <v>23069.428227239419</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="100">
+        <f>J15/J5</f>
+        <v>23828.65060220566</v>
+      </c>
+      <c r="K16" s="100">
+        <f>J16-F16</f>
+        <v>759.22237496624075</v>
+      </c>
+      <c r="L16" s="98">
+        <f>J16/F16-1</f>
+        <v>3.2910324759145126E-2</v>
+      </c>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="60"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="51">
+        <f ca="1">$L$5</f>
+        <v>45377</v>
+      </c>
+      <c r="J17" s="52">
+        <f>J15</f>
+        <v>767044.26288500009</v>
+      </c>
+      <c r="K17" s="52">
+        <f>K15</f>
+        <v>32629.542715000014</v>
+      </c>
+      <c r="L17" s="53">
+        <f>K17/J17</f>
+        <v>4.2539321775609228E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="60"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="52">
+        <f>K17*0.07</f>
+        <v>2284.0679900500013</v>
+      </c>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="40" t="str">
+        <f>C9</f>
+        <v>Adet</v>
+      </c>
+      <c r="D21" s="41" t="str">
+        <f t="shared" ref="D21:L21" si="5">D9</f>
+        <v>Alış Fiyatı</v>
+      </c>
+      <c r="E21" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>4.725465321302047E-2</v>
-      </c>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="F18" s="100">
-        <f>F17/F5</f>
-        <v>23069.428289037121</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="100">
-        <f>J17/J5</f>
-        <v>23471.09599364498</v>
-      </c>
-      <c r="K18" s="100">
-        <f>J18-F18</f>
-        <v>401.66770460785847</v>
-      </c>
-      <c r="L18" s="98">
-        <f>J18/F18-1</f>
-        <v>1.7411255258490188E-2</v>
-      </c>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="51">
-        <f ca="1">$L$5</f>
-        <v>45376</v>
-      </c>
-      <c r="J19" s="52">
-        <f>J17</f>
-        <v>768208.97187200014</v>
-      </c>
-      <c r="K19" s="52">
-        <f>K17</f>
-        <v>34663.439737000022</v>
-      </c>
-      <c r="L19" s="53">
-        <f>K19/J19</f>
-        <v>4.5122409404476059E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="52">
-        <f>K19*0.07</f>
-        <v>2426.4407815900017</v>
-      </c>
-      <c r="L20" s="56"/>
+        <v>Alış Tarihi</v>
+      </c>
+      <c r="F21" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>Tutar</v>
+      </c>
+      <c r="G21" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>Ağırlık</v>
+      </c>
+      <c r="H21" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>Bugünkü fiyat</v>
+      </c>
+      <c r="I21" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>Tarih</v>
+      </c>
+      <c r="J21" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>Bugünkü Tutar</v>
+      </c>
+      <c r="K21" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>K/Z</v>
+      </c>
+      <c r="L21" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>K/Z %</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="66" t="str">
+        <f>B10</f>
+        <v>FİB</v>
+      </c>
+      <c r="C22" s="67">
+        <f t="shared" ref="C22:L22" si="6">C10</f>
+        <v>2070261</v>
+      </c>
+      <c r="D22" s="68">
+        <f t="shared" si="6"/>
+        <v>0.17699000000000001</v>
+      </c>
+      <c r="E22" s="64">
+        <f t="shared" si="6"/>
+        <v>45358</v>
+      </c>
+      <c r="F22" s="69">
+        <f t="shared" si="6"/>
+        <v>366415.49439000001</v>
+      </c>
+      <c r="G22" s="70">
+        <f t="shared" si="6"/>
+        <v>0.499512953620047</v>
+      </c>
+      <c r="H22" s="68">
+        <f t="shared" si="6"/>
+        <v>0.18869900000000001</v>
+      </c>
+      <c r="I22" s="64">
+        <f t="shared" ca="1" si="6"/>
+        <v>45377</v>
+      </c>
+      <c r="J22" s="69">
+        <f t="shared" si="6"/>
+        <v>390656.18043900002</v>
+      </c>
+      <c r="K22" s="69">
+        <f t="shared" si="6"/>
+        <v>24240.686049000011</v>
+      </c>
+      <c r="L22" s="71">
+        <f t="shared" si="6"/>
+        <v>6.615628001582019E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="66" t="str">
+        <f t="shared" ref="B23:L24" si="7">B11</f>
+        <v>GTY</v>
+      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="7"/>
+        <v>46443</v>
+      </c>
+      <c r="D23" s="68">
+        <f t="shared" si="7"/>
+        <v>2.9882599999999999</v>
+      </c>
+      <c r="E23" s="64">
+        <f t="shared" si="7"/>
+        <v>45358</v>
+      </c>
+      <c r="F23" s="69">
+        <f t="shared" si="7"/>
+        <v>138783.75917999999</v>
+      </c>
+      <c r="G23" s="70">
+        <f t="shared" si="7"/>
+        <v>0.18919583512128646</v>
+      </c>
+      <c r="H23" s="68">
+        <f t="shared" si="7"/>
+        <v>3.0636220000000001</v>
+      </c>
+      <c r="I23" s="64">
+        <f t="shared" ca="1" si="7"/>
+        <v>45377</v>
+      </c>
+      <c r="J23" s="69">
+        <f t="shared" si="7"/>
+        <v>142283.796546</v>
+      </c>
+      <c r="K23" s="69">
+        <f t="shared" si="7"/>
+        <v>3500.0373660000041</v>
+      </c>
+      <c r="L23" s="71">
+        <f t="shared" si="7"/>
+        <v>2.5219358422627236E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G24" s="73"/>
+      <c r="B24" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v>DBH</v>
+      </c>
+      <c r="C24" s="67">
+        <f t="shared" si="7"/>
+        <v>1058100</v>
+      </c>
+      <c r="D24" s="68">
+        <f t="shared" si="7"/>
+        <v>0.19988600000000001</v>
+      </c>
+      <c r="E24" s="64">
+        <f t="shared" si="7"/>
+        <v>45358</v>
+      </c>
+      <c r="F24" s="69">
+        <f t="shared" si="7"/>
+        <v>211499.37660000002</v>
+      </c>
+      <c r="G24" s="70">
+        <f t="shared" si="7"/>
+        <v>0.28832481134604526</v>
+      </c>
+      <c r="H24" s="68">
+        <f t="shared" si="7"/>
+        <v>0.204239</v>
+      </c>
+      <c r="I24" s="64">
+        <f t="shared" ca="1" si="7"/>
+        <v>45377</v>
+      </c>
+      <c r="J24" s="69">
+        <f t="shared" si="7"/>
+        <v>216105.28590000002</v>
+      </c>
+      <c r="K24" s="69">
+        <f t="shared" si="7"/>
+        <v>4605.9092999999993</v>
+      </c>
+      <c r="L24" s="71">
+        <f t="shared" si="7"/>
+        <v>2.1777413125481537E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="108" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="112">
+        <f>F13+F14</f>
+        <v>16846.900000000001</v>
+      </c>
+      <c r="G25" s="113"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112">
+        <f>J13+J14</f>
+        <v>17999</v>
+      </c>
+      <c r="K25" s="112">
+        <f>J25-F25</f>
+        <v>1152.0999999999985</v>
+      </c>
+      <c r="L25" s="114">
+        <f t="shared" ref="L25:L26" si="8">J25/F25-1</f>
+        <v>6.8386468727184235E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="F26" s="97">
+        <f>F15</f>
+        <v>733545.53017000004</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="J26" s="97">
+        <f>J15</f>
+        <v>767044.26288500009</v>
+      </c>
+      <c r="K26" s="97">
+        <f>J26-F26</f>
+        <v>33498.732715000049</v>
+      </c>
+      <c r="L26" s="98">
+        <f t="shared" si="8"/>
+        <v>4.5666875929619044E-2</v>
+      </c>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35" t="str">
+        <f>E16</f>
+        <v>Dengi USD</v>
+      </c>
+      <c r="F27" s="100">
+        <f>F16</f>
+        <v>23069.428227239419</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48" t="str">
+        <f>E27</f>
+        <v>Dengi USD</v>
+      </c>
+      <c r="J27" s="100">
+        <f>J16</f>
+        <v>23828.65060220566</v>
+      </c>
+      <c r="K27" s="100">
+        <f>K16</f>
+        <v>759.22237496624075</v>
+      </c>
+      <c r="L27" s="98">
+        <f>L16</f>
+        <v>3.2910324759145126E-2</v>
+      </c>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J28" s="48" t="str">
+        <f>H18</f>
+        <v>KOMİSYON (%7)</v>
+      </c>
+      <c r="K28" s="137">
+        <f t="shared" ref="I28:K28" si="9">K18</f>
+        <v>2284.0679900500013</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5269,10 +5479,560 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="60"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="64">
+        <v>45358</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="65">
+        <f ca="1">L5</f>
+        <v>45377</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="35">
+        <v>31.7973</v>
+      </c>
+      <c r="G5" s="69">
+        <v>3993.81</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="35">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="K5" s="55">
+        <f>J5</f>
+        <v>32.729999999999997</v>
+      </c>
+      <c r="L5" s="64">
+        <f ca="1">TODAY()</f>
+        <v>45377</v>
+      </c>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="135"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="2:15" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="67">
+        <v>2070261</v>
+      </c>
+      <c r="D10" s="68">
+        <v>0.17699000000000001</v>
+      </c>
+      <c r="E10" s="64">
+        <v>45358</v>
+      </c>
+      <c r="F10" s="69">
+        <f t="shared" ref="F10:F15" si="0">C10*D10</f>
+        <v>366415.49439000001</v>
+      </c>
+      <c r="G10" s="70">
+        <f t="shared" ref="G10:G16" si="1">F10/$F$17</f>
+        <v>0.49951295228196646</v>
+      </c>
+      <c r="H10" s="68">
+        <v>0.18869900000000001</v>
+      </c>
+      <c r="I10" s="64">
+        <f t="shared" ref="I10:I15" ca="1" si="2">$L$5</f>
+        <v>45377</v>
+      </c>
+      <c r="J10" s="69">
+        <f t="shared" ref="J10:J15" si="3">C10*H10</f>
+        <v>390656.18043900002</v>
+      </c>
+      <c r="K10" s="69">
+        <f t="shared" ref="K10:K15" si="4">J10-F10</f>
+        <v>24240.686049000011</v>
+      </c>
+      <c r="L10" s="71">
+        <f t="shared" ref="L10:L17" si="5">J10/F10-1</f>
+        <v>6.615628001582019E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="67">
+        <v>46443</v>
+      </c>
+      <c r="D11" s="68">
+        <v>2.9882599999999999</v>
+      </c>
+      <c r="E11" s="64">
+        <v>45358</v>
+      </c>
+      <c r="F11" s="69">
+        <f>C11*D11</f>
+        <v>138783.75917999999</v>
+      </c>
+      <c r="G11" s="70">
+        <f t="shared" si="1"/>
+        <v>0.18919583461447426</v>
+      </c>
+      <c r="H11" s="68">
+        <v>3.0636220000000001</v>
+      </c>
+      <c r="I11" s="64">
+        <f t="shared" ca="1" si="2"/>
+        <v>45377</v>
+      </c>
+      <c r="J11" s="69">
+        <f>C11*H11</f>
+        <v>142283.796546</v>
+      </c>
+      <c r="K11" s="69">
+        <f>J11-F11</f>
+        <v>3500.0373660000041</v>
+      </c>
+      <c r="L11" s="71">
+        <f>J11/F11-1</f>
+        <v>2.5219358422627236E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="67">
+        <v>1058100</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0.19988600000000001</v>
+      </c>
+      <c r="E12" s="64">
+        <v>45358</v>
+      </c>
+      <c r="F12" s="69">
+        <f t="shared" si="0"/>
+        <v>211499.37660000002</v>
+      </c>
+      <c r="G12" s="70">
+        <f t="shared" si="1"/>
+        <v>0.28832481057368931</v>
+      </c>
+      <c r="H12" s="68">
+        <v>0.204239</v>
+      </c>
+      <c r="I12" s="64">
+        <f t="shared" ca="1" si="2"/>
+        <v>45377</v>
+      </c>
+      <c r="J12" s="69">
+        <f t="shared" si="3"/>
+        <v>216105.28590000002</v>
+      </c>
+      <c r="K12" s="69">
+        <f t="shared" si="4"/>
+        <v>4605.9092999999993</v>
+      </c>
+      <c r="L12" s="71">
+        <f t="shared" si="5"/>
+        <v>2.1777413125481537E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="109">
+        <v>2380</v>
+      </c>
+      <c r="D13" s="110">
+        <v>3.2479200000000001</v>
+      </c>
+      <c r="E13" s="111">
+        <v>45358</v>
+      </c>
+      <c r="F13" s="112">
+        <f t="shared" si="0"/>
+        <v>7730.0496000000003</v>
+      </c>
+      <c r="G13" s="113">
+        <f t="shared" si="1"/>
+        <v>1.053792745148556E-2</v>
+      </c>
+      <c r="H13" s="110">
+        <v>3.2644000000000002</v>
+      </c>
+      <c r="I13" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>45377</v>
+      </c>
+      <c r="J13" s="112">
+        <f t="shared" si="3"/>
+        <v>7769.2720000000008</v>
+      </c>
+      <c r="K13" s="112">
+        <f t="shared" si="4"/>
+        <v>39.222400000000562</v>
+      </c>
+      <c r="L13" s="114">
+        <f t="shared" si="5"/>
+        <v>5.0740166013942822E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="109">
+        <v>715</v>
+      </c>
+      <c r="D14" s="110">
+        <v>7.0558899999999998</v>
+      </c>
+      <c r="E14" s="111">
+        <v>45358</v>
+      </c>
+      <c r="F14" s="112">
+        <f t="shared" si="0"/>
+        <v>5044.9613499999996</v>
+      </c>
+      <c r="G14" s="113">
+        <f t="shared" si="1"/>
+        <v>6.8775026620590688E-3</v>
+      </c>
+      <c r="H14" s="110">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="I14" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>45377</v>
+      </c>
+      <c r="J14" s="112">
+        <f t="shared" si="3"/>
+        <v>5286.71</v>
+      </c>
+      <c r="K14" s="112">
+        <f t="shared" si="4"/>
+        <v>241.74865000000045</v>
+      </c>
+      <c r="L14" s="114">
+        <f t="shared" si="5"/>
+        <v>4.7918830934155832E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="109">
+        <v>41</v>
+      </c>
+      <c r="D15" s="110">
+        <v>1.904415</v>
+      </c>
+      <c r="E15" s="111">
+        <v>45358</v>
+      </c>
+      <c r="F15" s="112">
+        <f t="shared" si="0"/>
+        <v>78.081014999999994</v>
+      </c>
+      <c r="G15" s="113">
+        <f t="shared" si="1"/>
+        <v>1.0644331071411956E-4</v>
+      </c>
+      <c r="H15" s="110">
+        <v>1.964</v>
+      </c>
+      <c r="I15" s="111">
+        <f t="shared" ca="1" si="2"/>
+        <v>45377</v>
+      </c>
+      <c r="J15" s="112">
+        <f t="shared" si="3"/>
+        <v>80.524000000000001</v>
+      </c>
+      <c r="K15" s="112">
+        <f t="shared" si="4"/>
+        <v>2.4429850000000073</v>
+      </c>
+      <c r="L15" s="114">
+        <f t="shared" si="5"/>
+        <v>3.1287823294817718E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="69">
+        <f>G5</f>
+        <v>3993.81</v>
+      </c>
+      <c r="G16" s="70">
+        <f t="shared" si="1"/>
+        <v>5.4445291056111128E-3</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="69">
+        <v>3993.81</v>
+      </c>
+      <c r="K16" s="69">
+        <f t="shared" ref="K16" si="6">J16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="71">
+        <f t="shared" ref="L16" si="7">J16/F16-1</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="136"/>
+      <c r="O16" s="72">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="97">
+        <f>SUM(F10:F16)</f>
+        <v>733545.5321350001</v>
+      </c>
+      <c r="G17" s="47">
+        <f>SUM(G10:G16)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="97">
+        <f>SUM(J10:J16)</f>
+        <v>766175.57888500008</v>
+      </c>
+      <c r="K17" s="97">
+        <f>SUM(K10:K15)</f>
+        <v>32630.046750000016</v>
+      </c>
+      <c r="L17" s="98">
+        <f t="shared" si="5"/>
+        <v>4.4482646707736828E-2</v>
+      </c>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="F18" s="100">
+        <f>F17/F5</f>
+        <v>23069.428289037121</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="100">
+        <f>J17/J5</f>
+        <v>23408.969718454024</v>
+      </c>
+      <c r="K18" s="100">
+        <f>J18-F18</f>
+        <v>339.54142941690225</v>
+      </c>
+      <c r="L18" s="98">
+        <f>J18/F18-1</f>
+        <v>1.4718242045827168E-2</v>
+      </c>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="60"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="51">
+        <f ca="1">$L$5</f>
+        <v>45377</v>
+      </c>
+      <c r="J19" s="52">
+        <f>J17</f>
+        <v>766175.57888500008</v>
+      </c>
+      <c r="K19" s="52">
+        <f>K17</f>
+        <v>32630.046750000016</v>
+      </c>
+      <c r="L19" s="53">
+        <f>K19/J19</f>
+        <v>4.2588210390999234E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="60"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="52">
+        <f>K19*0.07</f>
+        <v>2284.1032725000014</v>
+      </c>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G24" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J13" sqref="J13:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5302,7 +6062,7 @@
       <c r="H4" s="54"/>
       <c r="I4" s="65">
         <f ca="1">K7</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="J4" s="55"/>
     </row>
@@ -5322,17 +6082,17 @@
         <v>44</v>
       </c>
       <c r="I5" s="35">
-        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!J5</f>
+        <f>'Rabia Çakmak P1'!J5</f>
         <v>32.729999999999997</v>
       </c>
       <c r="J5" s="55"/>
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="131"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -5359,7 +6119,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="64">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="L7" s="31"/>
     </row>
@@ -5435,24 +6195,24 @@
         <v>0.5410245403030417</v>
       </c>
       <c r="G10" s="35">
-        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H10</f>
-        <v>0.18853600000000001</v>
+        <f>'Rabia Çakmak P1'!H10</f>
+        <v>0.18869900000000001</v>
       </c>
       <c r="H10" s="38">
         <f t="shared" ref="H10:H15" ca="1" si="2">$K$7</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="I10" s="101">
         <f t="shared" ref="I10:I15" si="3">B10*G10</f>
-        <v>211596.96937600002</v>
+        <v>211779.906884</v>
       </c>
       <c r="J10" s="101">
         <f t="shared" ref="J10:J15" si="4">I10-E10</f>
-        <v>16836.984632000036</v>
+        <v>17019.92214000001</v>
       </c>
       <c r="K10" s="104">
         <f t="shared" ref="K10:K15" si="5">I10/E10-1</f>
-        <v>8.6449917595399439E-2</v>
+        <v>8.7389214793642811E-2</v>
       </c>
       <c r="L10" s="31"/>
     </row>
@@ -5478,24 +6238,24 @@
         <v>0.17590045982923255</v>
       </c>
       <c r="G11" s="35">
-        <f>'Rabia Çakmak (ÖNCE BUNU GİR)'!H11</f>
-        <v>3.070805</v>
+        <f>'Rabia Çakmak P1'!H11</f>
+        <v>3.0636220000